--- a/root/datas/ER.xlsx
+++ b/root/datas/ER.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1455" windowWidth="34155" windowHeight="16440" tabRatio="797" activeTab="2"/>
+    <workbookView xWindow="1125" yWindow="1455" windowWidth="34155" windowHeight="16440" tabRatio="797"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="15" r:id="rId1"/>
@@ -24,12 +24,11 @@
     <definedName name="_xlnm.Print_Area" localSheetId="7">'other (4)'!$A$1:$L$76</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3112" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3106" uniqueCount="585">
   <si>
     <t>カテゴリ</t>
     <phoneticPr fontId="3"/>
@@ -1909,14 +1908,6 @@
   </si>
   <si>
     <t>arrive_city</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>send_address_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>arrive_address_id</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3305,6 +3296,17 @@
   </si>
   <si>
     <t>address_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.1.17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>orders の count, address_id 2つを削除</t>
+    <rPh sb="30" eb="32">
+      <t>サクジョ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3998,140 +4000,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1191">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1168">
     <dxf>
       <fill>
         <patternFill>
@@ -12305,34 +12174,6 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12710,8 +12551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E44"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A6" zoomScale="115" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A6" zoomScale="115" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -12748,10 +12589,10 @@
         <v>43175</v>
       </c>
       <c r="D7" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>394</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -12759,10 +12600,10 @@
         <v>43176</v>
       </c>
       <c r="D8" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>395</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -12770,17 +12611,17 @@
         <v>43178</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="19" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -12788,17 +12629,17 @@
         <v>43185</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="19" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -12806,18 +12647,18 @@
         <v>43186</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="D14" s="20" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="2:5">
@@ -12825,46 +12666,46 @@
         <v>43195</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="C16" s="20"/>
       <c r="D16" s="20" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17" spans="3:5">
       <c r="C17" s="20"/>
       <c r="D17" s="20" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="3:5">
       <c r="C18" s="20"/>
       <c r="D18" s="20" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="19" spans="3:5">
       <c r="C19" s="20"/>
       <c r="D19" s="20" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="20" spans="3:5">
@@ -12872,10 +12713,10 @@
         <v>43196</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="21" spans="3:5">
@@ -12883,19 +12724,19 @@
         <v>43197</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="22" spans="3:5">
       <c r="C22" s="20"/>
       <c r="D22" s="20" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="23" spans="3:5">
@@ -12903,25 +12744,31 @@
         <v>43199</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="24" spans="3:5">
       <c r="C24" s="20"/>
       <c r="D24" s="20" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="25" spans="3:5">
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
+      <c r="C25" s="75">
+        <v>43228</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>583</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="26" spans="3:5">
       <c r="C26" s="19"/>
@@ -13096,10 +12943,10 @@
         <v>59</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F3" s="47"/>
       <c r="G3" s="48"/>
@@ -13420,13 +13267,13 @@
         <v>184</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E16" s="45" t="s">
         <v>174</v>
       </c>
       <c r="F16" s="47" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G16" s="48"/>
       <c r="H16" s="48" t="s">
@@ -13447,13 +13294,13 @@
         <v>184</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E17" s="45" t="s">
         <v>174</v>
       </c>
       <c r="F17" s="47" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G17" s="48"/>
       <c r="H17" s="48" t="s">
@@ -13474,13 +13321,13 @@
         <v>184</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E18" s="45" t="s">
         <v>174</v>
       </c>
       <c r="F18" s="47" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G18" s="48"/>
       <c r="H18" s="48" t="s">
@@ -13501,10 +13348,10 @@
         <v>184</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E19" s="45" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F19" s="47"/>
       <c r="G19" s="48"/>
@@ -13568,13 +13415,13 @@
         <v>198</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E22" s="45" t="s">
         <v>195</v>
       </c>
       <c r="F22" s="47" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G22" s="48"/>
       <c r="H22" s="48" t="s">
@@ -13582,7 +13429,7 @@
       </c>
       <c r="I22" s="48"/>
       <c r="J22" s="49" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="10" customFormat="1" ht="21" customHeight="1">
@@ -13595,13 +13442,13 @@
         <v>198</v>
       </c>
       <c r="D23" s="46" t="s">
+        <v>521</v>
+      </c>
+      <c r="E23" s="45" t="s">
         <v>523</v>
       </c>
-      <c r="E23" s="45" t="s">
-        <v>525</v>
-      </c>
       <c r="F23" s="47" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G23" s="48" t="s">
         <v>5</v>
@@ -13611,7 +13458,7 @@
         <v>5</v>
       </c>
       <c r="J23" s="49" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="10" customFormat="1" ht="21" customHeight="1">
@@ -13624,13 +13471,13 @@
         <v>198</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E24" s="45" t="s">
         <v>195</v>
       </c>
       <c r="F24" s="47" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G24" s="48"/>
       <c r="H24" s="48" t="s">
@@ -13651,13 +13498,13 @@
         <v>198</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E25" s="45" t="s">
         <v>195</v>
       </c>
       <c r="F25" s="47" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G25" s="48"/>
       <c r="H25" s="48" t="s">
@@ -13678,13 +13525,13 @@
         <v>198</v>
       </c>
       <c r="D26" s="46" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E26" s="45" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F26" s="47" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G26" s="48"/>
       <c r="H26" s="48" t="s">
@@ -13705,7 +13552,7 @@
         <v>198</v>
       </c>
       <c r="D27" s="46" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E27" s="45" t="s">
         <v>195</v>
@@ -13730,7 +13577,7 @@
         <v>198</v>
       </c>
       <c r="D28" s="46" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E28" s="45" t="s">
         <v>195</v>
@@ -13757,13 +13604,13 @@
         <v>198</v>
       </c>
       <c r="D29" s="46" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E29" s="45" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F29" s="47" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G29" s="48" t="s">
         <v>5</v>
@@ -13784,13 +13631,13 @@
         <v>198</v>
       </c>
       <c r="D30" s="46" t="s">
+        <v>488</v>
+      </c>
+      <c r="E30" s="45" t="s">
         <v>490</v>
       </c>
-      <c r="E30" s="45" t="s">
+      <c r="F30" s="47" t="s">
         <v>492</v>
-      </c>
-      <c r="F30" s="47" t="s">
-        <v>494</v>
       </c>
       <c r="G30" s="48" t="s">
         <v>5</v>
@@ -13811,13 +13658,13 @@
         <v>198</v>
       </c>
       <c r="D31" s="46" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E31" s="45" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F31" s="47" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G31" s="48" t="s">
         <v>5</v>
@@ -13940,10 +13787,10 @@
         <v>198</v>
       </c>
       <c r="D36" s="46" t="s">
+        <v>365</v>
+      </c>
+      <c r="E36" s="45" t="s">
         <v>367</v>
-      </c>
-      <c r="E36" s="45" t="s">
-        <v>369</v>
       </c>
       <c r="F36" s="47"/>
       <c r="G36" s="48"/>
@@ -13965,10 +13812,10 @@
         <v>198</v>
       </c>
       <c r="D37" s="46" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E37" s="45" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F37" s="47" t="s">
         <v>323</v>
@@ -14112,10 +13959,10 @@
         <v>60</v>
       </c>
       <c r="D44" s="46" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E44" s="45" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F44" s="47"/>
       <c r="G44" s="48"/>
@@ -14135,13 +13982,13 @@
         <v>60</v>
       </c>
       <c r="D45" s="46" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E45" s="45" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F45" s="47" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G45" s="48"/>
       <c r="H45" s="48" t="s">
@@ -14162,13 +14009,13 @@
         <v>60</v>
       </c>
       <c r="D46" s="46" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E46" s="45" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F46" s="47" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G46" s="48" t="s">
         <v>5</v>
@@ -14178,7 +14025,7 @@
       </c>
       <c r="I46" s="48"/>
       <c r="J46" s="49" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="47" spans="1:10" s="10" customFormat="1" ht="21" customHeight="1">
@@ -14276,10 +14123,10 @@
         <v>142</v>
       </c>
       <c r="D51" s="46" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E51" s="45" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F51" s="47"/>
       <c r="G51" s="48"/>
@@ -14309,1212 +14156,1212 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="J41 J52 A52 J46 H11 A4 C4:H4 H14:I14 C11 C13:C14 J32 C46:F46 F52 C48:E49 C39:H41 F49:G49 F48 C32:F32 C37:D37 C16 H46 F51:G51 C51:E52">
-    <cfRule type="expression" dxfId="1186" priority="676">
+    <cfRule type="expression" dxfId="1167" priority="676">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52">
-    <cfRule type="expression" dxfId="1185" priority="517">
+    <cfRule type="expression" dxfId="1166" priority="517">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52">
-    <cfRule type="expression" dxfId="1184" priority="503">
+    <cfRule type="expression" dxfId="1165" priority="503">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="expression" dxfId="1183" priority="523">
+    <cfRule type="expression" dxfId="1164" priority="523">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="expression" dxfId="1182" priority="514">
+    <cfRule type="expression" dxfId="1163" priority="514">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="expression" dxfId="1181" priority="516">
+    <cfRule type="expression" dxfId="1162" priority="516">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="1180" priority="509">
+    <cfRule type="expression" dxfId="1161" priority="509">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="1179" priority="497">
+    <cfRule type="expression" dxfId="1160" priority="497">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="expression" dxfId="1178" priority="508">
+    <cfRule type="expression" dxfId="1159" priority="508">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46">
-    <cfRule type="expression" dxfId="1177" priority="505">
+    <cfRule type="expression" dxfId="1158" priority="505">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J51">
-    <cfRule type="expression" dxfId="1176" priority="449">
+    <cfRule type="expression" dxfId="1157" priority="449">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:G5 J5">
-    <cfRule type="expression" dxfId="1175" priority="475">
+    <cfRule type="expression" dxfId="1156" priority="475">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="1174" priority="474">
+    <cfRule type="expression" dxfId="1155" priority="474">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="1173" priority="473">
+    <cfRule type="expression" dxfId="1154" priority="473">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="1172" priority="471">
+    <cfRule type="expression" dxfId="1153" priority="471">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="expression" dxfId="1171" priority="448">
+    <cfRule type="expression" dxfId="1152" priority="448">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51">
-    <cfRule type="expression" dxfId="1170" priority="447">
+    <cfRule type="expression" dxfId="1151" priority="447">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="expression" dxfId="1169" priority="446">
+    <cfRule type="expression" dxfId="1150" priority="446">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51">
-    <cfRule type="expression" dxfId="1168" priority="445">
+    <cfRule type="expression" dxfId="1149" priority="445">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40">
-    <cfRule type="expression" dxfId="1167" priority="423">
+    <cfRule type="expression" dxfId="1148" priority="423">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39">
-    <cfRule type="expression" dxfId="1166" priority="429">
+    <cfRule type="expression" dxfId="1147" priority="429">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39">
-    <cfRule type="expression" dxfId="1165" priority="428">
+    <cfRule type="expression" dxfId="1146" priority="428">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="expression" dxfId="1164" priority="426">
+    <cfRule type="expression" dxfId="1145" priority="426">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39">
-    <cfRule type="expression" dxfId="1163" priority="425">
+    <cfRule type="expression" dxfId="1144" priority="425">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40">
-    <cfRule type="expression" dxfId="1162" priority="424">
+    <cfRule type="expression" dxfId="1143" priority="424">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="expression" dxfId="1161" priority="421">
+    <cfRule type="expression" dxfId="1142" priority="421">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40">
-    <cfRule type="expression" dxfId="1160" priority="420">
+    <cfRule type="expression" dxfId="1141" priority="420">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="expression" dxfId="1159" priority="413">
+    <cfRule type="expression" dxfId="1140" priority="413">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="expression" dxfId="1158" priority="400">
+    <cfRule type="expression" dxfId="1139" priority="400">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41">
-    <cfRule type="expression" dxfId="1157" priority="403">
+    <cfRule type="expression" dxfId="1138" priority="403">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="1156" priority="399">
+    <cfRule type="expression" dxfId="1137" priority="399">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="expression" dxfId="1155" priority="397">
+    <cfRule type="expression" dxfId="1136" priority="397">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:G6">
-    <cfRule type="expression" dxfId="1154" priority="402">
+    <cfRule type="expression" dxfId="1135" priority="402">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="expression" dxfId="1153" priority="401">
+    <cfRule type="expression" dxfId="1134" priority="401">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:F13">
-    <cfRule type="expression" dxfId="1152" priority="333">
+    <cfRule type="expression" dxfId="1133" priority="333">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:J4 D11 G11 J11 D14">
-    <cfRule type="expression" dxfId="1151" priority="359">
+    <cfRule type="expression" dxfId="1132" priority="359">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="1150" priority="332">
+    <cfRule type="expression" dxfId="1131" priority="332">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="expression" dxfId="1149" priority="331">
+    <cfRule type="expression" dxfId="1130" priority="331">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="1148" priority="330">
+    <cfRule type="expression" dxfId="1129" priority="330">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16 F16">
-    <cfRule type="expression" dxfId="1147" priority="329">
+    <cfRule type="expression" dxfId="1128" priority="329">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="expression" dxfId="1146" priority="328">
+    <cfRule type="expression" dxfId="1127" priority="328">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="expression" dxfId="1145" priority="304">
+    <cfRule type="expression" dxfId="1126" priority="304">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="expression" dxfId="1144" priority="327">
+    <cfRule type="expression" dxfId="1125" priority="327">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="1143" priority="301">
+    <cfRule type="expression" dxfId="1124" priority="301">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="1142" priority="299">
+    <cfRule type="expression" dxfId="1123" priority="299">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:A9">
-    <cfRule type="expression" dxfId="1141" priority="294">
+    <cfRule type="expression" dxfId="1122" priority="294">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:F11">
-    <cfRule type="expression" dxfId="1140" priority="309">
+    <cfRule type="expression" dxfId="1121" priority="309">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:F14">
-    <cfRule type="expression" dxfId="1139" priority="308">
+    <cfRule type="expression" dxfId="1120" priority="308">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="expression" dxfId="1138" priority="287">
+    <cfRule type="expression" dxfId="1119" priority="287">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="1137" priority="303">
+    <cfRule type="expression" dxfId="1118" priority="303">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="1136" priority="270">
+    <cfRule type="expression" dxfId="1117" priority="270">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:J8 D8:G8">
-    <cfRule type="expression" dxfId="1135" priority="268">
+    <cfRule type="expression" dxfId="1116" priority="268">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="expression" dxfId="1134" priority="263">
+    <cfRule type="expression" dxfId="1115" priority="263">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="expression" dxfId="1133" priority="290">
+    <cfRule type="expression" dxfId="1114" priority="290">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="1132" priority="279">
+    <cfRule type="expression" dxfId="1113" priority="279">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="expression" dxfId="1131" priority="225">
+    <cfRule type="expression" dxfId="1112" priority="225">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="expression" dxfId="1130" priority="249">
+    <cfRule type="expression" dxfId="1111" priority="249">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="expression" dxfId="1129" priority="253">
+    <cfRule type="expression" dxfId="1110" priority="253">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="1128" priority="269">
+    <cfRule type="expression" dxfId="1109" priority="269">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="1127" priority="267">
+    <cfRule type="expression" dxfId="1108" priority="267">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:G9">
-    <cfRule type="expression" dxfId="1126" priority="266">
+    <cfRule type="expression" dxfId="1107" priority="266">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="1125" priority="265">
+    <cfRule type="expression" dxfId="1106" priority="265">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:H7">
-    <cfRule type="expression" dxfId="1124" priority="271">
+    <cfRule type="expression" dxfId="1105" priority="271">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="expression" dxfId="1123" priority="226">
+    <cfRule type="expression" dxfId="1104" priority="226">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J49">
-    <cfRule type="expression" dxfId="1122" priority="236">
+    <cfRule type="expression" dxfId="1103" priority="236">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="1121" priority="264">
+    <cfRule type="expression" dxfId="1102" priority="264">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="expression" dxfId="1120" priority="258">
+    <cfRule type="expression" dxfId="1101" priority="258">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="expression" dxfId="1119" priority="230">
+    <cfRule type="expression" dxfId="1100" priority="230">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="expression" dxfId="1118" priority="228">
+    <cfRule type="expression" dxfId="1099" priority="228">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="expression" dxfId="1117" priority="221">
+    <cfRule type="expression" dxfId="1098" priority="221">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="expression" dxfId="1116" priority="235">
+    <cfRule type="expression" dxfId="1097" priority="235">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49">
-    <cfRule type="expression" dxfId="1115" priority="234">
+    <cfRule type="expression" dxfId="1096" priority="234">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31">
-    <cfRule type="expression" dxfId="1114" priority="247">
+    <cfRule type="expression" dxfId="1095" priority="247">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39">
-    <cfRule type="expression" dxfId="1113" priority="205">
+    <cfRule type="expression" dxfId="1094" priority="205">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31">
-    <cfRule type="expression" dxfId="1112" priority="229">
+    <cfRule type="expression" dxfId="1093" priority="229">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48">
-    <cfRule type="expression" dxfId="1111" priority="203">
+    <cfRule type="expression" dxfId="1092" priority="203">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="1110" priority="204">
+    <cfRule type="expression" dxfId="1091" priority="204">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="expression" dxfId="1109" priority="233">
+    <cfRule type="expression" dxfId="1090" priority="233">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49">
-    <cfRule type="expression" dxfId="1108" priority="232">
+    <cfRule type="expression" dxfId="1089" priority="232">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="expression" dxfId="1107" priority="220">
+    <cfRule type="expression" dxfId="1088" priority="220">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="1106" priority="207">
+    <cfRule type="expression" dxfId="1087" priority="207">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="1105" priority="218">
+    <cfRule type="expression" dxfId="1086" priority="218">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48">
-    <cfRule type="expression" dxfId="1104" priority="192">
+    <cfRule type="expression" dxfId="1085" priority="192">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="expression" dxfId="1103" priority="197">
+    <cfRule type="expression" dxfId="1084" priority="197">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="expression" dxfId="1102" priority="196">
+    <cfRule type="expression" dxfId="1083" priority="196">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="1101" priority="206">
+    <cfRule type="expression" dxfId="1082" priority="206">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48">
-    <cfRule type="expression" dxfId="1100" priority="195">
+    <cfRule type="expression" dxfId="1081" priority="195">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48">
-    <cfRule type="expression" dxfId="1099" priority="194">
+    <cfRule type="expression" dxfId="1080" priority="194">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="expression" dxfId="1098" priority="202">
+    <cfRule type="expression" dxfId="1079" priority="202">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="expression" dxfId="1097" priority="200">
+    <cfRule type="expression" dxfId="1078" priority="200">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="expression" dxfId="1096" priority="182">
+    <cfRule type="expression" dxfId="1077" priority="182">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48">
-    <cfRule type="expression" dxfId="1095" priority="193">
+    <cfRule type="expression" dxfId="1076" priority="193">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="1094" priority="191">
+    <cfRule type="expression" dxfId="1075" priority="191">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:F12 J12">
-    <cfRule type="expression" dxfId="1093" priority="190">
+    <cfRule type="expression" dxfId="1074" priority="190">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="1092" priority="189">
+    <cfRule type="expression" dxfId="1073" priority="189">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="1091" priority="188">
+    <cfRule type="expression" dxfId="1072" priority="188">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="1090" priority="187">
+    <cfRule type="expression" dxfId="1071" priority="187">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="expression" dxfId="1089" priority="185">
+    <cfRule type="expression" dxfId="1070" priority="185">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="expression" dxfId="1088" priority="184">
+    <cfRule type="expression" dxfId="1069" priority="184">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:E32">
-    <cfRule type="expression" dxfId="1087" priority="172">
+    <cfRule type="expression" dxfId="1068" priority="172">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="expression" dxfId="1086" priority="178">
+    <cfRule type="expression" dxfId="1067" priority="178">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:F21">
-    <cfRule type="expression" dxfId="1085" priority="179">
+    <cfRule type="expression" dxfId="1066" priority="179">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="1084" priority="180">
+    <cfRule type="expression" dxfId="1065" priority="180">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="expression" dxfId="1083" priority="176">
+    <cfRule type="expression" dxfId="1064" priority="176">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21">
-    <cfRule type="expression" dxfId="1082" priority="177">
+    <cfRule type="expression" dxfId="1063" priority="177">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="expression" dxfId="1081" priority="175">
+    <cfRule type="expression" dxfId="1062" priority="175">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="expression" dxfId="1080" priority="174">
+    <cfRule type="expression" dxfId="1061" priority="174">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:D31">
-    <cfRule type="expression" dxfId="1079" priority="173">
+    <cfRule type="expression" dxfId="1060" priority="173">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="expression" dxfId="1078" priority="169">
+    <cfRule type="expression" dxfId="1059" priority="169">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="expression" dxfId="1077" priority="168">
+    <cfRule type="expression" dxfId="1058" priority="168">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="expression" dxfId="1076" priority="162">
+    <cfRule type="expression" dxfId="1057" priority="162">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="expression" dxfId="1075" priority="166">
+    <cfRule type="expression" dxfId="1056" priority="166">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27">
-    <cfRule type="expression" dxfId="1074" priority="167">
+    <cfRule type="expression" dxfId="1055" priority="167">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="expression" dxfId="1073" priority="165">
+    <cfRule type="expression" dxfId="1054" priority="165">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:E27">
-    <cfRule type="expression" dxfId="1072" priority="163">
+    <cfRule type="expression" dxfId="1053" priority="163">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:E26">
-    <cfRule type="expression" dxfId="1071" priority="156">
+    <cfRule type="expression" dxfId="1052" priority="156">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="expression" dxfId="1070" priority="161">
+    <cfRule type="expression" dxfId="1051" priority="161">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="expression" dxfId="1069" priority="159">
+    <cfRule type="expression" dxfId="1050" priority="159">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="expression" dxfId="1068" priority="158">
+    <cfRule type="expression" dxfId="1049" priority="158">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:G34">
-    <cfRule type="expression" dxfId="1067" priority="153">
+    <cfRule type="expression" dxfId="1048" priority="153">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="expression" dxfId="1066" priority="150">
+    <cfRule type="expression" dxfId="1047" priority="150">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="expression" dxfId="1065" priority="155">
+    <cfRule type="expression" dxfId="1046" priority="155">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34">
-    <cfRule type="expression" dxfId="1064" priority="152">
+    <cfRule type="expression" dxfId="1045" priority="152">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="expression" dxfId="1063" priority="151">
+    <cfRule type="expression" dxfId="1044" priority="151">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37">
-    <cfRule type="expression" dxfId="1062" priority="147">
+    <cfRule type="expression" dxfId="1043" priority="147">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="expression" dxfId="1061" priority="137">
+    <cfRule type="expression" dxfId="1042" priority="137">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:G33">
-    <cfRule type="expression" dxfId="1060" priority="146">
+    <cfRule type="expression" dxfId="1041" priority="146">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33">
-    <cfRule type="expression" dxfId="1059" priority="145">
+    <cfRule type="expression" dxfId="1040" priority="145">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="expression" dxfId="1058" priority="144">
+    <cfRule type="expression" dxfId="1039" priority="144">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="expression" dxfId="1057" priority="143">
+    <cfRule type="expression" dxfId="1038" priority="143">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:F36">
-    <cfRule type="expression" dxfId="1056" priority="140">
+    <cfRule type="expression" dxfId="1037" priority="140">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36">
-    <cfRule type="expression" dxfId="1055" priority="139">
+    <cfRule type="expression" dxfId="1036" priority="139">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="expression" dxfId="1054" priority="138">
+    <cfRule type="expression" dxfId="1035" priority="138">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36">
-    <cfRule type="expression" dxfId="1053" priority="136">
+    <cfRule type="expression" dxfId="1034" priority="136">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="expression" dxfId="1052" priority="130">
+    <cfRule type="expression" dxfId="1033" priority="130">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:F35">
-    <cfRule type="expression" dxfId="1051" priority="134">
+    <cfRule type="expression" dxfId="1032" priority="134">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35">
-    <cfRule type="expression" dxfId="1050" priority="133">
+    <cfRule type="expression" dxfId="1031" priority="133">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="expression" dxfId="1049" priority="132">
+    <cfRule type="expression" dxfId="1030" priority="132">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="expression" dxfId="1048" priority="131">
+    <cfRule type="expression" dxfId="1029" priority="131">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="expression" dxfId="1047" priority="116">
+    <cfRule type="expression" dxfId="1028" priority="116">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="expression" dxfId="1046" priority="123">
+    <cfRule type="expression" dxfId="1027" priority="123">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="expression" dxfId="1045" priority="124">
+    <cfRule type="expression" dxfId="1026" priority="124">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43">
-    <cfRule type="expression" dxfId="1044" priority="121">
+    <cfRule type="expression" dxfId="1025" priority="121">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43 C43:H43">
-    <cfRule type="expression" dxfId="1043" priority="122">
+    <cfRule type="expression" dxfId="1024" priority="122">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="1042" priority="110">
+    <cfRule type="expression" dxfId="1023" priority="110">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="expression" dxfId="1041" priority="120">
+    <cfRule type="expression" dxfId="1022" priority="120">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="1040" priority="102">
+    <cfRule type="expression" dxfId="1021" priority="102">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="1039" priority="109">
+    <cfRule type="expression" dxfId="1020" priority="109">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="1038" priority="119">
+    <cfRule type="expression" dxfId="1019" priority="119">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:F15">
-    <cfRule type="expression" dxfId="1037" priority="118">
+    <cfRule type="expression" dxfId="1018" priority="118">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="1036" priority="117">
+    <cfRule type="expression" dxfId="1017" priority="117">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="1035" priority="108">
+    <cfRule type="expression" dxfId="1016" priority="108">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="1034" priority="115">
+    <cfRule type="expression" dxfId="1015" priority="115">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="expression" dxfId="1033" priority="114">
+    <cfRule type="expression" dxfId="1014" priority="114">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="expression" dxfId="1032" priority="101">
+    <cfRule type="expression" dxfId="1013" priority="101">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="expression" dxfId="1031" priority="112">
+    <cfRule type="expression" dxfId="1012" priority="112">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="expression" dxfId="1030" priority="111">
+    <cfRule type="expression" dxfId="1011" priority="111">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="1029" priority="89">
+    <cfRule type="expression" dxfId="1010" priority="89">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="expression" dxfId="1028" priority="97">
+    <cfRule type="expression" dxfId="1009" priority="97">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19 F19">
-    <cfRule type="expression" dxfId="1027" priority="107">
+    <cfRule type="expression" dxfId="1008" priority="107">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="expression" dxfId="1026" priority="106">
+    <cfRule type="expression" dxfId="1007" priority="106">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="expression" dxfId="1025" priority="105">
+    <cfRule type="expression" dxfId="1006" priority="105">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="expression" dxfId="1024" priority="81">
+    <cfRule type="expression" dxfId="1005" priority="81">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A19">
-    <cfRule type="expression" dxfId="1023" priority="80">
+    <cfRule type="expression" dxfId="1004" priority="80">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19">
-    <cfRule type="expression" dxfId="1022" priority="92">
+    <cfRule type="expression" dxfId="1003" priority="92">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18">
-    <cfRule type="expression" dxfId="1021" priority="94">
+    <cfRule type="expression" dxfId="1002" priority="94">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="1020" priority="100">
+    <cfRule type="expression" dxfId="1001" priority="100">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="expression" dxfId="1019" priority="93">
+    <cfRule type="expression" dxfId="1000" priority="93">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18 F18">
-    <cfRule type="expression" dxfId="1018" priority="99">
+    <cfRule type="expression" dxfId="999" priority="99">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="expression" dxfId="1017" priority="98">
+    <cfRule type="expression" dxfId="998" priority="98">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="expression" dxfId="1016" priority="87">
+    <cfRule type="expression" dxfId="997" priority="87">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="1015" priority="83">
+    <cfRule type="expression" dxfId="996" priority="83">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="expression" dxfId="1014" priority="86">
+    <cfRule type="expression" dxfId="995" priority="86">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="expression" dxfId="1013" priority="84">
+    <cfRule type="expression" dxfId="994" priority="84">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17 F17">
-    <cfRule type="expression" dxfId="1012" priority="88">
+    <cfRule type="expression" dxfId="993" priority="88">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17">
-    <cfRule type="expression" dxfId="1011" priority="85">
+    <cfRule type="expression" dxfId="992" priority="85">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="expression" dxfId="1010" priority="79">
+    <cfRule type="expression" dxfId="991" priority="79">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:E25">
-    <cfRule type="expression" dxfId="1009" priority="73">
+    <cfRule type="expression" dxfId="990" priority="73">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="expression" dxfId="1008" priority="78">
+    <cfRule type="expression" dxfId="989" priority="78">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="expression" dxfId="1007" priority="76">
+    <cfRule type="expression" dxfId="988" priority="76">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="expression" dxfId="1006" priority="75">
+    <cfRule type="expression" dxfId="987" priority="75">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24">
-    <cfRule type="expression" dxfId="1005" priority="70">
+    <cfRule type="expression" dxfId="986" priority="70">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="expression" dxfId="1004" priority="72">
+    <cfRule type="expression" dxfId="985" priority="72">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:E24">
-    <cfRule type="expression" dxfId="1003" priority="66">
+    <cfRule type="expression" dxfId="984" priority="66">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="expression" dxfId="1002" priority="71">
+    <cfRule type="expression" dxfId="983" priority="71">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="expression" dxfId="1001" priority="69">
+    <cfRule type="expression" dxfId="982" priority="69">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="expression" dxfId="1000" priority="62">
+    <cfRule type="expression" dxfId="981" priority="62">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="expression" dxfId="999" priority="65">
+    <cfRule type="expression" dxfId="980" priority="65">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="expression" dxfId="998" priority="64">
+    <cfRule type="expression" dxfId="979" priority="64">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="expression" dxfId="997" priority="63">
+    <cfRule type="expression" dxfId="978" priority="63">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="expression" dxfId="996" priority="61">
+    <cfRule type="expression" dxfId="977" priority="61">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="expression" dxfId="995" priority="59">
+    <cfRule type="expression" dxfId="976" priority="59">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="expression" dxfId="994" priority="60">
+    <cfRule type="expression" dxfId="975" priority="60">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="expression" dxfId="993" priority="58">
+    <cfRule type="expression" dxfId="974" priority="58">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:D30">
-    <cfRule type="expression" dxfId="992" priority="57">
+    <cfRule type="expression" dxfId="973" priority="57">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="expression" dxfId="991" priority="56">
+    <cfRule type="expression" dxfId="972" priority="56">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
-    <cfRule type="expression" dxfId="990" priority="53">
+    <cfRule type="expression" dxfId="971" priority="53">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="expression" dxfId="989" priority="54">
+    <cfRule type="expression" dxfId="970" priority="54">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="expression" dxfId="988" priority="52">
+    <cfRule type="expression" dxfId="969" priority="52">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="expression" dxfId="987" priority="49">
+    <cfRule type="expression" dxfId="968" priority="49">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="expression" dxfId="986" priority="51">
+    <cfRule type="expression" dxfId="967" priority="51">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:E29">
-    <cfRule type="expression" dxfId="985" priority="50">
+    <cfRule type="expression" dxfId="966" priority="50">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="expression" dxfId="984" priority="42">
+    <cfRule type="expression" dxfId="965" priority="42">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="expression" dxfId="983" priority="46">
+    <cfRule type="expression" dxfId="964" priority="46">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="expression" dxfId="982" priority="47">
+    <cfRule type="expression" dxfId="963" priority="47">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="expression" dxfId="981" priority="45">
+    <cfRule type="expression" dxfId="962" priority="45">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="expression" dxfId="980" priority="44">
+    <cfRule type="expression" dxfId="961" priority="44">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:E28">
-    <cfRule type="expression" dxfId="979" priority="43">
+    <cfRule type="expression" dxfId="960" priority="43">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="expression" dxfId="978" priority="39">
+    <cfRule type="expression" dxfId="959" priority="39">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="expression" dxfId="977" priority="40">
+    <cfRule type="expression" dxfId="958" priority="40">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44 C44:H44">
-    <cfRule type="expression" dxfId="976" priority="38">
+    <cfRule type="expression" dxfId="957" priority="38">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44">
-    <cfRule type="expression" dxfId="975" priority="37">
+    <cfRule type="expression" dxfId="956" priority="37">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="expression" dxfId="974" priority="36">
+    <cfRule type="expression" dxfId="955" priority="36">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45">
-    <cfRule type="expression" dxfId="973" priority="28">
+    <cfRule type="expression" dxfId="954" priority="28">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:H45">
-    <cfRule type="expression" dxfId="972" priority="34">
+    <cfRule type="expression" dxfId="953" priority="34">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45">
-    <cfRule type="expression" dxfId="971" priority="33">
+    <cfRule type="expression" dxfId="952" priority="33">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="expression" dxfId="970" priority="31">
+    <cfRule type="expression" dxfId="951" priority="31">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="expression" dxfId="969" priority="30">
+    <cfRule type="expression" dxfId="950" priority="30">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="expression" dxfId="968" priority="29">
+    <cfRule type="expression" dxfId="949" priority="29">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="expression" dxfId="967" priority="25">
+    <cfRule type="expression" dxfId="948" priority="25">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="expression" dxfId="966" priority="27">
+    <cfRule type="expression" dxfId="947" priority="27">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:E23">
-    <cfRule type="expression" dxfId="965" priority="22">
+    <cfRule type="expression" dxfId="946" priority="22">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="expression" dxfId="964" priority="24">
+    <cfRule type="expression" dxfId="945" priority="24">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="963" priority="21">
+    <cfRule type="expression" dxfId="944" priority="21">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="expression" dxfId="962" priority="18">
+    <cfRule type="expression" dxfId="943" priority="18">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="expression" dxfId="961" priority="20">
+    <cfRule type="expression" dxfId="942" priority="20">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:E22">
-    <cfRule type="expression" dxfId="960" priority="15">
+    <cfRule type="expression" dxfId="941" priority="15">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="expression" dxfId="959" priority="19">
+    <cfRule type="expression" dxfId="940" priority="19">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="expression" dxfId="958" priority="17">
+    <cfRule type="expression" dxfId="939" priority="17">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="expression" dxfId="957" priority="14">
+    <cfRule type="expression" dxfId="938" priority="14">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A37">
-    <cfRule type="expression" dxfId="956" priority="13">
+    <cfRule type="expression" dxfId="937" priority="13">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="expression" dxfId="955" priority="12">
+    <cfRule type="expression" dxfId="936" priority="12">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:G50">
-    <cfRule type="expression" dxfId="954" priority="11">
+    <cfRule type="expression" dxfId="935" priority="11">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50">
-    <cfRule type="expression" dxfId="953" priority="10">
+    <cfRule type="expression" dxfId="934" priority="10">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="expression" dxfId="952" priority="9">
+    <cfRule type="expression" dxfId="933" priority="9">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50">
-    <cfRule type="expression" dxfId="951" priority="8">
+    <cfRule type="expression" dxfId="932" priority="8">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="expression" dxfId="950" priority="7">
+    <cfRule type="expression" dxfId="931" priority="7">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50">
-    <cfRule type="expression" dxfId="949" priority="6">
+    <cfRule type="expression" dxfId="930" priority="6">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="expression" dxfId="948" priority="3">
+    <cfRule type="expression" dxfId="929" priority="3">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="expression" dxfId="947" priority="4">
+    <cfRule type="expression" dxfId="928" priority="4">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3 C3:H3">
-    <cfRule type="expression" dxfId="946" priority="2">
+    <cfRule type="expression" dxfId="927" priority="2">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:J3">
-    <cfRule type="expression" dxfId="945" priority="1">
+    <cfRule type="expression" dxfId="926" priority="1">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15530,7 +15377,7 @@
   </sheetPr>
   <dimension ref="A1:R167"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -15825,7 +15672,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>318</v>
@@ -15975,13 +15822,13 @@
         <v>8</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>578</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>581</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>580</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="3"/>
@@ -16005,13 +15852,13 @@
         <v>9</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="3"/>
@@ -16163,10 +16010,10 @@
         <v>14</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>77</v>
@@ -17455,7 +17302,7 @@
         <v>5</v>
       </c>
       <c r="L79" s="5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="80" spans="1:18" ht="17.25" customHeight="1">
@@ -18791,10 +18638,10 @@
         <v>6</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>77</v>
@@ -18817,10 +18664,10 @@
         <v>7</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>77</v>
@@ -18872,7 +18719,7 @@
         <v>353</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>77</v>
@@ -19429,807 +19276,807 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="F115:H117 F114:L114 F162:H162 F161:L161 F136:H136 F135:L135 C120:L122 C164:L166 C47:D48 L47 B46:D46 B47 B51:D51 C49:C50 A114:C114 A161:C161 A135:C135 A77:L77 A43:L43 A50:B50 A59:L59 A96:C96 B14:C14 A137 A139 A141 A143 A145">
-    <cfRule type="expression" dxfId="944" priority="507">
+    <cfRule type="expression" dxfId="925" priority="507">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I116:I117">
-    <cfRule type="expression" dxfId="943" priority="488">
+    <cfRule type="expression" dxfId="924" priority="488">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120:B122">
-    <cfRule type="expression" dxfId="942" priority="493">
+    <cfRule type="expression" dxfId="923" priority="493">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164:B166">
-    <cfRule type="expression" dxfId="941" priority="484">
+    <cfRule type="expression" dxfId="922" priority="484">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A121 C115:C117">
-    <cfRule type="expression" dxfId="940" priority="496">
+    <cfRule type="expression" dxfId="921" priority="496">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A115:A117 A120 A122 K115 L116:L117">
-    <cfRule type="expression" dxfId="939" priority="495">
+    <cfRule type="expression" dxfId="920" priority="495">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B115 B117">
-    <cfRule type="expression" dxfId="938" priority="494">
+    <cfRule type="expression" dxfId="919" priority="494">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A162 A164 A166 K162">
-    <cfRule type="expression" dxfId="937" priority="486">
+    <cfRule type="expression" dxfId="918" priority="486">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A165">
-    <cfRule type="expression" dxfId="936" priority="487">
+    <cfRule type="expression" dxfId="917" priority="487">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114:E117">
-    <cfRule type="expression" dxfId="935" priority="449">
+    <cfRule type="expression" dxfId="916" priority="449">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D114:D116">
-    <cfRule type="expression" dxfId="934" priority="448">
+    <cfRule type="expression" dxfId="915" priority="448">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A136 J136 A138 A140 A142 A144">
-    <cfRule type="expression" dxfId="933" priority="424">
+    <cfRule type="expression" dxfId="914" priority="424">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D135">
-    <cfRule type="expression" dxfId="932" priority="412">
+    <cfRule type="expression" dxfId="913" priority="412">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J115:J117">
-    <cfRule type="expression" dxfId="931" priority="414">
+    <cfRule type="expression" dxfId="912" priority="414">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I136">
-    <cfRule type="expression" dxfId="930" priority="417">
+    <cfRule type="expression" dxfId="911" priority="417">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135">
-    <cfRule type="expression" dxfId="929" priority="413">
+    <cfRule type="expression" dxfId="910" priority="413">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="expression" dxfId="928" priority="411">
+    <cfRule type="expression" dxfId="909" priority="411">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D136">
-    <cfRule type="expression" dxfId="927" priority="410">
+    <cfRule type="expression" dxfId="908" priority="410">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E161">
-    <cfRule type="expression" dxfId="926" priority="408">
+    <cfRule type="expression" dxfId="907" priority="408">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D161">
-    <cfRule type="expression" dxfId="925" priority="407">
+    <cfRule type="expression" dxfId="906" priority="407">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E162">
-    <cfRule type="expression" dxfId="924" priority="406">
+    <cfRule type="expression" dxfId="905" priority="406">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D162">
-    <cfRule type="expression" dxfId="923" priority="405">
+    <cfRule type="expression" dxfId="904" priority="405">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J162">
-    <cfRule type="expression" dxfId="922" priority="349">
+    <cfRule type="expression" dxfId="903" priority="349">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C162">
-    <cfRule type="expression" dxfId="921" priority="310">
+    <cfRule type="expression" dxfId="902" priority="310">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162">
-    <cfRule type="expression" dxfId="920" priority="309">
+    <cfRule type="expression" dxfId="901" priority="309">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A118">
-    <cfRule type="expression" dxfId="919" priority="249">
+    <cfRule type="expression" dxfId="900" priority="249">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="expression" dxfId="918" priority="247">
+    <cfRule type="expression" dxfId="899" priority="247">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C118">
-    <cfRule type="expression" dxfId="917" priority="245">
+    <cfRule type="expression" dxfId="898" priority="245">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L115">
-    <cfRule type="expression" dxfId="916" priority="237">
+    <cfRule type="expression" dxfId="897" priority="237">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F118:J118 L118">
-    <cfRule type="expression" dxfId="915" priority="250">
+    <cfRule type="expression" dxfId="896" priority="250">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D117">
-    <cfRule type="expression" dxfId="914" priority="243">
+    <cfRule type="expression" dxfId="895" priority="243">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B118">
-    <cfRule type="expression" dxfId="913" priority="248">
+    <cfRule type="expression" dxfId="894" priority="248">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I162">
-    <cfRule type="expression" dxfId="912" priority="236">
+    <cfRule type="expression" dxfId="893" priority="236">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K117">
-    <cfRule type="expression" dxfId="911" priority="241">
+    <cfRule type="expression" dxfId="892" priority="241">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I115">
-    <cfRule type="expression" dxfId="910" priority="238">
+    <cfRule type="expression" dxfId="891" priority="238">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K116">
-    <cfRule type="expression" dxfId="909" priority="242">
+    <cfRule type="expression" dxfId="890" priority="242">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K118">
-    <cfRule type="expression" dxfId="908" priority="240">
+    <cfRule type="expression" dxfId="889" priority="240">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D118">
-    <cfRule type="expression" dxfId="907" priority="246">
+    <cfRule type="expression" dxfId="888" priority="246">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B116">
-    <cfRule type="expression" dxfId="906" priority="244">
+    <cfRule type="expression" dxfId="887" priority="244">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L162">
-    <cfRule type="expression" dxfId="905" priority="235">
+    <cfRule type="expression" dxfId="886" priority="235">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="expression" dxfId="904" priority="230">
+    <cfRule type="expression" dxfId="885" priority="230">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C136">
-    <cfRule type="expression" dxfId="903" priority="231">
+    <cfRule type="expression" dxfId="884" priority="231">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K136">
-    <cfRule type="expression" dxfId="902" priority="227">
+    <cfRule type="expression" dxfId="883" priority="227">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B79:C79 E79:L79">
-    <cfRule type="expression" dxfId="901" priority="191">
+    <cfRule type="expression" dxfId="882" priority="191">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C78:H78">
-    <cfRule type="expression" dxfId="900" priority="186">
+    <cfRule type="expression" dxfId="881" priority="186">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78">
-    <cfRule type="expression" dxfId="899" priority="184">
+    <cfRule type="expression" dxfId="880" priority="184">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I78">
-    <cfRule type="expression" dxfId="898" priority="183">
+    <cfRule type="expression" dxfId="879" priority="183">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:L83 A79:A82">
-    <cfRule type="expression" dxfId="897" priority="202">
+    <cfRule type="expression" dxfId="878" priority="202">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83">
-    <cfRule type="expression" dxfId="896" priority="201">
+    <cfRule type="expression" dxfId="877" priority="201">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81:B83">
-    <cfRule type="expression" dxfId="895" priority="199">
+    <cfRule type="expression" dxfId="876" priority="199">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78 J78:L78">
-    <cfRule type="expression" dxfId="894" priority="185">
+    <cfRule type="expression" dxfId="875" priority="185">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46:H46 E47:J47 E48:L48 C62:L64 A45 A62:A63 B52:L55 A47 A53 A56 E51:L51 F49:L50">
-    <cfRule type="expression" dxfId="893" priority="182">
+    <cfRule type="expression" dxfId="874" priority="182">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64 J46:L46">
-    <cfRule type="expression" dxfId="892" priority="181">
+    <cfRule type="expression" dxfId="873" priority="181">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62:B64">
-    <cfRule type="expression" dxfId="891" priority="179">
+    <cfRule type="expression" dxfId="872" priority="179">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46">
-    <cfRule type="expression" dxfId="890" priority="174">
+    <cfRule type="expression" dxfId="871" priority="174">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B49">
-    <cfRule type="expression" dxfId="889" priority="178">
+    <cfRule type="expression" dxfId="870" priority="178">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K47">
-    <cfRule type="expression" dxfId="888" priority="177">
+    <cfRule type="expression" dxfId="869" priority="177">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60:L60">
-    <cfRule type="expression" dxfId="887" priority="171">
+    <cfRule type="expression" dxfId="868" priority="171">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58:L58">
-    <cfRule type="expression" dxfId="886" priority="172">
+    <cfRule type="expression" dxfId="867" priority="172">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44 J44:L44 A46 A48:A49 A51:A52 A54:A55 A57:A58 A60">
-    <cfRule type="expression" dxfId="885" priority="165">
+    <cfRule type="expression" dxfId="866" priority="165">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:H45">
-    <cfRule type="expression" dxfId="884" priority="170">
+    <cfRule type="expression" dxfId="865" priority="170">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45">
-    <cfRule type="expression" dxfId="883" priority="167">
+    <cfRule type="expression" dxfId="864" priority="167">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="882" priority="164">
+    <cfRule type="expression" dxfId="863" priority="164">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45:L45">
-    <cfRule type="expression" dxfId="881" priority="169">
+    <cfRule type="expression" dxfId="862" priority="169">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="expression" dxfId="880" priority="168">
+    <cfRule type="expression" dxfId="861" priority="168">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44">
-    <cfRule type="expression" dxfId="879" priority="163">
+    <cfRule type="expression" dxfId="860" priority="163">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44:H44">
-    <cfRule type="expression" dxfId="878" priority="166">
+    <cfRule type="expression" dxfId="859" priority="166">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="expression" dxfId="877" priority="150">
+    <cfRule type="expression" dxfId="858" priority="150">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D163">
-    <cfRule type="expression" dxfId="876" priority="149">
+    <cfRule type="expression" dxfId="857" priority="149">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79">
-    <cfRule type="expression" dxfId="875" priority="162">
+    <cfRule type="expression" dxfId="856" priority="162">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="expression" dxfId="874" priority="144">
+    <cfRule type="expression" dxfId="855" priority="144">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F97:H97 F96:L96 C99:L101">
-    <cfRule type="expression" dxfId="873" priority="145">
+    <cfRule type="expression" dxfId="854" priority="145">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="expression" dxfId="872" priority="140">
+    <cfRule type="expression" dxfId="853" priority="140">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97 A99 A101 K97">
-    <cfRule type="expression" dxfId="871" priority="143">
+    <cfRule type="expression" dxfId="852" priority="143">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:B101">
-    <cfRule type="expression" dxfId="870" priority="141">
+    <cfRule type="expression" dxfId="851" priority="141">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J97">
-    <cfRule type="expression" dxfId="869" priority="136">
+    <cfRule type="expression" dxfId="850" priority="136">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96">
-    <cfRule type="expression" dxfId="868" priority="139">
+    <cfRule type="expression" dxfId="849" priority="139">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F163:J163 C163 L163">
-    <cfRule type="expression" dxfId="867" priority="153">
+    <cfRule type="expression" dxfId="848" priority="153">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A163">
-    <cfRule type="expression" dxfId="866" priority="152">
+    <cfRule type="expression" dxfId="847" priority="152">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163">
-    <cfRule type="expression" dxfId="865" priority="151">
+    <cfRule type="expression" dxfId="846" priority="151">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K163">
-    <cfRule type="expression" dxfId="864" priority="148">
+    <cfRule type="expression" dxfId="845" priority="148">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F98:J98 L98">
-    <cfRule type="expression" dxfId="863" priority="131">
+    <cfRule type="expression" dxfId="844" priority="131">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="expression" dxfId="862" priority="110">
+    <cfRule type="expression" dxfId="843" priority="110">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I56">
-    <cfRule type="expression" dxfId="861" priority="120">
+    <cfRule type="expression" dxfId="842" priority="120">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50:E50">
-    <cfRule type="expression" dxfId="860" priority="116">
+    <cfRule type="expression" dxfId="841" priority="116">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K61">
-    <cfRule type="expression" dxfId="859" priority="113">
+    <cfRule type="expression" dxfId="840" priority="113">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B97">
-    <cfRule type="expression" dxfId="858" priority="107">
+    <cfRule type="expression" dxfId="839" priority="107">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B148">
-    <cfRule type="expression" dxfId="857" priority="92">
+    <cfRule type="expression" dxfId="838" priority="92">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L136">
-    <cfRule type="expression" dxfId="856" priority="90">
+    <cfRule type="expression" dxfId="837" priority="90">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D119">
-    <cfRule type="expression" dxfId="855" priority="86">
+    <cfRule type="expression" dxfId="836" priority="86">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D98">
-    <cfRule type="expression" dxfId="854" priority="127">
+    <cfRule type="expression" dxfId="835" priority="127">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="expression" dxfId="853" priority="137">
+    <cfRule type="expression" dxfId="834" priority="137">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="expression" dxfId="852" priority="138">
+    <cfRule type="expression" dxfId="833" priority="138">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I97">
-    <cfRule type="expression" dxfId="851" priority="133">
+    <cfRule type="expression" dxfId="832" priority="133">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L97">
-    <cfRule type="expression" dxfId="850" priority="132">
+    <cfRule type="expression" dxfId="831" priority="132">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B80:C80 E80:L80">
-    <cfRule type="expression" dxfId="849" priority="112">
+    <cfRule type="expression" dxfId="830" priority="112">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:E49">
-    <cfRule type="expression" dxfId="848" priority="117">
+    <cfRule type="expression" dxfId="829" priority="117">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98">
-    <cfRule type="expression" dxfId="847" priority="130">
+    <cfRule type="expression" dxfId="828" priority="130">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C97">
-    <cfRule type="expression" dxfId="846" priority="108">
+    <cfRule type="expression" dxfId="827" priority="108">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="expression" dxfId="845" priority="128">
+    <cfRule type="expression" dxfId="826" priority="128">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K56">
-    <cfRule type="expression" dxfId="844" priority="121">
+    <cfRule type="expression" dxfId="825" priority="121">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K98">
-    <cfRule type="expression" dxfId="843" priority="126">
+    <cfRule type="expression" dxfId="824" priority="126">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L56 B56:D56">
-    <cfRule type="expression" dxfId="842" priority="124">
+    <cfRule type="expression" dxfId="823" priority="124">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56:H56">
-    <cfRule type="expression" dxfId="841" priority="123">
+    <cfRule type="expression" dxfId="822" priority="123">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J56">
-    <cfRule type="expression" dxfId="840" priority="122">
+    <cfRule type="expression" dxfId="821" priority="122">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:L57">
-    <cfRule type="expression" dxfId="839" priority="119">
+    <cfRule type="expression" dxfId="820" priority="119">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61:J61 A61 L61">
-    <cfRule type="expression" dxfId="838" priority="115">
+    <cfRule type="expression" dxfId="819" priority="115">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D80">
-    <cfRule type="expression" dxfId="837" priority="111">
+    <cfRule type="expression" dxfId="818" priority="111">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61">
-    <cfRule type="expression" dxfId="836" priority="114">
+    <cfRule type="expression" dxfId="817" priority="114">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B98">
-    <cfRule type="expression" dxfId="835" priority="109">
+    <cfRule type="expression" dxfId="816" priority="109">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137:D137">
-    <cfRule type="expression" dxfId="834" priority="106">
+    <cfRule type="expression" dxfId="815" priority="106">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138:L139 E137:L137 B141:L142">
-    <cfRule type="expression" dxfId="833" priority="105">
+    <cfRule type="expression" dxfId="814" priority="105">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L144 B144:D144">
-    <cfRule type="expression" dxfId="832" priority="102">
+    <cfRule type="expression" dxfId="813" priority="102">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I144">
-    <cfRule type="expression" dxfId="831" priority="98">
+    <cfRule type="expression" dxfId="812" priority="98">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E144:H144">
-    <cfRule type="expression" dxfId="830" priority="101">
+    <cfRule type="expression" dxfId="811" priority="101">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J144">
-    <cfRule type="expression" dxfId="829" priority="100">
+    <cfRule type="expression" dxfId="810" priority="100">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C145:L145">
-    <cfRule type="expression" dxfId="828" priority="97">
+    <cfRule type="expression" dxfId="809" priority="97">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146 A148">
-    <cfRule type="expression" dxfId="827" priority="93">
+    <cfRule type="expression" dxfId="808" priority="93">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145">
-    <cfRule type="expression" dxfId="826" priority="96">
+    <cfRule type="expression" dxfId="807" priority="96">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C146:L148">
-    <cfRule type="expression" dxfId="825" priority="95">
+    <cfRule type="expression" dxfId="806" priority="95">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A147">
-    <cfRule type="expression" dxfId="824" priority="94">
+    <cfRule type="expression" dxfId="805" priority="94">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K144">
-    <cfRule type="expression" dxfId="823" priority="91">
+    <cfRule type="expression" dxfId="804" priority="91">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119:C119">
-    <cfRule type="expression" dxfId="822" priority="88">
+    <cfRule type="expression" dxfId="803" priority="88">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119 F119:L119">
-    <cfRule type="expression" dxfId="821" priority="89">
+    <cfRule type="expression" dxfId="802" priority="89">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E119">
-    <cfRule type="expression" dxfId="820" priority="87">
+    <cfRule type="expression" dxfId="801" priority="87">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L143 B143:D143">
-    <cfRule type="expression" dxfId="819" priority="84">
+    <cfRule type="expression" dxfId="800" priority="84">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I143">
-    <cfRule type="expression" dxfId="818" priority="81">
+    <cfRule type="expression" dxfId="799" priority="81">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143:H143">
-    <cfRule type="expression" dxfId="817" priority="83">
+    <cfRule type="expression" dxfId="798" priority="83">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J143">
-    <cfRule type="expression" dxfId="816" priority="82">
+    <cfRule type="expression" dxfId="797" priority="82">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K143">
-    <cfRule type="expression" dxfId="815" priority="80">
+    <cfRule type="expression" dxfId="796" priority="80">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:L12 A14 A16 A18 A20 A22 A24 A26">
-    <cfRule type="expression" dxfId="814" priority="78">
+    <cfRule type="expression" dxfId="795" priority="78">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13 J18:L18 A15 A17 A19 A21 A23 J19:J20 L19:L20 A25 A27">
-    <cfRule type="expression" dxfId="813" priority="65">
+    <cfRule type="expression" dxfId="794" priority="65">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:H13">
-    <cfRule type="expression" dxfId="812" priority="70">
+    <cfRule type="expression" dxfId="793" priority="70">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="811" priority="67">
+    <cfRule type="expression" dxfId="792" priority="67">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:I20">
-    <cfRule type="expression" dxfId="810" priority="63">
+    <cfRule type="expression" dxfId="791" priority="63">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:L13">
-    <cfRule type="expression" dxfId="809" priority="69">
+    <cfRule type="expression" dxfId="790" priority="69">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="expression" dxfId="808" priority="68">
+    <cfRule type="expression" dxfId="789" priority="68">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:H18 E19:H20">
-    <cfRule type="expression" dxfId="807" priority="66">
+    <cfRule type="expression" dxfId="788" priority="66">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:C18 B20:C20 C19:C20">
-    <cfRule type="expression" dxfId="806" priority="51">
+    <cfRule type="expression" dxfId="787" priority="51">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:L30 A28:A29">
-    <cfRule type="expression" dxfId="805" priority="50">
+    <cfRule type="expression" dxfId="786" priority="50">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="expression" dxfId="804" priority="49">
+    <cfRule type="expression" dxfId="785" priority="49">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B30">
-    <cfRule type="expression" dxfId="803" priority="48">
+    <cfRule type="expression" dxfId="784" priority="48">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:J14 L14">
-    <cfRule type="expression" dxfId="802" priority="47">
+    <cfRule type="expression" dxfId="783" priority="47">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="801" priority="46">
+    <cfRule type="expression" dxfId="782" priority="46">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="expression" dxfId="800" priority="45">
+    <cfRule type="expression" dxfId="781" priority="45">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="799" priority="44">
+    <cfRule type="expression" dxfId="780" priority="44">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16 B15:D16">
-    <cfRule type="expression" dxfId="798" priority="43">
+    <cfRule type="expression" dxfId="779" priority="43">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:H15 E16:J16">
-    <cfRule type="expression" dxfId="797" priority="42">
+    <cfRule type="expression" dxfId="778" priority="42">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:L15">
-    <cfRule type="expression" dxfId="796" priority="41">
+    <cfRule type="expression" dxfId="777" priority="41">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="795" priority="39">
+    <cfRule type="expression" dxfId="776" priority="39">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="expression" dxfId="794" priority="40">
+    <cfRule type="expression" dxfId="775" priority="40">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:D17">
-    <cfRule type="expression" dxfId="793" priority="38">
+    <cfRule type="expression" dxfId="774" priority="38">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:L17">
-    <cfRule type="expression" dxfId="792" priority="37">
+    <cfRule type="expression" dxfId="773" priority="37">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B140:L140">
-    <cfRule type="expression" dxfId="791" priority="36">
+    <cfRule type="expression" dxfId="772" priority="36">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="786" priority="29">
+    <cfRule type="expression" dxfId="771" priority="29">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:L27">
-    <cfRule type="expression" dxfId="785" priority="19">
+    <cfRule type="expression" dxfId="770" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:L26">
-    <cfRule type="expression" dxfId="784" priority="17">
+    <cfRule type="expression" dxfId="769" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:L25">
-    <cfRule type="expression" dxfId="783" priority="16">
+    <cfRule type="expression" dxfId="768" priority="16">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:D20">
-    <cfRule type="expression" dxfId="770" priority="3">
+    <cfRule type="expression" dxfId="767" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="expression" dxfId="769" priority="2">
+    <cfRule type="expression" dxfId="766" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19">
-    <cfRule type="expression" dxfId="768" priority="1">
+    <cfRule type="expression" dxfId="765" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22732,10 +22579,10 @@
         <v>3</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>77</v>
@@ -22764,10 +22611,10 @@
         <v>4</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>77</v>
@@ -22796,10 +22643,10 @@
         <v>5</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>77</v>
@@ -22828,10 +22675,10 @@
         <v>6</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>108</v>
@@ -22858,10 +22705,10 @@
         <v>7</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>108</v>
@@ -22888,13 +22735,13 @@
         <v>8</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E118" s="5">
         <v>1</v>
@@ -22925,10 +22772,10 @@
         <v>257</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E119" s="5"/>
       <c r="F119" s="3"/>
@@ -22952,10 +22799,10 @@
         <v>10</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>108</v>
@@ -23304,10 +23151,10 @@
         <v>2</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>77</v>
@@ -23338,10 +23185,10 @@
         <v>3</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>77</v>
@@ -23370,16 +23217,16 @@
         <v>4</v>
       </c>
       <c r="B139" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="D139" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="C139" s="5" t="s">
+      <c r="E139" s="5" t="s">
         <v>450</v>
-      </c>
-      <c r="D139" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="E139" s="5" t="s">
-        <v>452</v>
       </c>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
@@ -23744,10 +23591,10 @@
         <v>2</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D157" s="5" t="s">
         <v>77</v>
@@ -24220,10 +24067,10 @@
         <v>3</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D178" s="5" t="s">
         <v>77</v>
@@ -24252,13 +24099,13 @@
         <v>4</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E179" s="5">
         <v>1</v>
@@ -24346,762 +24193,762 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B54:E54 B56:L56 F54:L55">
-    <cfRule type="expression" dxfId="767" priority="709">
+    <cfRule type="expression" dxfId="764" priority="709">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:C17">
-    <cfRule type="expression" dxfId="766" priority="407">
+    <cfRule type="expression" dxfId="763" priority="407">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:L17 C18:L20 A17:A19">
-    <cfRule type="expression" dxfId="765" priority="414">
+    <cfRule type="expression" dxfId="762" priority="414">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="expression" dxfId="764" priority="413">
+    <cfRule type="expression" dxfId="761" priority="413">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:B20">
-    <cfRule type="expression" dxfId="763" priority="412">
+    <cfRule type="expression" dxfId="760" priority="412">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="expression" dxfId="762" priority="271">
+    <cfRule type="expression" dxfId="759" priority="271">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:A58">
-    <cfRule type="expression" dxfId="761" priority="282">
+    <cfRule type="expression" dxfId="758" priority="282">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J53:L53 D53">
-    <cfRule type="expression" dxfId="760" priority="281">
+    <cfRule type="expression" dxfId="757" priority="281">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52 D52:L52 E53:H53 C57:L59 A54">
-    <cfRule type="expression" dxfId="759" priority="280">
+    <cfRule type="expression" dxfId="756" priority="280">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:B59">
-    <cfRule type="expression" dxfId="758" priority="278">
+    <cfRule type="expression" dxfId="755" priority="278">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53 A59 A55:A56">
-    <cfRule type="expression" dxfId="757" priority="279">
+    <cfRule type="expression" dxfId="754" priority="279">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:C52">
-    <cfRule type="expression" dxfId="756" priority="277">
+    <cfRule type="expression" dxfId="753" priority="277">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="755" priority="276">
+    <cfRule type="expression" dxfId="752" priority="276">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="754" priority="275">
+    <cfRule type="expression" dxfId="751" priority="275">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="expression" dxfId="753" priority="274">
+    <cfRule type="expression" dxfId="750" priority="274">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="expression" dxfId="752" priority="272">
+    <cfRule type="expression" dxfId="749" priority="272">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="expression" dxfId="751" priority="270">
+    <cfRule type="expression" dxfId="748" priority="270">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53">
-    <cfRule type="expression" dxfId="750" priority="267">
+    <cfRule type="expression" dxfId="747" priority="267">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A180:A181">
-    <cfRule type="expression" dxfId="749" priority="252">
+    <cfRule type="expression" dxfId="746" priority="252">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A176 D176:L176 C180:L182 A178:A179 E177:H178">
-    <cfRule type="expression" dxfId="748" priority="250">
+    <cfRule type="expression" dxfId="745" priority="250">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J177:L177 G179:L179 D177:D178 J178 L178">
-    <cfRule type="expression" dxfId="747" priority="251">
+    <cfRule type="expression" dxfId="744" priority="251">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A177 A182">
-    <cfRule type="expression" dxfId="746" priority="249">
+    <cfRule type="expression" dxfId="743" priority="249">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B180:B182">
-    <cfRule type="expression" dxfId="745" priority="248">
+    <cfRule type="expression" dxfId="742" priority="248">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F179">
-    <cfRule type="expression" dxfId="744" priority="243">
+    <cfRule type="expression" dxfId="741" priority="243">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B176:C176">
-    <cfRule type="expression" dxfId="743" priority="247">
+    <cfRule type="expression" dxfId="740" priority="247">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E179">
-    <cfRule type="expression" dxfId="742" priority="241">
+    <cfRule type="expression" dxfId="739" priority="241">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I177:I178">
-    <cfRule type="expression" dxfId="741" priority="239">
+    <cfRule type="expression" dxfId="738" priority="239">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73">
-    <cfRule type="expression" dxfId="740" priority="230">
+    <cfRule type="expression" dxfId="737" priority="230">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78:A79">
-    <cfRule type="expression" dxfId="739" priority="238">
+    <cfRule type="expression" dxfId="736" priority="238">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72 D72:L72 E73:H73 C78:L80 A74 A76">
-    <cfRule type="expression" dxfId="738" priority="236">
+    <cfRule type="expression" dxfId="735" priority="236">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J73:L73 D73 G74:L77">
-    <cfRule type="expression" dxfId="737" priority="237">
+    <cfRule type="expression" dxfId="734" priority="237">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73 A80 A75 A77">
-    <cfRule type="expression" dxfId="736" priority="235">
+    <cfRule type="expression" dxfId="733" priority="235">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78:B80">
-    <cfRule type="expression" dxfId="735" priority="234">
+    <cfRule type="expression" dxfId="732" priority="234">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C74:C77">
-    <cfRule type="expression" dxfId="734" priority="232">
+    <cfRule type="expression" dxfId="731" priority="232">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:C72">
-    <cfRule type="expression" dxfId="733" priority="233">
+    <cfRule type="expression" dxfId="730" priority="233">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C73">
-    <cfRule type="expression" dxfId="732" priority="231">
+    <cfRule type="expression" dxfId="729" priority="231">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:C12 C13:C15">
-    <cfRule type="expression" dxfId="731" priority="174">
+    <cfRule type="expression" dxfId="728" priority="174">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74:F77">
-    <cfRule type="expression" dxfId="730" priority="229">
+    <cfRule type="expression" dxfId="727" priority="229">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74:B77">
-    <cfRule type="expression" dxfId="729" priority="228">
+    <cfRule type="expression" dxfId="726" priority="228">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74:E77">
-    <cfRule type="expression" dxfId="728" priority="227">
+    <cfRule type="expression" dxfId="725" priority="227">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74:D77">
-    <cfRule type="expression" dxfId="727" priority="226">
+    <cfRule type="expression" dxfId="724" priority="226">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I73">
-    <cfRule type="expression" dxfId="726" priority="225">
+    <cfRule type="expression" dxfId="723" priority="225">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:H15 F12:L12">
-    <cfRule type="expression" dxfId="725" priority="175">
+    <cfRule type="expression" dxfId="722" priority="175">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:I15">
-    <cfRule type="expression" dxfId="724" priority="171">
+    <cfRule type="expression" dxfId="721" priority="171">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33 D33:L33 E34:H34 C37:L39 A35">
-    <cfRule type="expression" dxfId="723" priority="145">
+    <cfRule type="expression" dxfId="720" priority="145">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:A15 K13 L14:L15">
-    <cfRule type="expression" dxfId="722" priority="173">
+    <cfRule type="expression" dxfId="719" priority="173">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13 B15">
-    <cfRule type="expression" dxfId="721" priority="172">
+    <cfRule type="expression" dxfId="718" priority="172">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E15">
-    <cfRule type="expression" dxfId="720" priority="170">
+    <cfRule type="expression" dxfId="717" priority="170">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D14">
-    <cfRule type="expression" dxfId="719" priority="169">
+    <cfRule type="expression" dxfId="716" priority="169">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:J15">
-    <cfRule type="expression" dxfId="718" priority="168">
+    <cfRule type="expression" dxfId="715" priority="168">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="expression" dxfId="717" priority="166">
+    <cfRule type="expression" dxfId="714" priority="166">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="716" priority="164">
+    <cfRule type="expression" dxfId="713" priority="164">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="715" priority="162">
+    <cfRule type="expression" dxfId="712" priority="162">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="expression" dxfId="714" priority="155">
+    <cfRule type="expression" dxfId="711" priority="155">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:J16 L16">
-    <cfRule type="expression" dxfId="713" priority="167">
+    <cfRule type="expression" dxfId="710" priority="167">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="712" priority="165">
+    <cfRule type="expression" dxfId="709" priority="165">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="711" priority="160">
+    <cfRule type="expression" dxfId="708" priority="160">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="710" priority="156">
+    <cfRule type="expression" dxfId="707" priority="156">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="expression" dxfId="709" priority="159">
+    <cfRule type="expression" dxfId="706" priority="159">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="expression" dxfId="708" priority="158">
+    <cfRule type="expression" dxfId="705" priority="158">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="expression" dxfId="707" priority="157">
+    <cfRule type="expression" dxfId="704" priority="157">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="706" priority="163">
+    <cfRule type="expression" dxfId="703" priority="163">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="705" priority="161">
+    <cfRule type="expression" dxfId="702" priority="161">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="704" priority="154">
+    <cfRule type="expression" dxfId="701" priority="154">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="703" priority="153">
+    <cfRule type="expression" dxfId="700" priority="153">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:E35 F35:L36">
-    <cfRule type="expression" dxfId="702" priority="148">
+    <cfRule type="expression" dxfId="699" priority="148">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="expression" dxfId="701" priority="137">
+    <cfRule type="expression" dxfId="698" priority="137">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:A38">
-    <cfRule type="expression" dxfId="700" priority="147">
+    <cfRule type="expression" dxfId="697" priority="147">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34:L34 D34">
-    <cfRule type="expression" dxfId="699" priority="146">
+    <cfRule type="expression" dxfId="696" priority="146">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B179">
-    <cfRule type="expression" dxfId="698" priority="132">
+    <cfRule type="expression" dxfId="695" priority="132">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:B39">
-    <cfRule type="expression" dxfId="697" priority="143">
+    <cfRule type="expression" dxfId="694" priority="143">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34 A39 A36">
-    <cfRule type="expression" dxfId="696" priority="144">
+    <cfRule type="expression" dxfId="693" priority="144">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:C33">
-    <cfRule type="expression" dxfId="695" priority="142">
+    <cfRule type="expression" dxfId="692" priority="142">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="expression" dxfId="694" priority="141">
+    <cfRule type="expression" dxfId="691" priority="141">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="693" priority="140">
+    <cfRule type="expression" dxfId="690" priority="140">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="expression" dxfId="692" priority="139">
+    <cfRule type="expression" dxfId="689" priority="139">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="expression" dxfId="691" priority="138">
+    <cfRule type="expression" dxfId="688" priority="138">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="690" priority="136">
+    <cfRule type="expression" dxfId="687" priority="136">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="expression" dxfId="689" priority="135">
+    <cfRule type="expression" dxfId="686" priority="135">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B177:C177 C178">
-    <cfRule type="expression" dxfId="688" priority="134">
+    <cfRule type="expression" dxfId="685" priority="134">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C179">
-    <cfRule type="expression" dxfId="687" priority="131">
+    <cfRule type="expression" dxfId="684" priority="131">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96:A97">
-    <cfRule type="expression" dxfId="686" priority="130">
+    <cfRule type="expression" dxfId="683" priority="130">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93 D93:L93 E94:H94 C96:L98 A95">
-    <cfRule type="expression" dxfId="685" priority="128">
+    <cfRule type="expression" dxfId="682" priority="128">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J94:L94 D94 G95:L95">
-    <cfRule type="expression" dxfId="684" priority="129">
+    <cfRule type="expression" dxfId="681" priority="129">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94 A98">
-    <cfRule type="expression" dxfId="683" priority="127">
+    <cfRule type="expression" dxfId="680" priority="127">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96:B98">
-    <cfRule type="expression" dxfId="682" priority="126">
+    <cfRule type="expression" dxfId="679" priority="126">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F95">
-    <cfRule type="expression" dxfId="681" priority="124">
+    <cfRule type="expression" dxfId="678" priority="124">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93:C93">
-    <cfRule type="expression" dxfId="680" priority="125">
+    <cfRule type="expression" dxfId="677" priority="125">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="expression" dxfId="679" priority="123">
+    <cfRule type="expression" dxfId="676" priority="123">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I94">
-    <cfRule type="expression" dxfId="678" priority="121">
+    <cfRule type="expression" dxfId="675" priority="121">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D95">
-    <cfRule type="expression" dxfId="677" priority="122">
+    <cfRule type="expression" dxfId="674" priority="122">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94:C94">
-    <cfRule type="expression" dxfId="676" priority="120">
+    <cfRule type="expression" dxfId="673" priority="120">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95">
-    <cfRule type="expression" dxfId="675" priority="119">
+    <cfRule type="expression" dxfId="672" priority="119">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C95">
-    <cfRule type="expression" dxfId="674" priority="118">
+    <cfRule type="expression" dxfId="671" priority="118">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G119:L119">
-    <cfRule type="expression" dxfId="673" priority="87">
+    <cfRule type="expression" dxfId="670" priority="87">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C120">
-    <cfRule type="expression" dxfId="672" priority="88">
+    <cfRule type="expression" dxfId="669" priority="88">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="expression" dxfId="671" priority="86">
+    <cfRule type="expression" dxfId="668" priority="86">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F119">
-    <cfRule type="expression" dxfId="670" priority="85">
+    <cfRule type="expression" dxfId="667" priority="85">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K113">
-    <cfRule type="expression" dxfId="669" priority="73">
+    <cfRule type="expression" dxfId="666" priority="73">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="expression" dxfId="668" priority="83">
+    <cfRule type="expression" dxfId="665" priority="83">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C119">
-    <cfRule type="expression" dxfId="667" priority="82">
+    <cfRule type="expression" dxfId="664" priority="82">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D119">
-    <cfRule type="expression" dxfId="666" priority="81">
+    <cfRule type="expression" dxfId="663" priority="81">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161:A162">
-    <cfRule type="expression" dxfId="665" priority="71">
+    <cfRule type="expression" dxfId="662" priority="71">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D179">
-    <cfRule type="expression" dxfId="664" priority="108">
+    <cfRule type="expression" dxfId="661" priority="108">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D116">
-    <cfRule type="expression" dxfId="663" priority="78">
+    <cfRule type="expression" dxfId="660" priority="78">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K115">
-    <cfRule type="expression" dxfId="662" priority="77">
+    <cfRule type="expression" dxfId="659" priority="77">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K116">
-    <cfRule type="expression" dxfId="661" priority="76">
+    <cfRule type="expression" dxfId="658" priority="76">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K117">
-    <cfRule type="expression" dxfId="660" priority="75">
+    <cfRule type="expression" dxfId="657" priority="75">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K118">
-    <cfRule type="expression" dxfId="659" priority="74">
+    <cfRule type="expression" dxfId="656" priority="74">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K178">
-    <cfRule type="expression" dxfId="658" priority="101">
+    <cfRule type="expression" dxfId="655" priority="101">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K114">
-    <cfRule type="expression" dxfId="657" priority="72">
+    <cfRule type="expression" dxfId="654" priority="72">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A121:A122">
-    <cfRule type="expression" dxfId="656" priority="99">
+    <cfRule type="expression" dxfId="653" priority="99">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A111 D111:L111 C121:L123 A113 A115 A117 A120 E112:H118">
-    <cfRule type="expression" dxfId="655" priority="97">
+    <cfRule type="expression" dxfId="652" priority="97">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J112:L112 G120:L120 D112:D115 D118 J113:J118 L113:L118">
-    <cfRule type="expression" dxfId="654" priority="98">
+    <cfRule type="expression" dxfId="651" priority="98">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112 A123 A114 A116 A118">
-    <cfRule type="expression" dxfId="653" priority="96">
+    <cfRule type="expression" dxfId="650" priority="96">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:B123">
-    <cfRule type="expression" dxfId="652" priority="95">
+    <cfRule type="expression" dxfId="649" priority="95">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F120">
-    <cfRule type="expression" dxfId="651" priority="93">
+    <cfRule type="expression" dxfId="648" priority="93">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B111:C111">
-    <cfRule type="expression" dxfId="650" priority="94">
+    <cfRule type="expression" dxfId="647" priority="94">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E120">
-    <cfRule type="expression" dxfId="649" priority="92">
+    <cfRule type="expression" dxfId="646" priority="92">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I112:I118">
-    <cfRule type="expression" dxfId="648" priority="91">
+    <cfRule type="expression" dxfId="645" priority="91">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:C118">
-    <cfRule type="expression" dxfId="647" priority="90">
+    <cfRule type="expression" dxfId="644" priority="90">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120">
-    <cfRule type="expression" dxfId="646" priority="89">
+    <cfRule type="expression" dxfId="643" priority="89">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E119">
-    <cfRule type="expression" dxfId="645" priority="84">
+    <cfRule type="expression" dxfId="642" priority="84">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C161:L163">
-    <cfRule type="expression" dxfId="644" priority="69">
+    <cfRule type="expression" dxfId="641" priority="69">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A163">
-    <cfRule type="expression" dxfId="643" priority="68">
+    <cfRule type="expression" dxfId="640" priority="68">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D120">
-    <cfRule type="expression" dxfId="642" priority="80">
+    <cfRule type="expression" dxfId="639" priority="80">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D117">
-    <cfRule type="expression" dxfId="641" priority="79">
+    <cfRule type="expression" dxfId="638" priority="79">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B161:B163">
-    <cfRule type="expression" dxfId="640" priority="67">
+    <cfRule type="expression" dxfId="637" priority="67">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K138">
-    <cfRule type="expression" dxfId="639" priority="17">
+    <cfRule type="expression" dxfId="636" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B140">
-    <cfRule type="expression" dxfId="638" priority="15">
+    <cfRule type="expression" dxfId="635" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E159">
-    <cfRule type="expression" dxfId="637" priority="5">
+    <cfRule type="expression" dxfId="634" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K139">
-    <cfRule type="expression" dxfId="636" priority="16">
+    <cfRule type="expression" dxfId="633" priority="16">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A141:A142">
-    <cfRule type="expression" dxfId="635" priority="43">
+    <cfRule type="expression" dxfId="632" priority="43">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A136 D136:L136 C141:L143 A138 A140 E137:H140">
-    <cfRule type="expression" dxfId="634" priority="41">
+    <cfRule type="expression" dxfId="631" priority="41">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J137:L137 D137:D140 J138:J140 L138:L140">
-    <cfRule type="expression" dxfId="633" priority="42">
+    <cfRule type="expression" dxfId="630" priority="42">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137 A143 A139">
-    <cfRule type="expression" dxfId="632" priority="40">
+    <cfRule type="expression" dxfId="629" priority="40">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B141:B143">
-    <cfRule type="expression" dxfId="631" priority="39">
+    <cfRule type="expression" dxfId="628" priority="39">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136:C136">
-    <cfRule type="expression" dxfId="630" priority="38">
+    <cfRule type="expression" dxfId="627" priority="38">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I137:I140">
-    <cfRule type="expression" dxfId="629" priority="35">
+    <cfRule type="expression" dxfId="626" priority="35">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137:C139 C140">
-    <cfRule type="expression" dxfId="628" priority="34">
+    <cfRule type="expression" dxfId="625" priority="34">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158:E158 B160:L160 F158:L159">
-    <cfRule type="expression" dxfId="627" priority="14">
+    <cfRule type="expression" dxfId="624" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J157:L157 D157">
-    <cfRule type="expression" dxfId="626" priority="13">
+    <cfRule type="expression" dxfId="623" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A156 D156:L156 E157:H157 A158">
-    <cfRule type="expression" dxfId="625" priority="12">
+    <cfRule type="expression" dxfId="622" priority="12">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A157 A159:A160">
-    <cfRule type="expression" dxfId="624" priority="11">
+    <cfRule type="expression" dxfId="621" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156:C156">
-    <cfRule type="expression" dxfId="623" priority="10">
+    <cfRule type="expression" dxfId="620" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C159">
-    <cfRule type="expression" dxfId="622" priority="9">
+    <cfRule type="expression" dxfId="619" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K140">
-    <cfRule type="expression" dxfId="621" priority="21">
+    <cfRule type="expression" dxfId="618" priority="21">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159">
-    <cfRule type="expression" dxfId="620" priority="6">
+    <cfRule type="expression" dxfId="617" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D159">
-    <cfRule type="expression" dxfId="619" priority="4">
+    <cfRule type="expression" dxfId="616" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B157:C157">
-    <cfRule type="expression" dxfId="618" priority="2">
+    <cfRule type="expression" dxfId="615" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I157">
-    <cfRule type="expression" dxfId="617" priority="3">
+    <cfRule type="expression" dxfId="614" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B178">
-    <cfRule type="expression" dxfId="616" priority="1">
+    <cfRule type="expression" dxfId="613" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25275,7 +25122,7 @@
         <v>41</v>
       </c>
       <c r="C8" s="35">
-        <v>43199</v>
+        <v>43228</v>
       </c>
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
@@ -25514,29 +25361,17 @@
       <c r="R16" s="9"/>
     </row>
     <row r="17" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A17" s="3">
-        <v>6</v>
-      </c>
-      <c r="B17" s="73" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="5">
-        <v>32</v>
-      </c>
+      <c r="A17" s="3"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="K17" s="3"/>
       <c r="L17" s="5"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
@@ -25585,7 +25420,7 @@
         <v>161</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>85</v>
@@ -25617,7 +25452,7 @@
         <v>161</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>85</v>
@@ -25770,29 +25605,17 @@
       <c r="R24" s="9"/>
     </row>
     <row r="25" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A25" s="3">
-        <v>14</v>
-      </c>
-      <c r="B25" s="74" t="s">
-        <v>209</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" s="5">
-        <v>32</v>
-      </c>
+      <c r="A25" s="3"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="K25" s="3"/>
       <c r="L25" s="5"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
@@ -25841,7 +25664,7 @@
         <v>161</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>85</v>
@@ -25873,7 +25696,7 @@
         <v>161</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>85</v>
@@ -26541,7 +26364,7 @@
         <v>306</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>77</v>
@@ -26568,10 +26391,10 @@
         <v>3</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>77</v>
@@ -26598,10 +26421,10 @@
         <v>4</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>77</v>
@@ -26628,13 +26451,13 @@
         <v>5</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E58" s="5">
         <v>10</v>
@@ -26648,7 +26471,7 @@
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
@@ -26984,10 +26807,10 @@
         <v>2</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>77</v>
@@ -27004,7 +26827,7 @@
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="L75" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="M75" s="9"/>
       <c r="N75" s="9"/>
@@ -27018,10 +26841,10 @@
         <v>3</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>77</v>
@@ -27048,10 +26871,10 @@
         <v>4</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>77</v>
@@ -27078,10 +26901,10 @@
         <v>5</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>77</v>
@@ -27098,7 +26921,7 @@
         <v>5</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="M78" s="9"/>
       <c r="N78" s="9"/>
@@ -27112,10 +26935,10 @@
         <v>6</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>77</v>
@@ -27132,7 +26955,7 @@
         <v>5</v>
       </c>
       <c r="L79" s="5" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="M79" s="9"/>
       <c r="N79" s="9"/>
@@ -27468,10 +27291,10 @@
         <v>2</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>77</v>
@@ -27498,10 +27321,10 @@
         <v>3</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>77</v>
@@ -27530,10 +27353,10 @@
         <v>4</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>77</v>
@@ -27562,13 +27385,13 @@
         <v>5</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E99" s="5">
         <v>10</v>
@@ -27584,7 +27407,7 @@
         <v>5</v>
       </c>
       <c r="L99" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="M99" s="9"/>
       <c r="N99" s="9"/>
@@ -27598,13 +27421,13 @@
         <v>6</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E100" s="5">
         <v>10</v>
@@ -27620,7 +27443,7 @@
         <v>5</v>
       </c>
       <c r="L100" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="M100" s="9"/>
       <c r="N100" s="9"/>
@@ -27634,13 +27457,13 @@
         <v>7</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E101" s="5">
         <v>10</v>
@@ -27656,7 +27479,7 @@
         <v>5</v>
       </c>
       <c r="L101" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="M101" s="9"/>
       <c r="N101" s="9"/>
@@ -27670,13 +27493,13 @@
         <v>8</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E102" s="5">
         <v>10</v>
@@ -27690,7 +27513,7 @@
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
       <c r="L102" s="5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="M102" s="9"/>
       <c r="N102" s="9"/>
@@ -27704,13 +27527,13 @@
         <v>9</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E103" s="5">
         <v>10</v>
@@ -27726,7 +27549,7 @@
         <v>5</v>
       </c>
       <c r="L103" s="5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="M103" s="9"/>
       <c r="N103" s="9"/>
@@ -27740,10 +27563,10 @@
         <v>10</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>77</v>
@@ -27772,13 +27595,13 @@
         <v>11</v>
       </c>
       <c r="B105" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="D105" s="5" t="s">
         <v>478</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>480</v>
       </c>
       <c r="E105" s="5">
         <v>255</v>
@@ -28126,10 +27949,10 @@
         <v>2</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>77</v>
@@ -28572,10 +28395,10 @@
         <v>3</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>77</v>
@@ -29722,10 +29545,10 @@
         <v>2</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D196" s="5" t="s">
         <v>77</v>
@@ -30110,10 +29933,10 @@
         <v>2</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D214" s="5" t="s">
         <v>77</v>
@@ -30498,10 +30321,10 @@
         <v>2</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D232" s="5" t="s">
         <v>77</v>
@@ -30950,13 +30773,13 @@
         <v>4</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E252" s="5">
         <v>32</v>
@@ -31040,13 +30863,13 @@
         <v>7</v>
       </c>
       <c r="B255" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="D255" s="5" t="s">
         <v>360</v>
-      </c>
-      <c r="C255" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="D255" s="5" t="s">
-        <v>362</v>
       </c>
       <c r="E255" s="5"/>
       <c r="F255" s="3"/>
@@ -31055,7 +30878,7 @@
       <c r="I255" s="3"/>
       <c r="J255" s="3"/>
       <c r="K255" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="L255" s="5"/>
       <c r="M255" s="9"/>
@@ -31070,13 +30893,13 @@
         <v>8</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E256" s="5"/>
       <c r="F256" s="3"/>
@@ -31085,7 +30908,7 @@
       <c r="I256" s="3"/>
       <c r="J256" s="3"/>
       <c r="K256" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="L256" s="5"/>
       <c r="M256" s="9"/>
@@ -31117,7 +30940,7 @@
       <c r="I257" s="3"/>
       <c r="J257" s="3"/>
       <c r="K257" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="L257" s="5"/>
       <c r="M257" s="9"/>
@@ -32520,7 +32343,7 @@
         <v>3</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C320" s="6" t="s">
         <v>205</v>
@@ -32994,10 +32817,10 @@
         <v>2</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D341" s="5" t="s">
         <v>77</v>
@@ -33058,10 +32881,10 @@
         <v>4</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D343" s="5" t="s">
         <v>77</v>
@@ -33088,10 +32911,10 @@
         <v>5</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D344" s="5" t="s">
         <v>108</v>
@@ -33118,10 +32941,10 @@
         <v>6</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D345" s="5" t="s">
         <v>108</v>
@@ -33148,10 +32971,10 @@
         <v>7</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D346" s="5" t="s">
         <v>297</v>
@@ -33178,10 +33001,10 @@
         <v>8</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D347" s="5" t="s">
         <v>297</v>
@@ -33530,10 +33353,10 @@
         <v>2</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D364" s="5" t="s">
         <v>77</v>
@@ -33728,1817 +33551,1817 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="E36:L37 L35 E35:J35 B14:C16 C26 E34:L34 L28:L29 B18:C18 B23:C24 L31:L32 B34:C38 F76:L76 D77:L77 D75:L75 B75:C76 B20:C21 C28:J28">
-    <cfRule type="expression" dxfId="615" priority="531">
+    <cfRule type="expression" dxfId="612" priority="531">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:K15 L14:L16 J13:L13 D13">
-    <cfRule type="expression" dxfId="614" priority="509">
+    <cfRule type="expression" dxfId="611" priority="509">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:C12">
-    <cfRule type="expression" dxfId="613" priority="505">
+    <cfRule type="expression" dxfId="610" priority="505">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="612" priority="503">
+    <cfRule type="expression" dxfId="609" priority="503">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12 D12:L12 E13:H13 C39:L41 G16:J16 G24:J24 A14 A16 A18 A20 A22 A24 A26 A28 A30 A32 A34 A36 A38:A40">
-    <cfRule type="expression" dxfId="611" priority="508">
+    <cfRule type="expression" dxfId="608" priority="508">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13 A41 A15 A17 A19 A21 A23 A25 A27 A29 A31 A33 A35 A37">
-    <cfRule type="expression" dxfId="610" priority="507">
+    <cfRule type="expression" dxfId="607" priority="507">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39:B41">
-    <cfRule type="expression" dxfId="609" priority="506">
+    <cfRule type="expression" dxfId="606" priority="506">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L24">
-    <cfRule type="expression" dxfId="608" priority="504">
+    <cfRule type="expression" dxfId="605" priority="504">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="expression" dxfId="607" priority="502">
+    <cfRule type="expression" dxfId="604" priority="502">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="606" priority="501">
+    <cfRule type="expression" dxfId="603" priority="501">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F16 F24">
-    <cfRule type="expression" dxfId="605" priority="499">
+    <cfRule type="expression" dxfId="602" priority="499">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="604" priority="498">
+    <cfRule type="expression" dxfId="601" priority="498">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="603" priority="497">
+    <cfRule type="expression" dxfId="600" priority="497">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="602" priority="496">
+    <cfRule type="expression" dxfId="599" priority="496">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="601" priority="495">
+    <cfRule type="expression" dxfId="598" priority="495">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:J26">
-    <cfRule type="expression" dxfId="600" priority="487">
+    <cfRule type="expression" dxfId="597" priority="487">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26">
-    <cfRule type="expression" dxfId="599" priority="486">
+    <cfRule type="expression" dxfId="596" priority="486">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:J18 G23:J23 G20:J21">
-    <cfRule type="expression" dxfId="598" priority="492">
+    <cfRule type="expression" dxfId="595" priority="492">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18 L23 L20:L21">
-    <cfRule type="expression" dxfId="597" priority="491">
+    <cfRule type="expression" dxfId="594" priority="491">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18 F23 F20:F21">
-    <cfRule type="expression" dxfId="596" priority="488">
+    <cfRule type="expression" dxfId="593" priority="488">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="595" priority="485">
+    <cfRule type="expression" dxfId="592" priority="485">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="594" priority="484">
+    <cfRule type="expression" dxfId="591" priority="484">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="expression" dxfId="593" priority="483">
+    <cfRule type="expression" dxfId="590" priority="483">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16 K18 K23 K20:K21">
-    <cfRule type="expression" dxfId="592" priority="482">
+    <cfRule type="expression" dxfId="589" priority="482">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="591" priority="480">
+    <cfRule type="expression" dxfId="588" priority="480">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38:J38 L38">
-    <cfRule type="expression" dxfId="590" priority="469">
+    <cfRule type="expression" dxfId="587" priority="469">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="expression" dxfId="589" priority="468">
+    <cfRule type="expression" dxfId="586" priority="468">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="expression" dxfId="588" priority="467">
+    <cfRule type="expression" dxfId="585" priority="467">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="587" priority="466">
+    <cfRule type="expression" dxfId="584" priority="466">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="expression" dxfId="586" priority="465">
+    <cfRule type="expression" dxfId="583" priority="465">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="585" priority="464">
+    <cfRule type="expression" dxfId="582" priority="464">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J250:L250 D250 G251:L261">
-    <cfRule type="expression" dxfId="584" priority="404">
+    <cfRule type="expression" dxfId="581" priority="404">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A234:A235">
-    <cfRule type="expression" dxfId="583" priority="447">
+    <cfRule type="expression" dxfId="580" priority="447">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J232:L232 D232">
-    <cfRule type="expression" dxfId="582" priority="446">
+    <cfRule type="expression" dxfId="579" priority="446">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A231 D231:L231 E232:H232 C234:L236">
-    <cfRule type="expression" dxfId="581" priority="445">
+    <cfRule type="expression" dxfId="578" priority="445">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B234:B236">
-    <cfRule type="expression" dxfId="580" priority="443">
+    <cfRule type="expression" dxfId="577" priority="443">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A232 A236">
-    <cfRule type="expression" dxfId="579" priority="444">
+    <cfRule type="expression" dxfId="576" priority="444">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B231:C231">
-    <cfRule type="expression" dxfId="578" priority="442">
+    <cfRule type="expression" dxfId="575" priority="442">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A249 D249:L249 E250:H250 C262:L264 A251:A252 A254:A256 A258 A260">
-    <cfRule type="expression" dxfId="577" priority="403">
+    <cfRule type="expression" dxfId="574" priority="403">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A262:A263">
-    <cfRule type="expression" dxfId="576" priority="405">
+    <cfRule type="expression" dxfId="573" priority="405">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A370">
-    <cfRule type="expression" dxfId="575" priority="415">
+    <cfRule type="expression" dxfId="572" priority="415">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B368:B370">
-    <cfRule type="expression" dxfId="574" priority="414">
+    <cfRule type="expression" dxfId="571" priority="414">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A368:A369">
-    <cfRule type="expression" dxfId="573" priority="418">
+    <cfRule type="expression" dxfId="570" priority="418">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I232">
-    <cfRule type="expression" dxfId="572" priority="432">
+    <cfRule type="expression" dxfId="569" priority="432">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A250 A264 A253 A257 A259 A261">
-    <cfRule type="expression" dxfId="571" priority="402">
+    <cfRule type="expression" dxfId="568" priority="402">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C368:L370">
-    <cfRule type="expression" dxfId="570" priority="416">
+    <cfRule type="expression" dxfId="567" priority="416">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B262:B264">
-    <cfRule type="expression" dxfId="569" priority="401">
+    <cfRule type="expression" dxfId="566" priority="401">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C251 C253:C261">
-    <cfRule type="expression" dxfId="568" priority="399">
+    <cfRule type="expression" dxfId="565" priority="399">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C250">
-    <cfRule type="expression" dxfId="567" priority="398">
+    <cfRule type="expression" dxfId="564" priority="398">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="566" priority="351">
+    <cfRule type="expression" dxfId="563" priority="351">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="565" priority="348">
+    <cfRule type="expression" dxfId="562" priority="348">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B250">
-    <cfRule type="expression" dxfId="564" priority="397">
+    <cfRule type="expression" dxfId="561" priority="397">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B251 B253:B261">
-    <cfRule type="expression" dxfId="563" priority="395">
+    <cfRule type="expression" dxfId="560" priority="395">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F251:F261">
-    <cfRule type="expression" dxfId="562" priority="396">
+    <cfRule type="expression" dxfId="559" priority="396">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E251">
-    <cfRule type="expression" dxfId="561" priority="394">
+    <cfRule type="expression" dxfId="558" priority="394">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B249:C249">
-    <cfRule type="expression" dxfId="560" priority="400">
+    <cfRule type="expression" dxfId="557" priority="400">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D251">
-    <cfRule type="expression" dxfId="559" priority="393">
+    <cfRule type="expression" dxfId="556" priority="393">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:E21">
-    <cfRule type="expression" dxfId="558" priority="347">
+    <cfRule type="expression" dxfId="555" priority="347">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24 K26 K31:K32 K28:K29">
-    <cfRule type="expression" dxfId="557" priority="340">
+    <cfRule type="expression" dxfId="554" priority="340">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:E23">
-    <cfRule type="expression" dxfId="556" priority="346">
+    <cfRule type="expression" dxfId="553" priority="346">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:E24">
-    <cfRule type="expression" dxfId="555" priority="345">
+    <cfRule type="expression" dxfId="552" priority="345">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="554" priority="344">
+    <cfRule type="expression" dxfId="551" priority="344">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38">
-    <cfRule type="expression" dxfId="553" priority="343">
+    <cfRule type="expression" dxfId="550" priority="343">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I250">
-    <cfRule type="expression" dxfId="552" priority="392">
+    <cfRule type="expression" dxfId="549" priority="392">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33">
-    <cfRule type="expression" dxfId="551" priority="341">
+    <cfRule type="expression" dxfId="548" priority="341">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:J29">
-    <cfRule type="expression" dxfId="550" priority="387">
+    <cfRule type="expression" dxfId="547" priority="387">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:J31">
-    <cfRule type="expression" dxfId="549" priority="386">
+    <cfRule type="expression" dxfId="546" priority="386">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:J32">
-    <cfRule type="expression" dxfId="548" priority="385">
+    <cfRule type="expression" dxfId="545" priority="385">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:C33 E33:J33 L33">
-    <cfRule type="expression" dxfId="547" priority="383">
+    <cfRule type="expression" dxfId="544" priority="383">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26 B31:B32 B28:B29">
-    <cfRule type="expression" dxfId="546" priority="354">
+    <cfRule type="expression" dxfId="543" priority="354">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="545" priority="353">
+    <cfRule type="expression" dxfId="542" priority="353">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="544" priority="352">
+    <cfRule type="expression" dxfId="541" priority="352">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:E20">
-    <cfRule type="expression" dxfId="543" priority="350">
+    <cfRule type="expression" dxfId="540" priority="350">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="expression" dxfId="542" priority="349">
+    <cfRule type="expression" dxfId="539" priority="349">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C232">
-    <cfRule type="expression" dxfId="541" priority="339">
+    <cfRule type="expression" dxfId="538" priority="339">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B232">
-    <cfRule type="expression" dxfId="540" priority="338">
+    <cfRule type="expression" dxfId="537" priority="338">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B233:L233">
-    <cfRule type="expression" dxfId="539" priority="337">
+    <cfRule type="expression" dxfId="536" priority="337">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A233">
-    <cfRule type="expression" dxfId="538" priority="336">
+    <cfRule type="expression" dxfId="535" priority="336">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35">
-    <cfRule type="expression" dxfId="537" priority="342">
+    <cfRule type="expression" dxfId="534" priority="342">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158:C158">
-    <cfRule type="expression" dxfId="536" priority="325">
+    <cfRule type="expression" dxfId="533" priority="325">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A158 D158:L158 E159:H159 C162:L164">
-    <cfRule type="expression" dxfId="535" priority="328">
+    <cfRule type="expression" dxfId="532" priority="328">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A159 A164">
-    <cfRule type="expression" dxfId="534" priority="327">
+    <cfRule type="expression" dxfId="531" priority="327">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162:B164">
-    <cfRule type="expression" dxfId="533" priority="326">
+    <cfRule type="expression" dxfId="530" priority="326">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I159">
-    <cfRule type="expression" dxfId="532" priority="324">
+    <cfRule type="expression" dxfId="529" priority="324">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A162:A163">
-    <cfRule type="expression" dxfId="531" priority="330">
+    <cfRule type="expression" dxfId="528" priority="330">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J159:L159 D159">
-    <cfRule type="expression" dxfId="530" priority="329">
+    <cfRule type="expression" dxfId="527" priority="329">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C141">
-    <cfRule type="expression" dxfId="529" priority="307">
+    <cfRule type="expression" dxfId="526" priority="307">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B142:C142 F142:L142">
-    <cfRule type="expression" dxfId="528" priority="305">
+    <cfRule type="expression" dxfId="525" priority="305">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B141">
-    <cfRule type="expression" dxfId="527" priority="306">
+    <cfRule type="expression" dxfId="524" priority="306">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A142">
-    <cfRule type="expression" dxfId="526" priority="304">
+    <cfRule type="expression" dxfId="523" priority="304">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A303:A304">
-    <cfRule type="expression" dxfId="525" priority="290">
+    <cfRule type="expression" dxfId="522" priority="290">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C159">
-    <cfRule type="expression" dxfId="524" priority="323">
+    <cfRule type="expression" dxfId="521" priority="323">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159">
-    <cfRule type="expression" dxfId="523" priority="322">
+    <cfRule type="expression" dxfId="520" priority="322">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160:E160 F160:L161">
-    <cfRule type="expression" dxfId="522" priority="321">
+    <cfRule type="expression" dxfId="519" priority="321">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E161">
-    <cfRule type="expression" dxfId="521" priority="316">
+    <cfRule type="expression" dxfId="518" priority="316">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A160">
-    <cfRule type="expression" dxfId="520" priority="320">
+    <cfRule type="expression" dxfId="517" priority="320">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161">
-    <cfRule type="expression" dxfId="519" priority="319">
+    <cfRule type="expression" dxfId="516" priority="319">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C161">
-    <cfRule type="expression" dxfId="518" priority="318">
+    <cfRule type="expression" dxfId="515" priority="318">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B161">
-    <cfRule type="expression" dxfId="517" priority="317">
+    <cfRule type="expression" dxfId="514" priority="317">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A143:A144">
-    <cfRule type="expression" dxfId="516" priority="314">
+    <cfRule type="expression" dxfId="513" priority="314">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A298 D298:L298 E299:H299 C303:L305 F301:H302">
-    <cfRule type="expression" dxfId="515" priority="288">
+    <cfRule type="expression" dxfId="512" priority="288">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J141:L141 D141">
-    <cfRule type="expression" dxfId="514" priority="313">
+    <cfRule type="expression" dxfId="511" priority="313">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A140 D140:L140 E141:H141 C143:L145">
-    <cfRule type="expression" dxfId="513" priority="312">
+    <cfRule type="expression" dxfId="510" priority="312">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B143:B145">
-    <cfRule type="expression" dxfId="512" priority="310">
+    <cfRule type="expression" dxfId="509" priority="310">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A141 A145">
-    <cfRule type="expression" dxfId="511" priority="311">
+    <cfRule type="expression" dxfId="508" priority="311">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B140:C140">
-    <cfRule type="expression" dxfId="510" priority="309">
+    <cfRule type="expression" dxfId="507" priority="309">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I141">
-    <cfRule type="expression" dxfId="509" priority="308">
+    <cfRule type="expression" dxfId="506" priority="308">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B303:B305">
-    <cfRule type="expression" dxfId="508" priority="286">
+    <cfRule type="expression" dxfId="505" priority="286">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D161">
-    <cfRule type="expression" dxfId="507" priority="298">
+    <cfRule type="expression" dxfId="504" priority="298">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D301">
-    <cfRule type="expression" dxfId="506" priority="275">
+    <cfRule type="expression" dxfId="503" priority="275">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B301">
-    <cfRule type="expression" dxfId="505" priority="277">
+    <cfRule type="expression" dxfId="502" priority="277">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A299 A305 A301:A302">
-    <cfRule type="expression" dxfId="504" priority="287">
+    <cfRule type="expression" dxfId="501" priority="287">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D254:D261">
-    <cfRule type="expression" dxfId="503" priority="264">
+    <cfRule type="expression" dxfId="500" priority="264">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D299 J299:L299 J301:L302">
-    <cfRule type="expression" dxfId="502" priority="289">
+    <cfRule type="expression" dxfId="499" priority="289">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I299 I301:I302">
-    <cfRule type="expression" dxfId="501" priority="278">
+    <cfRule type="expression" dxfId="498" priority="278">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B302">
-    <cfRule type="expression" dxfId="500" priority="276">
+    <cfRule type="expression" dxfId="497" priority="276">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E302">
-    <cfRule type="expression" dxfId="499" priority="272">
+    <cfRule type="expression" dxfId="496" priority="272">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E301">
-    <cfRule type="expression" dxfId="498" priority="274">
+    <cfRule type="expression" dxfId="495" priority="274">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D302">
-    <cfRule type="expression" dxfId="497" priority="273">
+    <cfRule type="expression" dxfId="494" priority="273">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D253">
-    <cfRule type="expression" dxfId="496" priority="268">
+    <cfRule type="expression" dxfId="493" priority="268">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E254:E261">
-    <cfRule type="expression" dxfId="495" priority="265">
+    <cfRule type="expression" dxfId="492" priority="265">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E253">
-    <cfRule type="expression" dxfId="494" priority="269">
+    <cfRule type="expression" dxfId="491" priority="269">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B298:C298">
-    <cfRule type="expression" dxfId="493" priority="285">
+    <cfRule type="expression" dxfId="490" priority="285">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C301:C302">
-    <cfRule type="expression" dxfId="492" priority="283">
+    <cfRule type="expression" dxfId="489" priority="283">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C282">
-    <cfRule type="expression" dxfId="491" priority="257">
+    <cfRule type="expression" dxfId="488" priority="257">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A283:A284">
-    <cfRule type="expression" dxfId="490" priority="263">
+    <cfRule type="expression" dxfId="487" priority="263">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D278 G282:L282 J278:L281">
-    <cfRule type="expression" dxfId="489" priority="262">
+    <cfRule type="expression" dxfId="486" priority="262">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C299">
-    <cfRule type="expression" dxfId="488" priority="242">
+    <cfRule type="expression" dxfId="485" priority="242">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B299">
-    <cfRule type="expression" dxfId="487" priority="241">
+    <cfRule type="expression" dxfId="484" priority="241">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B283:B285">
-    <cfRule type="expression" dxfId="486" priority="259">
+    <cfRule type="expression" dxfId="483" priority="259">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B282">
-    <cfRule type="expression" dxfId="485" priority="254">
+    <cfRule type="expression" dxfId="482" priority="254">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I278:I281">
-    <cfRule type="expression" dxfId="484" priority="251">
+    <cfRule type="expression" dxfId="481" priority="251">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A278:A281 A285">
-    <cfRule type="expression" dxfId="483" priority="260">
+    <cfRule type="expression" dxfId="480" priority="260">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E282">
-    <cfRule type="expression" dxfId="482" priority="253">
+    <cfRule type="expression" dxfId="479" priority="253">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A277 D277:L277 E278:H278 C283:L285 A282 F279:H281">
-    <cfRule type="expression" dxfId="481" priority="261">
+    <cfRule type="expression" dxfId="478" priority="261">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B280">
-    <cfRule type="expression" dxfId="480" priority="249">
+    <cfRule type="expression" dxfId="477" priority="249">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B277:C277">
-    <cfRule type="expression" dxfId="479" priority="258">
+    <cfRule type="expression" dxfId="476" priority="258">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C278:C281">
-    <cfRule type="expression" dxfId="478" priority="256">
+    <cfRule type="expression" dxfId="475" priority="256">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F282">
-    <cfRule type="expression" dxfId="477" priority="255">
+    <cfRule type="expression" dxfId="474" priority="255">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D282">
-    <cfRule type="expression" dxfId="476" priority="252">
+    <cfRule type="expression" dxfId="473" priority="252">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B278:B279 B281">
-    <cfRule type="expression" dxfId="475" priority="250">
+    <cfRule type="expression" dxfId="472" priority="250">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D279">
-    <cfRule type="expression" dxfId="474" priority="248">
+    <cfRule type="expression" dxfId="471" priority="248">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E279">
-    <cfRule type="expression" dxfId="473" priority="247">
+    <cfRule type="expression" dxfId="470" priority="247">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D280">
-    <cfRule type="expression" dxfId="472" priority="246">
+    <cfRule type="expression" dxfId="469" priority="246">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E280">
-    <cfRule type="expression" dxfId="471" priority="245">
+    <cfRule type="expression" dxfId="468" priority="245">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D281">
-    <cfRule type="expression" dxfId="470" priority="244">
+    <cfRule type="expression" dxfId="467" priority="244">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E281">
-    <cfRule type="expression" dxfId="469" priority="243">
+    <cfRule type="expression" dxfId="466" priority="243">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D300">
-    <cfRule type="expression" dxfId="468" priority="234">
+    <cfRule type="expression" dxfId="465" priority="234">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E300">
-    <cfRule type="expression" dxfId="467" priority="233">
+    <cfRule type="expression" dxfId="464" priority="233">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B300">
-    <cfRule type="expression" dxfId="466" priority="235">
+    <cfRule type="expression" dxfId="463" priority="235">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I300">
-    <cfRule type="expression" dxfId="465" priority="236">
+    <cfRule type="expression" dxfId="462" priority="236">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A300">
-    <cfRule type="expression" dxfId="464" priority="238">
+    <cfRule type="expression" dxfId="461" priority="238">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J300:L300">
-    <cfRule type="expression" dxfId="463" priority="240">
+    <cfRule type="expression" dxfId="460" priority="240">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F300:H300">
-    <cfRule type="expression" dxfId="462" priority="239">
+    <cfRule type="expression" dxfId="459" priority="239">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C300">
-    <cfRule type="expression" dxfId="461" priority="237">
+    <cfRule type="expression" dxfId="458" priority="237">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="460" priority="232">
+    <cfRule type="expression" dxfId="457" priority="232">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:J25">
-    <cfRule type="expression" dxfId="459" priority="230">
+    <cfRule type="expression" dxfId="456" priority="230">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L25">
-    <cfRule type="expression" dxfId="458" priority="229">
+    <cfRule type="expression" dxfId="455" priority="229">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="expression" dxfId="457" priority="228">
+    <cfRule type="expression" dxfId="454" priority="228">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="456" priority="227">
+    <cfRule type="expression" dxfId="453" priority="227">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="expression" dxfId="455" priority="226">
+    <cfRule type="expression" dxfId="452" priority="226">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="expression" dxfId="454" priority="224">
+    <cfRule type="expression" dxfId="451" priority="224">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="expression" dxfId="453" priority="225">
+    <cfRule type="expression" dxfId="450" priority="225">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:C17">
-    <cfRule type="expression" dxfId="452" priority="223">
+    <cfRule type="expression" dxfId="449" priority="223">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:J17">
-    <cfRule type="expression" dxfId="451" priority="221">
+    <cfRule type="expression" dxfId="448" priority="221">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17">
-    <cfRule type="expression" dxfId="450" priority="220">
+    <cfRule type="expression" dxfId="447" priority="220">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="expression" dxfId="449" priority="219">
+    <cfRule type="expression" dxfId="446" priority="219">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17">
-    <cfRule type="expression" dxfId="448" priority="218">
+    <cfRule type="expression" dxfId="445" priority="218">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="447" priority="216">
+    <cfRule type="expression" dxfId="444" priority="216">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="446" priority="217">
+    <cfRule type="expression" dxfId="443" priority="217">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:C22">
-    <cfRule type="expression" dxfId="445" priority="215">
+    <cfRule type="expression" dxfId="442" priority="215">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22:J22">
-    <cfRule type="expression" dxfId="444" priority="213">
+    <cfRule type="expression" dxfId="441" priority="213">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="expression" dxfId="443" priority="212">
+    <cfRule type="expression" dxfId="440" priority="212">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="expression" dxfId="442" priority="211">
+    <cfRule type="expression" dxfId="439" priority="211">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="expression" dxfId="441" priority="210">
+    <cfRule type="expression" dxfId="438" priority="210">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:E22">
-    <cfRule type="expression" dxfId="440" priority="209">
+    <cfRule type="expression" dxfId="437" priority="209">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L30">
-    <cfRule type="expression" dxfId="439" priority="208">
+    <cfRule type="expression" dxfId="436" priority="208">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30">
-    <cfRule type="expression" dxfId="438" priority="204">
+    <cfRule type="expression" dxfId="435" priority="204">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:J30">
-    <cfRule type="expression" dxfId="437" priority="206">
+    <cfRule type="expression" dxfId="434" priority="206">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="436" priority="205">
+    <cfRule type="expression" dxfId="433" priority="205">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D344">
-    <cfRule type="expression" dxfId="435" priority="181">
+    <cfRule type="expression" dxfId="432" priority="181">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D252">
-    <cfRule type="expression" dxfId="434" priority="202">
+    <cfRule type="expression" dxfId="431" priority="202">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E252">
-    <cfRule type="expression" dxfId="433" priority="201">
+    <cfRule type="expression" dxfId="430" priority="201">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B252">
-    <cfRule type="expression" dxfId="432" priority="200">
+    <cfRule type="expression" dxfId="429" priority="200">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C252">
-    <cfRule type="expression" dxfId="431" priority="199">
+    <cfRule type="expression" dxfId="428" priority="199">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B347">
-    <cfRule type="expression" dxfId="430" priority="189">
+    <cfRule type="expression" dxfId="427" priority="189">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I341:I345">
-    <cfRule type="expression" dxfId="429" priority="186">
+    <cfRule type="expression" dxfId="426" priority="186">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A341:A345 A350">
-    <cfRule type="expression" dxfId="428" priority="195">
+    <cfRule type="expression" dxfId="425" priority="195">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B348:B350">
-    <cfRule type="expression" dxfId="427" priority="194">
+    <cfRule type="expression" dxfId="424" priority="194">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A348:A349">
-    <cfRule type="expression" dxfId="426" priority="198">
+    <cfRule type="expression" dxfId="423" priority="198">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D341:D342 G347:L347 J341:L343 J344:J345 L344:L345">
-    <cfRule type="expression" dxfId="425" priority="197">
+    <cfRule type="expression" dxfId="422" priority="197">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A340 D340:L340 E341:H342 C348:L350 A347 F343:H345">
-    <cfRule type="expression" dxfId="424" priority="196">
+    <cfRule type="expression" dxfId="421" priority="196">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C347">
-    <cfRule type="expression" dxfId="423" priority="192">
+    <cfRule type="expression" dxfId="420" priority="192">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B340:C340">
-    <cfRule type="expression" dxfId="422" priority="193">
+    <cfRule type="expression" dxfId="419" priority="193">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C341 C343:C345">
-    <cfRule type="expression" dxfId="421" priority="191">
+    <cfRule type="expression" dxfId="418" priority="191">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F347">
-    <cfRule type="expression" dxfId="420" priority="190">
+    <cfRule type="expression" dxfId="417" priority="190">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E347">
-    <cfRule type="expression" dxfId="419" priority="188">
+    <cfRule type="expression" dxfId="416" priority="188">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D347">
-    <cfRule type="expression" dxfId="418" priority="187">
+    <cfRule type="expression" dxfId="415" priority="187">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B345 B341:B343">
-    <cfRule type="expression" dxfId="417" priority="185">
+    <cfRule type="expression" dxfId="414" priority="185">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B344">
-    <cfRule type="expression" dxfId="416" priority="184">
+    <cfRule type="expression" dxfId="413" priority="184">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D343">
-    <cfRule type="expression" dxfId="415" priority="183">
+    <cfRule type="expression" dxfId="412" priority="183">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E343">
-    <cfRule type="expression" dxfId="414" priority="182">
+    <cfRule type="expression" dxfId="411" priority="182">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E345">
-    <cfRule type="expression" dxfId="413" priority="178">
+    <cfRule type="expression" dxfId="410" priority="178">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E344">
-    <cfRule type="expression" dxfId="412" priority="180">
+    <cfRule type="expression" dxfId="409" priority="180">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A325:A326">
-    <cfRule type="expression" dxfId="411" priority="176">
+    <cfRule type="expression" dxfId="408" priority="176">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C342">
-    <cfRule type="expression" dxfId="410" priority="177">
+    <cfRule type="expression" dxfId="407" priority="177">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B324">
-    <cfRule type="expression" dxfId="409" priority="167">
+    <cfRule type="expression" dxfId="406" priority="167">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I319:I323">
-    <cfRule type="expression" dxfId="408" priority="164">
+    <cfRule type="expression" dxfId="405" priority="164">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A319:A323 A327">
-    <cfRule type="expression" dxfId="407" priority="173">
+    <cfRule type="expression" dxfId="404" priority="173">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B325:B327">
-    <cfRule type="expression" dxfId="406" priority="172">
+    <cfRule type="expression" dxfId="403" priority="172">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D319:D320 G324:L324 J319:L323">
-    <cfRule type="expression" dxfId="405" priority="175">
+    <cfRule type="expression" dxfId="402" priority="175">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A318 D318:L318 E319:H320 C325:L327 A324 F321:H323">
-    <cfRule type="expression" dxfId="404" priority="174">
+    <cfRule type="expression" dxfId="401" priority="174">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C324">
-    <cfRule type="expression" dxfId="403" priority="170">
+    <cfRule type="expression" dxfId="400" priority="170">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B318:C318">
-    <cfRule type="expression" dxfId="402" priority="171">
+    <cfRule type="expression" dxfId="399" priority="171">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C319 C321:C323">
-    <cfRule type="expression" dxfId="401" priority="169">
+    <cfRule type="expression" dxfId="398" priority="169">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F324">
-    <cfRule type="expression" dxfId="400" priority="168">
+    <cfRule type="expression" dxfId="397" priority="168">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E324">
-    <cfRule type="expression" dxfId="399" priority="166">
+    <cfRule type="expression" dxfId="396" priority="166">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D324">
-    <cfRule type="expression" dxfId="398" priority="165">
+    <cfRule type="expression" dxfId="395" priority="165">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B319:B321 B323">
-    <cfRule type="expression" dxfId="397" priority="163">
+    <cfRule type="expression" dxfId="394" priority="163">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B322">
-    <cfRule type="expression" dxfId="396" priority="162">
+    <cfRule type="expression" dxfId="393" priority="162">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D321">
-    <cfRule type="expression" dxfId="395" priority="161">
+    <cfRule type="expression" dxfId="392" priority="161">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E321">
-    <cfRule type="expression" dxfId="394" priority="160">
+    <cfRule type="expression" dxfId="391" priority="160">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D322">
-    <cfRule type="expression" dxfId="393" priority="159">
+    <cfRule type="expression" dxfId="390" priority="159">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E322">
-    <cfRule type="expression" dxfId="392" priority="158">
+    <cfRule type="expression" dxfId="389" priority="158">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D323">
-    <cfRule type="expression" dxfId="391" priority="157">
+    <cfRule type="expression" dxfId="388" priority="157">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E323">
-    <cfRule type="expression" dxfId="390" priority="156">
+    <cfRule type="expression" dxfId="387" priority="156">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C320">
-    <cfRule type="expression" dxfId="389" priority="155">
+    <cfRule type="expression" dxfId="386" priority="155">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B346">
-    <cfRule type="expression" dxfId="388" priority="150">
+    <cfRule type="expression" dxfId="385" priority="150">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G346:L346">
-    <cfRule type="expression" dxfId="387" priority="154">
+    <cfRule type="expression" dxfId="384" priority="154">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A346">
-    <cfRule type="expression" dxfId="386" priority="153">
+    <cfRule type="expression" dxfId="383" priority="153">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C346">
-    <cfRule type="expression" dxfId="385" priority="152">
+    <cfRule type="expression" dxfId="382" priority="152">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F346">
-    <cfRule type="expression" dxfId="384" priority="151">
+    <cfRule type="expression" dxfId="381" priority="151">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E346">
-    <cfRule type="expression" dxfId="383" priority="149">
+    <cfRule type="expression" dxfId="380" priority="149">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D346">
-    <cfRule type="expression" dxfId="382" priority="148">
+    <cfRule type="expression" dxfId="379" priority="148">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B366">
-    <cfRule type="expression" dxfId="381" priority="141">
+    <cfRule type="expression" dxfId="378" priority="141">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I364 I366:I367">
-    <cfRule type="expression" dxfId="380" priority="142">
+    <cfRule type="expression" dxfId="377" priority="142">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B367">
-    <cfRule type="expression" dxfId="379" priority="140">
+    <cfRule type="expression" dxfId="376" priority="140">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D366">
-    <cfRule type="expression" dxfId="378" priority="139">
+    <cfRule type="expression" dxfId="375" priority="139">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E366">
-    <cfRule type="expression" dxfId="377" priority="138">
+    <cfRule type="expression" dxfId="374" priority="138">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D367">
-    <cfRule type="expression" dxfId="376" priority="137">
+    <cfRule type="expression" dxfId="373" priority="137">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A364 A366:A367">
-    <cfRule type="expression" dxfId="375" priority="145">
+    <cfRule type="expression" dxfId="372" priority="145">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E367">
-    <cfRule type="expression" dxfId="374" priority="136">
+    <cfRule type="expression" dxfId="371" priority="136">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D364 J364:L364 J366:L367">
-    <cfRule type="expression" dxfId="373" priority="147">
+    <cfRule type="expression" dxfId="370" priority="147">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A363 D363:L363 E364:H364 F366:H367">
-    <cfRule type="expression" dxfId="372" priority="146">
+    <cfRule type="expression" dxfId="369" priority="146">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B363:C363">
-    <cfRule type="expression" dxfId="371" priority="144">
+    <cfRule type="expression" dxfId="368" priority="144">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C366:C367">
-    <cfRule type="expression" dxfId="370" priority="143">
+    <cfRule type="expression" dxfId="367" priority="143">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C364">
-    <cfRule type="expression" dxfId="369" priority="135">
+    <cfRule type="expression" dxfId="366" priority="135">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B364">
-    <cfRule type="expression" dxfId="368" priority="134">
+    <cfRule type="expression" dxfId="365" priority="134">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D365">
-    <cfRule type="expression" dxfId="367" priority="127">
+    <cfRule type="expression" dxfId="364" priority="127">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E365">
-    <cfRule type="expression" dxfId="366" priority="126">
+    <cfRule type="expression" dxfId="363" priority="126">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B365">
-    <cfRule type="expression" dxfId="365" priority="128">
+    <cfRule type="expression" dxfId="362" priority="128">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I365">
-    <cfRule type="expression" dxfId="364" priority="129">
+    <cfRule type="expression" dxfId="361" priority="129">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A365">
-    <cfRule type="expression" dxfId="363" priority="131">
+    <cfRule type="expression" dxfId="360" priority="131">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J365:L365">
-    <cfRule type="expression" dxfId="362" priority="133">
+    <cfRule type="expression" dxfId="359" priority="133">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F365:H365">
-    <cfRule type="expression" dxfId="361" priority="132">
+    <cfRule type="expression" dxfId="358" priority="132">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C365">
-    <cfRule type="expression" dxfId="360" priority="130">
+    <cfRule type="expression" dxfId="357" priority="130">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D345">
-    <cfRule type="expression" dxfId="359" priority="125">
+    <cfRule type="expression" dxfId="356" priority="125">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K345">
-    <cfRule type="expression" dxfId="358" priority="124">
+    <cfRule type="expression" dxfId="355" priority="124">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K344">
-    <cfRule type="expression" dxfId="357" priority="123">
+    <cfRule type="expression" dxfId="354" priority="123">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C122">
-    <cfRule type="expression" dxfId="356" priority="115">
+    <cfRule type="expression" dxfId="353" priority="115">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B123:E123 F123:L124">
-    <cfRule type="expression" dxfId="355" priority="113">
+    <cfRule type="expression" dxfId="352" priority="113">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="expression" dxfId="354" priority="114">
+    <cfRule type="expression" dxfId="351" priority="114">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123">
-    <cfRule type="expression" dxfId="353" priority="112">
+    <cfRule type="expression" dxfId="350" priority="112">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124">
-    <cfRule type="expression" dxfId="352" priority="111">
+    <cfRule type="expression" dxfId="349" priority="111">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125:A126">
-    <cfRule type="expression" dxfId="351" priority="122">
+    <cfRule type="expression" dxfId="348" priority="122">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124">
-    <cfRule type="expression" dxfId="350" priority="109">
+    <cfRule type="expression" dxfId="347" priority="109">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J122:L122 D122">
-    <cfRule type="expression" dxfId="349" priority="121">
+    <cfRule type="expression" dxfId="346" priority="121">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A121 D121:L121 E122:H122 C125:L127">
-    <cfRule type="expression" dxfId="348" priority="120">
+    <cfRule type="expression" dxfId="345" priority="120">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B127">
-    <cfRule type="expression" dxfId="347" priority="118">
+    <cfRule type="expression" dxfId="344" priority="118">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122 A127">
-    <cfRule type="expression" dxfId="346" priority="119">
+    <cfRule type="expression" dxfId="343" priority="119">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:C121">
-    <cfRule type="expression" dxfId="345" priority="117">
+    <cfRule type="expression" dxfId="342" priority="117">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I122">
-    <cfRule type="expression" dxfId="344" priority="116">
+    <cfRule type="expression" dxfId="341" priority="116">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124">
-    <cfRule type="expression" dxfId="343" priority="108">
+    <cfRule type="expression" dxfId="340" priority="108">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D124">
-    <cfRule type="expression" dxfId="342" priority="107">
+    <cfRule type="expression" dxfId="339" priority="107">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C124">
-    <cfRule type="expression" dxfId="341" priority="110">
+    <cfRule type="expression" dxfId="338" priority="110">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96:E96 F96:L98 G99:L103 F104:L105">
-    <cfRule type="expression" dxfId="340" priority="97">
+    <cfRule type="expression" dxfId="337" priority="97">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F103">
-    <cfRule type="expression" dxfId="339" priority="86">
+    <cfRule type="expression" dxfId="336" priority="86">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96 A98 A100 A102 A104">
-    <cfRule type="expression" dxfId="338" priority="96">
+    <cfRule type="expression" dxfId="335" priority="96">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D142">
-    <cfRule type="expression" dxfId="337" priority="85">
+    <cfRule type="expression" dxfId="334" priority="85">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B97:B105">
-    <cfRule type="expression" dxfId="336" priority="93">
+    <cfRule type="expression" dxfId="333" priority="93">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A106:A107">
-    <cfRule type="expression" dxfId="335" priority="106">
+    <cfRule type="expression" dxfId="332" priority="106">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J214:L214 D214">
-    <cfRule type="expression" dxfId="334" priority="82">
+    <cfRule type="expression" dxfId="331" priority="82">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108">
-    <cfRule type="expression" dxfId="333" priority="103">
+    <cfRule type="expression" dxfId="330" priority="103">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95 D95:L95 C106:L108 A97 A99 A101 A103 A105">
-    <cfRule type="expression" dxfId="332" priority="104">
+    <cfRule type="expression" dxfId="329" priority="104">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B106:B108">
-    <cfRule type="expression" dxfId="331" priority="102">
+    <cfRule type="expression" dxfId="328" priority="102">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97:E105">
-    <cfRule type="expression" dxfId="330" priority="92">
+    <cfRule type="expression" dxfId="327" priority="92">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95:C95">
-    <cfRule type="expression" dxfId="329" priority="101">
+    <cfRule type="expression" dxfId="326" priority="101">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F102">
-    <cfRule type="expression" dxfId="328" priority="87">
+    <cfRule type="expression" dxfId="325" priority="87">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A213 D213:L213 E214:H214 C216:L218">
-    <cfRule type="expression" dxfId="327" priority="81">
+    <cfRule type="expression" dxfId="324" priority="81">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97:D105">
-    <cfRule type="expression" dxfId="326" priority="91">
+    <cfRule type="expression" dxfId="323" priority="91">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C97:C105">
-    <cfRule type="expression" dxfId="325" priority="94">
+    <cfRule type="expression" dxfId="322" priority="94">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F99">
-    <cfRule type="expression" dxfId="324" priority="90">
+    <cfRule type="expression" dxfId="321" priority="90">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F100">
-    <cfRule type="expression" dxfId="323" priority="89">
+    <cfRule type="expression" dxfId="320" priority="89">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F101">
-    <cfRule type="expression" dxfId="322" priority="88">
+    <cfRule type="expression" dxfId="319" priority="88">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C214">
-    <cfRule type="expression" dxfId="321" priority="76">
+    <cfRule type="expression" dxfId="318" priority="76">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B214">
-    <cfRule type="expression" dxfId="320" priority="75">
+    <cfRule type="expression" dxfId="317" priority="75">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B215:L215">
-    <cfRule type="expression" dxfId="319" priority="74">
+    <cfRule type="expression" dxfId="316" priority="74">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E142">
-    <cfRule type="expression" dxfId="318" priority="84">
+    <cfRule type="expression" dxfId="315" priority="84">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A216:A217">
-    <cfRule type="expression" dxfId="317" priority="83">
+    <cfRule type="expression" dxfId="314" priority="83">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J196:L196 D196">
-    <cfRule type="expression" dxfId="316" priority="71">
+    <cfRule type="expression" dxfId="313" priority="71">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A195 D195:L195 E196:H196 C198:L200">
-    <cfRule type="expression" dxfId="315" priority="70">
+    <cfRule type="expression" dxfId="312" priority="70">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B216:B218">
-    <cfRule type="expression" dxfId="314" priority="79">
+    <cfRule type="expression" dxfId="311" priority="79">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A214 A218">
-    <cfRule type="expression" dxfId="313" priority="80">
+    <cfRule type="expression" dxfId="310" priority="80">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B213:C213">
-    <cfRule type="expression" dxfId="312" priority="78">
+    <cfRule type="expression" dxfId="309" priority="78">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I214">
-    <cfRule type="expression" dxfId="311" priority="77">
+    <cfRule type="expression" dxfId="308" priority="77">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C196">
-    <cfRule type="expression" dxfId="310" priority="65">
+    <cfRule type="expression" dxfId="307" priority="65">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B196">
-    <cfRule type="expression" dxfId="309" priority="64">
+    <cfRule type="expression" dxfId="306" priority="64">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B197:L197">
-    <cfRule type="expression" dxfId="308" priority="63">
+    <cfRule type="expression" dxfId="305" priority="63">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A215">
-    <cfRule type="expression" dxfId="307" priority="73">
+    <cfRule type="expression" dxfId="304" priority="73">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J178:L178 D178">
-    <cfRule type="expression" dxfId="306" priority="60">
+    <cfRule type="expression" dxfId="303" priority="60">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A198:A199">
-    <cfRule type="expression" dxfId="305" priority="72">
+    <cfRule type="expression" dxfId="302" priority="72">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B198:B200">
-    <cfRule type="expression" dxfId="304" priority="68">
+    <cfRule type="expression" dxfId="301" priority="68">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A196 A200">
-    <cfRule type="expression" dxfId="303" priority="69">
+    <cfRule type="expression" dxfId="300" priority="69">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B195:C195">
-    <cfRule type="expression" dxfId="302" priority="67">
+    <cfRule type="expression" dxfId="299" priority="67">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I196">
-    <cfRule type="expression" dxfId="301" priority="66">
+    <cfRule type="expression" dxfId="298" priority="66">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A197">
-    <cfRule type="expression" dxfId="300" priority="62">
+    <cfRule type="expression" dxfId="297" priority="62">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A180:A181">
-    <cfRule type="expression" dxfId="299" priority="61">
+    <cfRule type="expression" dxfId="296" priority="61">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A177 D177:L177 E178:H178 C180:L182">
-    <cfRule type="expression" dxfId="298" priority="59">
+    <cfRule type="expression" dxfId="295" priority="59">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B180:B182">
-    <cfRule type="expression" dxfId="297" priority="57">
+    <cfRule type="expression" dxfId="294" priority="57">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A178 A182">
-    <cfRule type="expression" dxfId="296" priority="58">
+    <cfRule type="expression" dxfId="293" priority="58">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B177:C177">
-    <cfRule type="expression" dxfId="295" priority="56">
+    <cfRule type="expression" dxfId="292" priority="56">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I178">
-    <cfRule type="expression" dxfId="294" priority="55">
+    <cfRule type="expression" dxfId="291" priority="55">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C178">
-    <cfRule type="expression" dxfId="293" priority="54">
+    <cfRule type="expression" dxfId="290" priority="54">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B178">
-    <cfRule type="expression" dxfId="292" priority="53">
+    <cfRule type="expression" dxfId="289" priority="53">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B179:L179">
-    <cfRule type="expression" dxfId="291" priority="52">
+    <cfRule type="expression" dxfId="288" priority="52">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A179">
-    <cfRule type="expression" dxfId="290" priority="51">
+    <cfRule type="expression" dxfId="287" priority="51">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D76:E76 G78:L78 G79:K79">
-    <cfRule type="expression" dxfId="289" priority="45">
+    <cfRule type="expression" dxfId="286" priority="45">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:B61">
-    <cfRule type="expression" dxfId="288" priority="31">
+    <cfRule type="expression" dxfId="285" priority="31">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75 A77 A79">
-    <cfRule type="expression" dxfId="287" priority="44">
+    <cfRule type="expression" dxfId="284" priority="44">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77:B79">
-    <cfRule type="expression" dxfId="286" priority="42">
+    <cfRule type="expression" dxfId="283" priority="42">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80:A81">
-    <cfRule type="expression" dxfId="285" priority="50">
+    <cfRule type="expression" dxfId="282" priority="50">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82">
-    <cfRule type="expression" dxfId="284" priority="48">
+    <cfRule type="expression" dxfId="281" priority="48">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74 D74:L74 C80:L82 A76 A78">
-    <cfRule type="expression" dxfId="283" priority="49">
+    <cfRule type="expression" dxfId="280" priority="49">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B80:B82">
-    <cfRule type="expression" dxfId="282" priority="47">
+    <cfRule type="expression" dxfId="279" priority="47">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74:C74">
-    <cfRule type="expression" dxfId="281" priority="46">
+    <cfRule type="expression" dxfId="278" priority="46">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61">
-    <cfRule type="expression" dxfId="280" priority="32">
+    <cfRule type="expression" dxfId="277" priority="32">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77:C79">
-    <cfRule type="expression" dxfId="279" priority="43">
+    <cfRule type="expression" dxfId="276" priority="43">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78">
-    <cfRule type="expression" dxfId="278" priority="39">
+    <cfRule type="expression" dxfId="275" priority="39">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79">
-    <cfRule type="expression" dxfId="277" priority="38">
+    <cfRule type="expression" dxfId="274" priority="38">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54 D54:L54 C59:L61 A56 A58">
-    <cfRule type="expression" dxfId="276" priority="33">
+    <cfRule type="expression" dxfId="273" priority="33">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55:E55 F55:L57 G58:L58">
-    <cfRule type="expression" dxfId="275" priority="29">
+    <cfRule type="expression" dxfId="272" priority="29">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55 A57">
-    <cfRule type="expression" dxfId="274" priority="28">
+    <cfRule type="expression" dxfId="271" priority="28">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B56:B58">
-    <cfRule type="expression" dxfId="273" priority="26">
+    <cfRule type="expression" dxfId="270" priority="26">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:A60">
-    <cfRule type="expression" dxfId="272" priority="34">
+    <cfRule type="expression" dxfId="269" priority="34">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56:E58">
-    <cfRule type="expression" dxfId="271" priority="25">
+    <cfRule type="expression" dxfId="268" priority="25">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:C54">
-    <cfRule type="expression" dxfId="270" priority="30">
+    <cfRule type="expression" dxfId="267" priority="30">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56:D58">
-    <cfRule type="expression" dxfId="269" priority="24">
+    <cfRule type="expression" dxfId="266" priority="24">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C58">
-    <cfRule type="expression" dxfId="268" priority="27">
+    <cfRule type="expression" dxfId="265" priority="27">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="expression" dxfId="267" priority="23">
+    <cfRule type="expression" dxfId="264" priority="23">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="expression" dxfId="266" priority="16">
+    <cfRule type="expression" dxfId="263" priority="16">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D78">
-    <cfRule type="expression" dxfId="265" priority="15">
+    <cfRule type="expression" dxfId="262" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79">
-    <cfRule type="expression" dxfId="264" priority="13">
+    <cfRule type="expression" dxfId="261" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="expression" dxfId="263" priority="14">
+    <cfRule type="expression" dxfId="260" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L79">
-    <cfRule type="expression" dxfId="262" priority="12">
+    <cfRule type="expression" dxfId="259" priority="12">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:C19">
-    <cfRule type="expression" dxfId="261" priority="11">
+    <cfRule type="expression" dxfId="258" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:J19">
-    <cfRule type="expression" dxfId="260" priority="9">
+    <cfRule type="expression" dxfId="257" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19">
-    <cfRule type="expression" dxfId="259" priority="8">
+    <cfRule type="expression" dxfId="256" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="expression" dxfId="258" priority="7">
+    <cfRule type="expression" dxfId="255" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19">
-    <cfRule type="expression" dxfId="257" priority="6">
+    <cfRule type="expression" dxfId="254" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:E19">
-    <cfRule type="expression" dxfId="256" priority="5">
+    <cfRule type="expression" dxfId="253" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27 C27:J27">
-    <cfRule type="expression" dxfId="255" priority="4">
+    <cfRule type="expression" dxfId="252" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27">
-    <cfRule type="expression" dxfId="254" priority="2">
+    <cfRule type="expression" dxfId="251" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="253" priority="3">
+    <cfRule type="expression" dxfId="250" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35895,10 +35718,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>136</v>
@@ -35925,10 +35748,10 @@
         <v>5</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>136</v>
@@ -36857,402 +36680,402 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A17:A18 L15:L16 A16:C16 F15:H16 E55:H55 E56:I56 L55:L56 A56:C56">
-    <cfRule type="expression" dxfId="252" priority="145">
+    <cfRule type="expression" dxfId="249" priority="145">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:C12">
-    <cfRule type="expression" dxfId="251" priority="141">
+    <cfRule type="expression" dxfId="248" priority="141">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12 D12:L12 C18:L19 C17:J17 L17">
-    <cfRule type="expression" dxfId="250" priority="144">
+    <cfRule type="expression" dxfId="247" priority="144">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15 A19">
-    <cfRule type="expression" dxfId="249" priority="143">
+    <cfRule type="expression" dxfId="246" priority="143">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B19">
-    <cfRule type="expression" dxfId="248" priority="142">
+    <cfRule type="expression" dxfId="245" priority="142">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="expression" dxfId="247" priority="140">
+    <cfRule type="expression" dxfId="244" priority="140">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="246" priority="139">
+    <cfRule type="expression" dxfId="243" priority="139">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="245" priority="114">
+    <cfRule type="expression" dxfId="242" priority="114">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="expression" dxfId="244" priority="103">
+    <cfRule type="expression" dxfId="241" priority="103">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="243" priority="127">
+    <cfRule type="expression" dxfId="240" priority="127">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="242" priority="119">
+    <cfRule type="expression" dxfId="239" priority="119">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="241" priority="118">
+    <cfRule type="expression" dxfId="238" priority="118">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="expression" dxfId="240" priority="102">
+    <cfRule type="expression" dxfId="237" priority="102">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17">
-    <cfRule type="expression" dxfId="239" priority="106">
+    <cfRule type="expression" dxfId="236" priority="106">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="238" priority="101">
+    <cfRule type="expression" dxfId="235" priority="101">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:A40">
-    <cfRule type="expression" dxfId="237" priority="95">
+    <cfRule type="expression" dxfId="234" priority="95">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33 A41 A36">
-    <cfRule type="expression" dxfId="236" priority="93">
+    <cfRule type="expression" dxfId="233" priority="93">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39:B41">
-    <cfRule type="expression" dxfId="235" priority="92">
+    <cfRule type="expression" dxfId="232" priority="92">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32 D32:L32 C40:L41 A34:A35 A37:A38 C39:J39 L39">
-    <cfRule type="expression" dxfId="234" priority="94">
+    <cfRule type="expression" dxfId="231" priority="94">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:C32">
-    <cfRule type="expression" dxfId="233" priority="91">
+    <cfRule type="expression" dxfId="230" priority="91">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:H37 J33:K34 J36:J37">
-    <cfRule type="expression" dxfId="232" priority="90">
+    <cfRule type="expression" dxfId="229" priority="90">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:I37">
-    <cfRule type="expression" dxfId="231" priority="89">
+    <cfRule type="expression" dxfId="228" priority="89">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="230" priority="75">
+    <cfRule type="expression" dxfId="227" priority="75">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="229" priority="74">
+    <cfRule type="expression" dxfId="226" priority="74">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L33:L37">
-    <cfRule type="expression" dxfId="228" priority="88">
+    <cfRule type="expression" dxfId="225" priority="88">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="expression" dxfId="227" priority="73">
+    <cfRule type="expression" dxfId="224" priority="73">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="226" priority="87">
+    <cfRule type="expression" dxfId="223" priority="87">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="225" priority="86">
+    <cfRule type="expression" dxfId="222" priority="86">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="224" priority="85">
+    <cfRule type="expression" dxfId="221" priority="85">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="223" priority="84">
+    <cfRule type="expression" dxfId="220" priority="84">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:C36">
-    <cfRule type="expression" dxfId="222" priority="83">
+    <cfRule type="expression" dxfId="219" priority="83">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:B36">
-    <cfRule type="expression" dxfId="221" priority="82">
+    <cfRule type="expression" dxfId="218" priority="82">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="220" priority="81">
+    <cfRule type="expression" dxfId="217" priority="81">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="219" priority="80">
+    <cfRule type="expression" dxfId="216" priority="80">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="218" priority="79">
+    <cfRule type="expression" dxfId="215" priority="79">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="217" priority="78">
+    <cfRule type="expression" dxfId="214" priority="78">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="216" priority="77">
+    <cfRule type="expression" dxfId="213" priority="77">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K37">
-    <cfRule type="expression" dxfId="215" priority="69">
+    <cfRule type="expression" dxfId="212" priority="69">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36">
-    <cfRule type="expression" dxfId="214" priority="68">
+    <cfRule type="expression" dxfId="211" priority="68">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K39">
-    <cfRule type="expression" dxfId="213" priority="70">
+    <cfRule type="expression" dxfId="210" priority="70">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35">
-    <cfRule type="expression" dxfId="212" priority="67">
+    <cfRule type="expression" dxfId="209" priority="67">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35">
-    <cfRule type="expression" dxfId="211" priority="66">
+    <cfRule type="expression" dxfId="208" priority="66">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="expression" dxfId="210" priority="65">
+    <cfRule type="expression" dxfId="207" priority="65">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38:K38">
-    <cfRule type="expression" dxfId="209" priority="64">
+    <cfRule type="expression" dxfId="206" priority="64">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="208" priority="62">
+    <cfRule type="expression" dxfId="205" priority="62">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="expression" dxfId="207" priority="61">
+    <cfRule type="expression" dxfId="204" priority="61">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="expression" dxfId="206" priority="63">
+    <cfRule type="expression" dxfId="203" priority="63">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L38">
-    <cfRule type="expression" dxfId="205" priority="60">
+    <cfRule type="expression" dxfId="202" priority="60">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57">
-    <cfRule type="expression" dxfId="204" priority="59">
+    <cfRule type="expression" dxfId="201" priority="59">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:C54">
-    <cfRule type="expression" dxfId="203" priority="55">
+    <cfRule type="expression" dxfId="200" priority="55">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54 D54:L54 C59:L59 C57:J57 L57">
-    <cfRule type="expression" dxfId="202" priority="58">
+    <cfRule type="expression" dxfId="199" priority="58">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55 A59">
-    <cfRule type="expression" dxfId="201" priority="57">
+    <cfRule type="expression" dxfId="198" priority="57">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57 B59">
-    <cfRule type="expression" dxfId="200" priority="56">
+    <cfRule type="expression" dxfId="197" priority="56">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J55:K55">
-    <cfRule type="expression" dxfId="199" priority="54">
+    <cfRule type="expression" dxfId="196" priority="54">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="expression" dxfId="198" priority="38">
+    <cfRule type="expression" dxfId="195" priority="38">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="expression" dxfId="197" priority="51">
+    <cfRule type="expression" dxfId="194" priority="51">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="expression" dxfId="196" priority="43">
+    <cfRule type="expression" dxfId="193" priority="43">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="195" priority="42">
+    <cfRule type="expression" dxfId="192" priority="42">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K57">
-    <cfRule type="expression" dxfId="194" priority="34">
+    <cfRule type="expression" dxfId="191" priority="34">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K56">
-    <cfRule type="expression" dxfId="193" priority="31">
+    <cfRule type="expression" dxfId="190" priority="31">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J56">
-    <cfRule type="expression" dxfId="192" priority="30">
+    <cfRule type="expression" dxfId="189" priority="30">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55">
-    <cfRule type="expression" dxfId="191" priority="29">
+    <cfRule type="expression" dxfId="188" priority="29">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13:L14 A14:C14 E13:H14">
-    <cfRule type="expression" dxfId="190" priority="18">
+    <cfRule type="expression" dxfId="187" priority="18">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="expression" dxfId="189" priority="17">
+    <cfRule type="expression" dxfId="186" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:K13">
-    <cfRule type="expression" dxfId="188" priority="16">
+    <cfRule type="expression" dxfId="185" priority="16">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="187" priority="15">
+    <cfRule type="expression" dxfId="184" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="186" priority="11">
+    <cfRule type="expression" dxfId="183" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="expression" dxfId="185" priority="10">
+    <cfRule type="expression" dxfId="182" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="184" priority="14">
+    <cfRule type="expression" dxfId="181" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="expression" dxfId="183" priority="13">
+    <cfRule type="expression" dxfId="180" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="182" priority="12">
+    <cfRule type="expression" dxfId="179" priority="12">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="expression" dxfId="181" priority="9">
+    <cfRule type="expression" dxfId="178" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="180" priority="8">
+    <cfRule type="expression" dxfId="177" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="179" priority="7">
+    <cfRule type="expression" dxfId="176" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="178" priority="6">
+    <cfRule type="expression" dxfId="175" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="expression" dxfId="177" priority="5">
+    <cfRule type="expression" dxfId="174" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="expression" dxfId="176" priority="4">
+    <cfRule type="expression" dxfId="173" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="expression" dxfId="175" priority="2">
+    <cfRule type="expression" dxfId="172" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:J58 L58">
-    <cfRule type="expression" dxfId="174" priority="3">
+    <cfRule type="expression" dxfId="171" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K58">
-    <cfRule type="expression" dxfId="173" priority="1">
+    <cfRule type="expression" dxfId="170" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38080,10 +37903,10 @@
         <v>2</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>85</v>
@@ -38112,7 +37935,7 @@
         <v>3</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>79</v>
@@ -38132,7 +37955,7 @@
       </c>
       <c r="K37" s="3"/>
       <c r="L37" s="5" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
@@ -38146,7 +37969,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>62</v>
@@ -38176,10 +37999,10 @@
         <v>5</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>85</v>
@@ -38558,10 +38381,10 @@
         <v>2</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>85</v>
@@ -38586,7 +38409,7 @@
         <v>3</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>30</v>
@@ -38616,7 +38439,7 @@
         <v>4</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>232</v>
@@ -38636,7 +38459,7 @@
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
@@ -38972,10 +38795,10 @@
         <v>2</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>85</v>
@@ -39004,10 +38827,10 @@
         <v>3</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>85</v>
@@ -39022,7 +38845,7 @@
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
       <c r="L77" s="5" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="M77" s="9"/>
       <c r="N77" s="9"/>
@@ -39036,7 +38859,7 @@
         <v>4</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>30</v>
@@ -39066,10 +38889,10 @@
         <v>5</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>108</v>
@@ -39094,10 +38917,10 @@
         <v>6</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>108</v>
@@ -39122,10 +38945,10 @@
         <v>7</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>108</v>
@@ -39228,467 +39051,467 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A82:A83 A56 L58:L59 F58:K58 B58:C58 A58:A59">
-    <cfRule type="expression" dxfId="172" priority="248">
+    <cfRule type="expression" dxfId="169" priority="248">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B84">
-    <cfRule type="expression" dxfId="171" priority="237">
+    <cfRule type="expression" dxfId="168" priority="237">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:L75 C82:L84 A75:A76 E76:H76 J76:L76 A78:A79 A81">
-    <cfRule type="expression" dxfId="170" priority="239">
+    <cfRule type="expression" dxfId="167" priority="239">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="expression" dxfId="169" priority="238">
+    <cfRule type="expression" dxfId="166" priority="238">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:C76">
-    <cfRule type="expression" dxfId="168" priority="236">
+    <cfRule type="expression" dxfId="165" priority="236">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I78:I79 I81">
-    <cfRule type="expression" dxfId="167" priority="217">
+    <cfRule type="expression" dxfId="164" priority="217">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L78:L79 L81">
-    <cfRule type="expression" dxfId="166" priority="216">
+    <cfRule type="expression" dxfId="163" priority="216">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J78:K79 F78:H79 F81:H81 J81:K81">
-    <cfRule type="expression" dxfId="165" priority="219">
+    <cfRule type="expression" dxfId="162" priority="219">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B79 B81">
-    <cfRule type="expression" dxfId="164" priority="214">
+    <cfRule type="expression" dxfId="161" priority="214">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I76">
-    <cfRule type="expression" dxfId="163" priority="135">
+    <cfRule type="expression" dxfId="160" priority="135">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D76">
-    <cfRule type="expression" dxfId="162" priority="136">
+    <cfRule type="expression" dxfId="159" priority="136">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A21">
-    <cfRule type="expression" dxfId="161" priority="116">
+    <cfRule type="expression" dxfId="158" priority="116">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B22">
-    <cfRule type="expression" dxfId="160" priority="113">
+    <cfRule type="expression" dxfId="157" priority="113">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:L12 C20:L22 A12:A19 E13:H13 J13:L13">
-    <cfRule type="expression" dxfId="159" priority="115">
+    <cfRule type="expression" dxfId="156" priority="115">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="expression" dxfId="158" priority="114">
+    <cfRule type="expression" dxfId="155" priority="114">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:C13">
-    <cfRule type="expression" dxfId="157" priority="112">
+    <cfRule type="expression" dxfId="154" priority="112">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:I18">
-    <cfRule type="expression" dxfId="156" priority="110">
+    <cfRule type="expression" dxfId="153" priority="110">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14:L19">
-    <cfRule type="expression" dxfId="155" priority="109">
+    <cfRule type="expression" dxfId="152" priority="109">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:H18 J14:K18">
-    <cfRule type="expression" dxfId="154" priority="111">
+    <cfRule type="expression" dxfId="151" priority="111">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B18">
-    <cfRule type="expression" dxfId="153" priority="108">
+    <cfRule type="expression" dxfId="150" priority="108">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D18">
-    <cfRule type="expression" dxfId="152" priority="107">
+    <cfRule type="expression" dxfId="149" priority="107">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:C16">
-    <cfRule type="expression" dxfId="151" priority="106">
+    <cfRule type="expression" dxfId="148" priority="106">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C18">
-    <cfRule type="expression" dxfId="150" priority="105">
+    <cfRule type="expression" dxfId="147" priority="105">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="149" priority="104">
+    <cfRule type="expression" dxfId="146" priority="104">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="expression" dxfId="148" priority="101">
+    <cfRule type="expression" dxfId="145" priority="101">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="147" priority="103">
+    <cfRule type="expression" dxfId="144" priority="103">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:K19">
-    <cfRule type="expression" dxfId="146" priority="102">
+    <cfRule type="expression" dxfId="143" priority="102">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="145" priority="100">
+    <cfRule type="expression" dxfId="142" priority="100">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="expression" dxfId="144" priority="99">
+    <cfRule type="expression" dxfId="141" priority="99">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="143" priority="98">
+    <cfRule type="expression" dxfId="140" priority="98">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="142" priority="97">
+    <cfRule type="expression" dxfId="139" priority="97">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B56:C56">
-    <cfRule type="expression" dxfId="141" priority="81">
+    <cfRule type="expression" dxfId="138" priority="81">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="expression" dxfId="140" priority="93">
+    <cfRule type="expression" dxfId="137" priority="93">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="expression" dxfId="139" priority="91">
+    <cfRule type="expression" dxfId="136" priority="91">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:A61">
-    <cfRule type="expression" dxfId="138" priority="85">
+    <cfRule type="expression" dxfId="135" priority="85">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60:B62">
-    <cfRule type="expression" dxfId="137" priority="82">
+    <cfRule type="expression" dxfId="134" priority="82">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56:L56 C60:L62">
-    <cfRule type="expression" dxfId="136" priority="84">
+    <cfRule type="expression" dxfId="133" priority="84">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="expression" dxfId="135" priority="83">
+    <cfRule type="expression" dxfId="132" priority="83">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59">
-    <cfRule type="expression" dxfId="134" priority="74">
+    <cfRule type="expression" dxfId="131" priority="74">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="expression" dxfId="133" priority="71">
+    <cfRule type="expression" dxfId="130" priority="71">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="132" priority="73">
+    <cfRule type="expression" dxfId="129" priority="73">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59:K59">
-    <cfRule type="expression" dxfId="131" priority="72">
+    <cfRule type="expression" dxfId="128" priority="72">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="expression" dxfId="130" priority="70">
+    <cfRule type="expression" dxfId="127" priority="70">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="expression" dxfId="129" priority="67">
+    <cfRule type="expression" dxfId="126" priority="67">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="expression" dxfId="128" priority="58">
+    <cfRule type="expression" dxfId="125" priority="58">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="expression" dxfId="127" priority="57">
+    <cfRule type="expression" dxfId="124" priority="57">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A42">
-    <cfRule type="expression" dxfId="126" priority="56">
+    <cfRule type="expression" dxfId="123" priority="56">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:B43">
-    <cfRule type="expression" dxfId="125" priority="53">
+    <cfRule type="expression" dxfId="122" priority="53">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:L35 C41:L43 A35:A40 E36:H36 J36:L36">
-    <cfRule type="expression" dxfId="124" priority="55">
+    <cfRule type="expression" dxfId="121" priority="55">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="expression" dxfId="123" priority="54">
+    <cfRule type="expression" dxfId="120" priority="54">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:C36">
-    <cfRule type="expression" dxfId="122" priority="52">
+    <cfRule type="expression" dxfId="119" priority="52">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:I40">
-    <cfRule type="expression" dxfId="121" priority="50">
+    <cfRule type="expression" dxfId="118" priority="50">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L37:L40">
-    <cfRule type="expression" dxfId="120" priority="49">
+    <cfRule type="expression" dxfId="117" priority="49">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37:K40 F37:H40">
-    <cfRule type="expression" dxfId="119" priority="51">
+    <cfRule type="expression" dxfId="116" priority="51">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:B40">
-    <cfRule type="expression" dxfId="118" priority="48">
+    <cfRule type="expression" dxfId="115" priority="48">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39">
-    <cfRule type="expression" dxfId="117" priority="47">
+    <cfRule type="expression" dxfId="114" priority="47">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="116" priority="46">
+    <cfRule type="expression" dxfId="113" priority="46">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="115" priority="40">
+    <cfRule type="expression" dxfId="112" priority="40">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="expression" dxfId="114" priority="39">
+    <cfRule type="expression" dxfId="111" priority="39">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="expression" dxfId="113" priority="37">
+    <cfRule type="expression" dxfId="110" priority="37">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="expression" dxfId="112" priority="36">
+    <cfRule type="expression" dxfId="109" priority="36">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="expression" dxfId="111" priority="35">
+    <cfRule type="expression" dxfId="108" priority="35">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="110" priority="34">
+    <cfRule type="expression" dxfId="107" priority="34">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="expression" dxfId="109" priority="33">
+    <cfRule type="expression" dxfId="106" priority="33">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="expression" dxfId="108" priority="32">
+    <cfRule type="expression" dxfId="105" priority="32">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="expression" dxfId="107" priority="31">
+    <cfRule type="expression" dxfId="104" priority="31">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="expression" dxfId="106" priority="30">
+    <cfRule type="expression" dxfId="103" priority="30">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57 E57:H57 J57:L57">
-    <cfRule type="expression" dxfId="105" priority="27">
+    <cfRule type="expression" dxfId="102" priority="27">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:C57">
-    <cfRule type="expression" dxfId="104" priority="26">
+    <cfRule type="expression" dxfId="101" priority="26">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="expression" dxfId="103" priority="25">
+    <cfRule type="expression" dxfId="100" priority="25">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I57">
-    <cfRule type="expression" dxfId="102" priority="24">
+    <cfRule type="expression" dxfId="99" priority="24">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78">
-    <cfRule type="expression" dxfId="101" priority="23">
+    <cfRule type="expression" dxfId="98" priority="23">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C78">
-    <cfRule type="expression" dxfId="100" priority="22">
+    <cfRule type="expression" dxfId="97" priority="22">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="expression" dxfId="99" priority="21">
+    <cfRule type="expression" dxfId="96" priority="21">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D78">
-    <cfRule type="expression" dxfId="98" priority="20">
+    <cfRule type="expression" dxfId="95" priority="20">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79">
-    <cfRule type="expression" dxfId="97" priority="19">
+    <cfRule type="expression" dxfId="94" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D81">
-    <cfRule type="expression" dxfId="96" priority="18">
+    <cfRule type="expression" dxfId="93" priority="18">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C79 C81">
-    <cfRule type="expression" dxfId="95" priority="17">
+    <cfRule type="expression" dxfId="92" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80">
-    <cfRule type="expression" dxfId="94" priority="14">
+    <cfRule type="expression" dxfId="91" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L80">
-    <cfRule type="expression" dxfId="93" priority="13">
+    <cfRule type="expression" dxfId="90" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80:H80 J80:K80">
-    <cfRule type="expression" dxfId="92" priority="15">
+    <cfRule type="expression" dxfId="89" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B80">
-    <cfRule type="expression" dxfId="91" priority="12">
+    <cfRule type="expression" dxfId="88" priority="12">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="expression" dxfId="90" priority="11">
+    <cfRule type="expression" dxfId="87" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D80">
-    <cfRule type="expression" dxfId="89" priority="10">
+    <cfRule type="expression" dxfId="86" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80">
-    <cfRule type="expression" dxfId="88" priority="9">
+    <cfRule type="expression" dxfId="85" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77 A80">
-    <cfRule type="expression" dxfId="87" priority="8">
+    <cfRule type="expression" dxfId="84" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I77">
-    <cfRule type="expression" dxfId="86" priority="6">
+    <cfRule type="expression" dxfId="83" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L77">
-    <cfRule type="expression" dxfId="85" priority="5">
+    <cfRule type="expression" dxfId="82" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J77:K77 F77:H77">
-    <cfRule type="expression" dxfId="84" priority="7">
+    <cfRule type="expression" dxfId="81" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77">
-    <cfRule type="expression" dxfId="83" priority="4">
+    <cfRule type="expression" dxfId="80" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77">
-    <cfRule type="expression" dxfId="82" priority="3">
+    <cfRule type="expression" dxfId="79" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="expression" dxfId="81" priority="2">
+    <cfRule type="expression" dxfId="78" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77">
-    <cfRule type="expression" dxfId="80" priority="1">
+    <cfRule type="expression" dxfId="77" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40034,10 +39857,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>77</v>
@@ -41260,10 +41083,10 @@
         <v>3</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>77</v>
@@ -41290,10 +41113,10 @@
         <v>4</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>77</v>
@@ -41320,10 +41143,10 @@
         <v>5</v>
       </c>
       <c r="B72" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>556</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>558</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>108</v>
@@ -41392,10 +41215,10 @@
     <row r="75" spans="1:18" ht="17.25" customHeight="1">
       <c r="A75" s="3"/>
       <c r="B75" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>557</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>559</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>108</v>
@@ -41428,387 +41251,387 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A16">
-    <cfRule type="expression" dxfId="79" priority="127">
+    <cfRule type="expression" dxfId="76" priority="127">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31 A29 D29:L29 J30:K31 E30:H31 F33:J33 C32:C33 B30:B33 A33 F32:H32 L30:L33">
-    <cfRule type="expression" dxfId="78" priority="94">
+    <cfRule type="expression" dxfId="75" priority="94">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30 A32 J32">
-    <cfRule type="expression" dxfId="77" priority="93">
+    <cfRule type="expression" dxfId="74" priority="93">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33">
-    <cfRule type="expression" dxfId="76" priority="91">
+    <cfRule type="expression" dxfId="73" priority="91">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32">
-    <cfRule type="expression" dxfId="75" priority="90">
+    <cfRule type="expression" dxfId="72" priority="90">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="expression" dxfId="74" priority="89">
+    <cfRule type="expression" dxfId="71" priority="89">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31">
-    <cfRule type="expression" dxfId="73" priority="88">
+    <cfRule type="expression" dxfId="70" priority="88">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:D30 C31">
-    <cfRule type="expression" dxfId="72" priority="85">
+    <cfRule type="expression" dxfId="69" priority="85">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="71" priority="72">
+    <cfRule type="expression" dxfId="68" priority="72">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="expression" dxfId="70" priority="86">
+    <cfRule type="expression" dxfId="67" priority="86">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:C29">
-    <cfRule type="expression" dxfId="69" priority="87">
+    <cfRule type="expression" dxfId="66" priority="87">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="68" priority="84">
+    <cfRule type="expression" dxfId="65" priority="84">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="67" priority="81">
+    <cfRule type="expression" dxfId="64" priority="81">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="expression" dxfId="66" priority="82">
+    <cfRule type="expression" dxfId="63" priority="82">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34:A35">
-    <cfRule type="expression" dxfId="65" priority="63">
+    <cfRule type="expression" dxfId="62" priority="63">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12 D12:L12 C16:L16 E13:H13 B13 J13:L13 J15:L15 A15:B15 E15:H15">
-    <cfRule type="expression" dxfId="64" priority="80">
+    <cfRule type="expression" dxfId="61" priority="80">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="expression" dxfId="63" priority="79">
+    <cfRule type="expression" dxfId="60" priority="79">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="62" priority="74">
+    <cfRule type="expression" dxfId="59" priority="74">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:D13 C15:D15">
-    <cfRule type="expression" dxfId="61" priority="71">
+    <cfRule type="expression" dxfId="58" priority="71">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="60" priority="78">
+    <cfRule type="expression" dxfId="57" priority="78">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:C12">
-    <cfRule type="expression" dxfId="59" priority="73">
+    <cfRule type="expression" dxfId="56" priority="73">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:L36">
-    <cfRule type="expression" dxfId="58" priority="62">
+    <cfRule type="expression" dxfId="55" priority="62">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75">
-    <cfRule type="expression" dxfId="57" priority="45">
+    <cfRule type="expression" dxfId="54" priority="45">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:B36">
-    <cfRule type="expression" dxfId="56" priority="60">
+    <cfRule type="expression" dxfId="53" priority="60">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75:J75 L75">
-    <cfRule type="expression" dxfId="55" priority="44">
+    <cfRule type="expression" dxfId="52" priority="44">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="54" priority="61">
+    <cfRule type="expression" dxfId="51" priority="61">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="53" priority="59">
+    <cfRule type="expression" dxfId="50" priority="59">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="52" priority="58">
+    <cfRule type="expression" dxfId="49" priority="58">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70 A68 D68:L68 J69:K70 E69:H70 F72:J72 C71 B69:B71 F71:H71 L69:L72 A72:C72">
-    <cfRule type="expression" dxfId="51" priority="57">
+    <cfRule type="expression" dxfId="48" priority="57">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69 A71 J71">
-    <cfRule type="expression" dxfId="50" priority="56">
+    <cfRule type="expression" dxfId="47" priority="56">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I71">
-    <cfRule type="expression" dxfId="49" priority="53">
+    <cfRule type="expression" dxfId="46" priority="53">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I70">
-    <cfRule type="expression" dxfId="48" priority="52">
+    <cfRule type="expression" dxfId="45" priority="52">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69:D69 C70">
-    <cfRule type="expression" dxfId="47" priority="49">
+    <cfRule type="expression" dxfId="44" priority="49">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I69">
-    <cfRule type="expression" dxfId="46" priority="50">
+    <cfRule type="expression" dxfId="43" priority="50">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68:C68">
-    <cfRule type="expression" dxfId="45" priority="51">
+    <cfRule type="expression" dxfId="42" priority="51">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="expression" dxfId="44" priority="48">
+    <cfRule type="expression" dxfId="41" priority="48">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="expression" dxfId="43" priority="47">
+    <cfRule type="expression" dxfId="40" priority="47">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75">
-    <cfRule type="expression" dxfId="42" priority="42">
+    <cfRule type="expression" dxfId="39" priority="42">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="expression" dxfId="41" priority="41">
+    <cfRule type="expression" dxfId="38" priority="41">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="expression" dxfId="40" priority="40">
+    <cfRule type="expression" dxfId="37" priority="40">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F73:J73 L73 A73">
-    <cfRule type="expression" dxfId="39" priority="39">
+    <cfRule type="expression" dxfId="36" priority="39">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="expression" dxfId="38" priority="37">
+    <cfRule type="expression" dxfId="35" priority="37">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K72">
-    <cfRule type="expression" dxfId="37" priority="35">
+    <cfRule type="expression" dxfId="34" priority="35">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K73">
-    <cfRule type="expression" dxfId="36" priority="34">
+    <cfRule type="expression" dxfId="33" priority="34">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K71">
-    <cfRule type="expression" dxfId="35" priority="33">
+    <cfRule type="expression" dxfId="32" priority="33">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:L14 A14:B14 E14:H14">
-    <cfRule type="expression" dxfId="34" priority="32">
+    <cfRule type="expression" dxfId="31" priority="32">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="33" priority="31">
+    <cfRule type="expression" dxfId="30" priority="31">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D14">
-    <cfRule type="expression" dxfId="32" priority="30">
+    <cfRule type="expression" dxfId="29" priority="30">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="expression" dxfId="31" priority="20">
+    <cfRule type="expression" dxfId="28" priority="20">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="expression" dxfId="30" priority="19">
+    <cfRule type="expression" dxfId="27" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55:L55">
-    <cfRule type="expression" dxfId="29" priority="18">
+    <cfRule type="expression" dxfId="26" priority="18">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51 A49 D49:L49 J50:K51 E50:H51 F54:J54 C52 B50:B52 F52:H52 L50:L52 L54 A54:C54">
-    <cfRule type="expression" dxfId="28" priority="29">
+    <cfRule type="expression" dxfId="25" priority="29">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50 A52 J52">
-    <cfRule type="expression" dxfId="27" priority="28">
+    <cfRule type="expression" dxfId="24" priority="28">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52">
-    <cfRule type="expression" dxfId="26" priority="27">
+    <cfRule type="expression" dxfId="23" priority="27">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51">
-    <cfRule type="expression" dxfId="25" priority="26">
+    <cfRule type="expression" dxfId="22" priority="26">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:D50 C51">
-    <cfRule type="expression" dxfId="24" priority="23">
+    <cfRule type="expression" dxfId="21" priority="23">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50">
-    <cfRule type="expression" dxfId="23" priority="24">
+    <cfRule type="expression" dxfId="20" priority="24">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:C49">
-    <cfRule type="expression" dxfId="22" priority="25">
+    <cfRule type="expression" dxfId="19" priority="25">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="expression" dxfId="21" priority="22">
+    <cfRule type="expression" dxfId="18" priority="22">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="17" priority="21">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="expression" dxfId="19" priority="17">
+    <cfRule type="expression" dxfId="16" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="expression" dxfId="18" priority="16">
+    <cfRule type="expression" dxfId="15" priority="16">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="expression" dxfId="17" priority="15">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="expression" dxfId="16" priority="12">
+    <cfRule type="expression" dxfId="13" priority="12">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53:J53 L53 A53:C53">
-    <cfRule type="expression" dxfId="15" priority="14">
+    <cfRule type="expression" dxfId="12" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="expression" dxfId="14" priority="13">
+    <cfRule type="expression" dxfId="11" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K54">
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K53">
-    <cfRule type="expression" dxfId="12" priority="10">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K52">
-    <cfRule type="expression" dxfId="11" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C73">
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73">
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="expression" dxfId="8" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K75">
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C74:L74">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/root/datas/ER.xlsx
+++ b/root/datas/ER.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10513"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Library/WebServer/Documents/akito/www.transporter.fun/root/datas/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76CC8ED-57A4-0345-A9DF-3A6C4F559011}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="1460" windowWidth="34160" windowHeight="16440" tabRatio="797" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1455" windowWidth="34155" windowHeight="16440" tabRatio="797" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="15" r:id="rId1"/>
@@ -31,14 +25,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="8">'master (8)'!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'other (3)'!$A$1:$L$59</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'owner (6)'!$A$1:$L$158</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'work (8)'!$A$1:$L$178</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'work (8)'!$A$1:$L$180</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3282" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3290" uniqueCount="624">
   <si>
     <t>カテゴリ</t>
     <phoneticPr fontId="3"/>
@@ -3422,17 +3416,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>仕事ID</t>
-    <rPh sb="0" eb="2">
-      <t>シゴト</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>work_id</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>目線</t>
     <rPh sb="0" eb="2">
       <t>メセン</t>
@@ -3566,11 +3549,66 @@
     <t>work_id</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ID名</t>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユニークID</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>id_name</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>unique_id</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>実行メソッド</t>
+    <rPh sb="0" eb="2">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>method</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実行者</t>
+    <rPh sb="0" eb="3">
+      <t>ジッコウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.2.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>status_logs の構成を変更。</t>
+    <rPh sb="13" eb="15">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#"/>
     <numFmt numFmtId="177" formatCode="&quot;発送元住所 - &quot;@"/>
@@ -4296,7 +4334,14 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1274">
+  <dxfs count="1275">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -13259,7 +13304,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13605,20 +13650,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:D35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D36"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A6" zoomScale="115" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3" style="19" customWidth="1"/>
     <col min="2" max="2" width="10" style="19" customWidth="1"/>
     <col min="3" max="3" width="5" style="19" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" style="19" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="19"/>
+    <col min="4" max="4" width="20.125" style="19" customWidth="1"/>
+    <col min="5" max="16384" width="8.875" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="14.25" customHeight="1">
@@ -13883,12 +13928,12 @@
     </row>
     <row r="31" spans="2:4" ht="14.25" customHeight="1">
       <c r="D31" s="19" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="14.25" customHeight="1">
       <c r="D32" s="19" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="14.25" customHeight="1">
@@ -13896,10 +13941,10 @@
         <v>43241</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="14.25" customHeight="1">
@@ -13907,15 +13952,26 @@
         <v>43244</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="14.25" customHeight="1">
       <c r="D35" s="19" t="s">
-        <v>613</v>
+        <v>611</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="14.25" customHeight="1">
+      <c r="B36" s="71">
+        <v>43245</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>622</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>623</v>
       </c>
     </row>
   </sheetData>
@@ -13927,26 +13983,26 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="3" width="34.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="11" width="7.83203125" customWidth="1"/>
-    <col min="12" max="12" width="60.33203125" customWidth="1"/>
-    <col min="13" max="13" width="54.83203125" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="3" width="34.625" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
+    <col min="6" max="11" width="7.875" customWidth="1"/>
+    <col min="12" max="12" width="60.375" customWidth="1"/>
+    <col min="13" max="13" width="54.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="17.25" customHeight="1">
@@ -15284,338 +15340,338 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A14 A12 D12:L12 J13:K14 E13:H14 F16:J16 C15:C16 B13:B16 A16 F15:H15 L13:L16">
-    <cfRule type="expression" dxfId="71" priority="94">
+    <cfRule type="expression" dxfId="67" priority="94">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13 A15 J15">
-    <cfRule type="expression" dxfId="70" priority="93">
+    <cfRule type="expression" dxfId="66" priority="93">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="expression" dxfId="69" priority="91">
+    <cfRule type="expression" dxfId="65" priority="91">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="expression" dxfId="68" priority="90">
+    <cfRule type="expression" dxfId="64" priority="90">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="67" priority="89">
+    <cfRule type="expression" dxfId="63" priority="89">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="66" priority="88">
+    <cfRule type="expression" dxfId="62" priority="88">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:D13 C14">
-    <cfRule type="expression" dxfId="65" priority="85">
+    <cfRule type="expression" dxfId="61" priority="85">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="64" priority="86">
+    <cfRule type="expression" dxfId="60" priority="86">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:C12">
-    <cfRule type="expression" dxfId="63" priority="87">
+    <cfRule type="expression" dxfId="59" priority="87">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="62" priority="84">
+    <cfRule type="expression" dxfId="58" priority="84">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="61" priority="81">
+    <cfRule type="expression" dxfId="57" priority="81">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="60" priority="82">
+    <cfRule type="expression" dxfId="56" priority="82">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="expression" dxfId="59" priority="63">
+    <cfRule type="expression" dxfId="55" priority="63">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:L19">
-    <cfRule type="expression" dxfId="58" priority="62">
+    <cfRule type="expression" dxfId="54" priority="62">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="expression" dxfId="57" priority="45">
+    <cfRule type="expression" dxfId="53" priority="45">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B19">
-    <cfRule type="expression" dxfId="56" priority="60">
+    <cfRule type="expression" dxfId="52" priority="60">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:J58 L58">
-    <cfRule type="expression" dxfId="55" priority="44">
+    <cfRule type="expression" dxfId="51" priority="44">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="expression" dxfId="54" priority="61">
+    <cfRule type="expression" dxfId="50" priority="61">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="53" priority="59">
+    <cfRule type="expression" dxfId="49" priority="59">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="52" priority="58">
+    <cfRule type="expression" dxfId="48" priority="58">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53 A51 D51:L51 J52:K53 E52:H53 F55:J55 C54 B52:B54 F54:H54 L52:L55 A55:C55">
-    <cfRule type="expression" dxfId="51" priority="57">
+    <cfRule type="expression" dxfId="47" priority="57">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52 A54 J54">
-    <cfRule type="expression" dxfId="50" priority="56">
+    <cfRule type="expression" dxfId="46" priority="56">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54">
-    <cfRule type="expression" dxfId="49" priority="53">
+    <cfRule type="expression" dxfId="45" priority="53">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53">
-    <cfRule type="expression" dxfId="48" priority="52">
+    <cfRule type="expression" dxfId="44" priority="52">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:D52 C53">
-    <cfRule type="expression" dxfId="47" priority="49">
+    <cfRule type="expression" dxfId="43" priority="49">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52">
-    <cfRule type="expression" dxfId="46" priority="50">
+    <cfRule type="expression" dxfId="42" priority="50">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:C51">
-    <cfRule type="expression" dxfId="45" priority="51">
+    <cfRule type="expression" dxfId="41" priority="51">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="44" priority="48">
+    <cfRule type="expression" dxfId="40" priority="48">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="expression" dxfId="43" priority="47">
+    <cfRule type="expression" dxfId="39" priority="47">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="expression" dxfId="42" priority="42">
+    <cfRule type="expression" dxfId="38" priority="42">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="expression" dxfId="41" priority="41">
+    <cfRule type="expression" dxfId="37" priority="41">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="expression" dxfId="40" priority="40">
+    <cfRule type="expression" dxfId="36" priority="40">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56:J56 L56 A56">
-    <cfRule type="expression" dxfId="39" priority="39">
+    <cfRule type="expression" dxfId="35" priority="39">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="expression" dxfId="38" priority="37">
+    <cfRule type="expression" dxfId="34" priority="37">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K55">
-    <cfRule type="expression" dxfId="37" priority="35">
+    <cfRule type="expression" dxfId="33" priority="35">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K56">
-    <cfRule type="expression" dxfId="36" priority="34">
+    <cfRule type="expression" dxfId="32" priority="34">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K54">
-    <cfRule type="expression" dxfId="35" priority="33">
+    <cfRule type="expression" dxfId="31" priority="33">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="expression" dxfId="34" priority="20">
+    <cfRule type="expression" dxfId="30" priority="20">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="expression" dxfId="33" priority="19">
+    <cfRule type="expression" dxfId="29" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:L38">
-    <cfRule type="expression" dxfId="32" priority="18">
+    <cfRule type="expression" dxfId="28" priority="18">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34 A32 D32:L32 J33:K34 E33:H34 F37:J37 C35 B33:B35 F35:H35 L33:L35 L37 A37:C37">
-    <cfRule type="expression" dxfId="31" priority="29">
+    <cfRule type="expression" dxfId="27" priority="29">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33 A35 J35">
-    <cfRule type="expression" dxfId="30" priority="28">
+    <cfRule type="expression" dxfId="26" priority="28">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="expression" dxfId="29" priority="27">
+    <cfRule type="expression" dxfId="25" priority="27">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="expression" dxfId="28" priority="26">
+    <cfRule type="expression" dxfId="24" priority="26">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:D33 C34">
-    <cfRule type="expression" dxfId="27" priority="23">
+    <cfRule type="expression" dxfId="23" priority="23">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="expression" dxfId="26" priority="24">
+    <cfRule type="expression" dxfId="22" priority="24">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:C32">
-    <cfRule type="expression" dxfId="25" priority="25">
+    <cfRule type="expression" dxfId="21" priority="25">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="expression" dxfId="24" priority="22">
+    <cfRule type="expression" dxfId="20" priority="22">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="expression" dxfId="23" priority="21">
+    <cfRule type="expression" dxfId="19" priority="21">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="22" priority="17">
+    <cfRule type="expression" dxfId="18" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="21" priority="16">
+    <cfRule type="expression" dxfId="17" priority="16">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="20" priority="15">
+    <cfRule type="expression" dxfId="16" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="19" priority="12">
+    <cfRule type="expression" dxfId="15" priority="12">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36:J36 L36 A36:C36">
-    <cfRule type="expression" dxfId="18" priority="14">
+    <cfRule type="expression" dxfId="14" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="expression" dxfId="17" priority="13">
+    <cfRule type="expression" dxfId="13" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K37">
-    <cfRule type="expression" dxfId="16" priority="11">
+    <cfRule type="expression" dxfId="12" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36">
-    <cfRule type="expression" dxfId="15" priority="10">
+    <cfRule type="expression" dxfId="11" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35">
-    <cfRule type="expression" dxfId="14" priority="9">
+    <cfRule type="expression" dxfId="10" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56">
-    <cfRule type="expression" dxfId="13" priority="8">
+    <cfRule type="expression" dxfId="9" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B56">
-    <cfRule type="expression" dxfId="12" priority="7">
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="expression" dxfId="11" priority="6">
+    <cfRule type="expression" dxfId="7" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="expression" dxfId="10" priority="5">
+    <cfRule type="expression" dxfId="6" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K58">
-    <cfRule type="expression" dxfId="9" priority="4">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57">
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:L57">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="20" max="11" man="1"/>
   </rowBreaks>
@@ -15623,7 +15679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -15634,15 +15690,15 @@
       <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="3.6640625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="24.1640625" style="18" customWidth="1"/>
-    <col min="5" max="6" width="18.1640625" style="9" customWidth="1"/>
-    <col min="7" max="9" width="7.33203125" style="12" customWidth="1"/>
+    <col min="1" max="2" width="3.625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="24.125" style="18" customWidth="1"/>
+    <col min="5" max="6" width="18.125" style="9" customWidth="1"/>
+    <col min="7" max="9" width="7.375" style="12" customWidth="1"/>
     <col min="10" max="10" width="43" style="13" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="9"/>
+    <col min="11" max="16384" width="8.875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="10" customFormat="1" ht="21" customHeight="1">
@@ -16696,7 +16752,7 @@
         <v>570</v>
       </c>
       <c r="D45" s="45" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E45" s="44" t="s">
         <v>586</v>
@@ -16922,1232 +16978,1232 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="J36 J54 A54 J48 H9 A4 C4:H4 H43:I43 C9 J25 F54 C34:H36 C25:F25 C13 H48 F53:G53 C53:E54 C11 A41 C31:J31 C41:J41 C51:G51 D48:F49 A21:A23 A6:A7">
-    <cfRule type="expression" dxfId="1273" priority="710">
+    <cfRule type="expression" dxfId="1274" priority="710">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G54">
-    <cfRule type="expression" dxfId="1272" priority="551">
+    <cfRule type="expression" dxfId="1273" priority="551">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54">
-    <cfRule type="expression" dxfId="1271" priority="537">
+    <cfRule type="expression" dxfId="1272" priority="537">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="expression" dxfId="1270" priority="557">
+    <cfRule type="expression" dxfId="1271" priority="557">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="expression" dxfId="1269" priority="550">
+    <cfRule type="expression" dxfId="1270" priority="550">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="expression" dxfId="1268" priority="543">
+    <cfRule type="expression" dxfId="1269" priority="543">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="1267" priority="531">
+    <cfRule type="expression" dxfId="1268" priority="531">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="expression" dxfId="1266" priority="542">
+    <cfRule type="expression" dxfId="1267" priority="542">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48">
-    <cfRule type="expression" dxfId="1265" priority="539">
+    <cfRule type="expression" dxfId="1266" priority="539">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J53">
-    <cfRule type="expression" dxfId="1264" priority="483">
+    <cfRule type="expression" dxfId="1265" priority="483">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:G5 J5">
-    <cfRule type="expression" dxfId="1263" priority="509">
+    <cfRule type="expression" dxfId="1264" priority="509">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="1262" priority="508">
+    <cfRule type="expression" dxfId="1263" priority="508">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="1261" priority="507">
+    <cfRule type="expression" dxfId="1262" priority="507">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="1260" priority="505">
+    <cfRule type="expression" dxfId="1261" priority="505">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="expression" dxfId="1259" priority="482">
+    <cfRule type="expression" dxfId="1260" priority="482">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53">
-    <cfRule type="expression" dxfId="1258" priority="481">
+    <cfRule type="expression" dxfId="1259" priority="481">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="expression" dxfId="1257" priority="480">
+    <cfRule type="expression" dxfId="1258" priority="480">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53">
-    <cfRule type="expression" dxfId="1256" priority="479">
+    <cfRule type="expression" dxfId="1257" priority="479">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="expression" dxfId="1255" priority="457">
+    <cfRule type="expression" dxfId="1256" priority="457">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34">
-    <cfRule type="expression" dxfId="1254" priority="463">
+    <cfRule type="expression" dxfId="1255" priority="463">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="expression" dxfId="1253" priority="462">
+    <cfRule type="expression" dxfId="1254" priority="462">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="expression" dxfId="1252" priority="460">
+    <cfRule type="expression" dxfId="1253" priority="460">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="expression" dxfId="1251" priority="459">
+    <cfRule type="expression" dxfId="1252" priority="459">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35">
-    <cfRule type="expression" dxfId="1250" priority="458">
+    <cfRule type="expression" dxfId="1251" priority="458">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="expression" dxfId="1249" priority="455">
+    <cfRule type="expression" dxfId="1250" priority="455">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="expression" dxfId="1248" priority="454">
+    <cfRule type="expression" dxfId="1249" priority="454">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="expression" dxfId="1247" priority="437">
+    <cfRule type="expression" dxfId="1248" priority="437">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="expression" dxfId="1246" priority="434">
+    <cfRule type="expression" dxfId="1247" priority="434">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="1245" priority="433">
+    <cfRule type="expression" dxfId="1246" priority="433">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="expression" dxfId="1244" priority="431">
+    <cfRule type="expression" dxfId="1245" priority="431">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:G6">
-    <cfRule type="expression" dxfId="1243" priority="436">
+    <cfRule type="expression" dxfId="1244" priority="436">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="expression" dxfId="1242" priority="435">
+    <cfRule type="expression" dxfId="1243" priority="435">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:F11">
-    <cfRule type="expression" dxfId="1241" priority="367">
+    <cfRule type="expression" dxfId="1242" priority="367">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:J4 D9 G9 J9 D43">
-    <cfRule type="expression" dxfId="1240" priority="393">
+    <cfRule type="expression" dxfId="1241" priority="393">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="1239" priority="366">
+    <cfRule type="expression" dxfId="1240" priority="366">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="1238" priority="365">
+    <cfRule type="expression" dxfId="1239" priority="365">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="1237" priority="364">
+    <cfRule type="expression" dxfId="1238" priority="364">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13 F13">
-    <cfRule type="expression" dxfId="1236" priority="363">
+    <cfRule type="expression" dxfId="1237" priority="363">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="1235" priority="362">
+    <cfRule type="expression" dxfId="1236" priority="362">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43">
-    <cfRule type="expression" dxfId="1234" priority="338">
+    <cfRule type="expression" dxfId="1235" priority="338">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="expression" dxfId="1233" priority="361">
+    <cfRule type="expression" dxfId="1234" priority="361">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="1232" priority="335">
+    <cfRule type="expression" dxfId="1233" priority="335">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="1231" priority="333">
+    <cfRule type="expression" dxfId="1232" priority="333">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:F9">
-    <cfRule type="expression" dxfId="1230" priority="343">
+    <cfRule type="expression" dxfId="1231" priority="343">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43:F43">
-    <cfRule type="expression" dxfId="1229" priority="342">
+    <cfRule type="expression" dxfId="1230" priority="342">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="expression" dxfId="1228" priority="321">
+    <cfRule type="expression" dxfId="1229" priority="321">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43">
-    <cfRule type="expression" dxfId="1227" priority="337">
+    <cfRule type="expression" dxfId="1228" priority="337">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="expression" dxfId="1226" priority="304">
+    <cfRule type="expression" dxfId="1227" priority="304">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:J7 D7:G7">
-    <cfRule type="expression" dxfId="1225" priority="302">
+    <cfRule type="expression" dxfId="1226" priority="302">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J42">
-    <cfRule type="expression" dxfId="1224" priority="297">
+    <cfRule type="expression" dxfId="1225" priority="297">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="expression" dxfId="1223" priority="324">
+    <cfRule type="expression" dxfId="1224" priority="324">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="1222" priority="313">
+    <cfRule type="expression" dxfId="1223" priority="313">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="expression" dxfId="1221" priority="287">
+    <cfRule type="expression" dxfId="1222" priority="287">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18">
-    <cfRule type="expression" dxfId="1220" priority="303">
+    <cfRule type="expression" dxfId="1221" priority="303">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="1219" priority="301">
+    <cfRule type="expression" dxfId="1220" priority="301">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42:G42">
-    <cfRule type="expression" dxfId="1218" priority="300">
+    <cfRule type="expression" dxfId="1219" priority="300">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42">
-    <cfRule type="expression" dxfId="1217" priority="299">
+    <cfRule type="expression" dxfId="1218" priority="299">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:H18">
-    <cfRule type="expression" dxfId="1216" priority="305">
+    <cfRule type="expression" dxfId="1217" priority="305">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J51">
-    <cfRule type="expression" dxfId="1215" priority="270">
+    <cfRule type="expression" dxfId="1216" priority="270">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="expression" dxfId="1214" priority="298">
+    <cfRule type="expression" dxfId="1215" priority="298">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="expression" dxfId="1213" priority="292">
+    <cfRule type="expression" dxfId="1214" priority="292">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="expression" dxfId="1212" priority="264">
+    <cfRule type="expression" dxfId="1213" priority="264">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="expression" dxfId="1211" priority="262">
+    <cfRule type="expression" dxfId="1212" priority="262">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="expression" dxfId="1210" priority="269">
+    <cfRule type="expression" dxfId="1211" priority="269">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51">
-    <cfRule type="expression" dxfId="1209" priority="268">
+    <cfRule type="expression" dxfId="1210" priority="268">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J47">
-    <cfRule type="expression" dxfId="1208" priority="281">
+    <cfRule type="expression" dxfId="1209" priority="281">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J49">
-    <cfRule type="expression" dxfId="1207" priority="237">
+    <cfRule type="expression" dxfId="1208" priority="237">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47">
-    <cfRule type="expression" dxfId="1206" priority="263">
+    <cfRule type="expression" dxfId="1207" priority="263">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49">
-    <cfRule type="expression" dxfId="1205" priority="229">
+    <cfRule type="expression" dxfId="1206" priority="229">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="expression" dxfId="1204" priority="236">
+    <cfRule type="expression" dxfId="1205" priority="236">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="expression" dxfId="1203" priority="267">
+    <cfRule type="expression" dxfId="1204" priority="267">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51">
-    <cfRule type="expression" dxfId="1202" priority="266">
+    <cfRule type="expression" dxfId="1203" priority="266">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="expression" dxfId="1201" priority="254">
+    <cfRule type="expression" dxfId="1202" priority="254">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="1200" priority="241">
+    <cfRule type="expression" dxfId="1201" priority="241">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49">
-    <cfRule type="expression" dxfId="1199" priority="226">
+    <cfRule type="expression" dxfId="1200" priority="226">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="expression" dxfId="1198" priority="230">
+    <cfRule type="expression" dxfId="1199" priority="230">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="1197" priority="240">
+    <cfRule type="expression" dxfId="1198" priority="240">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49">
-    <cfRule type="expression" dxfId="1196" priority="228">
+    <cfRule type="expression" dxfId="1197" priority="228">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="expression" dxfId="1195" priority="234">
+    <cfRule type="expression" dxfId="1196" priority="234">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="expression" dxfId="1194" priority="216">
+    <cfRule type="expression" dxfId="1195" priority="216">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49">
-    <cfRule type="expression" dxfId="1193" priority="227">
+    <cfRule type="expression" dxfId="1194" priority="227">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="1192" priority="225">
+    <cfRule type="expression" dxfId="1193" priority="225">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:F10 J10">
-    <cfRule type="expression" dxfId="1191" priority="224">
+    <cfRule type="expression" dxfId="1192" priority="224">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="1190" priority="223">
+    <cfRule type="expression" dxfId="1191" priority="223">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="1189" priority="222">
+    <cfRule type="expression" dxfId="1190" priority="222">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="1188" priority="221">
+    <cfRule type="expression" dxfId="1189" priority="221">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="expression" dxfId="1187" priority="219">
+    <cfRule type="expression" dxfId="1188" priority="219">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="expression" dxfId="1186" priority="218">
+    <cfRule type="expression" dxfId="1187" priority="218">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:E25">
-    <cfRule type="expression" dxfId="1185" priority="206">
+    <cfRule type="expression" dxfId="1186" priority="206">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="expression" dxfId="1184" priority="212">
+    <cfRule type="expression" dxfId="1185" priority="212">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:F19">
-    <cfRule type="expression" dxfId="1183" priority="213">
+    <cfRule type="expression" dxfId="1184" priority="213">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="1182" priority="214">
+    <cfRule type="expression" dxfId="1183" priority="214">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="expression" dxfId="1181" priority="210">
+    <cfRule type="expression" dxfId="1182" priority="210">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19">
-    <cfRule type="expression" dxfId="1180" priority="211">
+    <cfRule type="expression" dxfId="1181" priority="211">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="1179" priority="209">
+    <cfRule type="expression" dxfId="1180" priority="209">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="expression" dxfId="1178" priority="207">
+    <cfRule type="expression" dxfId="1179" priority="207">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="expression" dxfId="1177" priority="203">
+    <cfRule type="expression" dxfId="1178" priority="203">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="expression" dxfId="1176" priority="202">
+    <cfRule type="expression" dxfId="1177" priority="202">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="expression" dxfId="1175" priority="196">
+    <cfRule type="expression" dxfId="1176" priority="196">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="expression" dxfId="1174" priority="200">
+    <cfRule type="expression" dxfId="1175" priority="200">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="expression" dxfId="1173" priority="201">
+    <cfRule type="expression" dxfId="1174" priority="201">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="expression" dxfId="1172" priority="199">
+    <cfRule type="expression" dxfId="1173" priority="199">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:E32">
-    <cfRule type="expression" dxfId="1171" priority="197">
+    <cfRule type="expression" dxfId="1172" priority="197">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:E23">
-    <cfRule type="expression" dxfId="1170" priority="190">
+    <cfRule type="expression" dxfId="1171" priority="190">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="expression" dxfId="1169" priority="195">
+    <cfRule type="expression" dxfId="1170" priority="195">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="expression" dxfId="1168" priority="193">
+    <cfRule type="expression" dxfId="1169" priority="193">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="1167" priority="192">
+    <cfRule type="expression" dxfId="1168" priority="192">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:G27">
-    <cfRule type="expression" dxfId="1166" priority="187">
+    <cfRule type="expression" dxfId="1167" priority="187">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="expression" dxfId="1165" priority="184">
+    <cfRule type="expression" dxfId="1166" priority="184">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47">
-    <cfRule type="expression" dxfId="1164" priority="189">
+    <cfRule type="expression" dxfId="1165" priority="189">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27">
-    <cfRule type="expression" dxfId="1163" priority="186">
+    <cfRule type="expression" dxfId="1164" priority="186">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="expression" dxfId="1162" priority="185">
+    <cfRule type="expression" dxfId="1163" priority="185">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="expression" dxfId="1161" priority="172">
+    <cfRule type="expression" dxfId="1162" priority="172">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="expression" dxfId="1160" priority="171">
+    <cfRule type="expression" dxfId="1161" priority="171">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:G26">
-    <cfRule type="expression" dxfId="1159" priority="180">
+    <cfRule type="expression" dxfId="1160" priority="180">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="expression" dxfId="1158" priority="179">
+    <cfRule type="expression" dxfId="1159" priority="179">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="expression" dxfId="1157" priority="178">
+    <cfRule type="expression" dxfId="1158" priority="178">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="expression" dxfId="1156" priority="177">
+    <cfRule type="expression" dxfId="1157" priority="177">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:F30">
-    <cfRule type="expression" dxfId="1155" priority="174">
+    <cfRule type="expression" dxfId="1156" priority="174">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="expression" dxfId="1154" priority="173">
+    <cfRule type="expression" dxfId="1155" priority="173">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="expression" dxfId="1153" priority="170">
+    <cfRule type="expression" dxfId="1154" priority="170">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="expression" dxfId="1152" priority="164">
+    <cfRule type="expression" dxfId="1153" priority="164">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:F28">
-    <cfRule type="expression" dxfId="1151" priority="168">
+    <cfRule type="expression" dxfId="1152" priority="168">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="expression" dxfId="1150" priority="167">
+    <cfRule type="expression" dxfId="1151" priority="167">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="expression" dxfId="1149" priority="166">
+    <cfRule type="expression" dxfId="1150" priority="166">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="expression" dxfId="1148" priority="165">
+    <cfRule type="expression" dxfId="1149" priority="165">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="1147" priority="150">
+    <cfRule type="expression" dxfId="1148" priority="150">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="1146" priority="148">
+    <cfRule type="expression" dxfId="1147" priority="148">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="1145" priority="149">
+    <cfRule type="expression" dxfId="1146" priority="149">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
-    <cfRule type="expression" dxfId="1144" priority="155">
+    <cfRule type="expression" dxfId="1145" priority="155">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38 C38:H38">
-    <cfRule type="expression" dxfId="1143" priority="156">
+    <cfRule type="expression" dxfId="1144" priority="156">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="1142" priority="144">
+    <cfRule type="expression" dxfId="1143" priority="144">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="expression" dxfId="1141" priority="154">
+    <cfRule type="expression" dxfId="1142" priority="154">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="1140" priority="136">
+    <cfRule type="expression" dxfId="1141" priority="136">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="1139" priority="143">
+    <cfRule type="expression" dxfId="1140" priority="143">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="1138" priority="153">
+    <cfRule type="expression" dxfId="1139" priority="153">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:F12">
-    <cfRule type="expression" dxfId="1137" priority="152">
+    <cfRule type="expression" dxfId="1138" priority="152">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="1136" priority="151">
+    <cfRule type="expression" dxfId="1137" priority="151">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="1135" priority="142">
+    <cfRule type="expression" dxfId="1136" priority="142">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="1134" priority="135">
+    <cfRule type="expression" dxfId="1135" priority="135">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="1133" priority="123">
+    <cfRule type="expression" dxfId="1134" priority="123">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="expression" dxfId="1132" priority="131">
+    <cfRule type="expression" dxfId="1133" priority="131">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16 F16">
-    <cfRule type="expression" dxfId="1131" priority="141">
+    <cfRule type="expression" dxfId="1132" priority="141">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="expression" dxfId="1130" priority="140">
+    <cfRule type="expression" dxfId="1131" priority="140">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="expression" dxfId="1129" priority="139">
+    <cfRule type="expression" dxfId="1130" priority="139">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="expression" dxfId="1128" priority="115">
+    <cfRule type="expression" dxfId="1129" priority="115">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="expression" dxfId="1127" priority="109">
+    <cfRule type="expression" dxfId="1128" priority="109">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="expression" dxfId="1126" priority="126">
+    <cfRule type="expression" dxfId="1127" priority="126">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="1125" priority="128">
+    <cfRule type="expression" dxfId="1126" priority="128">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="1124" priority="134">
+    <cfRule type="expression" dxfId="1125" priority="134">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="1123" priority="127">
+    <cfRule type="expression" dxfId="1124" priority="127">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15 F15">
-    <cfRule type="expression" dxfId="1122" priority="133">
+    <cfRule type="expression" dxfId="1123" priority="133">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="1121" priority="132">
+    <cfRule type="expression" dxfId="1122" priority="132">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="1120" priority="121">
+    <cfRule type="expression" dxfId="1121" priority="121">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="1119" priority="117">
+    <cfRule type="expression" dxfId="1120" priority="117">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="expression" dxfId="1118" priority="120">
+    <cfRule type="expression" dxfId="1119" priority="120">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="1117" priority="118">
+    <cfRule type="expression" dxfId="1118" priority="118">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14 F14">
-    <cfRule type="expression" dxfId="1116" priority="122">
+    <cfRule type="expression" dxfId="1117" priority="122">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="expression" dxfId="1115" priority="119">
+    <cfRule type="expression" dxfId="1116" priority="119">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="expression" dxfId="1114" priority="113">
+    <cfRule type="expression" dxfId="1115" priority="113">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:E22">
-    <cfRule type="expression" dxfId="1113" priority="107">
+    <cfRule type="expression" dxfId="1114" priority="107">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="expression" dxfId="1112" priority="112">
+    <cfRule type="expression" dxfId="1113" priority="112">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="expression" dxfId="1111" priority="110">
+    <cfRule type="expression" dxfId="1112" priority="110">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21">
-    <cfRule type="expression" dxfId="1110" priority="104">
+    <cfRule type="expression" dxfId="1111" priority="104">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="expression" dxfId="1109" priority="106">
+    <cfRule type="expression" dxfId="1110" priority="106">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:E21">
-    <cfRule type="expression" dxfId="1108" priority="100">
+    <cfRule type="expression" dxfId="1109" priority="100">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="expression" dxfId="1107" priority="105">
+    <cfRule type="expression" dxfId="1108" priority="105">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="expression" dxfId="1106" priority="103">
+    <cfRule type="expression" dxfId="1107" priority="103">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="expression" dxfId="1105" priority="96">
+    <cfRule type="expression" dxfId="1106" priority="96">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="expression" dxfId="1104" priority="99">
+    <cfRule type="expression" dxfId="1105" priority="99">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="expression" dxfId="1103" priority="98">
+    <cfRule type="expression" dxfId="1104" priority="98">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="expression" dxfId="1102" priority="97">
+    <cfRule type="expression" dxfId="1103" priority="97">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="expression" dxfId="1101" priority="95">
+    <cfRule type="expression" dxfId="1102" priority="95">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="expression" dxfId="1100" priority="93">
+    <cfRule type="expression" dxfId="1101" priority="93">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J46">
-    <cfRule type="expression" dxfId="1099" priority="94">
+    <cfRule type="expression" dxfId="1100" priority="94">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46">
-    <cfRule type="expression" dxfId="1098" priority="92">
+    <cfRule type="expression" dxfId="1099" priority="92">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="expression" dxfId="1097" priority="91">
+    <cfRule type="expression" dxfId="1098" priority="91">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="expression" dxfId="1096" priority="90">
+    <cfRule type="expression" dxfId="1097" priority="90">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45">
-    <cfRule type="expression" dxfId="1095" priority="76">
+    <cfRule type="expression" dxfId="1096" priority="76">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45">
-    <cfRule type="expression" dxfId="1094" priority="80">
+    <cfRule type="expression" dxfId="1095" priority="80">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="expression" dxfId="1093" priority="81">
+    <cfRule type="expression" dxfId="1094" priority="81">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="expression" dxfId="1092" priority="79">
+    <cfRule type="expression" dxfId="1093" priority="79">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45">
-    <cfRule type="expression" dxfId="1091" priority="78">
+    <cfRule type="expression" dxfId="1092" priority="78">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:E45">
-    <cfRule type="expression" dxfId="1090" priority="77">
+    <cfRule type="expression" dxfId="1091" priority="77">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="expression" dxfId="1089" priority="73">
+    <cfRule type="expression" dxfId="1090" priority="73">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="expression" dxfId="1088" priority="74">
+    <cfRule type="expression" dxfId="1089" priority="74">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39 C39:H39">
-    <cfRule type="expression" dxfId="1087" priority="72">
+    <cfRule type="expression" dxfId="1088" priority="72">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39">
-    <cfRule type="expression" dxfId="1086" priority="71">
+    <cfRule type="expression" dxfId="1087" priority="71">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39">
-    <cfRule type="expression" dxfId="1085" priority="70">
+    <cfRule type="expression" dxfId="1086" priority="70">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40">
-    <cfRule type="expression" dxfId="1084" priority="62">
+    <cfRule type="expression" dxfId="1085" priority="62">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40:H40">
-    <cfRule type="expression" dxfId="1083" priority="68">
+    <cfRule type="expression" dxfId="1084" priority="68">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40">
-    <cfRule type="expression" dxfId="1082" priority="67">
+    <cfRule type="expression" dxfId="1083" priority="67">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="1081" priority="65">
+    <cfRule type="expression" dxfId="1082" priority="65">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48">
-    <cfRule type="expression" dxfId="1080" priority="63">
+    <cfRule type="expression" dxfId="1081" priority="63">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44">
-    <cfRule type="expression" dxfId="1079" priority="59">
+    <cfRule type="expression" dxfId="1080" priority="59">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="expression" dxfId="1078" priority="61">
+    <cfRule type="expression" dxfId="1079" priority="61">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:E44">
-    <cfRule type="expression" dxfId="1077" priority="56">
+    <cfRule type="expression" dxfId="1078" priority="56">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="expression" dxfId="1076" priority="58">
+    <cfRule type="expression" dxfId="1077" priority="58">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44">
-    <cfRule type="expression" dxfId="1075" priority="55">
+    <cfRule type="expression" dxfId="1076" priority="55">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20">
-    <cfRule type="expression" dxfId="1074" priority="52">
+    <cfRule type="expression" dxfId="1075" priority="52">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="1073" priority="54">
+    <cfRule type="expression" dxfId="1074" priority="54">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:E20">
-    <cfRule type="expression" dxfId="1072" priority="49">
+    <cfRule type="expression" dxfId="1073" priority="49">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="expression" dxfId="1071" priority="53">
+    <cfRule type="expression" dxfId="1072" priority="53">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="expression" dxfId="1070" priority="51">
+    <cfRule type="expression" dxfId="1071" priority="51">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="1069" priority="48">
+    <cfRule type="expression" dxfId="1070" priority="48">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52">
-    <cfRule type="expression" dxfId="1068" priority="38">
+    <cfRule type="expression" dxfId="1069" priority="38">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="expression" dxfId="1067" priority="46">
+    <cfRule type="expression" dxfId="1068" priority="46">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:G52">
-    <cfRule type="expression" dxfId="1066" priority="45">
+    <cfRule type="expression" dxfId="1067" priority="45">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J52">
-    <cfRule type="expression" dxfId="1065" priority="44">
+    <cfRule type="expression" dxfId="1066" priority="44">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="expression" dxfId="1064" priority="43">
+    <cfRule type="expression" dxfId="1065" priority="43">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52">
-    <cfRule type="expression" dxfId="1063" priority="42">
+    <cfRule type="expression" dxfId="1064" priority="42">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="expression" dxfId="1062" priority="41">
+    <cfRule type="expression" dxfId="1063" priority="41">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52">
-    <cfRule type="expression" dxfId="1061" priority="40">
+    <cfRule type="expression" dxfId="1062" priority="40">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="expression" dxfId="1060" priority="37">
+    <cfRule type="expression" dxfId="1061" priority="37">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3 C3:H3">
-    <cfRule type="expression" dxfId="1059" priority="36">
+    <cfRule type="expression" dxfId="1060" priority="36">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:J3">
-    <cfRule type="expression" dxfId="1058" priority="35">
+    <cfRule type="expression" dxfId="1059" priority="35">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="expression" dxfId="1057" priority="34">
+    <cfRule type="expression" dxfId="1058" priority="34">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="expression" dxfId="1056" priority="33">
+    <cfRule type="expression" dxfId="1057" priority="33">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="1055" priority="32">
+    <cfRule type="expression" dxfId="1056" priority="32">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="expression" dxfId="1054" priority="31">
+    <cfRule type="expression" dxfId="1055" priority="31">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="expression" dxfId="1053" priority="30">
+    <cfRule type="expression" dxfId="1054" priority="30">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="expression" dxfId="1052" priority="29">
+    <cfRule type="expression" dxfId="1053" priority="29">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="expression" dxfId="1051" priority="27">
+    <cfRule type="expression" dxfId="1052" priority="27">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:A49">
-    <cfRule type="expression" dxfId="1050" priority="26">
+    <cfRule type="expression" dxfId="1051" priority="26">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="expression" dxfId="1049" priority="25">
+    <cfRule type="expression" dxfId="1050" priority="25">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="1048" priority="24">
+    <cfRule type="expression" dxfId="1049" priority="24">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="expression" dxfId="1047" priority="23">
+    <cfRule type="expression" dxfId="1048" priority="23">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="1046" priority="20">
+    <cfRule type="expression" dxfId="1047" priority="20">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="1045" priority="21">
+    <cfRule type="expression" dxfId="1046" priority="21">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="1044" priority="19">
+    <cfRule type="expression" dxfId="1045" priority="19">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="1043" priority="18">
+    <cfRule type="expression" dxfId="1044" priority="18">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:A32">
-    <cfRule type="expression" dxfId="1042" priority="16">
+    <cfRule type="expression" dxfId="1043" priority="16">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C49">
-    <cfRule type="expression" dxfId="1041" priority="10">
+    <cfRule type="expression" dxfId="1042" priority="10">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="1040" priority="15">
+    <cfRule type="expression" dxfId="1041" priority="15">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="expression" dxfId="1039" priority="12">
+    <cfRule type="expression" dxfId="1040" priority="12">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="expression" dxfId="1038" priority="11">
+    <cfRule type="expression" dxfId="1039" priority="11">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="1037" priority="9">
+    <cfRule type="expression" dxfId="1038" priority="9">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="expression" dxfId="1036" priority="6">
+    <cfRule type="expression" dxfId="1037" priority="6">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="expression" dxfId="1035" priority="5">
+    <cfRule type="expression" dxfId="1036" priority="5">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:F29">
-    <cfRule type="expression" dxfId="1034" priority="8">
+    <cfRule type="expression" dxfId="1035" priority="8">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
-    <cfRule type="expression" dxfId="1033" priority="7">
+    <cfRule type="expression" dxfId="1034" priority="7">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="expression" dxfId="1032" priority="4">
+    <cfRule type="expression" dxfId="1033" priority="4">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="expression" dxfId="1031" priority="1">
+    <cfRule type="expression" dxfId="1032" priority="1">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="expression" dxfId="1030" priority="2">
+    <cfRule type="expression" dxfId="1031" priority="2">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.15748031496062992" bottom="0" header="0.11811023622047245" footer="0.11811023622047245"/>
-  <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="51" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF99FF66"/>
   </sheetPr>
@@ -18157,14 +18213,14 @@
       <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="3" width="34.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="11" width="7.83203125" customWidth="1"/>
-    <col min="12" max="12" width="60.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="3" width="34.625" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
+    <col min="6" max="11" width="7.875" customWidth="1"/>
+    <col min="12" max="12" width="60.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="17.25" customHeight="1">
@@ -21436,712 +21492,712 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="F124:H124 F123:L123 C51:D52 L51 B50:D50 B51 B55:D55 C53:C54 A123:C123 A86:L86 A47:L47 A54:B54 B68:L68 A105:C105 B14:C14 A125 A127 A129 A131 A133">
-    <cfRule type="expression" dxfId="1029" priority="535">
+    <cfRule type="expression" dxfId="1030" priority="535">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124 J124 A126 A128 A130 A132">
-    <cfRule type="expression" dxfId="1028" priority="452">
+    <cfRule type="expression" dxfId="1029" priority="452">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D123">
-    <cfRule type="expression" dxfId="1027" priority="440">
+    <cfRule type="expression" dxfId="1028" priority="440">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I124">
-    <cfRule type="expression" dxfId="1026" priority="445">
+    <cfRule type="expression" dxfId="1027" priority="445">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E123">
-    <cfRule type="expression" dxfId="1025" priority="441">
+    <cfRule type="expression" dxfId="1026" priority="441">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124">
-    <cfRule type="expression" dxfId="1024" priority="439">
+    <cfRule type="expression" dxfId="1025" priority="439">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D124">
-    <cfRule type="expression" dxfId="1023" priority="438">
+    <cfRule type="expression" dxfId="1024" priority="438">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C124">
-    <cfRule type="expression" dxfId="1022" priority="259">
+    <cfRule type="expression" dxfId="1023" priority="259">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K124">
-    <cfRule type="expression" dxfId="1021" priority="255">
+    <cfRule type="expression" dxfId="1022" priority="255">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124">
-    <cfRule type="expression" dxfId="1020" priority="258">
+    <cfRule type="expression" dxfId="1021" priority="258">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88:C88 E88:L88">
-    <cfRule type="expression" dxfId="1019" priority="219">
+    <cfRule type="expression" dxfId="1020" priority="219">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:H87">
-    <cfRule type="expression" dxfId="1018" priority="214">
+    <cfRule type="expression" dxfId="1019" priority="214">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87">
-    <cfRule type="expression" dxfId="1017" priority="212">
+    <cfRule type="expression" dxfId="1018" priority="212">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I87">
-    <cfRule type="expression" dxfId="1016" priority="211">
+    <cfRule type="expression" dxfId="1017" priority="211">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C90:L92 A88:A91">
-    <cfRule type="expression" dxfId="1015" priority="230">
+    <cfRule type="expression" dxfId="1016" priority="230">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92">
-    <cfRule type="expression" dxfId="1014" priority="229">
+    <cfRule type="expression" dxfId="1015" priority="229">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90:B92">
-    <cfRule type="expression" dxfId="1013" priority="227">
+    <cfRule type="expression" dxfId="1014" priority="227">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87 J87:L87">
-    <cfRule type="expression" dxfId="1012" priority="213">
+    <cfRule type="expression" dxfId="1013" priority="213">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50:H50 E51:J51 E52:L52 C71:L73 A49 A71:A72 B56:L59 A51 A57 E55:L55 F53:L54">
-    <cfRule type="expression" dxfId="1011" priority="210">
+    <cfRule type="expression" dxfId="1012" priority="210">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73 J50:L50">
-    <cfRule type="expression" dxfId="1010" priority="209">
+    <cfRule type="expression" dxfId="1011" priority="209">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71:B73">
-    <cfRule type="expression" dxfId="1009" priority="207">
+    <cfRule type="expression" dxfId="1010" priority="207">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50">
-    <cfRule type="expression" dxfId="1008" priority="202">
+    <cfRule type="expression" dxfId="1009" priority="202">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:B53">
-    <cfRule type="expression" dxfId="1007" priority="206">
+    <cfRule type="expression" dxfId="1008" priority="206">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K51">
-    <cfRule type="expression" dxfId="1006" priority="205">
+    <cfRule type="expression" dxfId="1007" priority="205">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69:L69">
-    <cfRule type="expression" dxfId="1005" priority="199">
+    <cfRule type="expression" dxfId="1006" priority="199">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67:L67">
-    <cfRule type="expression" dxfId="1004" priority="200">
+    <cfRule type="expression" dxfId="1005" priority="200">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48 J48:L48 A50 A52:A53 A55:A56 A58:A70">
-    <cfRule type="expression" dxfId="1003" priority="193">
+    <cfRule type="expression" dxfId="1004" priority="193">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49:H49">
-    <cfRule type="expression" dxfId="1002" priority="198">
+    <cfRule type="expression" dxfId="1003" priority="198">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49">
-    <cfRule type="expression" dxfId="1001" priority="195">
+    <cfRule type="expression" dxfId="1002" priority="195">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="expression" dxfId="1000" priority="192">
+    <cfRule type="expression" dxfId="1001" priority="192">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J49:L49">
-    <cfRule type="expression" dxfId="999" priority="197">
+    <cfRule type="expression" dxfId="1000" priority="197">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49">
-    <cfRule type="expression" dxfId="998" priority="196">
+    <cfRule type="expression" dxfId="999" priority="196">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48">
-    <cfRule type="expression" dxfId="997" priority="191">
+    <cfRule type="expression" dxfId="998" priority="191">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:H48">
-    <cfRule type="expression" dxfId="996" priority="194">
+    <cfRule type="expression" dxfId="997" priority="194">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88">
-    <cfRule type="expression" dxfId="995" priority="190">
+    <cfRule type="expression" dxfId="996" priority="190">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A109">
-    <cfRule type="expression" dxfId="994" priority="172">
+    <cfRule type="expression" dxfId="995" priority="172">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F106:H106 F105:L105 C108:L110">
-    <cfRule type="expression" dxfId="993" priority="173">
+    <cfRule type="expression" dxfId="994" priority="173">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="expression" dxfId="992" priority="168">
+    <cfRule type="expression" dxfId="993" priority="168">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A106 A108 A110 K106">
-    <cfRule type="expression" dxfId="991" priority="171">
+    <cfRule type="expression" dxfId="992" priority="171">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108:B110">
-    <cfRule type="expression" dxfId="990" priority="169">
+    <cfRule type="expression" dxfId="991" priority="169">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J106">
-    <cfRule type="expression" dxfId="989" priority="164">
+    <cfRule type="expression" dxfId="990" priority="164">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D105">
-    <cfRule type="expression" dxfId="988" priority="167">
+    <cfRule type="expression" dxfId="989" priority="167">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107:J107 L107">
-    <cfRule type="expression" dxfId="987" priority="159">
+    <cfRule type="expression" dxfId="988" priority="159">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C107">
-    <cfRule type="expression" dxfId="986" priority="138">
+    <cfRule type="expression" dxfId="987" priority="138">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I60">
-    <cfRule type="expression" dxfId="985" priority="148">
+    <cfRule type="expression" dxfId="986" priority="148">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54:E54">
-    <cfRule type="expression" dxfId="984" priority="144">
+    <cfRule type="expression" dxfId="985" priority="144">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K70">
-    <cfRule type="expression" dxfId="983" priority="141">
+    <cfRule type="expression" dxfId="984" priority="141">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B106">
-    <cfRule type="expression" dxfId="982" priority="135">
+    <cfRule type="expression" dxfId="983" priority="135">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134:B136">
-    <cfRule type="expression" dxfId="981" priority="120">
+    <cfRule type="expression" dxfId="982" priority="120">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L124">
-    <cfRule type="expression" dxfId="980" priority="118">
+    <cfRule type="expression" dxfId="981" priority="118">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107">
-    <cfRule type="expression" dxfId="979" priority="155">
+    <cfRule type="expression" dxfId="980" priority="155">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D106">
-    <cfRule type="expression" dxfId="978" priority="165">
+    <cfRule type="expression" dxfId="979" priority="165">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="expression" dxfId="977" priority="166">
+    <cfRule type="expression" dxfId="978" priority="166">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I106">
-    <cfRule type="expression" dxfId="976" priority="161">
+    <cfRule type="expression" dxfId="977" priority="161">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L106">
-    <cfRule type="expression" dxfId="975" priority="160">
+    <cfRule type="expression" dxfId="976" priority="160">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89:C89 E89:L89">
-    <cfRule type="expression" dxfId="974" priority="140">
+    <cfRule type="expression" dxfId="975" priority="140">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53:E53">
-    <cfRule type="expression" dxfId="973" priority="145">
+    <cfRule type="expression" dxfId="974" priority="145">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107">
-    <cfRule type="expression" dxfId="972" priority="158">
+    <cfRule type="expression" dxfId="973" priority="158">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C106">
-    <cfRule type="expression" dxfId="971" priority="136">
+    <cfRule type="expression" dxfId="972" priority="136">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="expression" dxfId="970" priority="156">
+    <cfRule type="expression" dxfId="971" priority="156">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K60">
-    <cfRule type="expression" dxfId="969" priority="149">
+    <cfRule type="expression" dxfId="970" priority="149">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K107">
-    <cfRule type="expression" dxfId="968" priority="154">
+    <cfRule type="expression" dxfId="969" priority="154">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L60 B60:D60">
-    <cfRule type="expression" dxfId="967" priority="152">
+    <cfRule type="expression" dxfId="968" priority="152">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60:H60">
-    <cfRule type="expression" dxfId="966" priority="151">
+    <cfRule type="expression" dxfId="967" priority="151">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J60">
-    <cfRule type="expression" dxfId="965" priority="150">
+    <cfRule type="expression" dxfId="966" priority="150">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66:L66">
-    <cfRule type="expression" dxfId="964" priority="147">
+    <cfRule type="expression" dxfId="965" priority="147">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:J70 L70">
-    <cfRule type="expression" dxfId="963" priority="143">
+    <cfRule type="expression" dxfId="964" priority="143">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D89">
-    <cfRule type="expression" dxfId="962" priority="139">
+    <cfRule type="expression" dxfId="963" priority="139">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="expression" dxfId="961" priority="142">
+    <cfRule type="expression" dxfId="962" priority="142">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B107">
-    <cfRule type="expression" dxfId="960" priority="137">
+    <cfRule type="expression" dxfId="961" priority="137">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:D125">
-    <cfRule type="expression" dxfId="959" priority="134">
+    <cfRule type="expression" dxfId="960" priority="134">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126:L127 E125:L125 B129:L130">
-    <cfRule type="expression" dxfId="958" priority="133">
+    <cfRule type="expression" dxfId="959" priority="133">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L132 B132:D132">
-    <cfRule type="expression" dxfId="957" priority="130">
+    <cfRule type="expression" dxfId="958" priority="130">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I132">
-    <cfRule type="expression" dxfId="956" priority="126">
+    <cfRule type="expression" dxfId="957" priority="126">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E132:H132">
-    <cfRule type="expression" dxfId="955" priority="129">
+    <cfRule type="expression" dxfId="956" priority="129">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J132">
-    <cfRule type="expression" dxfId="954" priority="128">
+    <cfRule type="expression" dxfId="955" priority="128">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C133:L133">
-    <cfRule type="expression" dxfId="953" priority="125">
+    <cfRule type="expression" dxfId="954" priority="125">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A134 A136">
-    <cfRule type="expression" dxfId="952" priority="121">
+    <cfRule type="expression" dxfId="953" priority="121">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B133">
-    <cfRule type="expression" dxfId="951" priority="124">
+    <cfRule type="expression" dxfId="952" priority="124">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C134:L136">
-    <cfRule type="expression" dxfId="950" priority="123">
+    <cfRule type="expression" dxfId="951" priority="123">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A135">
-    <cfRule type="expression" dxfId="949" priority="122">
+    <cfRule type="expression" dxfId="950" priority="122">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K132">
-    <cfRule type="expression" dxfId="948" priority="119">
+    <cfRule type="expression" dxfId="949" priority="119">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L131 B131:D131">
-    <cfRule type="expression" dxfId="947" priority="112">
+    <cfRule type="expression" dxfId="948" priority="112">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I131">
-    <cfRule type="expression" dxfId="946" priority="109">
+    <cfRule type="expression" dxfId="947" priority="109">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E131:H131">
-    <cfRule type="expression" dxfId="945" priority="111">
+    <cfRule type="expression" dxfId="946" priority="111">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J131">
-    <cfRule type="expression" dxfId="944" priority="110">
+    <cfRule type="expression" dxfId="945" priority="110">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K131">
-    <cfRule type="expression" dxfId="943" priority="108">
+    <cfRule type="expression" dxfId="944" priority="108">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:L12 A14 A16 A18 A20 A22 A24:A25 A27:A28 A30:A31">
-    <cfRule type="expression" dxfId="942" priority="106">
+    <cfRule type="expression" dxfId="943" priority="106">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13 J18:L18 A15 A17 A19 A21 A23 J19:J20 L19:L20 A26 A29">
-    <cfRule type="expression" dxfId="941" priority="93">
+    <cfRule type="expression" dxfId="942" priority="93">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:H13">
-    <cfRule type="expression" dxfId="940" priority="98">
+    <cfRule type="expression" dxfId="941" priority="98">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="939" priority="95">
+    <cfRule type="expression" dxfId="940" priority="95">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:I20">
-    <cfRule type="expression" dxfId="938" priority="91">
+    <cfRule type="expression" dxfId="939" priority="91">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:L13">
-    <cfRule type="expression" dxfId="937" priority="97">
+    <cfRule type="expression" dxfId="938" priority="97">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="expression" dxfId="936" priority="96">
+    <cfRule type="expression" dxfId="937" priority="96">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:H18 E19:H20">
-    <cfRule type="expression" dxfId="935" priority="94">
+    <cfRule type="expression" dxfId="936" priority="94">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:C18 B20:C20 C19:C20">
-    <cfRule type="expression" dxfId="934" priority="79">
+    <cfRule type="expression" dxfId="935" priority="79">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:L34 A32:A33">
-    <cfRule type="expression" dxfId="933" priority="78">
+    <cfRule type="expression" dxfId="934" priority="78">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="expression" dxfId="932" priority="77">
+    <cfRule type="expression" dxfId="933" priority="77">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:B34">
-    <cfRule type="expression" dxfId="931" priority="76">
+    <cfRule type="expression" dxfId="932" priority="76">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:J14 L14">
-    <cfRule type="expression" dxfId="930" priority="75">
+    <cfRule type="expression" dxfId="931" priority="75">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="929" priority="74">
+    <cfRule type="expression" dxfId="930" priority="74">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="expression" dxfId="928" priority="73">
+    <cfRule type="expression" dxfId="929" priority="73">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="927" priority="72">
+    <cfRule type="expression" dxfId="928" priority="72">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16 B15:D16">
-    <cfRule type="expression" dxfId="926" priority="71">
+    <cfRule type="expression" dxfId="927" priority="71">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:H15 E16:J16">
-    <cfRule type="expression" dxfId="925" priority="70">
+    <cfRule type="expression" dxfId="926" priority="70">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:L15">
-    <cfRule type="expression" dxfId="924" priority="69">
+    <cfRule type="expression" dxfId="925" priority="69">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="923" priority="67">
+    <cfRule type="expression" dxfId="924" priority="67">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="expression" dxfId="922" priority="68">
+    <cfRule type="expression" dxfId="923" priority="68">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:D17">
-    <cfRule type="expression" dxfId="921" priority="66">
+    <cfRule type="expression" dxfId="922" priority="66">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:L17">
-    <cfRule type="expression" dxfId="920" priority="65">
+    <cfRule type="expression" dxfId="921" priority="65">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128:L128">
-    <cfRule type="expression" dxfId="919" priority="64">
+    <cfRule type="expression" dxfId="920" priority="64">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="918" priority="57">
+    <cfRule type="expression" dxfId="919" priority="57">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:L31">
-    <cfRule type="expression" dxfId="917" priority="47">
+    <cfRule type="expression" dxfId="918" priority="47">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:L30">
-    <cfRule type="expression" dxfId="916" priority="45">
+    <cfRule type="expression" dxfId="917" priority="45">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:L24">
-    <cfRule type="expression" dxfId="915" priority="44">
+    <cfRule type="expression" dxfId="916" priority="44">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:D20">
-    <cfRule type="expression" dxfId="914" priority="31">
+    <cfRule type="expression" dxfId="915" priority="31">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="expression" dxfId="913" priority="30">
+    <cfRule type="expression" dxfId="914" priority="30">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19">
-    <cfRule type="expression" dxfId="912" priority="29">
+    <cfRule type="expression" dxfId="913" priority="29">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:L27">
-    <cfRule type="expression" dxfId="911" priority="26">
+    <cfRule type="expression" dxfId="912" priority="26">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29 B29:D29">
-    <cfRule type="expression" dxfId="910" priority="25">
+    <cfRule type="expression" dxfId="911" priority="25">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="expression" dxfId="909" priority="22">
+    <cfRule type="expression" dxfId="910" priority="22">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:H29">
-    <cfRule type="expression" dxfId="908" priority="24">
+    <cfRule type="expression" dxfId="909" priority="24">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
-    <cfRule type="expression" dxfId="907" priority="23">
+    <cfRule type="expression" dxfId="908" priority="23">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29">
-    <cfRule type="expression" dxfId="906" priority="21">
+    <cfRule type="expression" dxfId="907" priority="21">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28 B28:D28">
-    <cfRule type="expression" dxfId="905" priority="20">
+    <cfRule type="expression" dxfId="906" priority="20">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="expression" dxfId="904" priority="17">
+    <cfRule type="expression" dxfId="905" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:H28">
-    <cfRule type="expression" dxfId="903" priority="19">
+    <cfRule type="expression" dxfId="904" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="expression" dxfId="902" priority="18">
+    <cfRule type="expression" dxfId="903" priority="18">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28">
-    <cfRule type="expression" dxfId="901" priority="16">
+    <cfRule type="expression" dxfId="902" priority="16">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:L25">
-    <cfRule type="expression" dxfId="900" priority="15">
+    <cfRule type="expression" dxfId="901" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62:L63">
-    <cfRule type="expression" dxfId="899" priority="12">
+    <cfRule type="expression" dxfId="900" priority="12">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L65 B65:D65">
-    <cfRule type="expression" dxfId="898" priority="11">
+    <cfRule type="expression" dxfId="899" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I65">
-    <cfRule type="expression" dxfId="897" priority="8">
+    <cfRule type="expression" dxfId="898" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65:H65">
-    <cfRule type="expression" dxfId="896" priority="10">
+    <cfRule type="expression" dxfId="897" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J65">
-    <cfRule type="expression" dxfId="895" priority="9">
+    <cfRule type="expression" dxfId="896" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K65">
-    <cfRule type="expression" dxfId="894" priority="7">
+    <cfRule type="expression" dxfId="895" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L64 B64:D64">
-    <cfRule type="expression" dxfId="893" priority="6">
+    <cfRule type="expression" dxfId="894" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I64">
-    <cfRule type="expression" dxfId="892" priority="3">
+    <cfRule type="expression" dxfId="893" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64:H64">
-    <cfRule type="expression" dxfId="891" priority="5">
+    <cfRule type="expression" dxfId="892" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J64">
-    <cfRule type="expression" dxfId="890" priority="4">
+    <cfRule type="expression" dxfId="891" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K64">
-    <cfRule type="expression" dxfId="889" priority="2">
+    <cfRule type="expression" dxfId="890" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:L61">
-    <cfRule type="expression" dxfId="888" priority="1">
+    <cfRule type="expression" dxfId="889" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22157,7 +22213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -22168,15 +22224,15 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="3" width="34.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="11" width="7.83203125" customWidth="1"/>
-    <col min="12" max="12" width="60.33203125" customWidth="1"/>
-    <col min="13" max="13" width="54.83203125" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="3" width="34.625" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
+    <col min="6" max="11" width="7.875" customWidth="1"/>
+    <col min="12" max="12" width="60.375" customWidth="1"/>
+    <col min="13" max="13" width="54.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="17.25" customHeight="1">
@@ -25998,762 +26054,762 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B62:E62 B64:L64 F62:L63">
-    <cfRule type="expression" dxfId="887" priority="729">
+    <cfRule type="expression" dxfId="888" priority="729">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:C17">
-    <cfRule type="expression" dxfId="886" priority="427">
+    <cfRule type="expression" dxfId="887" priority="427">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:L17 C26:L28 A26:A27">
-    <cfRule type="expression" dxfId="885" priority="434">
+    <cfRule type="expression" dxfId="886" priority="434">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="expression" dxfId="884" priority="433">
+    <cfRule type="expression" dxfId="885" priority="433">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B28">
-    <cfRule type="expression" dxfId="883" priority="432">
+    <cfRule type="expression" dxfId="884" priority="432">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="expression" dxfId="882" priority="291">
+    <cfRule type="expression" dxfId="883" priority="291">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65:A66">
-    <cfRule type="expression" dxfId="881" priority="302">
+    <cfRule type="expression" dxfId="882" priority="302">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J61:L61 D61">
-    <cfRule type="expression" dxfId="880" priority="301">
+    <cfRule type="expression" dxfId="881" priority="301">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60 D60:L60 E61:H61 C65:L67 A62">
-    <cfRule type="expression" dxfId="879" priority="300">
+    <cfRule type="expression" dxfId="880" priority="300">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B67">
-    <cfRule type="expression" dxfId="878" priority="298">
+    <cfRule type="expression" dxfId="879" priority="298">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61 A67 A63:A64">
-    <cfRule type="expression" dxfId="877" priority="299">
+    <cfRule type="expression" dxfId="878" priority="299">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60:C60">
-    <cfRule type="expression" dxfId="876" priority="297">
+    <cfRule type="expression" dxfId="877" priority="297">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="875" priority="296">
+    <cfRule type="expression" dxfId="876" priority="296">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="874" priority="295">
+    <cfRule type="expression" dxfId="875" priority="295">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61">
-    <cfRule type="expression" dxfId="873" priority="294">
+    <cfRule type="expression" dxfId="874" priority="294">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="expression" dxfId="872" priority="292">
+    <cfRule type="expression" dxfId="873" priority="292">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="expression" dxfId="871" priority="290">
+    <cfRule type="expression" dxfId="872" priority="290">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I61">
-    <cfRule type="expression" dxfId="870" priority="287">
+    <cfRule type="expression" dxfId="871" priority="287">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A166:A167">
-    <cfRule type="expression" dxfId="869" priority="272">
+    <cfRule type="expression" dxfId="870" priority="272">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A162 D162:L162 C166:L168 A164:A165 E163:H164">
-    <cfRule type="expression" dxfId="868" priority="270">
+    <cfRule type="expression" dxfId="869" priority="270">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J163:L163 G165:L165 D163:D164 J164 L164">
-    <cfRule type="expression" dxfId="867" priority="271">
+    <cfRule type="expression" dxfId="868" priority="271">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A163 A168">
-    <cfRule type="expression" dxfId="866" priority="269">
+    <cfRule type="expression" dxfId="867" priority="269">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B166:B168">
-    <cfRule type="expression" dxfId="865" priority="268">
+    <cfRule type="expression" dxfId="866" priority="268">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F165">
-    <cfRule type="expression" dxfId="864" priority="263">
+    <cfRule type="expression" dxfId="865" priority="263">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162:C162">
-    <cfRule type="expression" dxfId="863" priority="267">
+    <cfRule type="expression" dxfId="864" priority="267">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E165">
-    <cfRule type="expression" dxfId="862" priority="261">
+    <cfRule type="expression" dxfId="863" priority="261">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I163:I164">
-    <cfRule type="expression" dxfId="861" priority="259">
+    <cfRule type="expression" dxfId="862" priority="259">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:C12 C13:C15">
-    <cfRule type="expression" dxfId="860" priority="194">
+    <cfRule type="expression" dxfId="861" priority="194">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:H15 F12:L12">
-    <cfRule type="expression" dxfId="859" priority="195">
+    <cfRule type="expression" dxfId="860" priority="195">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:I15">
-    <cfRule type="expression" dxfId="858" priority="191">
+    <cfRule type="expression" dxfId="859" priority="191">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41 D41:L41 E42:H42 C45:L47 A43">
-    <cfRule type="expression" dxfId="857" priority="165">
+    <cfRule type="expression" dxfId="858" priority="165">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:A15 K13 L14:L15 A17 A19 A21 A23 A25">
-    <cfRule type="expression" dxfId="856" priority="193">
+    <cfRule type="expression" dxfId="857" priority="193">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13 B15">
-    <cfRule type="expression" dxfId="855" priority="192">
+    <cfRule type="expression" dxfId="856" priority="192">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E15">
-    <cfRule type="expression" dxfId="854" priority="190">
+    <cfRule type="expression" dxfId="855" priority="190">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D14">
-    <cfRule type="expression" dxfId="853" priority="189">
+    <cfRule type="expression" dxfId="854" priority="189">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:J15">
-    <cfRule type="expression" dxfId="852" priority="188">
+    <cfRule type="expression" dxfId="853" priority="188">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16 A18 A20 A22 A24">
-    <cfRule type="expression" dxfId="851" priority="186">
+    <cfRule type="expression" dxfId="852" priority="186">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="850" priority="184">
+    <cfRule type="expression" dxfId="851" priority="184">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="849" priority="182">
+    <cfRule type="expression" dxfId="850" priority="182">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="expression" dxfId="848" priority="175">
+    <cfRule type="expression" dxfId="849" priority="175">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:J16 L16">
-    <cfRule type="expression" dxfId="847" priority="187">
+    <cfRule type="expression" dxfId="848" priority="187">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="846" priority="185">
+    <cfRule type="expression" dxfId="847" priority="185">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="845" priority="180">
+    <cfRule type="expression" dxfId="846" priority="180">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="844" priority="176">
+    <cfRule type="expression" dxfId="845" priority="176">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="expression" dxfId="843" priority="179">
+    <cfRule type="expression" dxfId="844" priority="179">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="expression" dxfId="842" priority="178">
+    <cfRule type="expression" dxfId="843" priority="178">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="expression" dxfId="841" priority="177">
+    <cfRule type="expression" dxfId="842" priority="177">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="840" priority="183">
+    <cfRule type="expression" dxfId="841" priority="183">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="839" priority="181">
+    <cfRule type="expression" dxfId="840" priority="181">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="838" priority="174">
+    <cfRule type="expression" dxfId="839" priority="174">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="837" priority="173">
+    <cfRule type="expression" dxfId="838" priority="173">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:E43 F43:L44">
-    <cfRule type="expression" dxfId="836" priority="168">
+    <cfRule type="expression" dxfId="837" priority="168">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="expression" dxfId="835" priority="157">
+    <cfRule type="expression" dxfId="836" priority="157">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A46">
-    <cfRule type="expression" dxfId="834" priority="167">
+    <cfRule type="expression" dxfId="835" priority="167">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J42:L42 D42">
-    <cfRule type="expression" dxfId="833" priority="166">
+    <cfRule type="expression" dxfId="834" priority="166">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B165">
-    <cfRule type="expression" dxfId="832" priority="152">
+    <cfRule type="expression" dxfId="833" priority="152">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B47">
-    <cfRule type="expression" dxfId="831" priority="163">
+    <cfRule type="expression" dxfId="832" priority="163">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42 A47 A44">
-    <cfRule type="expression" dxfId="830" priority="164">
+    <cfRule type="expression" dxfId="831" priority="164">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:C41">
-    <cfRule type="expression" dxfId="829" priority="162">
+    <cfRule type="expression" dxfId="830" priority="162">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="828" priority="161">
+    <cfRule type="expression" dxfId="829" priority="161">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="827" priority="160">
+    <cfRule type="expression" dxfId="828" priority="160">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="826" priority="159">
+    <cfRule type="expression" dxfId="827" priority="159">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="825" priority="158">
+    <cfRule type="expression" dxfId="826" priority="158">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="expression" dxfId="824" priority="156">
+    <cfRule type="expression" dxfId="825" priority="156">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42">
-    <cfRule type="expression" dxfId="823" priority="155">
+    <cfRule type="expression" dxfId="824" priority="155">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163:C163 C164">
-    <cfRule type="expression" dxfId="822" priority="154">
+    <cfRule type="expression" dxfId="823" priority="154">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C165">
-    <cfRule type="expression" dxfId="821" priority="151">
+    <cfRule type="expression" dxfId="822" priority="151">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:A84">
-    <cfRule type="expression" dxfId="820" priority="150">
+    <cfRule type="expression" dxfId="821" priority="150">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80 D80:L80 E81:H81 C83:L85 A82">
-    <cfRule type="expression" dxfId="819" priority="148">
+    <cfRule type="expression" dxfId="820" priority="148">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J81:L81 D81 G82:L82">
-    <cfRule type="expression" dxfId="818" priority="149">
+    <cfRule type="expression" dxfId="819" priority="149">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81 A85">
-    <cfRule type="expression" dxfId="817" priority="147">
+    <cfRule type="expression" dxfId="818" priority="147">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83:B85">
-    <cfRule type="expression" dxfId="816" priority="146">
+    <cfRule type="expression" dxfId="817" priority="146">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F82">
-    <cfRule type="expression" dxfId="815" priority="144">
+    <cfRule type="expression" dxfId="816" priority="144">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B80:C80">
-    <cfRule type="expression" dxfId="814" priority="145">
+    <cfRule type="expression" dxfId="815" priority="145">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="expression" dxfId="813" priority="143">
+    <cfRule type="expression" dxfId="814" priority="143">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I81">
-    <cfRule type="expression" dxfId="812" priority="141">
+    <cfRule type="expression" dxfId="813" priority="141">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D82">
-    <cfRule type="expression" dxfId="811" priority="142">
+    <cfRule type="expression" dxfId="812" priority="142">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81:C81">
-    <cfRule type="expression" dxfId="810" priority="140">
+    <cfRule type="expression" dxfId="811" priority="140">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="expression" dxfId="809" priority="139">
+    <cfRule type="expression" dxfId="810" priority="139">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82">
-    <cfRule type="expression" dxfId="808" priority="138">
+    <cfRule type="expression" dxfId="809" priority="138">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G106:L106">
-    <cfRule type="expression" dxfId="807" priority="107">
+    <cfRule type="expression" dxfId="808" priority="107">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C107">
-    <cfRule type="expression" dxfId="806" priority="108">
+    <cfRule type="expression" dxfId="807" priority="108">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A106">
-    <cfRule type="expression" dxfId="805" priority="106">
+    <cfRule type="expression" dxfId="806" priority="106">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F106">
-    <cfRule type="expression" dxfId="804" priority="105">
+    <cfRule type="expression" dxfId="805" priority="105">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K100">
-    <cfRule type="expression" dxfId="803" priority="93">
+    <cfRule type="expression" dxfId="804" priority="93">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B106">
-    <cfRule type="expression" dxfId="802" priority="103">
+    <cfRule type="expression" dxfId="803" priority="103">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C106">
-    <cfRule type="expression" dxfId="801" priority="102">
+    <cfRule type="expression" dxfId="802" priority="102">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D106">
-    <cfRule type="expression" dxfId="800" priority="101">
+    <cfRule type="expression" dxfId="801" priority="101">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A147:A148">
-    <cfRule type="expression" dxfId="799" priority="91">
+    <cfRule type="expression" dxfId="800" priority="91">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D165">
-    <cfRule type="expression" dxfId="798" priority="128">
+    <cfRule type="expression" dxfId="799" priority="128">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103">
-    <cfRule type="expression" dxfId="797" priority="98">
+    <cfRule type="expression" dxfId="798" priority="98">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K102">
-    <cfRule type="expression" dxfId="796" priority="97">
+    <cfRule type="expression" dxfId="797" priority="97">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K103">
-    <cfRule type="expression" dxfId="795" priority="96">
+    <cfRule type="expression" dxfId="796" priority="96">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K104">
-    <cfRule type="expression" dxfId="794" priority="95">
+    <cfRule type="expression" dxfId="795" priority="95">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K105">
-    <cfRule type="expression" dxfId="793" priority="94">
+    <cfRule type="expression" dxfId="794" priority="94">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K164">
-    <cfRule type="expression" dxfId="792" priority="121">
+    <cfRule type="expression" dxfId="793" priority="121">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K101">
-    <cfRule type="expression" dxfId="791" priority="92">
+    <cfRule type="expression" dxfId="792" priority="92">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108:A109">
-    <cfRule type="expression" dxfId="790" priority="119">
+    <cfRule type="expression" dxfId="791" priority="119">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98 D98:L98 C108:L110 A100 A102 A104 A107 E99:H105">
-    <cfRule type="expression" dxfId="789" priority="117">
+    <cfRule type="expression" dxfId="790" priority="117">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J99:L99 G107:L107 D99:D102 D105 J100:J105 L100:L105">
-    <cfRule type="expression" dxfId="788" priority="118">
+    <cfRule type="expression" dxfId="789" priority="118">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99 A110 A101 A103 A105">
-    <cfRule type="expression" dxfId="787" priority="116">
+    <cfRule type="expression" dxfId="788" priority="116">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108:B110">
-    <cfRule type="expression" dxfId="786" priority="115">
+    <cfRule type="expression" dxfId="787" priority="115">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107">
-    <cfRule type="expression" dxfId="785" priority="113">
+    <cfRule type="expression" dxfId="786" priority="113">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B98:C98">
-    <cfRule type="expression" dxfId="784" priority="114">
+    <cfRule type="expression" dxfId="785" priority="114">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="expression" dxfId="783" priority="112">
+    <cfRule type="expression" dxfId="784" priority="112">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I99:I105">
-    <cfRule type="expression" dxfId="782" priority="111">
+    <cfRule type="expression" dxfId="783" priority="111">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:C105">
-    <cfRule type="expression" dxfId="781" priority="110">
+    <cfRule type="expression" dxfId="782" priority="110">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B107">
-    <cfRule type="expression" dxfId="780" priority="109">
+    <cfRule type="expression" dxfId="781" priority="109">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="expression" dxfId="779" priority="104">
+    <cfRule type="expression" dxfId="780" priority="104">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C147:L149">
-    <cfRule type="expression" dxfId="778" priority="89">
+    <cfRule type="expression" dxfId="779" priority="89">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A149">
-    <cfRule type="expression" dxfId="777" priority="88">
+    <cfRule type="expression" dxfId="778" priority="88">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107">
-    <cfRule type="expression" dxfId="776" priority="100">
+    <cfRule type="expression" dxfId="777" priority="100">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D104">
-    <cfRule type="expression" dxfId="775" priority="99">
+    <cfRule type="expression" dxfId="776" priority="99">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B147:B149">
-    <cfRule type="expression" dxfId="774" priority="87">
+    <cfRule type="expression" dxfId="775" priority="87">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K125">
-    <cfRule type="expression" dxfId="773" priority="37">
+    <cfRule type="expression" dxfId="774" priority="37">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E145">
-    <cfRule type="expression" dxfId="772" priority="25">
+    <cfRule type="expression" dxfId="773" priority="25">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K126">
-    <cfRule type="expression" dxfId="771" priority="36">
+    <cfRule type="expression" dxfId="772" priority="36">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A127:A128">
-    <cfRule type="expression" dxfId="770" priority="63">
+    <cfRule type="expression" dxfId="771" priority="63">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123 D123:L123 C127:L129 A125 E124:H126">
-    <cfRule type="expression" dxfId="769" priority="61">
+    <cfRule type="expression" dxfId="770" priority="61">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J124:L124 D124:D126 J125:J126 L125:L126">
-    <cfRule type="expression" dxfId="768" priority="62">
+    <cfRule type="expression" dxfId="769" priority="62">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124 A129 A126">
-    <cfRule type="expression" dxfId="767" priority="60">
+    <cfRule type="expression" dxfId="768" priority="60">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B127:B129">
-    <cfRule type="expression" dxfId="766" priority="59">
+    <cfRule type="expression" dxfId="767" priority="59">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B123:C123">
-    <cfRule type="expression" dxfId="765" priority="58">
+    <cfRule type="expression" dxfId="766" priority="58">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I124:I126">
-    <cfRule type="expression" dxfId="764" priority="55">
+    <cfRule type="expression" dxfId="765" priority="55">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124:C126">
-    <cfRule type="expression" dxfId="763" priority="54">
+    <cfRule type="expression" dxfId="764" priority="54">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144:E144 B146:L146 F144:L145">
-    <cfRule type="expression" dxfId="762" priority="34">
+    <cfRule type="expression" dxfId="763" priority="34">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J143:L143 D143">
-    <cfRule type="expression" dxfId="761" priority="33">
+    <cfRule type="expression" dxfId="762" priority="33">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A142 D142:L142 E143:H143 A144">
-    <cfRule type="expression" dxfId="760" priority="32">
+    <cfRule type="expression" dxfId="761" priority="32">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A143 A145:A146">
-    <cfRule type="expression" dxfId="759" priority="31">
+    <cfRule type="expression" dxfId="760" priority="31">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B142:C142">
-    <cfRule type="expression" dxfId="758" priority="30">
+    <cfRule type="expression" dxfId="759" priority="30">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C145">
-    <cfRule type="expression" dxfId="757" priority="29">
+    <cfRule type="expression" dxfId="758" priority="29">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145">
-    <cfRule type="expression" dxfId="756" priority="26">
+    <cfRule type="expression" dxfId="757" priority="26">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D145">
-    <cfRule type="expression" dxfId="755" priority="24">
+    <cfRule type="expression" dxfId="756" priority="24">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B143:C143">
-    <cfRule type="expression" dxfId="754" priority="22">
+    <cfRule type="expression" dxfId="755" priority="22">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I143">
-    <cfRule type="expression" dxfId="753" priority="23">
+    <cfRule type="expression" dxfId="754" priority="23">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164">
-    <cfRule type="expression" dxfId="752" priority="21">
+    <cfRule type="expression" dxfId="753" priority="21">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:L20">
-    <cfRule type="expression" dxfId="751" priority="7">
+    <cfRule type="expression" dxfId="752" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="expression" dxfId="750" priority="4">
+    <cfRule type="expression" dxfId="751" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:L19">
-    <cfRule type="expression" dxfId="749" priority="1">
+    <cfRule type="expression" dxfId="750" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:L22">
-    <cfRule type="expression" dxfId="748" priority="18">
+    <cfRule type="expression" dxfId="749" priority="18">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L24 B24:D24">
-    <cfRule type="expression" dxfId="747" priority="17">
+    <cfRule type="expression" dxfId="748" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="expression" dxfId="746" priority="14">
+    <cfRule type="expression" dxfId="747" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:H24">
-    <cfRule type="expression" dxfId="745" priority="16">
+    <cfRule type="expression" dxfId="746" priority="16">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24">
-    <cfRule type="expression" dxfId="744" priority="15">
+    <cfRule type="expression" dxfId="745" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24">
-    <cfRule type="expression" dxfId="743" priority="13">
+    <cfRule type="expression" dxfId="744" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23 B23:D23">
-    <cfRule type="expression" dxfId="742" priority="12">
+    <cfRule type="expression" dxfId="743" priority="12">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="741" priority="9">
+    <cfRule type="expression" dxfId="742" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:H23">
-    <cfRule type="expression" dxfId="740" priority="11">
+    <cfRule type="expression" dxfId="741" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="expression" dxfId="739" priority="10">
+    <cfRule type="expression" dxfId="740" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="expression" dxfId="738" priority="8">
+    <cfRule type="expression" dxfId="739" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:L25">
-    <cfRule type="expression" dxfId="737" priority="5">
+    <cfRule type="expression" dxfId="738" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="48" max="11" man="1"/>
     <brk id="86" max="11" man="1"/>
@@ -26763,7 +26819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF5050"/>
     <pageSetUpPr fitToPage="1"/>
@@ -26774,15 +26830,15 @@
       <selection activeCell="L149" sqref="L149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="3" width="34.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="11" width="7.83203125" customWidth="1"/>
-    <col min="12" max="12" width="60.33203125" customWidth="1"/>
-    <col min="13" max="13" width="54.83203125" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="3" width="34.625" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
+    <col min="6" max="11" width="7.875" customWidth="1"/>
+    <col min="12" max="12" width="60.375" customWidth="1"/>
+    <col min="13" max="13" width="54.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="17.25" customHeight="1">
@@ -30656,943 +30712,943 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="E67:L68 L66 E66:J66 C55 E64:L65 L57:L58 B43:C45 B52:C53 L60:L61 B64:C69 B49:C50 C57:J57 F109:L110 B110:E117 B47:C47">
-    <cfRule type="expression" dxfId="736" priority="395">
+    <cfRule type="expression" dxfId="737" priority="395">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43:K44 L43:L45 J42:L42 D42">
-    <cfRule type="expression" dxfId="735" priority="394">
+    <cfRule type="expression" dxfId="736" priority="394">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:C41">
-    <cfRule type="expression" dxfId="734" priority="390">
+    <cfRule type="expression" dxfId="735" priority="390">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="733" priority="388">
+    <cfRule type="expression" dxfId="734" priority="388">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41 D41:L41 E42:H42 C73:L75 G45:J45 G53:J53 A73:A74 A43 A45 A47 A49 A51 A53 A55 A57 A59 A61 A63 A65 A67 A69 A71">
-    <cfRule type="expression" dxfId="732" priority="393">
+    <cfRule type="expression" dxfId="733" priority="393">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42 A75 A44 A46 A48 A50 A52 A54 A56 A58 A60 A62 A64 A66 A68 A70 A72">
-    <cfRule type="expression" dxfId="731" priority="392">
+    <cfRule type="expression" dxfId="732" priority="392">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73:B75">
-    <cfRule type="expression" dxfId="730" priority="391">
+    <cfRule type="expression" dxfId="731" priority="391">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L53">
-    <cfRule type="expression" dxfId="729" priority="389">
+    <cfRule type="expression" dxfId="730" priority="389">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="728" priority="387">
+    <cfRule type="expression" dxfId="729" priority="387">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="expression" dxfId="727" priority="386">
+    <cfRule type="expression" dxfId="728" priority="386">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F45 F53">
-    <cfRule type="expression" dxfId="726" priority="385">
+    <cfRule type="expression" dxfId="727" priority="385">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="expression" dxfId="725" priority="384">
+    <cfRule type="expression" dxfId="726" priority="384">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="expression" dxfId="724" priority="383">
+    <cfRule type="expression" dxfId="725" priority="383">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="expression" dxfId="723" priority="382">
+    <cfRule type="expression" dxfId="724" priority="382">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="expression" dxfId="722" priority="381">
+    <cfRule type="expression" dxfId="723" priority="381">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55:J55">
-    <cfRule type="expression" dxfId="721" priority="377">
+    <cfRule type="expression" dxfId="722" priority="377">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L55">
-    <cfRule type="expression" dxfId="720" priority="376">
+    <cfRule type="expression" dxfId="721" priority="376">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47:J47 G52:J52 G49:J50">
-    <cfRule type="expression" dxfId="719" priority="380">
+    <cfRule type="expression" dxfId="720" priority="380">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L47 L52 L49:L50">
-    <cfRule type="expression" dxfId="718" priority="379">
+    <cfRule type="expression" dxfId="719" priority="379">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47 F52 F49:F50">
-    <cfRule type="expression" dxfId="717" priority="378">
+    <cfRule type="expression" dxfId="718" priority="378">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="expression" dxfId="716" priority="375">
+    <cfRule type="expression" dxfId="717" priority="375">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="expression" dxfId="715" priority="374">
+    <cfRule type="expression" dxfId="716" priority="374">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="expression" dxfId="714" priority="373">
+    <cfRule type="expression" dxfId="715" priority="373">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K45 K52 K49:K50 K47">
-    <cfRule type="expression" dxfId="713" priority="372">
+    <cfRule type="expression" dxfId="714" priority="372">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42">
-    <cfRule type="expression" dxfId="712" priority="371">
+    <cfRule type="expression" dxfId="713" priority="371">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G69:J69 L69">
-    <cfRule type="expression" dxfId="711" priority="370">
+    <cfRule type="expression" dxfId="712" priority="370">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69">
-    <cfRule type="expression" dxfId="710" priority="369">
+    <cfRule type="expression" dxfId="711" priority="369">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="expression" dxfId="709" priority="368">
+    <cfRule type="expression" dxfId="710" priority="368">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69">
-    <cfRule type="expression" dxfId="708" priority="367">
+    <cfRule type="expression" dxfId="709" priority="367">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68">
-    <cfRule type="expression" dxfId="707" priority="366">
+    <cfRule type="expression" dxfId="708" priority="366">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="expression" dxfId="706" priority="365">
+    <cfRule type="expression" dxfId="707" priority="365">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:D63">
-    <cfRule type="expression" dxfId="705" priority="333">
+    <cfRule type="expression" dxfId="706" priority="333">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="expression" dxfId="704" priority="330">
+    <cfRule type="expression" dxfId="705" priority="330">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50:E50">
-    <cfRule type="expression" dxfId="703" priority="329">
+    <cfRule type="expression" dxfId="704" priority="329">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K53 K60:K61 K57:K58 K55">
-    <cfRule type="expression" dxfId="702" priority="322">
+    <cfRule type="expression" dxfId="703" priority="322">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52:E52">
-    <cfRule type="expression" dxfId="701" priority="328">
+    <cfRule type="expression" dxfId="702" priority="328">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53:E53">
-    <cfRule type="expression" dxfId="700" priority="327">
+    <cfRule type="expression" dxfId="701" priority="327">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="expression" dxfId="699" priority="326">
+    <cfRule type="expression" dxfId="700" priority="326">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K69">
-    <cfRule type="expression" dxfId="698" priority="325">
+    <cfRule type="expression" dxfId="699" priority="325">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K62:K63">
-    <cfRule type="expression" dxfId="697" priority="323">
+    <cfRule type="expression" dxfId="698" priority="323">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:J58">
-    <cfRule type="expression" dxfId="696" priority="340">
+    <cfRule type="expression" dxfId="697" priority="340">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:J60">
-    <cfRule type="expression" dxfId="695" priority="339">
+    <cfRule type="expression" dxfId="696" priority="339">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61:J61">
-    <cfRule type="expression" dxfId="694" priority="338">
+    <cfRule type="expression" dxfId="695" priority="338">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62:C63 E62:J63 L62:L63">
-    <cfRule type="expression" dxfId="693" priority="337">
+    <cfRule type="expression" dxfId="694" priority="337">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55 B60:B61 B57:B58">
-    <cfRule type="expression" dxfId="692" priority="336">
+    <cfRule type="expression" dxfId="693" priority="336">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="expression" dxfId="691" priority="335">
+    <cfRule type="expression" dxfId="692" priority="335">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="expression" dxfId="690" priority="334">
+    <cfRule type="expression" dxfId="691" priority="334">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:E49">
-    <cfRule type="expression" dxfId="689" priority="332">
+    <cfRule type="expression" dxfId="690" priority="332">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="expression" dxfId="688" priority="331">
+    <cfRule type="expression" dxfId="689" priority="331">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K66">
-    <cfRule type="expression" dxfId="687" priority="324">
+    <cfRule type="expression" dxfId="688" priority="324">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C153">
-    <cfRule type="expression" dxfId="686" priority="295">
+    <cfRule type="expression" dxfId="687" priority="295">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B154:C154 F154:L154">
-    <cfRule type="expression" dxfId="685" priority="293">
+    <cfRule type="expression" dxfId="686" priority="293">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B153">
-    <cfRule type="expression" dxfId="684" priority="294">
+    <cfRule type="expression" dxfId="685" priority="294">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A154">
-    <cfRule type="expression" dxfId="683" priority="292">
+    <cfRule type="expression" dxfId="684" priority="292">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A155:A156">
-    <cfRule type="expression" dxfId="682" priority="302">
+    <cfRule type="expression" dxfId="683" priority="302">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J153:L153 D153">
-    <cfRule type="expression" dxfId="681" priority="301">
+    <cfRule type="expression" dxfId="682" priority="301">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152 D152:L152 E153:H153 C155:L157">
-    <cfRule type="expression" dxfId="680" priority="300">
+    <cfRule type="expression" dxfId="681" priority="300">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B155:B157">
-    <cfRule type="expression" dxfId="679" priority="298">
+    <cfRule type="expression" dxfId="680" priority="298">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A153 A157">
-    <cfRule type="expression" dxfId="678" priority="299">
+    <cfRule type="expression" dxfId="679" priority="299">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B152:C152">
-    <cfRule type="expression" dxfId="677" priority="297">
+    <cfRule type="expression" dxfId="678" priority="297">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I153">
-    <cfRule type="expression" dxfId="676" priority="296">
+    <cfRule type="expression" dxfId="677" priority="296">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:C51">
-    <cfRule type="expression" dxfId="675" priority="243">
+    <cfRule type="expression" dxfId="676" priority="243">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51:J51">
-    <cfRule type="expression" dxfId="674" priority="242">
+    <cfRule type="expression" dxfId="675" priority="242">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L51">
-    <cfRule type="expression" dxfId="673" priority="241">
+    <cfRule type="expression" dxfId="674" priority="241">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51">
-    <cfRule type="expression" dxfId="672" priority="240">
+    <cfRule type="expression" dxfId="673" priority="240">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K51">
-    <cfRule type="expression" dxfId="671" priority="239">
+    <cfRule type="expression" dxfId="672" priority="239">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:E51">
-    <cfRule type="expression" dxfId="670" priority="238">
+    <cfRule type="expression" dxfId="671" priority="238">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L59">
-    <cfRule type="expression" dxfId="669" priority="237">
+    <cfRule type="expression" dxfId="670" priority="237">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K59">
-    <cfRule type="expression" dxfId="668" priority="234">
+    <cfRule type="expression" dxfId="669" priority="234">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:J59">
-    <cfRule type="expression" dxfId="667" priority="236">
+    <cfRule type="expression" dxfId="668" priority="236">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59">
-    <cfRule type="expression" dxfId="666" priority="235">
+    <cfRule type="expression" dxfId="667" priority="235">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C134">
-    <cfRule type="expression" dxfId="665" priority="147">
+    <cfRule type="expression" dxfId="666" priority="147">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135:E135 F135:L136">
-    <cfRule type="expression" dxfId="664" priority="145">
+    <cfRule type="expression" dxfId="665" priority="145">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134">
-    <cfRule type="expression" dxfId="663" priority="146">
+    <cfRule type="expression" dxfId="664" priority="146">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A135">
-    <cfRule type="expression" dxfId="662" priority="144">
+    <cfRule type="expression" dxfId="663" priority="144">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A136">
-    <cfRule type="expression" dxfId="661" priority="143">
+    <cfRule type="expression" dxfId="662" priority="143">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:A138">
-    <cfRule type="expression" dxfId="660" priority="154">
+    <cfRule type="expression" dxfId="661" priority="154">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="expression" dxfId="659" priority="141">
+    <cfRule type="expression" dxfId="660" priority="141">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J134:L134 D134">
-    <cfRule type="expression" dxfId="658" priority="153">
+    <cfRule type="expression" dxfId="659" priority="153">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A133 D133:L133 E134:H134 C137:L139">
-    <cfRule type="expression" dxfId="657" priority="152">
+    <cfRule type="expression" dxfId="658" priority="152">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137:B139">
-    <cfRule type="expression" dxfId="656" priority="150">
+    <cfRule type="expression" dxfId="657" priority="150">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A134 A139">
-    <cfRule type="expression" dxfId="655" priority="151">
+    <cfRule type="expression" dxfId="656" priority="151">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B133:C133">
-    <cfRule type="expression" dxfId="654" priority="149">
+    <cfRule type="expression" dxfId="655" priority="149">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I134">
-    <cfRule type="expression" dxfId="653" priority="148">
+    <cfRule type="expression" dxfId="654" priority="148">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="expression" dxfId="652" priority="140">
+    <cfRule type="expression" dxfId="653" priority="140">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D136">
-    <cfRule type="expression" dxfId="651" priority="139">
+    <cfRule type="expression" dxfId="652" priority="139">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C136">
-    <cfRule type="expression" dxfId="650" priority="142">
+    <cfRule type="expression" dxfId="651" priority="142">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B109:E109 G111:L115 F116:L117">
-    <cfRule type="expression" dxfId="649" priority="133">
+    <cfRule type="expression" dxfId="650" priority="133">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F115">
-    <cfRule type="expression" dxfId="648" priority="127">
+    <cfRule type="expression" dxfId="649" priority="127">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A109 A111 A113 A115 A117">
-    <cfRule type="expression" dxfId="647" priority="132">
+    <cfRule type="expression" dxfId="648" priority="132">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D154">
-    <cfRule type="expression" dxfId="646" priority="126">
+    <cfRule type="expression" dxfId="647" priority="126">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A118:A119">
-    <cfRule type="expression" dxfId="645" priority="138">
+    <cfRule type="expression" dxfId="646" priority="138">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120">
-    <cfRule type="expression" dxfId="644" priority="136">
+    <cfRule type="expression" dxfId="645" priority="136">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108 D108:L108 C118:L120 A110 A112 A114 A116">
-    <cfRule type="expression" dxfId="643" priority="137">
+    <cfRule type="expression" dxfId="644" priority="137">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B118:B120">
-    <cfRule type="expression" dxfId="642" priority="135">
+    <cfRule type="expression" dxfId="643" priority="135">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108:C108">
-    <cfRule type="expression" dxfId="641" priority="134">
+    <cfRule type="expression" dxfId="642" priority="134">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F114">
-    <cfRule type="expression" dxfId="640" priority="128">
+    <cfRule type="expression" dxfId="641" priority="128">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F111">
-    <cfRule type="expression" dxfId="639" priority="131">
+    <cfRule type="expression" dxfId="640" priority="131">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F112">
-    <cfRule type="expression" dxfId="638" priority="130">
+    <cfRule type="expression" dxfId="639" priority="130">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F113">
-    <cfRule type="expression" dxfId="637" priority="129">
+    <cfRule type="expression" dxfId="638" priority="129">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E154">
-    <cfRule type="expression" dxfId="636" priority="125">
+    <cfRule type="expression" dxfId="637" priority="125">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93:B95">
-    <cfRule type="expression" dxfId="635" priority="88">
+    <cfRule type="expression" dxfId="636" priority="88">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95">
-    <cfRule type="expression" dxfId="634" priority="89">
+    <cfRule type="expression" dxfId="635" priority="89">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88 D88:L88 C93:L95 A90 A92">
-    <cfRule type="expression" dxfId="633" priority="90">
+    <cfRule type="expression" dxfId="634" priority="90">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89:E89 F89:L91 G92:L92">
-    <cfRule type="expression" dxfId="632" priority="86">
+    <cfRule type="expression" dxfId="633" priority="86">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89 A91">
-    <cfRule type="expression" dxfId="631" priority="85">
+    <cfRule type="expression" dxfId="632" priority="85">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90:B92">
-    <cfRule type="expression" dxfId="630" priority="83">
+    <cfRule type="expression" dxfId="631" priority="83">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:A94">
-    <cfRule type="expression" dxfId="629" priority="91">
+    <cfRule type="expression" dxfId="630" priority="91">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90:E92">
-    <cfRule type="expression" dxfId="628" priority="82">
+    <cfRule type="expression" dxfId="629" priority="82">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88:C88">
-    <cfRule type="expression" dxfId="627" priority="87">
+    <cfRule type="expression" dxfId="628" priority="87">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90:D92">
-    <cfRule type="expression" dxfId="626" priority="81">
+    <cfRule type="expression" dxfId="627" priority="81">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C90:C92">
-    <cfRule type="expression" dxfId="625" priority="84">
+    <cfRule type="expression" dxfId="626" priority="84">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F92">
-    <cfRule type="expression" dxfId="624" priority="80">
+    <cfRule type="expression" dxfId="625" priority="80">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:C48">
-    <cfRule type="expression" dxfId="623" priority="74">
+    <cfRule type="expression" dxfId="624" priority="74">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48:J48">
-    <cfRule type="expression" dxfId="622" priority="73">
+    <cfRule type="expression" dxfId="623" priority="73">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L48">
-    <cfRule type="expression" dxfId="621" priority="72">
+    <cfRule type="expression" dxfId="622" priority="72">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48">
-    <cfRule type="expression" dxfId="620" priority="71">
+    <cfRule type="expression" dxfId="621" priority="71">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K48">
-    <cfRule type="expression" dxfId="619" priority="70">
+    <cfRule type="expression" dxfId="620" priority="70">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:E48">
-    <cfRule type="expression" dxfId="618" priority="69">
+    <cfRule type="expression" dxfId="619" priority="69">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L56 C56:J56">
-    <cfRule type="expression" dxfId="617" priority="68">
+    <cfRule type="expression" dxfId="618" priority="68">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K56">
-    <cfRule type="expression" dxfId="616" priority="66">
+    <cfRule type="expression" dxfId="617" priority="66">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B56">
-    <cfRule type="expression" dxfId="615" priority="67">
+    <cfRule type="expression" dxfId="616" priority="67">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="expression" dxfId="614" priority="65">
+    <cfRule type="expression" dxfId="615" priority="65">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71:L72 B71:C72">
-    <cfRule type="expression" dxfId="613" priority="64">
+    <cfRule type="expression" dxfId="614" priority="64">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70:C70 E70:J70 L70">
-    <cfRule type="expression" dxfId="612" priority="63">
+    <cfRule type="expression" dxfId="613" priority="63">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="expression" dxfId="611" priority="62">
+    <cfRule type="expression" dxfId="612" priority="62">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="expression" dxfId="610" priority="61">
+    <cfRule type="expression" dxfId="611" priority="61">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="expression" dxfId="609" priority="60">
+    <cfRule type="expression" dxfId="610" priority="60">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K70">
-    <cfRule type="expression" dxfId="608" priority="59">
+    <cfRule type="expression" dxfId="609" priority="59">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:C46">
-    <cfRule type="expression" dxfId="607" priority="58">
+    <cfRule type="expression" dxfId="608" priority="58">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46:J46">
-    <cfRule type="expression" dxfId="606" priority="57">
+    <cfRule type="expression" dxfId="607" priority="57">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L46">
-    <cfRule type="expression" dxfId="605" priority="56">
+    <cfRule type="expression" dxfId="606" priority="56">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="expression" dxfId="604" priority="55">
+    <cfRule type="expression" dxfId="605" priority="55">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K46">
-    <cfRule type="expression" dxfId="603" priority="54">
+    <cfRule type="expression" dxfId="604" priority="54">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="expression" dxfId="602" priority="52">
+    <cfRule type="expression" dxfId="603" priority="52">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="expression" dxfId="601" priority="53">
+    <cfRule type="expression" dxfId="602" priority="53">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="600" priority="51">
+    <cfRule type="expression" dxfId="601" priority="51">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G54:J54">
-    <cfRule type="expression" dxfId="599" priority="50">
+    <cfRule type="expression" dxfId="600" priority="50">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L54">
-    <cfRule type="expression" dxfId="598" priority="49">
+    <cfRule type="expression" dxfId="599" priority="49">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="597" priority="48">
+    <cfRule type="expression" dxfId="598" priority="48">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="expression" dxfId="596" priority="47">
+    <cfRule type="expression" dxfId="597" priority="47">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="expression" dxfId="595" priority="46">
+    <cfRule type="expression" dxfId="596" priority="46">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K54">
-    <cfRule type="expression" dxfId="594" priority="44">
+    <cfRule type="expression" dxfId="595" priority="44">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="expression" dxfId="593" priority="45">
+    <cfRule type="expression" dxfId="594" priority="45">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:H15 F12:L12 C26:L28 A12:C12">
-    <cfRule type="expression" dxfId="592" priority="43">
+    <cfRule type="expression" dxfId="593" priority="43">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:I15">
-    <cfRule type="expression" dxfId="591" priority="38">
+    <cfRule type="expression" dxfId="592" priority="38">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B28">
-    <cfRule type="expression" dxfId="590" priority="39">
+    <cfRule type="expression" dxfId="591" priority="39">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27 C13:C15">
-    <cfRule type="expression" dxfId="589" priority="42">
+    <cfRule type="expression" dxfId="590" priority="42">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:A15 A26 A28 K13 L14:L15">
-    <cfRule type="expression" dxfId="588" priority="41">
+    <cfRule type="expression" dxfId="589" priority="41">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13 B15">
-    <cfRule type="expression" dxfId="587" priority="40">
+    <cfRule type="expression" dxfId="588" priority="40">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E15">
-    <cfRule type="expression" dxfId="586" priority="37">
+    <cfRule type="expression" dxfId="587" priority="37">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D14">
-    <cfRule type="expression" dxfId="585" priority="36">
+    <cfRule type="expression" dxfId="586" priority="36">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:J15">
-    <cfRule type="expression" dxfId="584" priority="35">
+    <cfRule type="expression" dxfId="585" priority="35">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="expression" dxfId="583" priority="33">
+    <cfRule type="expression" dxfId="584" priority="33">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="582" priority="31">
+    <cfRule type="expression" dxfId="583" priority="31">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="581" priority="29">
+    <cfRule type="expression" dxfId="582" priority="29">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="expression" dxfId="580" priority="22">
+    <cfRule type="expression" dxfId="581" priority="22">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:J16 L16">
-    <cfRule type="expression" dxfId="579" priority="34">
+    <cfRule type="expression" dxfId="580" priority="34">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="578" priority="27">
+    <cfRule type="expression" dxfId="579" priority="27">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="577" priority="32">
+    <cfRule type="expression" dxfId="578" priority="32">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="expression" dxfId="576" priority="25">
+    <cfRule type="expression" dxfId="577" priority="25">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="575" priority="23">
+    <cfRule type="expression" dxfId="576" priority="23">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="expression" dxfId="574" priority="26">
+    <cfRule type="expression" dxfId="575" priority="26">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="expression" dxfId="573" priority="24">
+    <cfRule type="expression" dxfId="574" priority="24">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="572" priority="30">
+    <cfRule type="expression" dxfId="573" priority="30">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="571" priority="28">
+    <cfRule type="expression" dxfId="572" priority="28">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="570" priority="18">
+    <cfRule type="expression" dxfId="571" priority="18">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:C17">
-    <cfRule type="expression" dxfId="569" priority="20">
+    <cfRule type="expression" dxfId="570" priority="20">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17 F17:L17">
-    <cfRule type="expression" dxfId="568" priority="21">
+    <cfRule type="expression" dxfId="569" priority="21">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="567" priority="19">
+    <cfRule type="expression" dxfId="568" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19 A21 A23 A25">
-    <cfRule type="expression" dxfId="566" priority="17">
+    <cfRule type="expression" dxfId="567" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18 A20 A22 A24">
-    <cfRule type="expression" dxfId="565" priority="16">
+    <cfRule type="expression" dxfId="566" priority="16">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:L20">
-    <cfRule type="expression" dxfId="564" priority="4">
+    <cfRule type="expression" dxfId="565" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="expression" dxfId="563" priority="2">
+    <cfRule type="expression" dxfId="564" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:L19">
-    <cfRule type="expression" dxfId="562" priority="1">
+    <cfRule type="expression" dxfId="563" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:L22">
-    <cfRule type="expression" dxfId="561" priority="15">
+    <cfRule type="expression" dxfId="562" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L24 B24:D24">
-    <cfRule type="expression" dxfId="560" priority="14">
+    <cfRule type="expression" dxfId="561" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="expression" dxfId="559" priority="11">
+    <cfRule type="expression" dxfId="560" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:H24">
-    <cfRule type="expression" dxfId="558" priority="13">
+    <cfRule type="expression" dxfId="559" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24">
-    <cfRule type="expression" dxfId="557" priority="12">
+    <cfRule type="expression" dxfId="558" priority="12">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24">
-    <cfRule type="expression" dxfId="556" priority="10">
+    <cfRule type="expression" dxfId="557" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23 B23:D23">
-    <cfRule type="expression" dxfId="555" priority="9">
+    <cfRule type="expression" dxfId="556" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="554" priority="6">
+    <cfRule type="expression" dxfId="555" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:H23">
-    <cfRule type="expression" dxfId="553" priority="8">
+    <cfRule type="expression" dxfId="554" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="expression" dxfId="552" priority="7">
+    <cfRule type="expression" dxfId="553" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="expression" dxfId="551" priority="5">
+    <cfRule type="expression" dxfId="552" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:L25">
-    <cfRule type="expression" dxfId="550" priority="3">
+    <cfRule type="expression" dxfId="551" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="29" max="11" man="1"/>
     <brk id="76" max="11" man="1"/>
@@ -31602,26 +31658,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R179"/>
+  <dimension ref="A1:R181"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A111" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C131" sqref="C131"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A153" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D178" sqref="D178"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="3" width="34.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="11" width="7.83203125" customWidth="1"/>
-    <col min="12" max="12" width="60.33203125" customWidth="1"/>
-    <col min="13" max="13" width="54.83203125" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="3" width="34.625" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
+    <col min="6" max="11" width="7.875" customWidth="1"/>
+    <col min="12" max="12" width="60.375" customWidth="1"/>
+    <col min="13" max="13" width="54.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="17.25" customHeight="1">
@@ -32057,10 +32113,10 @@
         <v>8</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>610</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>612</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>344</v>
@@ -32205,10 +32261,10 @@
         <v>13</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>108</v>
@@ -32235,10 +32291,10 @@
         <v>14</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>108</v>
@@ -32265,10 +32321,10 @@
         <v>15</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>305</v>
@@ -32799,13 +32855,13 @@
         <v>7</v>
       </c>
       <c r="B49" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>601</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>603</v>
       </c>
       <c r="E49" s="5">
         <v>255</v>
@@ -34617,10 +34673,10 @@
         <v>3</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>85</v>
@@ -35593,10 +35649,10 @@
         <v>2</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>252</v>
+        <v>614</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>261</v>
+        <v>616</v>
       </c>
       <c r="D173" s="5" t="s">
         <v>77</v>
@@ -35625,10 +35681,10 @@
         <v>3</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>591</v>
+        <v>615</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="D174" s="5" t="s">
         <v>77</v>
@@ -35683,17 +35739,21 @@
       <c r="R175" s="9"/>
     </row>
     <row r="176" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A176" s="3"/>
+      <c r="A176" s="3">
+        <v>5</v>
+      </c>
       <c r="B176" s="6" t="s">
-        <v>19</v>
+        <v>618</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>110</v>
+        <v>619</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E176" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="E176" s="5">
+        <v>128</v>
+      </c>
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
@@ -35701,19 +35761,29 @@
       <c r="J176" s="3"/>
       <c r="K176" s="3"/>
       <c r="L176" s="5"/>
-    </row>
-    <row r="177" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A177" s="3"/>
+      <c r="M176" s="9"/>
+      <c r="N176" s="9"/>
+      <c r="O176" s="9"/>
+      <c r="P176" s="9"/>
+      <c r="Q176" s="9"/>
+      <c r="R176" s="9"/>
+    </row>
+    <row r="177" spans="1:18" ht="17.25" customHeight="1">
+      <c r="A177" s="3">
+        <v>6</v>
+      </c>
       <c r="B177" s="6" t="s">
-        <v>20</v>
+        <v>620</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>111</v>
+        <v>621</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E177" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="E177" s="5">
+        <v>32</v>
+      </c>
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
@@ -35721,14 +35791,20 @@
       <c r="J177" s="3"/>
       <c r="K177" s="3"/>
       <c r="L177" s="5"/>
-    </row>
-    <row r="178" spans="1:12" ht="17.25" customHeight="1">
+      <c r="M177" s="9"/>
+      <c r="N177" s="9"/>
+      <c r="O177" s="9"/>
+      <c r="P177" s="9"/>
+      <c r="Q177" s="9"/>
+      <c r="R177" s="9"/>
+    </row>
+    <row r="178" spans="1:18" ht="17.25" customHeight="1">
       <c r="A178" s="3"/>
       <c r="B178" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D178" s="5" t="s">
         <v>108</v>
@@ -35739,1097 +35815,1137 @@
       <c r="H178" s="3"/>
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
-      <c r="K178" s="3" t="s">
+      <c r="K178" s="3"/>
+      <c r="L178" s="5"/>
+    </row>
+    <row r="179" spans="1:18" ht="17.25" customHeight="1">
+      <c r="A179" s="3"/>
+      <c r="B179" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E179" s="5"/>
+      <c r="F179" s="3"/>
+      <c r="G179" s="3"/>
+      <c r="H179" s="3"/>
+      <c r="I179" s="3"/>
+      <c r="J179" s="3"/>
+      <c r="K179" s="3"/>
+      <c r="L179" s="5"/>
+    </row>
+    <row r="180" spans="1:18" ht="17.25" customHeight="1">
+      <c r="A180" s="3"/>
+      <c r="B180" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E180" s="5"/>
+      <c r="F180" s="3"/>
+      <c r="G180" s="3"/>
+      <c r="H180" s="3"/>
+      <c r="I180" s="3"/>
+      <c r="J180" s="3"/>
+      <c r="K180" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L178" s="5" t="s">
+      <c r="L180" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A179" s="61"/>
-      <c r="B179" s="8"/>
-      <c r="C179" s="8"/>
-      <c r="D179" s="8"/>
-      <c r="E179" s="8"/>
-      <c r="F179" s="61"/>
-      <c r="G179" s="61"/>
-      <c r="H179" s="61"/>
-      <c r="I179" s="61"/>
-      <c r="J179" s="61"/>
-      <c r="K179" s="61"/>
-      <c r="L179" s="8"/>
+    <row r="181" spans="1:18" ht="17.25" customHeight="1">
+      <c r="A181" s="61"/>
+      <c r="B181" s="8"/>
+      <c r="C181" s="8"/>
+      <c r="D181" s="8"/>
+      <c r="E181" s="8"/>
+      <c r="F181" s="61"/>
+      <c r="G181" s="61"/>
+      <c r="H181" s="61"/>
+      <c r="I181" s="61"/>
+      <c r="J181" s="61"/>
+      <c r="K181" s="61"/>
+      <c r="L181" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="F14:L17 B16:C17 B26:C27 F26:L27 B19:C21 F19:L21">
-    <cfRule type="expression" dxfId="549" priority="649">
+    <cfRule type="expression" dxfId="550" priority="649">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:L13 D13">
-    <cfRule type="expression" dxfId="548" priority="522">
+    <cfRule type="expression" dxfId="549" priority="522">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12 D12:L12 E13:H13 C28:L30 A14:A15 A17:A18 A20:A21 A23:A24 A26:A27">
-    <cfRule type="expression" dxfId="547" priority="521">
+    <cfRule type="expression" dxfId="548" priority="521">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="expression" dxfId="546" priority="523">
+    <cfRule type="expression" dxfId="547" priority="523">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A159">
-    <cfRule type="expression" dxfId="545" priority="533">
+    <cfRule type="expression" dxfId="546" priority="533">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B157:B159">
-    <cfRule type="expression" dxfId="544" priority="532">
+    <cfRule type="expression" dxfId="545" priority="532">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A157:A158">
-    <cfRule type="expression" dxfId="543" priority="536">
+    <cfRule type="expression" dxfId="544" priority="536">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13 A30 A16 A19 A22 A25 A28">
-    <cfRule type="expression" dxfId="542" priority="520">
+    <cfRule type="expression" dxfId="543" priority="520">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C157:L159">
-    <cfRule type="expression" dxfId="541" priority="534">
+    <cfRule type="expression" dxfId="542" priority="534">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B30">
-    <cfRule type="expression" dxfId="540" priority="519">
+    <cfRule type="expression" dxfId="541" priority="519">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="539" priority="517">
+    <cfRule type="expression" dxfId="540" priority="517">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="538" priority="516">
+    <cfRule type="expression" dxfId="539" priority="516">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="expression" dxfId="537" priority="515">
+    <cfRule type="expression" dxfId="538" priority="515">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="536" priority="513">
+    <cfRule type="expression" dxfId="537" priority="513">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="535" priority="512">
+    <cfRule type="expression" dxfId="536" priority="512">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:C12">
-    <cfRule type="expression" dxfId="534" priority="518">
+    <cfRule type="expression" dxfId="535" priority="518">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="533" priority="511">
+    <cfRule type="expression" dxfId="534" priority="511">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="532" priority="510">
+    <cfRule type="expression" dxfId="533" priority="510">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:A71">
-    <cfRule type="expression" dxfId="531" priority="408">
+    <cfRule type="expression" dxfId="532" priority="408">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65 D65:L65 E66:H66 C70:L72 F68:H69">
-    <cfRule type="expression" dxfId="530" priority="406">
+    <cfRule type="expression" dxfId="531" priority="406">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70:B72">
-    <cfRule type="expression" dxfId="529" priority="404">
+    <cfRule type="expression" dxfId="530" priority="404">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68">
-    <cfRule type="expression" dxfId="528" priority="393">
+    <cfRule type="expression" dxfId="529" priority="393">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68">
-    <cfRule type="expression" dxfId="527" priority="395">
+    <cfRule type="expression" dxfId="528" priority="395">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66 A72 A68:A69">
-    <cfRule type="expression" dxfId="526" priority="405">
+    <cfRule type="expression" dxfId="527" priority="405">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D17 D26:D27 D19:D21">
-    <cfRule type="expression" dxfId="525" priority="382">
+    <cfRule type="expression" dxfId="526" priority="382">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66 J66:L66 J68:L69">
-    <cfRule type="expression" dxfId="524" priority="407">
+    <cfRule type="expression" dxfId="525" priority="407">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I66 I68:I69">
-    <cfRule type="expression" dxfId="523" priority="396">
+    <cfRule type="expression" dxfId="524" priority="396">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="expression" dxfId="522" priority="394">
+    <cfRule type="expression" dxfId="523" priority="394">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="expression" dxfId="521" priority="390">
+    <cfRule type="expression" dxfId="522" priority="390">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="expression" dxfId="520" priority="392">
+    <cfRule type="expression" dxfId="521" priority="392">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69">
-    <cfRule type="expression" dxfId="519" priority="391">
+    <cfRule type="expression" dxfId="520" priority="391">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:E17 E26:E27 E19:E21">
-    <cfRule type="expression" dxfId="518" priority="383">
+    <cfRule type="expression" dxfId="519" priority="383">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:C65">
-    <cfRule type="expression" dxfId="517" priority="403">
+    <cfRule type="expression" dxfId="518" priority="403">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:C69">
-    <cfRule type="expression" dxfId="516" priority="401">
+    <cfRule type="expression" dxfId="517" priority="401">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="515" priority="375">
+    <cfRule type="expression" dxfId="516" priority="375">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:A51">
-    <cfRule type="expression" dxfId="514" priority="381">
+    <cfRule type="expression" dxfId="515" priority="381">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44 J44:L47 G49:L49">
-    <cfRule type="expression" dxfId="513" priority="380">
+    <cfRule type="expression" dxfId="514" priority="380">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66">
-    <cfRule type="expression" dxfId="512" priority="360">
+    <cfRule type="expression" dxfId="513" priority="360">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66">
-    <cfRule type="expression" dxfId="511" priority="359">
+    <cfRule type="expression" dxfId="512" priority="359">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:B52">
-    <cfRule type="expression" dxfId="510" priority="377">
+    <cfRule type="expression" dxfId="511" priority="377">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49">
-    <cfRule type="expression" dxfId="509" priority="372">
+    <cfRule type="expression" dxfId="510" priority="372">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:I47">
-    <cfRule type="expression" dxfId="508" priority="369">
+    <cfRule type="expression" dxfId="509" priority="369">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:A47 A52">
-    <cfRule type="expression" dxfId="507" priority="378">
+    <cfRule type="expression" dxfId="508" priority="378">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="506" priority="371">
+    <cfRule type="expression" dxfId="507" priority="371">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43 D43:L43 E44:H44 C50:L52 A49 F45:H47">
-    <cfRule type="expression" dxfId="505" priority="379">
+    <cfRule type="expression" dxfId="506" priority="379">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="expression" dxfId="504" priority="367">
+    <cfRule type="expression" dxfId="505" priority="367">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:C43">
-    <cfRule type="expression" dxfId="503" priority="376">
+    <cfRule type="expression" dxfId="504" priority="376">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44:C47">
-    <cfRule type="expression" dxfId="502" priority="374">
+    <cfRule type="expression" dxfId="503" priority="374">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49">
-    <cfRule type="expression" dxfId="501" priority="373">
+    <cfRule type="expression" dxfId="502" priority="373">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="expression" dxfId="500" priority="370">
+    <cfRule type="expression" dxfId="501" priority="370">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B45 B47">
-    <cfRule type="expression" dxfId="499" priority="368">
+    <cfRule type="expression" dxfId="500" priority="368">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="expression" dxfId="498" priority="366">
+    <cfRule type="expression" dxfId="499" priority="366">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="expression" dxfId="497" priority="365">
+    <cfRule type="expression" dxfId="498" priority="365">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="expression" dxfId="496" priority="364">
+    <cfRule type="expression" dxfId="497" priority="364">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="expression" dxfId="495" priority="363">
+    <cfRule type="expression" dxfId="496" priority="363">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="expression" dxfId="494" priority="362">
+    <cfRule type="expression" dxfId="495" priority="362">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="expression" dxfId="493" priority="361">
+    <cfRule type="expression" dxfId="494" priority="361">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="expression" dxfId="492" priority="352">
+    <cfRule type="expression" dxfId="493" priority="352">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="expression" dxfId="491" priority="351">
+    <cfRule type="expression" dxfId="492" priority="351">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67">
-    <cfRule type="expression" dxfId="490" priority="353">
+    <cfRule type="expression" dxfId="491" priority="353">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I67">
-    <cfRule type="expression" dxfId="489" priority="354">
+    <cfRule type="expression" dxfId="490" priority="354">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67">
-    <cfRule type="expression" dxfId="488" priority="356">
+    <cfRule type="expression" dxfId="489" priority="356">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J67:L67">
-    <cfRule type="expression" dxfId="487" priority="358">
+    <cfRule type="expression" dxfId="488" priority="358">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67:H67">
-    <cfRule type="expression" dxfId="486" priority="357">
+    <cfRule type="expression" dxfId="487" priority="357">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="485" priority="355">
+    <cfRule type="expression" dxfId="486" priority="355">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D133">
-    <cfRule type="expression" dxfId="484" priority="299">
+    <cfRule type="expression" dxfId="485" priority="299">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="483" priority="320">
+    <cfRule type="expression" dxfId="484" priority="320">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="482" priority="319">
+    <cfRule type="expression" dxfId="483" priority="319">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="481" priority="318">
+    <cfRule type="expression" dxfId="482" priority="318">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="480" priority="317">
+    <cfRule type="expression" dxfId="481" priority="317">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="expression" dxfId="479" priority="307">
+    <cfRule type="expression" dxfId="480" priority="307">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I129 I131:I134">
-    <cfRule type="expression" dxfId="478" priority="304">
+    <cfRule type="expression" dxfId="479" priority="304">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129 A139 A132 A135">
-    <cfRule type="expression" dxfId="477" priority="313">
+    <cfRule type="expression" dxfId="478" priority="313">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137:B139">
-    <cfRule type="expression" dxfId="476" priority="312">
+    <cfRule type="expression" dxfId="477" priority="312">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:A138">
-    <cfRule type="expression" dxfId="475" priority="316">
+    <cfRule type="expression" dxfId="476" priority="316">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D129 G136:L136 J129:L129 J133:J134 L133:L134 J131:L132 D131">
-    <cfRule type="expression" dxfId="474" priority="315">
+    <cfRule type="expression" dxfId="475" priority="315">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128 D128:L128 E129:H129 C137:L139 F132:H134 E131:H131 A131 A134">
-    <cfRule type="expression" dxfId="473" priority="314">
+    <cfRule type="expression" dxfId="474" priority="314">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C136">
-    <cfRule type="expression" dxfId="472" priority="310">
+    <cfRule type="expression" dxfId="473" priority="310">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128:C128">
-    <cfRule type="expression" dxfId="471" priority="311">
+    <cfRule type="expression" dxfId="472" priority="311">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129 C132:C134">
-    <cfRule type="expression" dxfId="470" priority="309">
+    <cfRule type="expression" dxfId="471" priority="309">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F136">
-    <cfRule type="expression" dxfId="469" priority="308">
+    <cfRule type="expression" dxfId="470" priority="308">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="expression" dxfId="468" priority="306">
+    <cfRule type="expression" dxfId="469" priority="306">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D136">
-    <cfRule type="expression" dxfId="467" priority="305">
+    <cfRule type="expression" dxfId="468" priority="305">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134 B129 B131:B132">
-    <cfRule type="expression" dxfId="466" priority="303">
+    <cfRule type="expression" dxfId="467" priority="303">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B133">
-    <cfRule type="expression" dxfId="465" priority="302">
+    <cfRule type="expression" dxfId="466" priority="302">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D132">
-    <cfRule type="expression" dxfId="464" priority="301">
+    <cfRule type="expression" dxfId="465" priority="301">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E132">
-    <cfRule type="expression" dxfId="463" priority="300">
+    <cfRule type="expression" dxfId="464" priority="300">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E134">
-    <cfRule type="expression" dxfId="462" priority="296">
+    <cfRule type="expression" dxfId="463" priority="296">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E133">
-    <cfRule type="expression" dxfId="461" priority="298">
+    <cfRule type="expression" dxfId="462" priority="298">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113:A114">
-    <cfRule type="expression" dxfId="460" priority="294">
+    <cfRule type="expression" dxfId="461" priority="294">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C131">
-    <cfRule type="expression" dxfId="459" priority="295">
+    <cfRule type="expression" dxfId="460" priority="295">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I108:I110">
-    <cfRule type="expression" dxfId="458" priority="282">
+    <cfRule type="expression" dxfId="459" priority="282">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108:A112 A115">
-    <cfRule type="expression" dxfId="457" priority="291">
+    <cfRule type="expression" dxfId="458" priority="291">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B113:B115">
-    <cfRule type="expression" dxfId="456" priority="290">
+    <cfRule type="expression" dxfId="457" priority="290">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D108:D109 J108:L110 L111:L112">
-    <cfRule type="expression" dxfId="455" priority="293">
+    <cfRule type="expression" dxfId="456" priority="293">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107 D107:L107 E108:H109 C113:L115 F110:H110">
-    <cfRule type="expression" dxfId="454" priority="292">
+    <cfRule type="expression" dxfId="455" priority="292">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B107:C107">
-    <cfRule type="expression" dxfId="453" priority="289">
+    <cfRule type="expression" dxfId="454" priority="289">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C108">
-    <cfRule type="expression" dxfId="452" priority="287">
+    <cfRule type="expression" dxfId="453" priority="287">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108:B109">
-    <cfRule type="expression" dxfId="451" priority="281">
+    <cfRule type="expression" dxfId="452" priority="281">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D110">
-    <cfRule type="expression" dxfId="449" priority="279">
+    <cfRule type="expression" dxfId="451" priority="279">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="expression" dxfId="448" priority="278">
+    <cfRule type="expression" dxfId="450" priority="278">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135">
-    <cfRule type="expression" dxfId="447" priority="268">
+    <cfRule type="expression" dxfId="449" priority="268">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135">
-    <cfRule type="expression" dxfId="446" priority="267">
+    <cfRule type="expression" dxfId="448" priority="267">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C109">
-    <cfRule type="expression" dxfId="445" priority="273">
+    <cfRule type="expression" dxfId="447" priority="273">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G135:L135">
-    <cfRule type="expression" dxfId="444" priority="272">
+    <cfRule type="expression" dxfId="446" priority="272">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C135">
-    <cfRule type="expression" dxfId="443" priority="270">
+    <cfRule type="expression" dxfId="445" priority="270">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F135">
-    <cfRule type="expression" dxfId="442" priority="269">
+    <cfRule type="expression" dxfId="444" priority="269">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D135">
-    <cfRule type="expression" dxfId="441" priority="266">
+    <cfRule type="expression" dxfId="443" priority="266">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B155">
-    <cfRule type="expression" dxfId="440" priority="259">
+    <cfRule type="expression" dxfId="442" priority="259">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I153 I155:I156">
-    <cfRule type="expression" dxfId="439" priority="260">
+    <cfRule type="expression" dxfId="441" priority="260">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156">
-    <cfRule type="expression" dxfId="438" priority="258">
+    <cfRule type="expression" dxfId="440" priority="258">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D155">
-    <cfRule type="expression" dxfId="437" priority="257">
+    <cfRule type="expression" dxfId="439" priority="257">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E155">
-    <cfRule type="expression" dxfId="436" priority="256">
+    <cfRule type="expression" dxfId="438" priority="256">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D156">
-    <cfRule type="expression" dxfId="435" priority="255">
+    <cfRule type="expression" dxfId="437" priority="255">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A153 A155:A156">
-    <cfRule type="expression" dxfId="434" priority="263">
+    <cfRule type="expression" dxfId="436" priority="263">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E156">
-    <cfRule type="expression" dxfId="433" priority="254">
+    <cfRule type="expression" dxfId="435" priority="254">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D153 J153:L153 J155:L156">
-    <cfRule type="expression" dxfId="432" priority="265">
+    <cfRule type="expression" dxfId="434" priority="265">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152 D152:L152 E153:H153 F155:H156">
-    <cfRule type="expression" dxfId="431" priority="264">
+    <cfRule type="expression" dxfId="433" priority="264">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B152:C152">
-    <cfRule type="expression" dxfId="430" priority="262">
+    <cfRule type="expression" dxfId="432" priority="262">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C155:C156">
-    <cfRule type="expression" dxfId="429" priority="261">
+    <cfRule type="expression" dxfId="431" priority="261">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C153">
-    <cfRule type="expression" dxfId="428" priority="253">
+    <cfRule type="expression" dxfId="430" priority="253">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B153">
-    <cfRule type="expression" dxfId="427" priority="252">
+    <cfRule type="expression" dxfId="429" priority="252">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D154">
-    <cfRule type="expression" dxfId="426" priority="245">
+    <cfRule type="expression" dxfId="428" priority="245">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E154">
-    <cfRule type="expression" dxfId="425" priority="244">
+    <cfRule type="expression" dxfId="427" priority="244">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B154">
-    <cfRule type="expression" dxfId="424" priority="246">
+    <cfRule type="expression" dxfId="426" priority="246">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I154">
-    <cfRule type="expression" dxfId="423" priority="247">
+    <cfRule type="expression" dxfId="425" priority="247">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A154">
-    <cfRule type="expression" dxfId="422" priority="249">
+    <cfRule type="expression" dxfId="424" priority="249">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J154:L154">
-    <cfRule type="expression" dxfId="421" priority="251">
+    <cfRule type="expression" dxfId="423" priority="251">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F154:H154">
-    <cfRule type="expression" dxfId="420" priority="250">
+    <cfRule type="expression" dxfId="422" priority="250">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C154">
-    <cfRule type="expression" dxfId="419" priority="248">
+    <cfRule type="expression" dxfId="421" priority="248">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D134">
-    <cfRule type="expression" dxfId="418" priority="243">
+    <cfRule type="expression" dxfId="420" priority="243">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K134">
-    <cfRule type="expression" dxfId="417" priority="242">
+    <cfRule type="expression" dxfId="419" priority="242">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K133">
-    <cfRule type="expression" dxfId="416" priority="241">
+    <cfRule type="expression" dxfId="418" priority="241">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B172:C172">
-    <cfRule type="expression" dxfId="415" priority="85">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A172 D172:L172 E174:H174 C176:L178">
-    <cfRule type="expression" dxfId="414" priority="88">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A174 A178">
-    <cfRule type="expression" dxfId="413" priority="87">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B176:B178">
-    <cfRule type="expression" dxfId="412" priority="86">
+    <cfRule type="expression" dxfId="417" priority="85">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A172 D172:L172 E174:H174 C178:L180">
+    <cfRule type="expression" dxfId="416" priority="88">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A174 A180">
+    <cfRule type="expression" dxfId="415" priority="87">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B178:B180">
+    <cfRule type="expression" dxfId="414" priority="86">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I174">
-    <cfRule type="expression" dxfId="411" priority="84">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A176:A177">
-    <cfRule type="expression" dxfId="410" priority="90">
+    <cfRule type="expression" dxfId="413" priority="84">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A178:A179">
+    <cfRule type="expression" dxfId="412" priority="90">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J174 D174 L174">
-    <cfRule type="expression" dxfId="409" priority="89">
+    <cfRule type="expression" dxfId="411" priority="89">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C174">
-    <cfRule type="expression" dxfId="408" priority="83">
+    <cfRule type="expression" dxfId="410" priority="83">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B174">
-    <cfRule type="expression" dxfId="407" priority="82">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B175:L175">
-    <cfRule type="expression" dxfId="406" priority="81">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A175">
-    <cfRule type="expression" dxfId="405" priority="80">
+    <cfRule type="expression" dxfId="409" priority="82">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B175:L177">
+    <cfRule type="expression" dxfId="408" priority="81">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A175:A177">
+    <cfRule type="expression" dxfId="407" priority="80">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:A93">
-    <cfRule type="expression" dxfId="404" priority="74">
+    <cfRule type="expression" dxfId="406" priority="74">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="expression" dxfId="403" priority="65">
+    <cfRule type="expression" dxfId="405" priority="65">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I86:I90">
-    <cfRule type="expression" dxfId="402" priority="62">
+    <cfRule type="expression" dxfId="404" priority="62">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86:A90 A94">
-    <cfRule type="expression" dxfId="401" priority="71">
+    <cfRule type="expression" dxfId="403" priority="71">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92:B94">
-    <cfRule type="expression" dxfId="400" priority="70">
+    <cfRule type="expression" dxfId="402" priority="70">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D86:D87 G91:L91 J86:L90">
-    <cfRule type="expression" dxfId="399" priority="73">
+    <cfRule type="expression" dxfId="401" priority="73">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85 D85:L85 E86:H87 C92:L94 A91 F88:H90">
-    <cfRule type="expression" dxfId="398" priority="72">
+    <cfRule type="expression" dxfId="400" priority="72">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91">
-    <cfRule type="expression" dxfId="397" priority="68">
+    <cfRule type="expression" dxfId="399" priority="68">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:C85">
-    <cfRule type="expression" dxfId="396" priority="69">
+    <cfRule type="expression" dxfId="398" priority="69">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C86 C88:C90">
-    <cfRule type="expression" dxfId="395" priority="67">
+    <cfRule type="expression" dxfId="397" priority="67">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F91">
-    <cfRule type="expression" dxfId="394" priority="66">
+    <cfRule type="expression" dxfId="396" priority="66">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="expression" dxfId="393" priority="64">
+    <cfRule type="expression" dxfId="395" priority="64">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91">
-    <cfRule type="expression" dxfId="392" priority="63">
+    <cfRule type="expression" dxfId="394" priority="63">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B88 B90">
-    <cfRule type="expression" dxfId="391" priority="61">
+    <cfRule type="expression" dxfId="393" priority="61">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89">
-    <cfRule type="expression" dxfId="390" priority="60">
+    <cfRule type="expression" dxfId="392" priority="60">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88">
-    <cfRule type="expression" dxfId="389" priority="59">
+    <cfRule type="expression" dxfId="391" priority="59">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="expression" dxfId="388" priority="58">
+    <cfRule type="expression" dxfId="390" priority="58">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D89">
-    <cfRule type="expression" dxfId="387" priority="57">
+    <cfRule type="expression" dxfId="389" priority="57">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="expression" dxfId="386" priority="56">
+    <cfRule type="expression" dxfId="388" priority="56">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90">
-    <cfRule type="expression" dxfId="385" priority="55">
+    <cfRule type="expression" dxfId="387" priority="55">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="expression" dxfId="384" priority="54">
+    <cfRule type="expression" dxfId="386" priority="54">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="expression" dxfId="383" priority="53">
+    <cfRule type="expression" dxfId="385" priority="53">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110">
-    <cfRule type="expression" dxfId="382" priority="52">
+    <cfRule type="expression" dxfId="384" priority="52">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C110">
-    <cfRule type="expression" dxfId="381" priority="51">
+    <cfRule type="expression" dxfId="383" priority="51">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I111">
-    <cfRule type="expression" dxfId="380" priority="48">
+    <cfRule type="expression" dxfId="382" priority="48">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J111:K111">
-    <cfRule type="expression" dxfId="379" priority="50">
+    <cfRule type="expression" dxfId="381" priority="50">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F111:H111">
-    <cfRule type="expression" dxfId="378" priority="49">
+    <cfRule type="expression" dxfId="380" priority="49">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D111">
-    <cfRule type="expression" dxfId="377" priority="47">
+    <cfRule type="expression" dxfId="379" priority="47">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="expression" dxfId="376" priority="46">
+    <cfRule type="expression" dxfId="378" priority="46">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B111">
-    <cfRule type="expression" dxfId="375" priority="45">
+    <cfRule type="expression" dxfId="377" priority="45">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C111">
-    <cfRule type="expression" dxfId="374" priority="44">
+    <cfRule type="expression" dxfId="376" priority="44">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112:K112 B112:C112">
-    <cfRule type="expression" dxfId="373" priority="43">
+    <cfRule type="expression" dxfId="375" priority="43">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D112">
-    <cfRule type="expression" dxfId="372" priority="42">
+    <cfRule type="expression" dxfId="374" priority="42">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:C22 F22:L22">
-    <cfRule type="expression" dxfId="371" priority="41">
+    <cfRule type="expression" dxfId="373" priority="41">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="370" priority="38">
+    <cfRule type="expression" dxfId="372" priority="38">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="expression" dxfId="369" priority="39">
+    <cfRule type="expression" dxfId="371" priority="39">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E173:H173">
-    <cfRule type="expression" dxfId="368" priority="36">
+    <cfRule type="expression" dxfId="370" priority="36">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173">
-    <cfRule type="expression" dxfId="367" priority="35">
+    <cfRule type="expression" dxfId="369" priority="35">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I173">
-    <cfRule type="expression" dxfId="366" priority="34">
+    <cfRule type="expression" dxfId="368" priority="34">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J173 D173 L173">
-    <cfRule type="expression" dxfId="365" priority="37">
+    <cfRule type="expression" dxfId="367" priority="37">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C173">
-    <cfRule type="expression" dxfId="364" priority="33">
+    <cfRule type="expression" dxfId="366" priority="33">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B173">
-    <cfRule type="expression" dxfId="363" priority="32">
+    <cfRule type="expression" dxfId="365" priority="32">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K173">
-    <cfRule type="expression" dxfId="362" priority="31">
+    <cfRule type="expression" dxfId="364" priority="31">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K174">
-    <cfRule type="expression" dxfId="361" priority="30">
+    <cfRule type="expression" dxfId="363" priority="30">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="360" priority="27">
+    <cfRule type="expression" dxfId="362" priority="27">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48:L48">
-    <cfRule type="expression" dxfId="359" priority="29">
+    <cfRule type="expression" dxfId="361" priority="29">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="expression" dxfId="358" priority="25">
+    <cfRule type="expression" dxfId="360" priority="25">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="expression" dxfId="357" priority="24">
+    <cfRule type="expression" dxfId="359" priority="24">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="expression" dxfId="356" priority="28">
+    <cfRule type="expression" dxfId="358" priority="28">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48">
-    <cfRule type="expression" dxfId="355" priority="26">
+    <cfRule type="expression" dxfId="357" priority="26">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="expression" dxfId="354" priority="23">
+    <cfRule type="expression" dxfId="356" priority="23">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:C23 F23:L23">
-    <cfRule type="expression" dxfId="353" priority="22">
+    <cfRule type="expression" dxfId="355" priority="22">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="352" priority="19">
+    <cfRule type="expression" dxfId="354" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="expression" dxfId="351" priority="20">
+    <cfRule type="expression" dxfId="353" priority="20">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:C24 F24:L24">
-    <cfRule type="expression" dxfId="350" priority="18">
+    <cfRule type="expression" dxfId="352" priority="18">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="349" priority="15">
+    <cfRule type="expression" dxfId="351" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="348" priority="16">
+    <cfRule type="expression" dxfId="350" priority="16">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:C25 F25:L25">
-    <cfRule type="expression" dxfId="347" priority="14">
+    <cfRule type="expression" dxfId="349" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="346" priority="11">
+    <cfRule type="expression" dxfId="348" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="expression" dxfId="345" priority="12">
+    <cfRule type="expression" dxfId="347" priority="12">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:C18 F18:L18">
-    <cfRule type="expression" dxfId="344" priority="10">
+    <cfRule type="expression" dxfId="346" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="343" priority="7">
+    <cfRule type="expression" dxfId="345" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="expression" dxfId="342" priority="8">
+    <cfRule type="expression" dxfId="344" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I130">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="343" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130 A133 A136">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="342" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J130:L130 D130">
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="341" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E130:H130">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="340" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="339" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C130">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="338" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="53" max="11" man="1"/>
     <brk id="95" max="11" man="1"/>
@@ -36839,7 +36955,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
@@ -36850,15 +36966,15 @@
       <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="3" width="34.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="11" width="7.83203125" customWidth="1"/>
-    <col min="12" max="12" width="60.33203125" customWidth="1"/>
-    <col min="13" max="13" width="54.83203125" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="3" width="34.625" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
+    <col min="6" max="11" width="7.875" customWidth="1"/>
+    <col min="12" max="12" width="60.375" customWidth="1"/>
+    <col min="13" max="13" width="54.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="17.25" customHeight="1">
@@ -38136,408 +38252,408 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A17:A18 L15:L16 A16:C16 F15:H16 E55:H55 E56:I56 L55:L56 A56:C56">
-    <cfRule type="expression" dxfId="341" priority="145">
+    <cfRule type="expression" dxfId="337" priority="145">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:C12">
-    <cfRule type="expression" dxfId="340" priority="141">
+    <cfRule type="expression" dxfId="336" priority="141">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12 D12:L12 C18:L19 C17:J17 L17">
-    <cfRule type="expression" dxfId="339" priority="144">
+    <cfRule type="expression" dxfId="335" priority="144">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15 A19">
-    <cfRule type="expression" dxfId="338" priority="143">
+    <cfRule type="expression" dxfId="334" priority="143">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B19">
-    <cfRule type="expression" dxfId="337" priority="142">
+    <cfRule type="expression" dxfId="333" priority="142">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="expression" dxfId="336" priority="140">
+    <cfRule type="expression" dxfId="332" priority="140">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="335" priority="139">
+    <cfRule type="expression" dxfId="331" priority="139">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="334" priority="114">
+    <cfRule type="expression" dxfId="330" priority="114">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="expression" dxfId="333" priority="103">
+    <cfRule type="expression" dxfId="329" priority="103">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="332" priority="127">
+    <cfRule type="expression" dxfId="328" priority="127">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="331" priority="119">
+    <cfRule type="expression" dxfId="327" priority="119">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="330" priority="118">
+    <cfRule type="expression" dxfId="326" priority="118">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="expression" dxfId="329" priority="102">
+    <cfRule type="expression" dxfId="325" priority="102">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17">
-    <cfRule type="expression" dxfId="328" priority="106">
+    <cfRule type="expression" dxfId="324" priority="106">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="327" priority="101">
+    <cfRule type="expression" dxfId="323" priority="101">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:A40">
-    <cfRule type="expression" dxfId="326" priority="95">
+    <cfRule type="expression" dxfId="322" priority="95">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33 A41 A36">
-    <cfRule type="expression" dxfId="325" priority="93">
+    <cfRule type="expression" dxfId="321" priority="93">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39:B41">
-    <cfRule type="expression" dxfId="324" priority="92">
+    <cfRule type="expression" dxfId="320" priority="92">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32 D32:L32 C40:L41 A34:A35 A37:A38 C39:J39 L39">
-    <cfRule type="expression" dxfId="323" priority="94">
+    <cfRule type="expression" dxfId="319" priority="94">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:C32">
-    <cfRule type="expression" dxfId="322" priority="91">
+    <cfRule type="expression" dxfId="318" priority="91">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:H37 J33:K34 J36:J37">
-    <cfRule type="expression" dxfId="321" priority="90">
+    <cfRule type="expression" dxfId="317" priority="90">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:I37">
-    <cfRule type="expression" dxfId="320" priority="89">
+    <cfRule type="expression" dxfId="316" priority="89">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="319" priority="75">
+    <cfRule type="expression" dxfId="315" priority="75">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="318" priority="74">
+    <cfRule type="expression" dxfId="314" priority="74">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L33:L37">
-    <cfRule type="expression" dxfId="317" priority="88">
+    <cfRule type="expression" dxfId="313" priority="88">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="expression" dxfId="316" priority="73">
+    <cfRule type="expression" dxfId="312" priority="73">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="315" priority="87">
+    <cfRule type="expression" dxfId="311" priority="87">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="314" priority="86">
+    <cfRule type="expression" dxfId="310" priority="86">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="313" priority="85">
+    <cfRule type="expression" dxfId="309" priority="85">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="312" priority="84">
+    <cfRule type="expression" dxfId="308" priority="84">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:C36">
-    <cfRule type="expression" dxfId="311" priority="83">
+    <cfRule type="expression" dxfId="307" priority="83">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:B36">
-    <cfRule type="expression" dxfId="310" priority="82">
+    <cfRule type="expression" dxfId="306" priority="82">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="309" priority="81">
+    <cfRule type="expression" dxfId="305" priority="81">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="308" priority="80">
+    <cfRule type="expression" dxfId="304" priority="80">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="307" priority="79">
+    <cfRule type="expression" dxfId="303" priority="79">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="306" priority="78">
+    <cfRule type="expression" dxfId="302" priority="78">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="305" priority="77">
+    <cfRule type="expression" dxfId="301" priority="77">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K37">
-    <cfRule type="expression" dxfId="304" priority="69">
+    <cfRule type="expression" dxfId="300" priority="69">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36">
-    <cfRule type="expression" dxfId="303" priority="68">
+    <cfRule type="expression" dxfId="299" priority="68">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K39">
-    <cfRule type="expression" dxfId="302" priority="70">
+    <cfRule type="expression" dxfId="298" priority="70">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35">
-    <cfRule type="expression" dxfId="301" priority="67">
+    <cfRule type="expression" dxfId="297" priority="67">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35">
-    <cfRule type="expression" dxfId="300" priority="66">
+    <cfRule type="expression" dxfId="296" priority="66">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="expression" dxfId="299" priority="65">
+    <cfRule type="expression" dxfId="295" priority="65">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38:K38">
-    <cfRule type="expression" dxfId="298" priority="64">
+    <cfRule type="expression" dxfId="294" priority="64">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="297" priority="62">
+    <cfRule type="expression" dxfId="293" priority="62">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="expression" dxfId="296" priority="61">
+    <cfRule type="expression" dxfId="292" priority="61">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="expression" dxfId="295" priority="63">
+    <cfRule type="expression" dxfId="291" priority="63">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L38">
-    <cfRule type="expression" dxfId="294" priority="60">
+    <cfRule type="expression" dxfId="290" priority="60">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57">
-    <cfRule type="expression" dxfId="293" priority="59">
+    <cfRule type="expression" dxfId="289" priority="59">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:C54">
-    <cfRule type="expression" dxfId="292" priority="55">
+    <cfRule type="expression" dxfId="288" priority="55">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54 D54:L54 C59:L59 C57:J57 L57">
-    <cfRule type="expression" dxfId="291" priority="58">
+    <cfRule type="expression" dxfId="287" priority="58">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55 A59">
-    <cfRule type="expression" dxfId="290" priority="57">
+    <cfRule type="expression" dxfId="286" priority="57">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57 B59">
-    <cfRule type="expression" dxfId="289" priority="56">
+    <cfRule type="expression" dxfId="285" priority="56">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J55:K55">
-    <cfRule type="expression" dxfId="288" priority="54">
+    <cfRule type="expression" dxfId="284" priority="54">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="expression" dxfId="287" priority="38">
+    <cfRule type="expression" dxfId="283" priority="38">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="expression" dxfId="286" priority="51">
+    <cfRule type="expression" dxfId="282" priority="51">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="expression" dxfId="285" priority="43">
+    <cfRule type="expression" dxfId="281" priority="43">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="284" priority="42">
+    <cfRule type="expression" dxfId="280" priority="42">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K57">
-    <cfRule type="expression" dxfId="283" priority="34">
+    <cfRule type="expression" dxfId="279" priority="34">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K56">
-    <cfRule type="expression" dxfId="282" priority="31">
+    <cfRule type="expression" dxfId="278" priority="31">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J56">
-    <cfRule type="expression" dxfId="281" priority="30">
+    <cfRule type="expression" dxfId="277" priority="30">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55">
-    <cfRule type="expression" dxfId="280" priority="29">
+    <cfRule type="expression" dxfId="276" priority="29">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13:L14 A14:C14 E13:H14">
-    <cfRule type="expression" dxfId="279" priority="18">
+    <cfRule type="expression" dxfId="275" priority="18">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="expression" dxfId="278" priority="17">
+    <cfRule type="expression" dxfId="274" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:K13">
-    <cfRule type="expression" dxfId="277" priority="16">
+    <cfRule type="expression" dxfId="273" priority="16">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="276" priority="15">
+    <cfRule type="expression" dxfId="272" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="275" priority="11">
+    <cfRule type="expression" dxfId="271" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="expression" dxfId="274" priority="10">
+    <cfRule type="expression" dxfId="270" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="273" priority="14">
+    <cfRule type="expression" dxfId="269" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="expression" dxfId="272" priority="13">
+    <cfRule type="expression" dxfId="268" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="271" priority="12">
+    <cfRule type="expression" dxfId="267" priority="12">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="expression" dxfId="270" priority="9">
+    <cfRule type="expression" dxfId="266" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="269" priority="8">
+    <cfRule type="expression" dxfId="265" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="268" priority="7">
+    <cfRule type="expression" dxfId="264" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="267" priority="6">
+    <cfRule type="expression" dxfId="263" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="expression" dxfId="266" priority="5">
+    <cfRule type="expression" dxfId="262" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="expression" dxfId="265" priority="4">
+    <cfRule type="expression" dxfId="261" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="expression" dxfId="264" priority="2">
+    <cfRule type="expression" dxfId="260" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:J58 L58">
-    <cfRule type="expression" dxfId="263" priority="3">
+    <cfRule type="expression" dxfId="259" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K58">
-    <cfRule type="expression" dxfId="262" priority="1">
+    <cfRule type="expression" dxfId="258" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="42" max="11" man="1"/>
   </rowBreaks>
@@ -38548,26 +38664,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:R63"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="A64" sqref="A64:XFD85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="3" width="34.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="11" width="7.83203125" customWidth="1"/>
-    <col min="12" max="12" width="60.33203125" customWidth="1"/>
-    <col min="13" max="13" width="54.83203125" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="3" width="34.625" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
+    <col min="6" max="11" width="7.875" customWidth="1"/>
+    <col min="12" max="12" width="60.375" customWidth="1"/>
+    <col min="13" max="13" width="54.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="17.25" customHeight="1">
@@ -40005,302 +40121,302 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A56 L58:L59 F58:K58 B58:C58 A58:A59">
-    <cfRule type="expression" dxfId="261" priority="248">
+    <cfRule type="expression" dxfId="257" priority="248">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A21">
-    <cfRule type="expression" dxfId="260" priority="116">
+    <cfRule type="expression" dxfId="256" priority="116">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B22">
-    <cfRule type="expression" dxfId="259" priority="113">
+    <cfRule type="expression" dxfId="255" priority="113">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:L12 C20:L22 A12:A19 E13:H13 J13:L13">
-    <cfRule type="expression" dxfId="258" priority="115">
+    <cfRule type="expression" dxfId="254" priority="115">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="expression" dxfId="257" priority="114">
+    <cfRule type="expression" dxfId="253" priority="114">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:C13">
-    <cfRule type="expression" dxfId="256" priority="112">
+    <cfRule type="expression" dxfId="252" priority="112">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:I18">
-    <cfRule type="expression" dxfId="255" priority="110">
+    <cfRule type="expression" dxfId="251" priority="110">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14:L19">
-    <cfRule type="expression" dxfId="254" priority="109">
+    <cfRule type="expression" dxfId="250" priority="109">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:H18 J14:K18">
-    <cfRule type="expression" dxfId="253" priority="111">
+    <cfRule type="expression" dxfId="249" priority="111">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B18">
-    <cfRule type="expression" dxfId="252" priority="108">
+    <cfRule type="expression" dxfId="248" priority="108">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D18">
-    <cfRule type="expression" dxfId="251" priority="107">
+    <cfRule type="expression" dxfId="247" priority="107">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:C16">
-    <cfRule type="expression" dxfId="250" priority="106">
+    <cfRule type="expression" dxfId="246" priority="106">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C18">
-    <cfRule type="expression" dxfId="249" priority="105">
+    <cfRule type="expression" dxfId="245" priority="105">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="248" priority="104">
+    <cfRule type="expression" dxfId="244" priority="104">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="expression" dxfId="247" priority="101">
+    <cfRule type="expression" dxfId="243" priority="101">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="246" priority="103">
+    <cfRule type="expression" dxfId="242" priority="103">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:K19">
-    <cfRule type="expression" dxfId="245" priority="102">
+    <cfRule type="expression" dxfId="241" priority="102">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="244" priority="100">
+    <cfRule type="expression" dxfId="240" priority="100">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="expression" dxfId="243" priority="99">
+    <cfRule type="expression" dxfId="239" priority="99">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="242" priority="98">
+    <cfRule type="expression" dxfId="238" priority="98">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="241" priority="97">
+    <cfRule type="expression" dxfId="237" priority="97">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B56:C56">
-    <cfRule type="expression" dxfId="240" priority="81">
+    <cfRule type="expression" dxfId="236" priority="81">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:A61">
-    <cfRule type="expression" dxfId="239" priority="85">
+    <cfRule type="expression" dxfId="235" priority="85">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60:B62">
-    <cfRule type="expression" dxfId="238" priority="82">
+    <cfRule type="expression" dxfId="234" priority="82">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56:L56 C60:L62">
-    <cfRule type="expression" dxfId="237" priority="84">
+    <cfRule type="expression" dxfId="233" priority="84">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="expression" dxfId="236" priority="83">
+    <cfRule type="expression" dxfId="232" priority="83">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59">
-    <cfRule type="expression" dxfId="235" priority="74">
+    <cfRule type="expression" dxfId="231" priority="74">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="expression" dxfId="234" priority="71">
+    <cfRule type="expression" dxfId="230" priority="71">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="233" priority="73">
+    <cfRule type="expression" dxfId="229" priority="73">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59:K59">
-    <cfRule type="expression" dxfId="232" priority="72">
+    <cfRule type="expression" dxfId="228" priority="72">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="expression" dxfId="231" priority="70">
+    <cfRule type="expression" dxfId="227" priority="70">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="expression" dxfId="230" priority="67">
+    <cfRule type="expression" dxfId="226" priority="67">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="expression" dxfId="229" priority="58">
+    <cfRule type="expression" dxfId="225" priority="58">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="expression" dxfId="228" priority="57">
+    <cfRule type="expression" dxfId="224" priority="57">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A42">
-    <cfRule type="expression" dxfId="227" priority="56">
+    <cfRule type="expression" dxfId="223" priority="56">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:B43">
-    <cfRule type="expression" dxfId="226" priority="53">
+    <cfRule type="expression" dxfId="222" priority="53">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:L35 C41:L43 A35:A40 E36:H36 J36:L36">
-    <cfRule type="expression" dxfId="225" priority="55">
+    <cfRule type="expression" dxfId="221" priority="55">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="expression" dxfId="224" priority="54">
+    <cfRule type="expression" dxfId="220" priority="54">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:C36">
-    <cfRule type="expression" dxfId="223" priority="52">
+    <cfRule type="expression" dxfId="219" priority="52">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:I40">
-    <cfRule type="expression" dxfId="222" priority="50">
+    <cfRule type="expression" dxfId="218" priority="50">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L37:L40">
-    <cfRule type="expression" dxfId="221" priority="49">
+    <cfRule type="expression" dxfId="217" priority="49">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37:K40 F37:H40">
-    <cfRule type="expression" dxfId="220" priority="51">
+    <cfRule type="expression" dxfId="216" priority="51">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:B40">
-    <cfRule type="expression" dxfId="219" priority="48">
+    <cfRule type="expression" dxfId="215" priority="48">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39">
-    <cfRule type="expression" dxfId="218" priority="47">
+    <cfRule type="expression" dxfId="214" priority="47">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="217" priority="46">
+    <cfRule type="expression" dxfId="213" priority="46">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="216" priority="40">
+    <cfRule type="expression" dxfId="212" priority="40">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="expression" dxfId="215" priority="39">
+    <cfRule type="expression" dxfId="211" priority="39">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="expression" dxfId="214" priority="37">
+    <cfRule type="expression" dxfId="210" priority="37">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="expression" dxfId="213" priority="36">
+    <cfRule type="expression" dxfId="209" priority="36">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="expression" dxfId="212" priority="35">
+    <cfRule type="expression" dxfId="208" priority="35">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="211" priority="34">
+    <cfRule type="expression" dxfId="207" priority="34">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="expression" dxfId="210" priority="33">
+    <cfRule type="expression" dxfId="206" priority="33">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="expression" dxfId="209" priority="32">
+    <cfRule type="expression" dxfId="205" priority="32">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="expression" dxfId="208" priority="31">
+    <cfRule type="expression" dxfId="204" priority="31">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="expression" dxfId="207" priority="30">
+    <cfRule type="expression" dxfId="203" priority="30">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57 E57:H57 J57:L57">
-    <cfRule type="expression" dxfId="206" priority="27">
+    <cfRule type="expression" dxfId="202" priority="27">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:C57">
-    <cfRule type="expression" dxfId="205" priority="26">
+    <cfRule type="expression" dxfId="201" priority="26">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="expression" dxfId="204" priority="25">
+    <cfRule type="expression" dxfId="200" priority="25">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I57">
-    <cfRule type="expression" dxfId="203" priority="24">
+    <cfRule type="expression" dxfId="199" priority="24">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="44" max="11" man="1"/>
   </rowBreaks>
@@ -40308,7 +40424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF66CC"/>
     <pageSetUpPr fitToPage="1"/>
@@ -40319,15 +40435,15 @@
       <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="3" width="34.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="11" width="7.83203125" customWidth="1"/>
-    <col min="12" max="12" width="60.33203125" customWidth="1"/>
-    <col min="13" max="13" width="54.83203125" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="3" width="34.625" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
+    <col min="6" max="11" width="7.875" customWidth="1"/>
+    <col min="12" max="12" width="60.375" customWidth="1"/>
+    <col min="13" max="13" width="54.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="17.25" customHeight="1">
@@ -41931,10 +42047,10 @@
         <v>4</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>77</v>
@@ -41949,7 +42065,7 @@
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
       <c r="L73" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="M73" s="9"/>
       <c r="N73" s="9"/>
@@ -43687,662 +43803,662 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="F13:H13 F12:L12 C15:L17 A12:C12">
-    <cfRule type="expression" dxfId="202" priority="131">
+    <cfRule type="expression" dxfId="198" priority="131">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:B17">
-    <cfRule type="expression" dxfId="201" priority="128">
+    <cfRule type="expression" dxfId="197" priority="128">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13 A15 A17 K13">
-    <cfRule type="expression" dxfId="200" priority="129">
+    <cfRule type="expression" dxfId="196" priority="129">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="expression" dxfId="199" priority="130">
+    <cfRule type="expression" dxfId="195" priority="130">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="198" priority="127">
+    <cfRule type="expression" dxfId="194" priority="127">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="197" priority="126">
+    <cfRule type="expression" dxfId="193" priority="126">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="196" priority="125">
+    <cfRule type="expression" dxfId="192" priority="125">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="195" priority="124">
+    <cfRule type="expression" dxfId="191" priority="124">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="expression" dxfId="194" priority="123">
+    <cfRule type="expression" dxfId="190" priority="123">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="193" priority="122">
+    <cfRule type="expression" dxfId="189" priority="122">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="expression" dxfId="192" priority="121">
+    <cfRule type="expression" dxfId="188" priority="121">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="191" priority="120">
+    <cfRule type="expression" dxfId="187" priority="120">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="expression" dxfId="190" priority="119">
+    <cfRule type="expression" dxfId="186" priority="119">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="189" priority="115">
+    <cfRule type="expression" dxfId="185" priority="115">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="188" priority="114">
+    <cfRule type="expression" dxfId="184" priority="114">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:J14 C14 L14">
-    <cfRule type="expression" dxfId="187" priority="118">
+    <cfRule type="expression" dxfId="183" priority="118">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="186" priority="117">
+    <cfRule type="expression" dxfId="182" priority="117">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="185" priority="116">
+    <cfRule type="expression" dxfId="181" priority="116">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="expression" dxfId="184" priority="113">
+    <cfRule type="expression" dxfId="180" priority="113">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="183" priority="104">
+    <cfRule type="expression" dxfId="179" priority="104">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34:A35">
-    <cfRule type="expression" dxfId="182" priority="112">
+    <cfRule type="expression" dxfId="178" priority="112">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30 D30:L30 E31:H31 C34:L36 A32">
-    <cfRule type="expression" dxfId="181" priority="110">
+    <cfRule type="expression" dxfId="177" priority="110">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31:L31 D31 G32:L33">
-    <cfRule type="expression" dxfId="180" priority="111">
+    <cfRule type="expression" dxfId="176" priority="111">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31 A36 A33">
-    <cfRule type="expression" dxfId="179" priority="109">
+    <cfRule type="expression" dxfId="175" priority="109">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:B36">
-    <cfRule type="expression" dxfId="178" priority="108">
+    <cfRule type="expression" dxfId="174" priority="108">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C33">
-    <cfRule type="expression" dxfId="177" priority="106">
+    <cfRule type="expression" dxfId="173" priority="106">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:C30">
-    <cfRule type="expression" dxfId="176" priority="107">
+    <cfRule type="expression" dxfId="172" priority="107">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="175" priority="105">
+    <cfRule type="expression" dxfId="171" priority="105">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32:F33">
-    <cfRule type="expression" dxfId="174" priority="103">
+    <cfRule type="expression" dxfId="170" priority="103">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:B33">
-    <cfRule type="expression" dxfId="173" priority="102">
+    <cfRule type="expression" dxfId="169" priority="102">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32:E33">
-    <cfRule type="expression" dxfId="172" priority="101">
+    <cfRule type="expression" dxfId="168" priority="101">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:D33">
-    <cfRule type="expression" dxfId="171" priority="100">
+    <cfRule type="expression" dxfId="167" priority="100">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31">
-    <cfRule type="expression" dxfId="170" priority="99">
+    <cfRule type="expression" dxfId="166" priority="99">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51:L51 D52:L52 D50:L50 B50:C51">
-    <cfRule type="expression" dxfId="169" priority="98">
+    <cfRule type="expression" dxfId="165" priority="98">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:E51 G53:L53 G54:K54">
-    <cfRule type="expression" dxfId="168" priority="92">
+    <cfRule type="expression" dxfId="164" priority="92">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50 A52 A54">
-    <cfRule type="expression" dxfId="167" priority="91">
+    <cfRule type="expression" dxfId="163" priority="91">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:B54">
-    <cfRule type="expression" dxfId="166" priority="89">
+    <cfRule type="expression" dxfId="162" priority="89">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:A56">
-    <cfRule type="expression" dxfId="165" priority="97">
+    <cfRule type="expression" dxfId="161" priority="97">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57">
-    <cfRule type="expression" dxfId="164" priority="95">
+    <cfRule type="expression" dxfId="160" priority="95">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49 D49:L49 C55:L57 A51 A53">
-    <cfRule type="expression" dxfId="163" priority="96">
+    <cfRule type="expression" dxfId="159" priority="96">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55:B57">
-    <cfRule type="expression" dxfId="162" priority="94">
+    <cfRule type="expression" dxfId="158" priority="94">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:C49">
-    <cfRule type="expression" dxfId="161" priority="93">
+    <cfRule type="expression" dxfId="157" priority="93">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:C54">
-    <cfRule type="expression" dxfId="160" priority="90">
+    <cfRule type="expression" dxfId="156" priority="90">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53">
-    <cfRule type="expression" dxfId="159" priority="88">
+    <cfRule type="expression" dxfId="155" priority="88">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="expression" dxfId="158" priority="87">
+    <cfRule type="expression" dxfId="154" priority="87">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="expression" dxfId="157" priority="86">
+    <cfRule type="expression" dxfId="153" priority="86">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="expression" dxfId="156" priority="85">
+    <cfRule type="expression" dxfId="152" priority="85">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="expression" dxfId="155" priority="83">
+    <cfRule type="expression" dxfId="151" priority="83">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="154" priority="84">
+    <cfRule type="expression" dxfId="150" priority="84">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L54">
-    <cfRule type="expression" dxfId="153" priority="82">
+    <cfRule type="expression" dxfId="149" priority="82">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J71:L71 D71">
-    <cfRule type="expression" dxfId="152" priority="80">
+    <cfRule type="expression" dxfId="148" priority="80">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74:A75">
-    <cfRule type="expression" dxfId="151" priority="81">
+    <cfRule type="expression" dxfId="147" priority="81">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70 D70:L70 E71:H71 C74:L76">
-    <cfRule type="expression" dxfId="150" priority="79">
+    <cfRule type="expression" dxfId="146" priority="79">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74:B76">
-    <cfRule type="expression" dxfId="149" priority="77">
+    <cfRule type="expression" dxfId="145" priority="77">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71 A76">
-    <cfRule type="expression" dxfId="148" priority="78">
+    <cfRule type="expression" dxfId="144" priority="78">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70:C70">
-    <cfRule type="expression" dxfId="147" priority="76">
+    <cfRule type="expression" dxfId="143" priority="76">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I71">
-    <cfRule type="expression" dxfId="146" priority="75">
+    <cfRule type="expression" dxfId="142" priority="75">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71">
-    <cfRule type="expression" dxfId="145" priority="74">
+    <cfRule type="expression" dxfId="141" priority="74">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="expression" dxfId="144" priority="73">
+    <cfRule type="expression" dxfId="140" priority="73">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73:L73">
-    <cfRule type="expression" dxfId="143" priority="72">
+    <cfRule type="expression" dxfId="139" priority="72">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73">
-    <cfRule type="expression" dxfId="142" priority="71">
+    <cfRule type="expression" dxfId="138" priority="71">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A110:A111">
-    <cfRule type="expression" dxfId="141" priority="70">
+    <cfRule type="expression" dxfId="137" priority="70">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J108:L108 D108">
-    <cfRule type="expression" dxfId="140" priority="69">
+    <cfRule type="expression" dxfId="136" priority="69">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107 D107:L107 E108:H108 C110:L112">
-    <cfRule type="expression" dxfId="139" priority="68">
+    <cfRule type="expression" dxfId="135" priority="68">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110:B112">
-    <cfRule type="expression" dxfId="138" priority="66">
+    <cfRule type="expression" dxfId="134" priority="66">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108 A112">
-    <cfRule type="expression" dxfId="137" priority="67">
+    <cfRule type="expression" dxfId="133" priority="67">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B107:C107">
-    <cfRule type="expression" dxfId="136" priority="65">
+    <cfRule type="expression" dxfId="132" priority="65">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I108">
-    <cfRule type="expression" dxfId="135" priority="64">
+    <cfRule type="expression" dxfId="131" priority="64">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C108">
-    <cfRule type="expression" dxfId="134" priority="63">
+    <cfRule type="expression" dxfId="130" priority="63">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108">
-    <cfRule type="expression" dxfId="133" priority="62">
+    <cfRule type="expression" dxfId="129" priority="62">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B109:L109">
-    <cfRule type="expression" dxfId="132" priority="61">
+    <cfRule type="expression" dxfId="128" priority="61">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A109">
-    <cfRule type="expression" dxfId="131" priority="60">
+    <cfRule type="expression" dxfId="127" priority="60">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J90:L90 D90">
-    <cfRule type="expression" dxfId="130" priority="58">
+    <cfRule type="expression" dxfId="126" priority="58">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89 D89:L89 E90:H90 C92:L94">
-    <cfRule type="expression" dxfId="129" priority="57">
+    <cfRule type="expression" dxfId="125" priority="57">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C90">
-    <cfRule type="expression" dxfId="128" priority="52">
+    <cfRule type="expression" dxfId="124" priority="52">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90">
-    <cfRule type="expression" dxfId="127" priority="51">
+    <cfRule type="expression" dxfId="123" priority="51">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91:L91">
-    <cfRule type="expression" dxfId="126" priority="50">
+    <cfRule type="expression" dxfId="122" priority="50">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:A93">
-    <cfRule type="expression" dxfId="125" priority="59">
+    <cfRule type="expression" dxfId="121" priority="59">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92:B94">
-    <cfRule type="expression" dxfId="124" priority="55">
+    <cfRule type="expression" dxfId="120" priority="55">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90 A94">
-    <cfRule type="expression" dxfId="123" priority="56">
+    <cfRule type="expression" dxfId="119" priority="56">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89:C89">
-    <cfRule type="expression" dxfId="122" priority="54">
+    <cfRule type="expression" dxfId="118" priority="54">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I90">
-    <cfRule type="expression" dxfId="121" priority="53">
+    <cfRule type="expression" dxfId="117" priority="53">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91">
-    <cfRule type="expression" dxfId="120" priority="49">
+    <cfRule type="expression" dxfId="116" priority="49">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A132:A133">
-    <cfRule type="expression" dxfId="119" priority="48">
+    <cfRule type="expression" dxfId="115" priority="48">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B132:B134">
-    <cfRule type="expression" dxfId="118" priority="45">
+    <cfRule type="expression" dxfId="114" priority="45">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D125:L125 C132:L134 A125:A126 E126:H126 J126:L126 A128:A129 A131">
-    <cfRule type="expression" dxfId="117" priority="47">
+    <cfRule type="expression" dxfId="113" priority="47">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A134">
-    <cfRule type="expression" dxfId="116" priority="46">
+    <cfRule type="expression" dxfId="112" priority="46">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:C126">
-    <cfRule type="expression" dxfId="115" priority="44">
+    <cfRule type="expression" dxfId="111" priority="44">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I128:I129 I131">
-    <cfRule type="expression" dxfId="114" priority="42">
+    <cfRule type="expression" dxfId="110" priority="42">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L128:L129 L131">
-    <cfRule type="expression" dxfId="113" priority="41">
+    <cfRule type="expression" dxfId="109" priority="41">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J128:K129 F128:H129 F131:H131 J131:K131">
-    <cfRule type="expression" dxfId="112" priority="43">
+    <cfRule type="expression" dxfId="108" priority="43">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B129 B131">
-    <cfRule type="expression" dxfId="111" priority="40">
+    <cfRule type="expression" dxfId="107" priority="40">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I126">
-    <cfRule type="expression" dxfId="110" priority="38">
+    <cfRule type="expression" dxfId="106" priority="38">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D126">
-    <cfRule type="expression" dxfId="109" priority="39">
+    <cfRule type="expression" dxfId="105" priority="39">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E129">
-    <cfRule type="expression" dxfId="108" priority="37">
+    <cfRule type="expression" dxfId="104" priority="37">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E131">
-    <cfRule type="expression" dxfId="107" priority="36">
+    <cfRule type="expression" dxfId="103" priority="36">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128">
-    <cfRule type="expression" dxfId="106" priority="35">
+    <cfRule type="expression" dxfId="102" priority="35">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C128">
-    <cfRule type="expression" dxfId="105" priority="34">
+    <cfRule type="expression" dxfId="101" priority="34">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E128">
-    <cfRule type="expression" dxfId="104" priority="33">
+    <cfRule type="expression" dxfId="100" priority="33">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D128">
-    <cfRule type="expression" dxfId="103" priority="32">
+    <cfRule type="expression" dxfId="99" priority="32">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D129">
-    <cfRule type="expression" dxfId="102" priority="31">
+    <cfRule type="expression" dxfId="98" priority="31">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D131">
-    <cfRule type="expression" dxfId="101" priority="30">
+    <cfRule type="expression" dxfId="97" priority="30">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129 C131">
-    <cfRule type="expression" dxfId="100" priority="29">
+    <cfRule type="expression" dxfId="96" priority="29">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I130">
-    <cfRule type="expression" dxfId="99" priority="27">
+    <cfRule type="expression" dxfId="95" priority="27">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L130">
-    <cfRule type="expression" dxfId="98" priority="26">
+    <cfRule type="expression" dxfId="94" priority="26">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F130:H130 J130:K130">
-    <cfRule type="expression" dxfId="97" priority="28">
+    <cfRule type="expression" dxfId="93" priority="28">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130">
-    <cfRule type="expression" dxfId="96" priority="25">
+    <cfRule type="expression" dxfId="92" priority="25">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E130">
-    <cfRule type="expression" dxfId="95" priority="24">
+    <cfRule type="expression" dxfId="91" priority="24">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D130">
-    <cfRule type="expression" dxfId="94" priority="23">
+    <cfRule type="expression" dxfId="90" priority="23">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C130">
-    <cfRule type="expression" dxfId="93" priority="22">
+    <cfRule type="expression" dxfId="89" priority="22">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A127 A130">
-    <cfRule type="expression" dxfId="92" priority="21">
+    <cfRule type="expression" dxfId="88" priority="21">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I127">
-    <cfRule type="expression" dxfId="91" priority="19">
+    <cfRule type="expression" dxfId="87" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L127">
-    <cfRule type="expression" dxfId="90" priority="18">
+    <cfRule type="expression" dxfId="86" priority="18">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J127:K127 F127:H127">
-    <cfRule type="expression" dxfId="89" priority="20">
+    <cfRule type="expression" dxfId="85" priority="20">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B127">
-    <cfRule type="expression" dxfId="88" priority="17">
+    <cfRule type="expression" dxfId="84" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C127">
-    <cfRule type="expression" dxfId="87" priority="16">
+    <cfRule type="expression" dxfId="83" priority="16">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E127">
-    <cfRule type="expression" dxfId="86" priority="15">
+    <cfRule type="expression" dxfId="82" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D127">
-    <cfRule type="expression" dxfId="85" priority="14">
+    <cfRule type="expression" dxfId="81" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A151">
-    <cfRule type="expression" dxfId="84" priority="13">
+    <cfRule type="expression" dxfId="80" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I148">
-    <cfRule type="expression" dxfId="83" priority="7">
+    <cfRule type="expression" dxfId="79" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A147 D147:L147 C151:L151 E148:H148 B148 J148:L148 J150:L150 A150:B150 E150:H150">
-    <cfRule type="expression" dxfId="82" priority="12">
+    <cfRule type="expression" dxfId="78" priority="12">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A148">
-    <cfRule type="expression" dxfId="81" priority="11">
+    <cfRule type="expression" dxfId="77" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I150">
-    <cfRule type="expression" dxfId="80" priority="9">
+    <cfRule type="expression" dxfId="76" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148:D148 C150:D150">
-    <cfRule type="expression" dxfId="79" priority="6">
+    <cfRule type="expression" dxfId="75" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B151">
-    <cfRule type="expression" dxfId="78" priority="10">
+    <cfRule type="expression" dxfId="74" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B147:C147">
-    <cfRule type="expression" dxfId="77" priority="8">
+    <cfRule type="expression" dxfId="73" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J149:L149 A149:B149 E149:H149">
-    <cfRule type="expression" dxfId="76" priority="5">
+    <cfRule type="expression" dxfId="72" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I149">
-    <cfRule type="expression" dxfId="75" priority="4">
+    <cfRule type="expression" dxfId="71" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C149:D149">
-    <cfRule type="expression" dxfId="74" priority="3">
+    <cfRule type="expression" dxfId="70" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:L72">
-    <cfRule type="expression" dxfId="73" priority="2">
+    <cfRule type="expression" dxfId="69" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="expression" dxfId="72" priority="1">
+    <cfRule type="expression" dxfId="68" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="37" max="16383" man="1"/>
     <brk id="77" max="16383" man="1"/>

--- a/root/datas/ER.xlsx
+++ b/root/datas/ER.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-30105" yWindow="7215" windowWidth="28845" windowHeight="16440" tabRatio="797" activeTab="3"/>
+    <workbookView xWindow="-30105" yWindow="7215" windowWidth="28845" windowHeight="16440" tabRatio="797" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="15" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3378" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3380" uniqueCount="662">
   <si>
     <t>カテゴリ</t>
     <phoneticPr fontId="3"/>
@@ -1166,10 +1166,6 @@
   </si>
   <si>
     <t>address</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pref_code</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1386,19 +1382,11 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>send_pref_code</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>send_address</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>send_tel</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>arrive_pref_code</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1674,10 +1662,6 @@
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>code</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -3816,6 +3800,30 @@
       <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.2.9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>prefs の code を pref_id に変更</t>
+    <rPh sb="24" eb="26">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pref_id</t>
+  </si>
+  <si>
+    <t>send_pref_id</t>
+  </si>
+  <si>
+    <t>arrive_pref_id</t>
+  </si>
+  <si>
+    <t>pref_id</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -13874,7 +13882,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14244,7 +14252,7 @@
         <v>154</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="2:12" ht="14.25" customHeight="1">
@@ -14252,10 +14260,10 @@
         <v>43175</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="14.25" customHeight="1">
@@ -14263,10 +14271,10 @@
         <v>43176</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="14.25" customHeight="1">
@@ -14274,15 +14282,15 @@
         <v>43178</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="14.25" customHeight="1">
       <c r="D5" s="19" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="14.25" customHeight="1">
@@ -14290,15 +14298,15 @@
         <v>43185</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="14.25" customHeight="1">
       <c r="D7" s="19" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="14.25" customHeight="1">
@@ -14306,18 +14314,18 @@
         <v>43186</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="14.25" customHeight="1">
       <c r="C9" s="19" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="14.25" customHeight="1">
@@ -14325,69 +14333,69 @@
         <v>43195</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="J10" s="71">
         <v>43255</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="14.25" customHeight="1">
       <c r="C11" s="19" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="J11" s="71">
         <v>43256</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="14.25" customHeight="1">
       <c r="C12" s="19" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="14.25" customHeight="1">
       <c r="C13" s="19" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="14.25" customHeight="1">
       <c r="C14" s="19" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="L14" s="19" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="14.25" customHeight="1">
@@ -14395,13 +14403,13 @@
         <v>43196</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="L15" s="19" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="14.25" customHeight="1">
@@ -14409,30 +14417,30 @@
         <v>43197</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="J16" s="71">
         <v>43257</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="L16" s="19" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="14.25" customHeight="1">
       <c r="C17" s="19" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="L17" s="19" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="14.25" customHeight="1">
@@ -14440,18 +14448,27 @@
         <v>43199</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>511</v>
+        <v>507</v>
+      </c>
+      <c r="J18" s="71">
+        <v>43258</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>656</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="14.25" customHeight="1">
       <c r="C19" s="19" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="14.25" customHeight="1">
@@ -14459,10 +14476,10 @@
         <v>43228</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="21" spans="2:12" ht="14.25" customHeight="1">
@@ -14470,36 +14487,36 @@
         <v>43229</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="14.25" customHeight="1">
       <c r="D22" s="19" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="14.25" customHeight="1">
       <c r="D23" s="19" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="14.25" customHeight="1">
       <c r="B24" s="42"/>
       <c r="D24" s="19" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="14.25" customHeight="1">
       <c r="D25" s="19" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="14.25" customHeight="1">
       <c r="D26" s="19" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="14.25" customHeight="1">
@@ -14507,24 +14524,24 @@
         <v>43234</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="28" spans="2:12" ht="14.25" customHeight="1">
       <c r="B28" s="71"/>
       <c r="C28" s="19" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="29" spans="2:12" ht="14.25" customHeight="1">
       <c r="D29" s="19" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="30" spans="2:12" ht="14.25" customHeight="1">
@@ -14532,20 +14549,20 @@
         <v>43234</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="31" spans="2:12" ht="14.25" customHeight="1">
       <c r="D31" s="19" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="32" spans="2:12" ht="14.25" customHeight="1">
       <c r="D32" s="19" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="14.25" customHeight="1">
@@ -14553,10 +14570,10 @@
         <v>43241</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="14.25" customHeight="1">
@@ -14564,15 +14581,15 @@
         <v>43244</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="14.25" customHeight="1">
       <c r="D35" s="19" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="14.25" customHeight="1">
@@ -14580,10 +14597,10 @@
         <v>43245</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="14.25" customHeight="1">
@@ -14591,10 +14608,10 @@
         <v>43247</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="14.25" customHeight="1">
@@ -14602,10 +14619,10 @@
         <v>43251</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -14624,8 +14641,8 @@
   </sheetPr>
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -14888,10 +14905,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>77</v>
@@ -14908,7 +14925,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
@@ -14922,10 +14939,10 @@
         <v>3</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>77</v>
@@ -14952,10 +14969,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>77</v>
@@ -14982,10 +14999,10 @@
         <v>5</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>77</v>
@@ -15334,10 +15351,10 @@
         <v>2</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>77</v>
@@ -15368,10 +15385,10 @@
         <v>3</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>77</v>
@@ -15398,10 +15415,10 @@
         <v>4</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>77</v>
@@ -15430,10 +15447,10 @@
         <v>5</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>77</v>
@@ -15462,13 +15479,13 @@
         <v>6</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C37" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>323</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>327</v>
       </c>
       <c r="E37" s="5">
         <v>1</v>
@@ -15772,10 +15789,10 @@
         <v>2</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>77</v>
@@ -15792,7 +15809,7 @@
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
@@ -15806,10 +15823,10 @@
         <v>3</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>77</v>
@@ -15836,10 +15853,10 @@
         <v>4</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>77</v>
@@ -15866,10 +15883,10 @@
         <v>5</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>108</v>
@@ -15938,10 +15955,10 @@
     <row r="58" spans="1:18" ht="17.25" customHeight="1">
       <c r="A58" s="3"/>
       <c r="B58" s="6" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>108</v>
@@ -16382,10 +16399,10 @@
         <v>59</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E3" s="44" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F3" s="46"/>
       <c r="G3" s="47"/>
@@ -16461,7 +16478,7 @@
         <v>59</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E6" s="44" t="s">
         <v>177</v>
@@ -16548,13 +16565,13 @@
         <v>184</v>
       </c>
       <c r="D10" s="45" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="E10" s="44" t="s">
         <v>185</v>
       </c>
       <c r="F10" s="46" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G10" s="47"/>
       <c r="H10" s="47" t="s">
@@ -16581,7 +16598,7 @@
         <v>185</v>
       </c>
       <c r="F11" s="46" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="G11" s="47"/>
       <c r="H11" s="47" t="s">
@@ -16625,13 +16642,13 @@
         <v>184</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E13" s="44" t="s">
         <v>174</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G13" s="47"/>
       <c r="H13" s="47" t="s">
@@ -16652,13 +16669,13 @@
         <v>184</v>
       </c>
       <c r="D14" s="45" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E14" s="44" t="s">
         <v>174</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G14" s="47"/>
       <c r="H14" s="47" t="s">
@@ -16679,13 +16696,13 @@
         <v>184</v>
       </c>
       <c r="D15" s="45" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E15" s="44" t="s">
         <v>174</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="G15" s="47"/>
       <c r="H15" s="47" t="s">
@@ -16715,7 +16732,7 @@
       </c>
       <c r="B17" s="82"/>
       <c r="C17" s="44" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D17" s="45" t="s">
         <v>179</v>
@@ -16740,7 +16757,7 @@
       </c>
       <c r="B18" s="82"/>
       <c r="C18" s="44" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D18" s="45" t="s">
         <v>190</v>
@@ -16749,7 +16766,7 @@
         <v>195</v>
       </c>
       <c r="F18" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G18" s="47"/>
       <c r="H18" s="47" t="s">
@@ -16767,16 +16784,16 @@
       </c>
       <c r="B19" s="82"/>
       <c r="C19" s="44" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="E19" s="44" t="s">
         <v>195</v>
       </c>
       <c r="F19" s="46" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="G19" s="47"/>
       <c r="H19" s="47" t="s">
@@ -16784,7 +16801,7 @@
       </c>
       <c r="I19" s="47"/>
       <c r="J19" s="48" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="10" customFormat="1" ht="21" customHeight="1">
@@ -16794,16 +16811,16 @@
       </c>
       <c r="B20" s="82"/>
       <c r="C20" s="44" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="E20" s="44" t="s">
         <v>195</v>
       </c>
       <c r="F20" s="46" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G20" s="47"/>
       <c r="H20" s="47" t="s">
@@ -16821,16 +16838,16 @@
       </c>
       <c r="B21" s="82"/>
       <c r="C21" s="44" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D21" s="45" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E21" s="44" t="s">
         <v>195</v>
       </c>
       <c r="F21" s="46" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G21" s="47"/>
       <c r="H21" s="47" t="s">
@@ -16848,16 +16865,16 @@
       </c>
       <c r="B22" s="82"/>
       <c r="C22" s="44" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D22" s="45" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E22" s="44" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F22" s="46" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G22" s="47"/>
       <c r="H22" s="47" t="s">
@@ -16875,16 +16892,16 @@
       </c>
       <c r="B23" s="82"/>
       <c r="C23" s="44" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D23" s="45" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="E23" s="44" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="F23" s="46" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="G23" s="47"/>
       <c r="H23" s="47" t="s">
@@ -16940,7 +16957,7 @@
         <v>198</v>
       </c>
       <c r="D26" s="45" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E26" s="44" t="s">
         <v>196</v>
@@ -16965,13 +16982,13 @@
         <v>198</v>
       </c>
       <c r="D27" s="45" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E27" s="44" t="s">
         <v>196</v>
       </c>
       <c r="F27" s="46" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G27" s="47"/>
       <c r="H27" s="47" t="s">
@@ -16990,7 +17007,7 @@
         <v>198</v>
       </c>
       <c r="D28" s="45" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E28" s="44" t="s">
         <v>197</v>
@@ -17017,10 +17034,10 @@
         <v>198</v>
       </c>
       <c r="D29" s="45" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="E29" s="44" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F29" s="46"/>
       <c r="G29" s="47"/>
@@ -17042,10 +17059,10 @@
         <v>198</v>
       </c>
       <c r="D30" s="45" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E30" s="44" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F30" s="46"/>
       <c r="G30" s="47"/>
@@ -17067,13 +17084,13 @@
         <v>198</v>
       </c>
       <c r="D31" s="45" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E31" s="44" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F31" s="46" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G31" s="47"/>
       <c r="H31" s="47" t="s">
@@ -17092,13 +17109,13 @@
         <v>198</v>
       </c>
       <c r="D32" s="45" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E32" s="44" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="F32" s="46" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G32" s="47"/>
       <c r="H32" s="47" t="s">
@@ -17239,10 +17256,10 @@
         <v>60</v>
       </c>
       <c r="D39" s="45" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E39" s="44" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F39" s="46"/>
       <c r="G39" s="47"/>
@@ -17262,13 +17279,13 @@
         <v>60</v>
       </c>
       <c r="D40" s="45" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E40" s="44" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F40" s="46" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G40" s="47"/>
       <c r="H40" s="47" t="s">
@@ -17298,7 +17315,7 @@
       </c>
       <c r="B42" s="79"/>
       <c r="C42" s="44" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D42" s="45" t="s">
         <v>58</v>
@@ -17325,7 +17342,7 @@
       </c>
       <c r="B43" s="80"/>
       <c r="C43" s="44" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D43" s="45" t="s">
         <v>181</v>
@@ -17334,7 +17351,7 @@
         <v>174</v>
       </c>
       <c r="F43" s="46" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G43" s="47" t="s">
         <v>5</v>
@@ -17352,16 +17369,16 @@
       </c>
       <c r="B44" s="80"/>
       <c r="C44" s="44" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D44" s="45" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E44" s="44" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F44" s="46" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="G44" s="47" t="s">
         <v>5</v>
@@ -17371,7 +17388,7 @@
         <v>5</v>
       </c>
       <c r="J44" s="48" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="45" spans="1:10" s="10" customFormat="1" ht="21" customHeight="1">
@@ -17381,16 +17398,16 @@
       </c>
       <c r="B45" s="80"/>
       <c r="C45" s="44" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D45" s="45" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="E45" s="44" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="F45" s="46" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G45" s="47" t="s">
         <v>5</v>
@@ -17408,16 +17425,16 @@
       </c>
       <c r="B46" s="80"/>
       <c r="C46" s="44" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D46" s="45" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E46" s="44" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F46" s="46" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G46" s="47" t="s">
         <v>5</v>
@@ -17435,16 +17452,16 @@
       </c>
       <c r="B47" s="80"/>
       <c r="C47" s="44" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D47" s="45" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E47" s="44" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F47" s="46" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="G47" s="47" t="s">
         <v>5</v>
@@ -17452,7 +17469,7 @@
       <c r="H47" s="47"/>
       <c r="I47" s="47"/>
       <c r="J47" s="48" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="48" spans="1:10" s="10" customFormat="1" ht="21" customHeight="1">
@@ -17462,16 +17479,16 @@
       </c>
       <c r="B48" s="80"/>
       <c r="C48" s="44" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D48" s="45" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E48" s="44" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F48" s="46" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="G48" s="47" t="s">
         <v>5</v>
@@ -17481,7 +17498,7 @@
       </c>
       <c r="I48" s="47"/>
       <c r="J48" s="48" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="49" spans="1:10" s="10" customFormat="1" ht="21" customHeight="1">
@@ -17491,13 +17508,13 @@
       </c>
       <c r="B49" s="80"/>
       <c r="C49" s="44" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D49" s="45" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E49" s="44" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F49" s="46"/>
       <c r="G49" s="47" t="s">
@@ -17508,7 +17525,7 @@
         <v>5</v>
       </c>
       <c r="J49" s="48" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="10" customFormat="1" ht="21" customHeight="1">
@@ -17518,16 +17535,16 @@
       </c>
       <c r="B50" s="80"/>
       <c r="C50" s="44" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D50" s="45" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="E50" s="44" t="s">
         <v>174</v>
       </c>
       <c r="F50" s="46" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G50" s="47"/>
       <c r="H50" s="47" t="s">
@@ -17606,10 +17623,10 @@
         <v>142</v>
       </c>
       <c r="D54" s="45" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="E54" s="44" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F54" s="46"/>
       <c r="G54" s="47"/>
@@ -18918,8 +18935,8 @@
   </sheetPr>
   <dimension ref="A1:R137"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -19181,10 +19198,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>77</v>
@@ -19213,10 +19230,10 @@
         <v>3</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>108</v>
@@ -19363,13 +19380,13 @@
         <v>8</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="3"/>
@@ -19393,13 +19410,13 @@
         <v>9</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="3"/>
@@ -19551,10 +19568,10 @@
         <v>14</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>77</v>
@@ -19577,10 +19594,10 @@
         <v>15</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>77</v>
@@ -19606,13 +19623,13 @@
         <v>221</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>225</v>
+        <v>658</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E27" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -19629,10 +19646,10 @@
         <v>17</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>77</v>
@@ -20455,10 +20472,10 @@
         <v>15</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>77</v>
@@ -20481,10 +20498,10 @@
         <v>16</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>77</v>
@@ -20510,13 +20527,13 @@
         <v>221</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>225</v>
+        <v>658</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E63" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
@@ -20533,10 +20550,10 @@
         <v>18</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>77</v>
@@ -21095,7 +21112,7 @@
         <v>5</v>
       </c>
       <c r="L88" s="5" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="89" spans="1:18" ht="17.25" customHeight="1">
@@ -21951,10 +21968,10 @@
         <v>6</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>77</v>
@@ -21977,10 +21994,10 @@
         <v>7</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>77</v>
@@ -22006,13 +22023,13 @@
         <v>221</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>225</v>
+        <v>658</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E130" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
@@ -22029,10 +22046,10 @@
         <v>9</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>77</v>
@@ -22929,8 +22946,8 @@
   </sheetPr>
   <dimension ref="A1:R151"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -23193,10 +23210,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>231</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>232</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>77</v>
@@ -23323,10 +23340,10 @@
         <v>6</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>229</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>230</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>166</v>
@@ -23403,10 +23420,10 @@
         <v>9</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>77</v>
@@ -23429,10 +23446,10 @@
         <v>10</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>77</v>
@@ -23458,13 +23475,13 @@
         <v>221</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>225</v>
+        <v>658</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E22" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -23481,10 +23498,10 @@
         <v>12</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>77</v>
@@ -23571,13 +23588,13 @@
         <v>15</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>649</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>652</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>653</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="3"/>
@@ -23595,10 +23612,10 @@
         <v>16</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>85</v>
@@ -23799,7 +23816,7 @@
         <v>28</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="F37" s="56"/>
       <c r="G37" s="57"/>
@@ -23943,10 +23960,10 @@
         <v>3</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>231</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>232</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>77</v>
@@ -23973,10 +23990,10 @@
         <v>4</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>77</v>
@@ -24281,10 +24298,10 @@
         <v>2</v>
       </c>
       <c r="B60" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>233</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>234</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>77</v>
@@ -24311,10 +24328,10 @@
         <v>3</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>77</v>
@@ -24343,10 +24360,10 @@
         <v>4</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>77</v>
@@ -24375,13 +24392,13 @@
         <v>5</v>
       </c>
       <c r="B63" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="D63" s="5" t="s">
         <v>240</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>241</v>
       </c>
       <c r="E63" s="5">
         <v>8</v>
@@ -24757,10 +24774,10 @@
         <v>3</v>
       </c>
       <c r="B81" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C81" s="5" t="s">
         <v>245</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>246</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>77</v>
@@ -25141,10 +25158,10 @@
         <v>3</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>77</v>
@@ -25173,10 +25190,10 @@
         <v>4</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>77</v>
@@ -25205,10 +25222,10 @@
         <v>5</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>77</v>
@@ -25237,10 +25254,10 @@
         <v>6</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>108</v>
@@ -25267,10 +25284,10 @@
         <v>7</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>108</v>
@@ -25297,13 +25314,13 @@
         <v>8</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E104" s="5">
         <v>1</v>
@@ -25331,13 +25348,13 @@
         <v>9</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="3"/>
@@ -25361,10 +25378,10 @@
         <v>10</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>108</v>
@@ -25713,10 +25730,10 @@
         <v>2</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>77</v>
@@ -25777,10 +25794,10 @@
         <v>4</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>77</v>
@@ -25809,7 +25826,7 @@
         <v>5</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>133</v>
@@ -25841,13 +25858,13 @@
         <v>6</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E127" s="5">
         <v>3</v>
@@ -26195,10 +26212,10 @@
         <v>2</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>77</v>
@@ -26225,10 +26242,10 @@
         <v>3</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D145" s="5" t="s">
         <v>77</v>
@@ -26257,10 +26274,10 @@
         <v>4</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>77</v>
@@ -26289,13 +26306,13 @@
         <v>5</v>
       </c>
       <c r="B147" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C147" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="C147" s="5" t="s">
+      <c r="D147" s="5" t="s">
         <v>240</v>
-      </c>
-      <c r="D147" s="5" t="s">
-        <v>241</v>
       </c>
       <c r="E147" s="5">
         <v>8</v>
@@ -27137,8 +27154,8 @@
   </sheetPr>
   <dimension ref="A1:R181"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -27531,10 +27548,10 @@
         <v>6</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>229</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>230</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>166</v>
@@ -27611,10 +27628,10 @@
         <v>9</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>77</v>
@@ -27637,10 +27654,10 @@
         <v>10</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>77</v>
@@ -27666,13 +27683,13 @@
         <v>221</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>225</v>
+        <v>658</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E22" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -27689,10 +27706,10 @@
         <v>12</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>77</v>
@@ -28101,10 +28118,10 @@
         <v>2</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>77</v>
@@ -28167,10 +28184,10 @@
         <v>4</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>77</v>
@@ -28234,7 +28251,7 @@
         <v>75</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>85</v>
@@ -28266,7 +28283,7 @@
         <v>76</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>85</v>
@@ -28298,7 +28315,7 @@
         <v>161</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>85</v>
@@ -28330,7 +28347,7 @@
         <v>161</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>85</v>
@@ -28362,13 +28379,13 @@
         <v>221</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>259</v>
+        <v>659</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>85</v>
       </c>
       <c r="E50" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -28391,10 +28408,10 @@
         <v>11</v>
       </c>
       <c r="B51" s="69" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>85</v>
@@ -28426,7 +28443,7 @@
         <v>222</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>85</v>
@@ -28458,7 +28475,7 @@
         <v>162</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>85</v>
@@ -28490,7 +28507,7 @@
         <v>75</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>85</v>
@@ -28522,7 +28539,7 @@
         <v>76</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>85</v>
@@ -28554,7 +28571,7 @@
         <v>161</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>85</v>
@@ -28586,7 +28603,7 @@
         <v>161</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>85</v>
@@ -28618,7 +28635,7 @@
         <v>221</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>262</v>
+        <v>660</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>85</v>
@@ -28647,10 +28664,10 @@
         <v>19</v>
       </c>
       <c r="B59" s="70" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>85</v>
@@ -28682,7 +28699,7 @@
         <v>222</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>85</v>
@@ -28714,7 +28731,7 @@
         <v>162</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>85</v>
@@ -28743,10 +28760,10 @@
         <v>22</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>54</v>
@@ -28773,10 +28790,10 @@
         <v>23</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>85</v>
@@ -28803,10 +28820,10 @@
         <v>24</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>54</v>
@@ -28833,10 +28850,10 @@
         <v>25</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>85</v>
@@ -28863,10 +28880,10 @@
         <v>26</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>35</v>
@@ -28893,10 +28910,10 @@
         <v>27</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>85</v>
@@ -28925,13 +28942,13 @@
         <v>28</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E68" s="5">
         <v>8</v>
@@ -28957,13 +28974,13 @@
         <v>29</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E69" s="5">
         <v>8</v>
@@ -28989,10 +29006,10 @@
         <v>30</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>54</v>
@@ -29019,10 +29036,10 @@
         <v>31</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>54</v>
@@ -29049,13 +29066,13 @@
         <v>32</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="3"/>
@@ -29077,10 +29094,10 @@
         <v>33</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>54</v>
@@ -29429,10 +29446,10 @@
         <v>2</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>77</v>
@@ -29459,7 +29476,7 @@
         <v>3</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>79</v>
@@ -29489,10 +29506,10 @@
         <v>4</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>77</v>
@@ -29519,13 +29536,13 @@
         <v>5</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E93" s="5">
         <v>10</v>
@@ -29539,7 +29556,7 @@
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
       <c r="L93" s="5" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="M93" s="9"/>
       <c r="N93" s="9"/>
@@ -29875,10 +29892,10 @@
         <v>2</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>77</v>
@@ -29905,10 +29922,10 @@
         <v>3</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>77</v>
@@ -29937,13 +29954,13 @@
         <v>4</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>78</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E112" s="5">
         <v>10</v>
@@ -29959,7 +29976,7 @@
         <v>5</v>
       </c>
       <c r="L112" s="5" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="M112" s="9"/>
       <c r="N112" s="9"/>
@@ -29973,13 +29990,13 @@
         <v>5</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E113" s="5">
         <v>10</v>
@@ -29995,7 +30012,7 @@
         <v>5</v>
       </c>
       <c r="L113" s="5" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="M113" s="9"/>
       <c r="N113" s="9"/>
@@ -30009,13 +30026,13 @@
         <v>6</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E114" s="5">
         <v>10</v>
@@ -30031,7 +30048,7 @@
         <v>5</v>
       </c>
       <c r="L114" s="5" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="M114" s="9"/>
       <c r="N114" s="9"/>
@@ -30045,13 +30062,13 @@
         <v>7</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E115" s="5">
         <v>10</v>
@@ -30065,7 +30082,7 @@
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
       <c r="L115" s="5" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="M115" s="9"/>
       <c r="N115" s="9"/>
@@ -30079,13 +30096,13 @@
         <v>8</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E116" s="5">
         <v>10</v>
@@ -30101,7 +30118,7 @@
         <v>5</v>
       </c>
       <c r="L116" s="5" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="M116" s="9"/>
       <c r="N116" s="9"/>
@@ -30115,10 +30132,10 @@
         <v>9</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>77</v>
@@ -30147,10 +30164,10 @@
         <v>10</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>77</v>
@@ -30501,10 +30518,10 @@
         <v>2</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>77</v>
@@ -30531,10 +30548,10 @@
         <v>3</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>77</v>
@@ -30563,10 +30580,10 @@
         <v>4</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>77</v>
@@ -30917,10 +30934,10 @@
         <v>2</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D154" s="5" t="s">
         <v>77</v>
@@ -30947,10 +30964,10 @@
         <v>3</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D155" s="5" t="s">
         <v>77</v>
@@ -31299,10 +31316,10 @@
         <v>2</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="D172" s="5" t="s">
         <v>77</v>
@@ -31329,10 +31346,10 @@
         <v>3</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D173" s="5" t="s">
         <v>77</v>
@@ -31359,10 +31376,10 @@
         <v>4</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="D174" s="5" t="s">
         <v>108</v>
@@ -31387,7 +31404,7 @@
         <v>5</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C175" s="6" t="s">
         <v>79</v>
@@ -31419,10 +31436,10 @@
         <v>6</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="D176" s="5" t="s">
         <v>77</v>
@@ -31451,13 +31468,13 @@
         <v>7</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="E177" s="5">
         <v>10</v>
@@ -32688,8 +32705,8 @@
   </sheetPr>
   <dimension ref="A1:R182"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A163" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G113" sqref="G113"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -32952,10 +32969,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>77</v>
@@ -32986,10 +33003,10 @@
         <v>3</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>77</v>
@@ -33016,13 +33033,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E15" s="5">
         <v>32</v>
@@ -33046,10 +33063,10 @@
         <v>5</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>77</v>
@@ -33076,13 +33093,13 @@
         <v>6</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="3"/>
@@ -33091,7 +33108,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="9"/>
@@ -33106,10 +33123,10 @@
         <v>7</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>35</v>
@@ -33121,7 +33138,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="9"/>
@@ -33136,13 +33153,13 @@
         <v>8</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="3"/>
@@ -33151,7 +33168,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="9"/>
@@ -33166,10 +33183,10 @@
         <v>9</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>77</v>
@@ -33183,7 +33200,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="L20" s="5"/>
       <c r="M20" s="9"/>
@@ -33198,13 +33215,13 @@
         <v>10</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>302</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="3"/>
@@ -33226,13 +33243,13 @@
         <v>11</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="3"/>
@@ -33254,10 +33271,10 @@
         <v>12</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>108</v>
@@ -33269,7 +33286,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="L23" s="5"/>
       <c r="M23" s="9"/>
@@ -33284,10 +33301,10 @@
         <v>13</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>108</v>
@@ -33299,7 +33316,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="L24" s="5"/>
       <c r="M24" s="9"/>
@@ -33314,10 +33331,10 @@
         <v>14</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>108</v>
@@ -33329,7 +33346,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="9"/>
@@ -33344,13 +33361,13 @@
         <v>15</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="3"/>
@@ -33359,7 +33376,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="L26" s="5"/>
       <c r="M26" s="9"/>
@@ -33374,13 +33391,13 @@
         <v>16</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="3"/>
@@ -33726,10 +33743,10 @@
         <v>2</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>77</v>
@@ -33756,10 +33773,10 @@
         <v>3</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>77</v>
@@ -33791,7 +33808,7 @@
         <v>84</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>77</v>
@@ -33818,13 +33835,13 @@
         <v>5</v>
       </c>
       <c r="B47" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>282</v>
-      </c>
       <c r="D47" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E47" s="5">
         <v>8</v>
@@ -33848,13 +33865,13 @@
         <v>6</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E48" s="5">
         <v>8</v>
@@ -33878,13 +33895,13 @@
         <v>7</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="E49" s="5">
         <v>255</v>
@@ -34232,10 +34249,10 @@
         <v>2</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>77</v>
@@ -34262,10 +34279,10 @@
         <v>3</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>77</v>
@@ -34292,10 +34309,10 @@
         <v>4</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>77</v>
@@ -34324,10 +34341,10 @@
         <v>5</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>77</v>
@@ -34679,7 +34696,7 @@
         <v>173</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>77</v>
@@ -34710,7 +34727,7 @@
         <v>3</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>205</v>
@@ -34740,10 +34757,10 @@
         <v>4</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>77</v>
@@ -34802,13 +34819,13 @@
         <v>6</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E90" s="5">
         <v>8</v>
@@ -34832,13 +34849,13 @@
         <v>7</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="3"/>
@@ -35184,10 +35201,10 @@
         <v>2</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>77</v>
@@ -35218,10 +35235,10 @@
         <v>3</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>85</v>
@@ -35248,10 +35265,10 @@
         <v>4</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>77</v>
@@ -35278,7 +35295,7 @@
         <v>5</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>205</v>
@@ -35308,10 +35325,10 @@
         <v>6</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>85</v>
@@ -35340,10 +35357,10 @@
         <v>7</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>54</v>
@@ -35692,10 +35709,10 @@
         <v>2</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>77</v>
@@ -35726,10 +35743,10 @@
         <v>3</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>85</v>
@@ -35756,10 +35773,10 @@
         <v>4</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>85</v>
@@ -35786,10 +35803,10 @@
         <v>5</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>77</v>
@@ -35816,10 +35833,10 @@
         <v>6</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>108</v>
@@ -35846,10 +35863,10 @@
         <v>7</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>108</v>
@@ -35876,13 +35893,13 @@
         <v>8</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E136" s="5"/>
       <c r="F136" s="3"/>
@@ -35906,13 +35923,13 @@
         <v>9</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E137" s="5"/>
       <c r="F137" s="3"/>
@@ -36258,10 +36275,10 @@
         <v>2</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D154" s="5" t="s">
         <v>77</v>
@@ -36288,10 +36305,10 @@
         <v>3</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D155" s="5" t="s">
         <v>77</v>
@@ -36318,7 +36335,7 @@
         <v>4</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>30</v>
@@ -36350,7 +36367,7 @@
         <v>5</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>133</v>
@@ -36702,10 +36719,10 @@
         <v>2</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="D174" s="5" t="s">
         <v>77</v>
@@ -36734,10 +36751,10 @@
         <v>3</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="D175" s="5" t="s">
         <v>77</v>
@@ -36766,10 +36783,10 @@
         <v>4</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D176" s="5" t="s">
         <v>77</v>
@@ -36796,10 +36813,10 @@
         <v>5</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D177" s="5" t="s">
         <v>77</v>
@@ -36826,10 +36843,10 @@
         <v>6</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D178" s="5" t="s">
         <v>77</v>
@@ -38337,7 +38354,7 @@
         <v>63</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>136</v>
@@ -38367,7 +38384,7 @@
         <v>63</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>136</v>
@@ -40499,10 +40516,10 @@
         <v>2</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>85</v>
@@ -40531,7 +40548,7 @@
         <v>3</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>79</v>
@@ -40551,7 +40568,7 @@
       </c>
       <c r="K37" s="3"/>
       <c r="L37" s="5" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
@@ -40565,7 +40582,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>62</v>
@@ -40595,10 +40612,10 @@
         <v>5</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>85</v>
@@ -40625,10 +40642,10 @@
         <v>6</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>85</v>
@@ -40977,10 +40994,10 @@
         <v>2</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>85</v>
@@ -41005,7 +41022,7 @@
         <v>3</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>30</v>
@@ -41035,16 +41052,16 @@
         <v>4</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -41458,8 +41475,8 @@
   </sheetPr>
   <dimension ref="A1:R169"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A142" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C166" sqref="C166"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A133" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E149" sqref="E149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -42110,10 +42127,10 @@
         <v>2</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>245</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>246</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>77</v>
@@ -42174,13 +42191,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="D33" s="5" t="s">
         <v>243</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>244</v>
       </c>
       <c r="E33" s="5">
         <v>8</v>
@@ -42526,10 +42543,10 @@
         <v>2</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>77</v>
@@ -42560,7 +42577,7 @@
         <v>3</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>79</v>
@@ -42620,10 +42637,10 @@
         <v>5</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>77</v>
@@ -42640,7 +42657,7 @@
         <v>5</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
@@ -42654,10 +42671,10 @@
         <v>6</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>77</v>
@@ -42674,7 +42691,7 @@
         <v>5</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
@@ -43010,10 +43027,10 @@
         <v>2</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>77</v>
@@ -43074,10 +43091,10 @@
         <v>4</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>77</v>
@@ -43092,7 +43109,7 @@
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
       <c r="L73" s="5" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="M73" s="9"/>
       <c r="N73" s="9"/>
@@ -43428,10 +43445,10 @@
         <v>2</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>77</v>
@@ -43816,10 +43833,10 @@
         <v>2</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>77</v>
@@ -44204,10 +44221,10 @@
         <v>2</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>85</v>
@@ -44236,10 +44253,10 @@
         <v>3</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>85</v>
@@ -44254,7 +44271,7 @@
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
       <c r="L127" s="5" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="M127" s="9"/>
       <c r="N127" s="9"/>
@@ -44268,7 +44285,7 @@
         <v>4</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>30</v>
@@ -44298,10 +44315,10 @@
         <v>5</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>108</v>
@@ -44326,10 +44343,10 @@
         <v>6</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>108</v>
@@ -44354,10 +44371,10 @@
         <v>7</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>108</v>
@@ -44706,16 +44723,16 @@
         <v>2</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>313</v>
+        <v>661</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E148" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
@@ -44738,10 +44755,10 @@
         <v>3</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D149" s="5" t="s">
         <v>77</v>
@@ -44768,10 +44785,10 @@
         <v>4</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D150" s="5" t="s">
         <v>77</v>
@@ -45076,10 +45093,10 @@
         <v>2</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="D165" s="5" t="s">
         <v>77</v>
@@ -45110,10 +45127,10 @@
         <v>3</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D166" s="5" t="s">
         <v>77</v>

--- a/root/datas/ER.xlsx
+++ b/root/datas/ER.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-30105" yWindow="7215" windowWidth="28845" windowHeight="16440" tabRatio="797"/>
+    <workbookView xWindow="-30105" yWindow="7215" windowWidth="28845" windowHeight="16440" tabRatio="797" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="15" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="7">'info (3)'!$A$1:$L$63</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'master (9)'!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'other (3)'!$A$1:$L$59</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'owner (7)'!$A$1:$L$182</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'owner (7)'!$A$1:$L$183</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'work (8)'!$A$1:$L$181</definedName>
   </definedNames>
   <calcPr calcId="145621" calcMode="manual"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3386" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3392" uniqueCount="671">
   <si>
     <t>カテゴリ</t>
     <phoneticPr fontId="3"/>
@@ -3861,6 +3861,31 @@
   </si>
   <si>
     <t>0.2.10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>orders に flag_regular を追加</t>
+    <rPh sb="23" eb="25">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.2.11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定期案件フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>テイキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>アンケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>flag_regular</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4593,7 +4618,35 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1334">
+  <dxfs count="1338">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -13976,7 +14029,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14325,8 +14378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="115" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView view="pageLayout" topLeftCell="A7" zoomScale="115" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1"/>
@@ -14585,6 +14638,15 @@
       </c>
       <c r="D20" s="19" t="s">
         <v>526</v>
+      </c>
+      <c r="J20" s="71">
+        <v>43280</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="21" spans="2:12" ht="14.25" customHeight="1">
@@ -17759,1272 +17821,1272 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="J36 J55 A55 J48 H9 A4 C4:H4 H43:I43 C9 J25 F55 C34:H36 C25:F25 C13 H48 F54:G54 C54:E55 C11 A41 C31:J31 C41:J41 C52:G52 D48:F49 A21 A6:A7">
-    <cfRule type="expression" dxfId="1333" priority="735">
+    <cfRule type="expression" dxfId="1337" priority="735">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55">
-    <cfRule type="expression" dxfId="1332" priority="576">
+    <cfRule type="expression" dxfId="1336" priority="576">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55">
-    <cfRule type="expression" dxfId="1331" priority="562">
+    <cfRule type="expression" dxfId="1335" priority="562">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="expression" dxfId="1330" priority="582">
+    <cfRule type="expression" dxfId="1334" priority="582">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="expression" dxfId="1329" priority="575">
+    <cfRule type="expression" dxfId="1333" priority="575">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="expression" dxfId="1328" priority="568">
+    <cfRule type="expression" dxfId="1332" priority="568">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="1327" priority="556">
+    <cfRule type="expression" dxfId="1331" priority="556">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="expression" dxfId="1326" priority="567">
+    <cfRule type="expression" dxfId="1330" priority="567">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48">
-    <cfRule type="expression" dxfId="1325" priority="564">
+    <cfRule type="expression" dxfId="1329" priority="564">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J54">
-    <cfRule type="expression" dxfId="1324" priority="508">
+    <cfRule type="expression" dxfId="1328" priority="508">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:G5 J5">
-    <cfRule type="expression" dxfId="1323" priority="534">
+    <cfRule type="expression" dxfId="1327" priority="534">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="1322" priority="533">
+    <cfRule type="expression" dxfId="1326" priority="533">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="1321" priority="532">
+    <cfRule type="expression" dxfId="1325" priority="532">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="1320" priority="530">
+    <cfRule type="expression" dxfId="1324" priority="530">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="expression" dxfId="1319" priority="507">
+    <cfRule type="expression" dxfId="1323" priority="507">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54">
-    <cfRule type="expression" dxfId="1318" priority="506">
+    <cfRule type="expression" dxfId="1322" priority="506">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="expression" dxfId="1317" priority="505">
+    <cfRule type="expression" dxfId="1321" priority="505">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54">
-    <cfRule type="expression" dxfId="1316" priority="504">
+    <cfRule type="expression" dxfId="1320" priority="504">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="expression" dxfId="1315" priority="482">
+    <cfRule type="expression" dxfId="1319" priority="482">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34">
-    <cfRule type="expression" dxfId="1314" priority="488">
+    <cfRule type="expression" dxfId="1318" priority="488">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="expression" dxfId="1313" priority="487">
+    <cfRule type="expression" dxfId="1317" priority="487">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="expression" dxfId="1312" priority="485">
+    <cfRule type="expression" dxfId="1316" priority="485">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="expression" dxfId="1311" priority="484">
+    <cfRule type="expression" dxfId="1315" priority="484">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35">
-    <cfRule type="expression" dxfId="1310" priority="483">
+    <cfRule type="expression" dxfId="1314" priority="483">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="expression" dxfId="1309" priority="480">
+    <cfRule type="expression" dxfId="1313" priority="480">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="expression" dxfId="1308" priority="479">
+    <cfRule type="expression" dxfId="1312" priority="479">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="expression" dxfId="1307" priority="462">
+    <cfRule type="expression" dxfId="1311" priority="462">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="expression" dxfId="1306" priority="459">
+    <cfRule type="expression" dxfId="1310" priority="459">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="1305" priority="458">
+    <cfRule type="expression" dxfId="1309" priority="458">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="expression" dxfId="1304" priority="456">
+    <cfRule type="expression" dxfId="1308" priority="456">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:G6">
-    <cfRule type="expression" dxfId="1303" priority="461">
+    <cfRule type="expression" dxfId="1307" priority="461">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="expression" dxfId="1302" priority="460">
+    <cfRule type="expression" dxfId="1306" priority="460">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:F11">
-    <cfRule type="expression" dxfId="1301" priority="392">
+    <cfRule type="expression" dxfId="1305" priority="392">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:J4 D9 G9 J9 D43">
-    <cfRule type="expression" dxfId="1300" priority="418">
+    <cfRule type="expression" dxfId="1304" priority="418">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="1299" priority="391">
+    <cfRule type="expression" dxfId="1303" priority="391">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="1298" priority="390">
+    <cfRule type="expression" dxfId="1302" priority="390">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="1297" priority="389">
+    <cfRule type="expression" dxfId="1301" priority="389">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13 F13">
-    <cfRule type="expression" dxfId="1296" priority="388">
+    <cfRule type="expression" dxfId="1300" priority="388">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="1295" priority="387">
+    <cfRule type="expression" dxfId="1299" priority="387">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43">
-    <cfRule type="expression" dxfId="1294" priority="363">
+    <cfRule type="expression" dxfId="1298" priority="363">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="expression" dxfId="1293" priority="386">
+    <cfRule type="expression" dxfId="1297" priority="386">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="1292" priority="360">
+    <cfRule type="expression" dxfId="1296" priority="360">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="1291" priority="358">
+    <cfRule type="expression" dxfId="1295" priority="358">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:F9">
-    <cfRule type="expression" dxfId="1290" priority="368">
+    <cfRule type="expression" dxfId="1294" priority="368">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43:F43">
-    <cfRule type="expression" dxfId="1289" priority="367">
+    <cfRule type="expression" dxfId="1293" priority="367">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="expression" dxfId="1288" priority="346">
+    <cfRule type="expression" dxfId="1292" priority="346">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43">
-    <cfRule type="expression" dxfId="1287" priority="362">
+    <cfRule type="expression" dxfId="1291" priority="362">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17">
-    <cfRule type="expression" dxfId="1286" priority="329">
+    <cfRule type="expression" dxfId="1290" priority="329">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:J7 D7:G7">
-    <cfRule type="expression" dxfId="1285" priority="327">
+    <cfRule type="expression" dxfId="1289" priority="327">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J42">
-    <cfRule type="expression" dxfId="1284" priority="322">
+    <cfRule type="expression" dxfId="1288" priority="322">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="expression" dxfId="1283" priority="349">
+    <cfRule type="expression" dxfId="1287" priority="349">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="1282" priority="338">
+    <cfRule type="expression" dxfId="1286" priority="338">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="expression" dxfId="1281" priority="312">
+    <cfRule type="expression" dxfId="1285" priority="312">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="expression" dxfId="1280" priority="328">
+    <cfRule type="expression" dxfId="1284" priority="328">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="1279" priority="326">
+    <cfRule type="expression" dxfId="1283" priority="326">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42:G42">
-    <cfRule type="expression" dxfId="1278" priority="325">
+    <cfRule type="expression" dxfId="1282" priority="325">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42">
-    <cfRule type="expression" dxfId="1277" priority="324">
+    <cfRule type="expression" dxfId="1281" priority="324">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:H17">
-    <cfRule type="expression" dxfId="1276" priority="330">
+    <cfRule type="expression" dxfId="1280" priority="330">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J52">
-    <cfRule type="expression" dxfId="1275" priority="295">
+    <cfRule type="expression" dxfId="1279" priority="295">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="expression" dxfId="1274" priority="323">
+    <cfRule type="expression" dxfId="1278" priority="323">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="expression" dxfId="1273" priority="317">
+    <cfRule type="expression" dxfId="1277" priority="317">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="expression" dxfId="1272" priority="289">
+    <cfRule type="expression" dxfId="1276" priority="289">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="expression" dxfId="1271" priority="287">
+    <cfRule type="expression" dxfId="1275" priority="287">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="expression" dxfId="1270" priority="294">
+    <cfRule type="expression" dxfId="1274" priority="294">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52">
-    <cfRule type="expression" dxfId="1269" priority="293">
+    <cfRule type="expression" dxfId="1273" priority="293">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J47">
-    <cfRule type="expression" dxfId="1268" priority="306">
+    <cfRule type="expression" dxfId="1272" priority="306">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J49">
-    <cfRule type="expression" dxfId="1267" priority="262">
+    <cfRule type="expression" dxfId="1271" priority="262">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47">
-    <cfRule type="expression" dxfId="1266" priority="288">
+    <cfRule type="expression" dxfId="1270" priority="288">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49">
-    <cfRule type="expression" dxfId="1265" priority="254">
+    <cfRule type="expression" dxfId="1269" priority="254">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="expression" dxfId="1264" priority="261">
+    <cfRule type="expression" dxfId="1268" priority="261">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="expression" dxfId="1263" priority="292">
+    <cfRule type="expression" dxfId="1267" priority="292">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52">
-    <cfRule type="expression" dxfId="1262" priority="291">
+    <cfRule type="expression" dxfId="1266" priority="291">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="expression" dxfId="1261" priority="279">
+    <cfRule type="expression" dxfId="1265" priority="279">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="1260" priority="266">
+    <cfRule type="expression" dxfId="1264" priority="266">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49">
-    <cfRule type="expression" dxfId="1259" priority="251">
+    <cfRule type="expression" dxfId="1263" priority="251">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52">
-    <cfRule type="expression" dxfId="1258" priority="255">
+    <cfRule type="expression" dxfId="1262" priority="255">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="1257" priority="265">
+    <cfRule type="expression" dxfId="1261" priority="265">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49">
-    <cfRule type="expression" dxfId="1256" priority="253">
+    <cfRule type="expression" dxfId="1260" priority="253">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="expression" dxfId="1255" priority="259">
+    <cfRule type="expression" dxfId="1259" priority="259">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="expression" dxfId="1254" priority="241">
+    <cfRule type="expression" dxfId="1258" priority="241">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49">
-    <cfRule type="expression" dxfId="1253" priority="252">
+    <cfRule type="expression" dxfId="1257" priority="252">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="1252" priority="250">
+    <cfRule type="expression" dxfId="1256" priority="250">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:F10">
-    <cfRule type="expression" dxfId="1251" priority="249">
+    <cfRule type="expression" dxfId="1255" priority="249">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="1250" priority="248">
+    <cfRule type="expression" dxfId="1254" priority="248">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="1249" priority="247">
+    <cfRule type="expression" dxfId="1253" priority="247">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="1248" priority="246">
+    <cfRule type="expression" dxfId="1252" priority="246">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="expression" dxfId="1247" priority="244">
+    <cfRule type="expression" dxfId="1251" priority="244">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="expression" dxfId="1246" priority="243">
+    <cfRule type="expression" dxfId="1250" priority="243">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:E25">
-    <cfRule type="expression" dxfId="1245" priority="231">
+    <cfRule type="expression" dxfId="1249" priority="231">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="expression" dxfId="1244" priority="237">
+    <cfRule type="expression" dxfId="1248" priority="237">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:F18">
-    <cfRule type="expression" dxfId="1243" priority="238">
+    <cfRule type="expression" dxfId="1247" priority="238">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="1242" priority="239">
+    <cfRule type="expression" dxfId="1246" priority="239">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="expression" dxfId="1241" priority="235">
+    <cfRule type="expression" dxfId="1245" priority="235">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="expression" dxfId="1240" priority="236">
+    <cfRule type="expression" dxfId="1244" priority="236">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18">
-    <cfRule type="expression" dxfId="1239" priority="234">
+    <cfRule type="expression" dxfId="1243" priority="234">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="expression" dxfId="1238" priority="232">
+    <cfRule type="expression" dxfId="1242" priority="232">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="expression" dxfId="1237" priority="228">
+    <cfRule type="expression" dxfId="1241" priority="228">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="expression" dxfId="1236" priority="227">
+    <cfRule type="expression" dxfId="1240" priority="227">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="expression" dxfId="1235" priority="221">
+    <cfRule type="expression" dxfId="1239" priority="221">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="expression" dxfId="1234" priority="225">
+    <cfRule type="expression" dxfId="1238" priority="225">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="expression" dxfId="1233" priority="226">
+    <cfRule type="expression" dxfId="1237" priority="226">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="expression" dxfId="1232" priority="224">
+    <cfRule type="expression" dxfId="1236" priority="224">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:E32">
-    <cfRule type="expression" dxfId="1231" priority="222">
+    <cfRule type="expression" dxfId="1235" priority="222">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:E23">
-    <cfRule type="expression" dxfId="1230" priority="215">
+    <cfRule type="expression" dxfId="1234" priority="215">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="expression" dxfId="1229" priority="220">
+    <cfRule type="expression" dxfId="1233" priority="220">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="expression" dxfId="1228" priority="218">
+    <cfRule type="expression" dxfId="1232" priority="218">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="1227" priority="217">
+    <cfRule type="expression" dxfId="1231" priority="217">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:G27">
-    <cfRule type="expression" dxfId="1226" priority="212">
+    <cfRule type="expression" dxfId="1230" priority="212">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="expression" dxfId="1225" priority="209">
+    <cfRule type="expression" dxfId="1229" priority="209">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47">
-    <cfRule type="expression" dxfId="1224" priority="214">
+    <cfRule type="expression" dxfId="1228" priority="214">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27">
-    <cfRule type="expression" dxfId="1223" priority="211">
+    <cfRule type="expression" dxfId="1227" priority="211">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="expression" dxfId="1222" priority="210">
+    <cfRule type="expression" dxfId="1226" priority="210">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="expression" dxfId="1221" priority="197">
+    <cfRule type="expression" dxfId="1225" priority="197">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="expression" dxfId="1220" priority="196">
+    <cfRule type="expression" dxfId="1224" priority="196">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:G26">
-    <cfRule type="expression" dxfId="1219" priority="205">
+    <cfRule type="expression" dxfId="1223" priority="205">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="expression" dxfId="1218" priority="204">
+    <cfRule type="expression" dxfId="1222" priority="204">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="expression" dxfId="1217" priority="203">
+    <cfRule type="expression" dxfId="1221" priority="203">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="expression" dxfId="1216" priority="202">
+    <cfRule type="expression" dxfId="1220" priority="202">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:F30">
-    <cfRule type="expression" dxfId="1215" priority="199">
+    <cfRule type="expression" dxfId="1219" priority="199">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="expression" dxfId="1214" priority="198">
+    <cfRule type="expression" dxfId="1218" priority="198">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="expression" dxfId="1213" priority="195">
+    <cfRule type="expression" dxfId="1217" priority="195">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="expression" dxfId="1212" priority="189">
+    <cfRule type="expression" dxfId="1216" priority="189">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:F28">
-    <cfRule type="expression" dxfId="1211" priority="193">
+    <cfRule type="expression" dxfId="1215" priority="193">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="expression" dxfId="1210" priority="192">
+    <cfRule type="expression" dxfId="1214" priority="192">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="expression" dxfId="1209" priority="191">
+    <cfRule type="expression" dxfId="1213" priority="191">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="expression" dxfId="1208" priority="190">
+    <cfRule type="expression" dxfId="1212" priority="190">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="1207" priority="175">
+    <cfRule type="expression" dxfId="1211" priority="175">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="1206" priority="173">
+    <cfRule type="expression" dxfId="1210" priority="173">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="1205" priority="174">
+    <cfRule type="expression" dxfId="1209" priority="174">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
-    <cfRule type="expression" dxfId="1204" priority="180">
+    <cfRule type="expression" dxfId="1208" priority="180">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38 C38:H38">
-    <cfRule type="expression" dxfId="1203" priority="181">
+    <cfRule type="expression" dxfId="1207" priority="181">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="1202" priority="169">
+    <cfRule type="expression" dxfId="1206" priority="169">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="expression" dxfId="1201" priority="179">
+    <cfRule type="expression" dxfId="1205" priority="179">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="1200" priority="159">
+    <cfRule type="expression" dxfId="1204" priority="159">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="1199" priority="168">
+    <cfRule type="expression" dxfId="1203" priority="168">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="1198" priority="178">
+    <cfRule type="expression" dxfId="1202" priority="178">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:F12">
-    <cfRule type="expression" dxfId="1197" priority="177">
+    <cfRule type="expression" dxfId="1201" priority="177">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="1196" priority="176">
+    <cfRule type="expression" dxfId="1200" priority="176">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15 F15">
-    <cfRule type="expression" dxfId="1195" priority="158">
+    <cfRule type="expression" dxfId="1199" priority="158">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="1194" priority="148">
+    <cfRule type="expression" dxfId="1198" priority="148">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="expression" dxfId="1193" priority="156">
+    <cfRule type="expression" dxfId="1197" priority="156">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="expression" dxfId="1192" priority="140">
+    <cfRule type="expression" dxfId="1196" priority="140">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="expression" dxfId="1191" priority="134">
+    <cfRule type="expression" dxfId="1195" priority="134">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="1190" priority="153">
+    <cfRule type="expression" dxfId="1194" priority="153">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="1189" priority="152">
+    <cfRule type="expression" dxfId="1193" priority="152">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="1188" priority="157">
+    <cfRule type="expression" dxfId="1192" priority="157">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="1187" priority="146">
+    <cfRule type="expression" dxfId="1191" priority="146">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="1186" priority="142">
+    <cfRule type="expression" dxfId="1190" priority="142">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="expression" dxfId="1185" priority="145">
+    <cfRule type="expression" dxfId="1189" priority="145">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="1184" priority="143">
+    <cfRule type="expression" dxfId="1188" priority="143">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14 F14">
-    <cfRule type="expression" dxfId="1183" priority="147">
+    <cfRule type="expression" dxfId="1187" priority="147">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="expression" dxfId="1182" priority="144">
+    <cfRule type="expression" dxfId="1186" priority="144">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="expression" dxfId="1181" priority="138">
+    <cfRule type="expression" dxfId="1185" priority="138">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:E21">
-    <cfRule type="expression" dxfId="1180" priority="132">
+    <cfRule type="expression" dxfId="1184" priority="132">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="expression" dxfId="1179" priority="137">
+    <cfRule type="expression" dxfId="1183" priority="137">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="expression" dxfId="1178" priority="135">
+    <cfRule type="expression" dxfId="1182" priority="135">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20">
-    <cfRule type="expression" dxfId="1177" priority="129">
+    <cfRule type="expression" dxfId="1181" priority="129">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="1176" priority="131">
+    <cfRule type="expression" dxfId="1180" priority="131">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:E20">
-    <cfRule type="expression" dxfId="1175" priority="125">
+    <cfRule type="expression" dxfId="1179" priority="125">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="expression" dxfId="1174" priority="130">
+    <cfRule type="expression" dxfId="1178" priority="130">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="expression" dxfId="1173" priority="128">
+    <cfRule type="expression" dxfId="1177" priority="128">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="1172" priority="121">
+    <cfRule type="expression" dxfId="1176" priority="121">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21">
-    <cfRule type="expression" dxfId="1171" priority="124">
+    <cfRule type="expression" dxfId="1175" priority="124">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="expression" dxfId="1170" priority="123">
+    <cfRule type="expression" dxfId="1174" priority="123">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="expression" dxfId="1169" priority="122">
+    <cfRule type="expression" dxfId="1173" priority="122">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="expression" dxfId="1168" priority="120">
+    <cfRule type="expression" dxfId="1172" priority="120">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="expression" dxfId="1167" priority="118">
+    <cfRule type="expression" dxfId="1171" priority="118">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J46">
-    <cfRule type="expression" dxfId="1166" priority="119">
+    <cfRule type="expression" dxfId="1170" priority="119">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46">
-    <cfRule type="expression" dxfId="1165" priority="117">
+    <cfRule type="expression" dxfId="1169" priority="117">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="expression" dxfId="1164" priority="116">
+    <cfRule type="expression" dxfId="1168" priority="116">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="expression" dxfId="1163" priority="115">
+    <cfRule type="expression" dxfId="1167" priority="115">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45">
-    <cfRule type="expression" dxfId="1162" priority="101">
+    <cfRule type="expression" dxfId="1166" priority="101">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45">
-    <cfRule type="expression" dxfId="1161" priority="105">
+    <cfRule type="expression" dxfId="1165" priority="105">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="expression" dxfId="1160" priority="106">
+    <cfRule type="expression" dxfId="1164" priority="106">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="expression" dxfId="1159" priority="104">
+    <cfRule type="expression" dxfId="1163" priority="104">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45">
-    <cfRule type="expression" dxfId="1158" priority="103">
+    <cfRule type="expression" dxfId="1162" priority="103">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:E45">
-    <cfRule type="expression" dxfId="1157" priority="102">
+    <cfRule type="expression" dxfId="1161" priority="102">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="expression" dxfId="1156" priority="98">
+    <cfRule type="expression" dxfId="1160" priority="98">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="expression" dxfId="1155" priority="99">
+    <cfRule type="expression" dxfId="1159" priority="99">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39 C39:H39">
-    <cfRule type="expression" dxfId="1154" priority="97">
+    <cfRule type="expression" dxfId="1158" priority="97">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39">
-    <cfRule type="expression" dxfId="1153" priority="96">
+    <cfRule type="expression" dxfId="1157" priority="96">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39">
-    <cfRule type="expression" dxfId="1152" priority="95">
+    <cfRule type="expression" dxfId="1156" priority="95">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40">
-    <cfRule type="expression" dxfId="1151" priority="87">
+    <cfRule type="expression" dxfId="1155" priority="87">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40:H40">
-    <cfRule type="expression" dxfId="1150" priority="93">
+    <cfRule type="expression" dxfId="1154" priority="93">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40">
-    <cfRule type="expression" dxfId="1149" priority="92">
+    <cfRule type="expression" dxfId="1153" priority="92">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="1148" priority="90">
+    <cfRule type="expression" dxfId="1152" priority="90">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48">
-    <cfRule type="expression" dxfId="1147" priority="88">
+    <cfRule type="expression" dxfId="1151" priority="88">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44">
-    <cfRule type="expression" dxfId="1146" priority="84">
+    <cfRule type="expression" dxfId="1150" priority="84">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="expression" dxfId="1145" priority="86">
+    <cfRule type="expression" dxfId="1149" priority="86">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:E44">
-    <cfRule type="expression" dxfId="1144" priority="81">
+    <cfRule type="expression" dxfId="1148" priority="81">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="expression" dxfId="1143" priority="83">
+    <cfRule type="expression" dxfId="1147" priority="83">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44">
-    <cfRule type="expression" dxfId="1142" priority="80">
+    <cfRule type="expression" dxfId="1146" priority="80">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19">
-    <cfRule type="expression" dxfId="1141" priority="77">
+    <cfRule type="expression" dxfId="1145" priority="77">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="expression" dxfId="1140" priority="79">
+    <cfRule type="expression" dxfId="1144" priority="79">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:E19">
-    <cfRule type="expression" dxfId="1139" priority="74">
+    <cfRule type="expression" dxfId="1143" priority="74">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="expression" dxfId="1138" priority="78">
+    <cfRule type="expression" dxfId="1142" priority="78">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="expression" dxfId="1137" priority="76">
+    <cfRule type="expression" dxfId="1141" priority="76">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="1136" priority="73">
+    <cfRule type="expression" dxfId="1140" priority="73">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="expression" dxfId="1135" priority="63">
+    <cfRule type="expression" dxfId="1139" priority="63">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="expression" dxfId="1134" priority="71">
+    <cfRule type="expression" dxfId="1138" priority="71">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53:G53">
-    <cfRule type="expression" dxfId="1133" priority="70">
+    <cfRule type="expression" dxfId="1137" priority="70">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J53">
-    <cfRule type="expression" dxfId="1132" priority="69">
+    <cfRule type="expression" dxfId="1136" priority="69">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="expression" dxfId="1131" priority="68">
+    <cfRule type="expression" dxfId="1135" priority="68">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53">
-    <cfRule type="expression" dxfId="1130" priority="67">
+    <cfRule type="expression" dxfId="1134" priority="67">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="expression" dxfId="1129" priority="66">
+    <cfRule type="expression" dxfId="1133" priority="66">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53">
-    <cfRule type="expression" dxfId="1128" priority="65">
+    <cfRule type="expression" dxfId="1132" priority="65">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="expression" dxfId="1127" priority="62">
+    <cfRule type="expression" dxfId="1131" priority="62">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3 C3:H3">
-    <cfRule type="expression" dxfId="1126" priority="61">
+    <cfRule type="expression" dxfId="1130" priority="61">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:J3">
-    <cfRule type="expression" dxfId="1125" priority="60">
+    <cfRule type="expression" dxfId="1129" priority="60">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="expression" dxfId="1124" priority="59">
+    <cfRule type="expression" dxfId="1128" priority="59">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="expression" dxfId="1123" priority="58">
+    <cfRule type="expression" dxfId="1127" priority="58">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="1122" priority="57">
+    <cfRule type="expression" dxfId="1126" priority="57">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="expression" dxfId="1121" priority="56">
+    <cfRule type="expression" dxfId="1125" priority="56">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="expression" dxfId="1120" priority="54">
+    <cfRule type="expression" dxfId="1124" priority="54">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="expression" dxfId="1119" priority="52">
+    <cfRule type="expression" dxfId="1123" priority="52">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:A49">
-    <cfRule type="expression" dxfId="1118" priority="51">
+    <cfRule type="expression" dxfId="1122" priority="51">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="expression" dxfId="1117" priority="50">
+    <cfRule type="expression" dxfId="1121" priority="50">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="expression" dxfId="1116" priority="49">
+    <cfRule type="expression" dxfId="1120" priority="49">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="expression" dxfId="1115" priority="48">
+    <cfRule type="expression" dxfId="1119" priority="48">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="1114" priority="45">
+    <cfRule type="expression" dxfId="1118" priority="45">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="1113" priority="46">
+    <cfRule type="expression" dxfId="1117" priority="46">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="1112" priority="44">
+    <cfRule type="expression" dxfId="1116" priority="44">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="1111" priority="43">
+    <cfRule type="expression" dxfId="1115" priority="43">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:A32">
-    <cfRule type="expression" dxfId="1110" priority="41">
+    <cfRule type="expression" dxfId="1114" priority="41">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C49">
-    <cfRule type="expression" dxfId="1109" priority="35">
+    <cfRule type="expression" dxfId="1113" priority="35">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="1108" priority="40">
+    <cfRule type="expression" dxfId="1112" priority="40">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A36">
-    <cfRule type="expression" dxfId="1107" priority="37">
+    <cfRule type="expression" dxfId="1111" priority="37">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="expression" dxfId="1106" priority="36">
+    <cfRule type="expression" dxfId="1110" priority="36">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="1105" priority="34">
+    <cfRule type="expression" dxfId="1109" priority="34">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="expression" dxfId="1104" priority="31">
+    <cfRule type="expression" dxfId="1108" priority="31">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="expression" dxfId="1103" priority="30">
+    <cfRule type="expression" dxfId="1107" priority="30">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:F29">
-    <cfRule type="expression" dxfId="1102" priority="33">
+    <cfRule type="expression" dxfId="1106" priority="33">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
-    <cfRule type="expression" dxfId="1101" priority="32">
+    <cfRule type="expression" dxfId="1105" priority="32">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="expression" dxfId="1100" priority="29">
+    <cfRule type="expression" dxfId="1104" priority="29">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="expression" dxfId="1099" priority="24">
+    <cfRule type="expression" dxfId="1103" priority="24">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="expression" dxfId="1098" priority="27">
+    <cfRule type="expression" dxfId="1102" priority="27">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="expression" dxfId="1097" priority="23">
+    <cfRule type="expression" dxfId="1101" priority="23">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:E22">
-    <cfRule type="expression" dxfId="1096" priority="20">
+    <cfRule type="expression" dxfId="1100" priority="20">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="expression" dxfId="1095" priority="22">
+    <cfRule type="expression" dxfId="1099" priority="22">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="expression" dxfId="1094" priority="21">
+    <cfRule type="expression" dxfId="1098" priority="21">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="expression" dxfId="1093" priority="19">
+    <cfRule type="expression" dxfId="1097" priority="19">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="1092" priority="18">
+    <cfRule type="expression" dxfId="1096" priority="18">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="expression" dxfId="1091" priority="16">
+    <cfRule type="expression" dxfId="1095" priority="16">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="expression" dxfId="1090" priority="15">
+    <cfRule type="expression" dxfId="1094" priority="15">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="1089" priority="14">
+    <cfRule type="expression" dxfId="1093" priority="14">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50">
-    <cfRule type="expression" dxfId="1088" priority="11">
+    <cfRule type="expression" dxfId="1092" priority="11">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50:F50">
-    <cfRule type="expression" dxfId="1087" priority="12">
+    <cfRule type="expression" dxfId="1091" priority="12">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="expression" dxfId="1086" priority="10">
+    <cfRule type="expression" dxfId="1090" priority="10">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50">
-    <cfRule type="expression" dxfId="1085" priority="9">
+    <cfRule type="expression" dxfId="1089" priority="9">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="1084" priority="4">
+    <cfRule type="expression" dxfId="1088" priority="4">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50">
-    <cfRule type="expression" dxfId="1083" priority="3">
+    <cfRule type="expression" dxfId="1087" priority="3">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="expression" dxfId="1082" priority="5">
+    <cfRule type="expression" dxfId="1086" priority="5">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19 A21 A23">
-    <cfRule type="expression" dxfId="1081" priority="2">
+    <cfRule type="expression" dxfId="1085" priority="2">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="expression" dxfId="1080" priority="1">
+    <cfRule type="expression" dxfId="1084" priority="1">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22323,712 +22385,712 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="F124:H124 F123:L123 C51:D52 L51 B50:D50 B51 B55:D55 C53:C54 A123:C123 A86:L86 A47:L47 A54:B54 B68:L68 A105:C105 B14:C14 A125 A127 A129 A131 A133">
-    <cfRule type="expression" dxfId="1079" priority="535">
+    <cfRule type="expression" dxfId="1083" priority="535">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124 J124 A126 A128 A130 A132">
-    <cfRule type="expression" dxfId="1078" priority="452">
+    <cfRule type="expression" dxfId="1082" priority="452">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D123">
-    <cfRule type="expression" dxfId="1077" priority="440">
+    <cfRule type="expression" dxfId="1081" priority="440">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I124">
-    <cfRule type="expression" dxfId="1076" priority="445">
+    <cfRule type="expression" dxfId="1080" priority="445">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E123">
-    <cfRule type="expression" dxfId="1075" priority="441">
+    <cfRule type="expression" dxfId="1079" priority="441">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124">
-    <cfRule type="expression" dxfId="1074" priority="439">
+    <cfRule type="expression" dxfId="1078" priority="439">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D124">
-    <cfRule type="expression" dxfId="1073" priority="438">
+    <cfRule type="expression" dxfId="1077" priority="438">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C124">
-    <cfRule type="expression" dxfId="1072" priority="259">
+    <cfRule type="expression" dxfId="1076" priority="259">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K124">
-    <cfRule type="expression" dxfId="1071" priority="255">
+    <cfRule type="expression" dxfId="1075" priority="255">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124">
-    <cfRule type="expression" dxfId="1070" priority="258">
+    <cfRule type="expression" dxfId="1074" priority="258">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88:C88 E88:L88">
-    <cfRule type="expression" dxfId="1069" priority="219">
+    <cfRule type="expression" dxfId="1073" priority="219">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:H87">
-    <cfRule type="expression" dxfId="1068" priority="214">
+    <cfRule type="expression" dxfId="1072" priority="214">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87">
-    <cfRule type="expression" dxfId="1067" priority="212">
+    <cfRule type="expression" dxfId="1071" priority="212">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I87">
-    <cfRule type="expression" dxfId="1066" priority="211">
+    <cfRule type="expression" dxfId="1070" priority="211">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C90:L92 A88:A91">
-    <cfRule type="expression" dxfId="1065" priority="230">
+    <cfRule type="expression" dxfId="1069" priority="230">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92">
-    <cfRule type="expression" dxfId="1064" priority="229">
+    <cfRule type="expression" dxfId="1068" priority="229">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90:B92">
-    <cfRule type="expression" dxfId="1063" priority="227">
+    <cfRule type="expression" dxfId="1067" priority="227">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87 J87:L87">
-    <cfRule type="expression" dxfId="1062" priority="213">
+    <cfRule type="expression" dxfId="1066" priority="213">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50:H50 E51:J51 E52:L52 C71:L73 A49 A71:A72 B56:L59 A51 A57 E55:L55 F53:L54">
-    <cfRule type="expression" dxfId="1061" priority="210">
+    <cfRule type="expression" dxfId="1065" priority="210">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73 J50:L50">
-    <cfRule type="expression" dxfId="1060" priority="209">
+    <cfRule type="expression" dxfId="1064" priority="209">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71:B73">
-    <cfRule type="expression" dxfId="1059" priority="207">
+    <cfRule type="expression" dxfId="1063" priority="207">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50">
-    <cfRule type="expression" dxfId="1058" priority="202">
+    <cfRule type="expression" dxfId="1062" priority="202">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:B53">
-    <cfRule type="expression" dxfId="1057" priority="206">
+    <cfRule type="expression" dxfId="1061" priority="206">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K51">
-    <cfRule type="expression" dxfId="1056" priority="205">
+    <cfRule type="expression" dxfId="1060" priority="205">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69:L69">
-    <cfRule type="expression" dxfId="1055" priority="199">
+    <cfRule type="expression" dxfId="1059" priority="199">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67:L67">
-    <cfRule type="expression" dxfId="1054" priority="200">
+    <cfRule type="expression" dxfId="1058" priority="200">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48 J48:L48 A50 A52:A53 A55:A56 A58:A70">
-    <cfRule type="expression" dxfId="1053" priority="193">
+    <cfRule type="expression" dxfId="1057" priority="193">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49:H49">
-    <cfRule type="expression" dxfId="1052" priority="198">
+    <cfRule type="expression" dxfId="1056" priority="198">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49">
-    <cfRule type="expression" dxfId="1051" priority="195">
+    <cfRule type="expression" dxfId="1055" priority="195">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="expression" dxfId="1050" priority="192">
+    <cfRule type="expression" dxfId="1054" priority="192">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J49:L49">
-    <cfRule type="expression" dxfId="1049" priority="197">
+    <cfRule type="expression" dxfId="1053" priority="197">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49">
-    <cfRule type="expression" dxfId="1048" priority="196">
+    <cfRule type="expression" dxfId="1052" priority="196">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48">
-    <cfRule type="expression" dxfId="1047" priority="191">
+    <cfRule type="expression" dxfId="1051" priority="191">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:H48">
-    <cfRule type="expression" dxfId="1046" priority="194">
+    <cfRule type="expression" dxfId="1050" priority="194">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88">
-    <cfRule type="expression" dxfId="1045" priority="190">
+    <cfRule type="expression" dxfId="1049" priority="190">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A109">
-    <cfRule type="expression" dxfId="1044" priority="172">
+    <cfRule type="expression" dxfId="1048" priority="172">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F106:H106 F105:L105 C108:L110">
-    <cfRule type="expression" dxfId="1043" priority="173">
+    <cfRule type="expression" dxfId="1047" priority="173">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="expression" dxfId="1042" priority="168">
+    <cfRule type="expression" dxfId="1046" priority="168">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A106 A108 A110 K106">
-    <cfRule type="expression" dxfId="1041" priority="171">
+    <cfRule type="expression" dxfId="1045" priority="171">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108:B110">
-    <cfRule type="expression" dxfId="1040" priority="169">
+    <cfRule type="expression" dxfId="1044" priority="169">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J106">
-    <cfRule type="expression" dxfId="1039" priority="164">
+    <cfRule type="expression" dxfId="1043" priority="164">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D105">
-    <cfRule type="expression" dxfId="1038" priority="167">
+    <cfRule type="expression" dxfId="1042" priority="167">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107:J107 L107">
-    <cfRule type="expression" dxfId="1037" priority="159">
+    <cfRule type="expression" dxfId="1041" priority="159">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C107">
-    <cfRule type="expression" dxfId="1036" priority="138">
+    <cfRule type="expression" dxfId="1040" priority="138">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I60">
-    <cfRule type="expression" dxfId="1035" priority="148">
+    <cfRule type="expression" dxfId="1039" priority="148">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54:E54">
-    <cfRule type="expression" dxfId="1034" priority="144">
+    <cfRule type="expression" dxfId="1038" priority="144">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K70">
-    <cfRule type="expression" dxfId="1033" priority="141">
+    <cfRule type="expression" dxfId="1037" priority="141">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B106">
-    <cfRule type="expression" dxfId="1032" priority="135">
+    <cfRule type="expression" dxfId="1036" priority="135">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134:B136">
-    <cfRule type="expression" dxfId="1031" priority="120">
+    <cfRule type="expression" dxfId="1035" priority="120">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L124">
-    <cfRule type="expression" dxfId="1030" priority="118">
+    <cfRule type="expression" dxfId="1034" priority="118">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107">
-    <cfRule type="expression" dxfId="1029" priority="155">
+    <cfRule type="expression" dxfId="1033" priority="155">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D106">
-    <cfRule type="expression" dxfId="1028" priority="165">
+    <cfRule type="expression" dxfId="1032" priority="165">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="expression" dxfId="1027" priority="166">
+    <cfRule type="expression" dxfId="1031" priority="166">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I106">
-    <cfRule type="expression" dxfId="1026" priority="161">
+    <cfRule type="expression" dxfId="1030" priority="161">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L106">
-    <cfRule type="expression" dxfId="1025" priority="160">
+    <cfRule type="expression" dxfId="1029" priority="160">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89:C89 E89:L89">
-    <cfRule type="expression" dxfId="1024" priority="140">
+    <cfRule type="expression" dxfId="1028" priority="140">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53:E53">
-    <cfRule type="expression" dxfId="1023" priority="145">
+    <cfRule type="expression" dxfId="1027" priority="145">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107">
-    <cfRule type="expression" dxfId="1022" priority="158">
+    <cfRule type="expression" dxfId="1026" priority="158">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C106">
-    <cfRule type="expression" dxfId="1021" priority="136">
+    <cfRule type="expression" dxfId="1025" priority="136">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="expression" dxfId="1020" priority="156">
+    <cfRule type="expression" dxfId="1024" priority="156">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K60">
-    <cfRule type="expression" dxfId="1019" priority="149">
+    <cfRule type="expression" dxfId="1023" priority="149">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K107">
-    <cfRule type="expression" dxfId="1018" priority="154">
+    <cfRule type="expression" dxfId="1022" priority="154">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L60 B60:D60">
-    <cfRule type="expression" dxfId="1017" priority="152">
+    <cfRule type="expression" dxfId="1021" priority="152">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60:H60">
-    <cfRule type="expression" dxfId="1016" priority="151">
+    <cfRule type="expression" dxfId="1020" priority="151">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J60">
-    <cfRule type="expression" dxfId="1015" priority="150">
+    <cfRule type="expression" dxfId="1019" priority="150">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66:L66">
-    <cfRule type="expression" dxfId="1014" priority="147">
+    <cfRule type="expression" dxfId="1018" priority="147">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:J70 L70">
-    <cfRule type="expression" dxfId="1013" priority="143">
+    <cfRule type="expression" dxfId="1017" priority="143">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D89">
-    <cfRule type="expression" dxfId="1012" priority="139">
+    <cfRule type="expression" dxfId="1016" priority="139">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="expression" dxfId="1011" priority="142">
+    <cfRule type="expression" dxfId="1015" priority="142">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B107">
-    <cfRule type="expression" dxfId="1010" priority="137">
+    <cfRule type="expression" dxfId="1014" priority="137">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:D125">
-    <cfRule type="expression" dxfId="1009" priority="134">
+    <cfRule type="expression" dxfId="1013" priority="134">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126:L127 E125:L125 B129:L130">
-    <cfRule type="expression" dxfId="1008" priority="133">
+    <cfRule type="expression" dxfId="1012" priority="133">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L132 B132:D132">
-    <cfRule type="expression" dxfId="1007" priority="130">
+    <cfRule type="expression" dxfId="1011" priority="130">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I132">
-    <cfRule type="expression" dxfId="1006" priority="126">
+    <cfRule type="expression" dxfId="1010" priority="126">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E132:H132">
-    <cfRule type="expression" dxfId="1005" priority="129">
+    <cfRule type="expression" dxfId="1009" priority="129">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J132">
-    <cfRule type="expression" dxfId="1004" priority="128">
+    <cfRule type="expression" dxfId="1008" priority="128">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C133:L133">
-    <cfRule type="expression" dxfId="1003" priority="125">
+    <cfRule type="expression" dxfId="1007" priority="125">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A134 A136">
-    <cfRule type="expression" dxfId="1002" priority="121">
+    <cfRule type="expression" dxfId="1006" priority="121">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B133">
-    <cfRule type="expression" dxfId="1001" priority="124">
+    <cfRule type="expression" dxfId="1005" priority="124">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C134:L136">
-    <cfRule type="expression" dxfId="1000" priority="123">
+    <cfRule type="expression" dxfId="1004" priority="123">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A135">
-    <cfRule type="expression" dxfId="999" priority="122">
+    <cfRule type="expression" dxfId="1003" priority="122">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K132">
-    <cfRule type="expression" dxfId="998" priority="119">
+    <cfRule type="expression" dxfId="1002" priority="119">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L131 B131:D131">
-    <cfRule type="expression" dxfId="997" priority="112">
+    <cfRule type="expression" dxfId="1001" priority="112">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I131">
-    <cfRule type="expression" dxfId="996" priority="109">
+    <cfRule type="expression" dxfId="1000" priority="109">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E131:H131">
-    <cfRule type="expression" dxfId="995" priority="111">
+    <cfRule type="expression" dxfId="999" priority="111">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J131">
-    <cfRule type="expression" dxfId="994" priority="110">
+    <cfRule type="expression" dxfId="998" priority="110">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K131">
-    <cfRule type="expression" dxfId="993" priority="108">
+    <cfRule type="expression" dxfId="997" priority="108">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:L12 A14 A16 A18 A20 A22 A24:A25 A27:A28 A30:A31">
-    <cfRule type="expression" dxfId="992" priority="106">
+    <cfRule type="expression" dxfId="996" priority="106">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13 J18:L18 A15 A17 A19 A21 A23 J19:J20 L19:L20 A26 A29">
-    <cfRule type="expression" dxfId="991" priority="93">
+    <cfRule type="expression" dxfId="995" priority="93">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:H13">
-    <cfRule type="expression" dxfId="990" priority="98">
+    <cfRule type="expression" dxfId="994" priority="98">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="989" priority="95">
+    <cfRule type="expression" dxfId="993" priority="95">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:I20">
-    <cfRule type="expression" dxfId="988" priority="91">
+    <cfRule type="expression" dxfId="992" priority="91">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:L13">
-    <cfRule type="expression" dxfId="987" priority="97">
+    <cfRule type="expression" dxfId="991" priority="97">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="expression" dxfId="986" priority="96">
+    <cfRule type="expression" dxfId="990" priority="96">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:H18 E19:H20">
-    <cfRule type="expression" dxfId="985" priority="94">
+    <cfRule type="expression" dxfId="989" priority="94">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:C18 B20:C20 C19:C20">
-    <cfRule type="expression" dxfId="984" priority="79">
+    <cfRule type="expression" dxfId="988" priority="79">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:L34 A32:A33">
-    <cfRule type="expression" dxfId="983" priority="78">
+    <cfRule type="expression" dxfId="987" priority="78">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="expression" dxfId="982" priority="77">
+    <cfRule type="expression" dxfId="986" priority="77">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:B34">
-    <cfRule type="expression" dxfId="981" priority="76">
+    <cfRule type="expression" dxfId="985" priority="76">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:J14 L14">
-    <cfRule type="expression" dxfId="980" priority="75">
+    <cfRule type="expression" dxfId="984" priority="75">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="979" priority="74">
+    <cfRule type="expression" dxfId="983" priority="74">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="expression" dxfId="978" priority="73">
+    <cfRule type="expression" dxfId="982" priority="73">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="977" priority="72">
+    <cfRule type="expression" dxfId="981" priority="72">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16 B15:D16">
-    <cfRule type="expression" dxfId="976" priority="71">
+    <cfRule type="expression" dxfId="980" priority="71">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:H15 E16:J16">
-    <cfRule type="expression" dxfId="975" priority="70">
+    <cfRule type="expression" dxfId="979" priority="70">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:L15">
-    <cfRule type="expression" dxfId="974" priority="69">
+    <cfRule type="expression" dxfId="978" priority="69">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="973" priority="67">
+    <cfRule type="expression" dxfId="977" priority="67">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="expression" dxfId="972" priority="68">
+    <cfRule type="expression" dxfId="976" priority="68">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:D17">
-    <cfRule type="expression" dxfId="971" priority="66">
+    <cfRule type="expression" dxfId="975" priority="66">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:L17">
-    <cfRule type="expression" dxfId="970" priority="65">
+    <cfRule type="expression" dxfId="974" priority="65">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128:L128">
-    <cfRule type="expression" dxfId="969" priority="64">
+    <cfRule type="expression" dxfId="973" priority="64">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="968" priority="57">
+    <cfRule type="expression" dxfId="972" priority="57">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:L31">
-    <cfRule type="expression" dxfId="967" priority="47">
+    <cfRule type="expression" dxfId="971" priority="47">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:L30">
-    <cfRule type="expression" dxfId="966" priority="45">
+    <cfRule type="expression" dxfId="970" priority="45">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:L24">
-    <cfRule type="expression" dxfId="965" priority="44">
+    <cfRule type="expression" dxfId="969" priority="44">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:D20">
-    <cfRule type="expression" dxfId="964" priority="31">
+    <cfRule type="expression" dxfId="968" priority="31">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="expression" dxfId="963" priority="30">
+    <cfRule type="expression" dxfId="967" priority="30">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19">
-    <cfRule type="expression" dxfId="962" priority="29">
+    <cfRule type="expression" dxfId="966" priority="29">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:L27">
-    <cfRule type="expression" dxfId="961" priority="26">
+    <cfRule type="expression" dxfId="965" priority="26">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29 B29:D29">
-    <cfRule type="expression" dxfId="960" priority="25">
+    <cfRule type="expression" dxfId="964" priority="25">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="expression" dxfId="959" priority="22">
+    <cfRule type="expression" dxfId="963" priority="22">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:H29">
-    <cfRule type="expression" dxfId="958" priority="24">
+    <cfRule type="expression" dxfId="962" priority="24">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
-    <cfRule type="expression" dxfId="957" priority="23">
+    <cfRule type="expression" dxfId="961" priority="23">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29">
-    <cfRule type="expression" dxfId="956" priority="21">
+    <cfRule type="expression" dxfId="960" priority="21">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28 B28:D28">
-    <cfRule type="expression" dxfId="955" priority="20">
+    <cfRule type="expression" dxfId="959" priority="20">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="expression" dxfId="954" priority="17">
+    <cfRule type="expression" dxfId="958" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:H28">
-    <cfRule type="expression" dxfId="953" priority="19">
+    <cfRule type="expression" dxfId="957" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="expression" dxfId="952" priority="18">
+    <cfRule type="expression" dxfId="956" priority="18">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28">
-    <cfRule type="expression" dxfId="951" priority="16">
+    <cfRule type="expression" dxfId="955" priority="16">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:L25">
-    <cfRule type="expression" dxfId="950" priority="15">
+    <cfRule type="expression" dxfId="954" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62:L63">
-    <cfRule type="expression" dxfId="949" priority="12">
+    <cfRule type="expression" dxfId="953" priority="12">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L65 B65:D65">
-    <cfRule type="expression" dxfId="948" priority="11">
+    <cfRule type="expression" dxfId="952" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I65">
-    <cfRule type="expression" dxfId="947" priority="8">
+    <cfRule type="expression" dxfId="951" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65:H65">
-    <cfRule type="expression" dxfId="946" priority="10">
+    <cfRule type="expression" dxfId="950" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J65">
-    <cfRule type="expression" dxfId="945" priority="9">
+    <cfRule type="expression" dxfId="949" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K65">
-    <cfRule type="expression" dxfId="944" priority="7">
+    <cfRule type="expression" dxfId="948" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L64 B64:D64">
-    <cfRule type="expression" dxfId="943" priority="6">
+    <cfRule type="expression" dxfId="947" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I64">
-    <cfRule type="expression" dxfId="942" priority="3">
+    <cfRule type="expression" dxfId="946" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64:H64">
-    <cfRule type="expression" dxfId="941" priority="5">
+    <cfRule type="expression" dxfId="945" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J64">
-    <cfRule type="expression" dxfId="940" priority="4">
+    <cfRule type="expression" dxfId="944" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K64">
-    <cfRule type="expression" dxfId="939" priority="2">
+    <cfRule type="expression" dxfId="943" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:L61">
-    <cfRule type="expression" dxfId="938" priority="1">
+    <cfRule type="expression" dxfId="942" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26517,727 +26579,727 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B61:E61 B63:L63 F61:L62">
-    <cfRule type="expression" dxfId="937" priority="742">
+    <cfRule type="expression" dxfId="941" priority="742">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:C17">
-    <cfRule type="expression" dxfId="936" priority="440">
+    <cfRule type="expression" dxfId="940" priority="440">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:L17 C28:L30 A28:A29">
-    <cfRule type="expression" dxfId="935" priority="447">
+    <cfRule type="expression" dxfId="939" priority="447">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="expression" dxfId="934" priority="446">
+    <cfRule type="expression" dxfId="938" priority="446">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B30">
-    <cfRule type="expression" dxfId="933" priority="445">
+    <cfRule type="expression" dxfId="937" priority="445">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="expression" dxfId="932" priority="304">
+    <cfRule type="expression" dxfId="936" priority="304">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:A65">
-    <cfRule type="expression" dxfId="931" priority="315">
+    <cfRule type="expression" dxfId="935" priority="315">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J60:L60 D60">
-    <cfRule type="expression" dxfId="930" priority="314">
+    <cfRule type="expression" dxfId="934" priority="314">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59 D59:L59 E60:H60 C64:L66 A61">
-    <cfRule type="expression" dxfId="929" priority="313">
+    <cfRule type="expression" dxfId="933" priority="313">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64:B66">
-    <cfRule type="expression" dxfId="928" priority="311">
+    <cfRule type="expression" dxfId="932" priority="311">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60 A66 A62:A63">
-    <cfRule type="expression" dxfId="927" priority="312">
+    <cfRule type="expression" dxfId="931" priority="312">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:C59">
-    <cfRule type="expression" dxfId="926" priority="310">
+    <cfRule type="expression" dxfId="930" priority="310">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="925" priority="309">
+    <cfRule type="expression" dxfId="929" priority="309">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="924" priority="308">
+    <cfRule type="expression" dxfId="928" priority="308">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="expression" dxfId="923" priority="307">
+    <cfRule type="expression" dxfId="927" priority="307">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="expression" dxfId="922" priority="305">
+    <cfRule type="expression" dxfId="926" priority="305">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="expression" dxfId="921" priority="303">
+    <cfRule type="expression" dxfId="925" priority="303">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I60">
-    <cfRule type="expression" dxfId="920" priority="300">
+    <cfRule type="expression" dxfId="924" priority="300">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:C12 C13:C15">
-    <cfRule type="expression" dxfId="919" priority="207">
+    <cfRule type="expression" dxfId="923" priority="207">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:H15 F12:L12">
-    <cfRule type="expression" dxfId="918" priority="208">
+    <cfRule type="expression" dxfId="922" priority="208">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:I15">
-    <cfRule type="expression" dxfId="917" priority="204">
+    <cfRule type="expression" dxfId="921" priority="204">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:L43 C46:L46 A43:A44">
-    <cfRule type="expression" dxfId="916" priority="178">
+    <cfRule type="expression" dxfId="920" priority="178">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:A15 K13 L14:L15 A17 A19 A21 A23 A25:A27">
-    <cfRule type="expression" dxfId="915" priority="206">
+    <cfRule type="expression" dxfId="919" priority="206">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13 B15">
-    <cfRule type="expression" dxfId="914" priority="205">
+    <cfRule type="expression" dxfId="918" priority="205">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E15">
-    <cfRule type="expression" dxfId="913" priority="203">
+    <cfRule type="expression" dxfId="917" priority="203">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D14">
-    <cfRule type="expression" dxfId="912" priority="202">
+    <cfRule type="expression" dxfId="916" priority="202">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:J15">
-    <cfRule type="expression" dxfId="911" priority="201">
+    <cfRule type="expression" dxfId="915" priority="201">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16 A18 A20 A22 A24">
-    <cfRule type="expression" dxfId="910" priority="199">
+    <cfRule type="expression" dxfId="914" priority="199">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="909" priority="197">
+    <cfRule type="expression" dxfId="913" priority="197">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="908" priority="195">
+    <cfRule type="expression" dxfId="912" priority="195">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="expression" dxfId="907" priority="188">
+    <cfRule type="expression" dxfId="911" priority="188">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:J16 L16">
-    <cfRule type="expression" dxfId="906" priority="200">
+    <cfRule type="expression" dxfId="910" priority="200">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="905" priority="198">
+    <cfRule type="expression" dxfId="909" priority="198">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="904" priority="193">
+    <cfRule type="expression" dxfId="908" priority="193">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="903" priority="189">
+    <cfRule type="expression" dxfId="907" priority="189">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="expression" dxfId="902" priority="192">
+    <cfRule type="expression" dxfId="906" priority="192">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="expression" dxfId="901" priority="191">
+    <cfRule type="expression" dxfId="905" priority="191">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="expression" dxfId="900" priority="190">
+    <cfRule type="expression" dxfId="904" priority="190">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="899" priority="196">
+    <cfRule type="expression" dxfId="903" priority="196">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="898" priority="194">
+    <cfRule type="expression" dxfId="902" priority="194">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="897" priority="187">
+    <cfRule type="expression" dxfId="901" priority="187">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="896" priority="186">
+    <cfRule type="expression" dxfId="900" priority="186">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:E44 F44:L45">
-    <cfRule type="expression" dxfId="895" priority="181">
+    <cfRule type="expression" dxfId="899" priority="181">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="expression" dxfId="894" priority="170">
+    <cfRule type="expression" dxfId="898" priority="170">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="expression" dxfId="893" priority="180">
+    <cfRule type="expression" dxfId="897" priority="180">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="expression" dxfId="892" priority="176">
+    <cfRule type="expression" dxfId="896" priority="176">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="expression" dxfId="891" priority="177">
+    <cfRule type="expression" dxfId="895" priority="177">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:C43">
-    <cfRule type="expression" dxfId="890" priority="175">
+    <cfRule type="expression" dxfId="894" priority="175">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="889" priority="174">
+    <cfRule type="expression" dxfId="893" priority="174">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="expression" dxfId="888" priority="171">
+    <cfRule type="expression" dxfId="892" priority="171">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="expression" dxfId="887" priority="169">
+    <cfRule type="expression" dxfId="891" priority="169">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:A83">
-    <cfRule type="expression" dxfId="886" priority="163">
+    <cfRule type="expression" dxfId="890" priority="163">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A79 D79:L79 E80:H80 C82:L84 A81">
-    <cfRule type="expression" dxfId="885" priority="161">
+    <cfRule type="expression" dxfId="889" priority="161">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J80:L80 D80 G81:L81">
-    <cfRule type="expression" dxfId="884" priority="162">
+    <cfRule type="expression" dxfId="888" priority="162">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80 A84">
-    <cfRule type="expression" dxfId="883" priority="160">
+    <cfRule type="expression" dxfId="887" priority="160">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B84">
-    <cfRule type="expression" dxfId="882" priority="159">
+    <cfRule type="expression" dxfId="886" priority="159">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F81">
-    <cfRule type="expression" dxfId="881" priority="157">
+    <cfRule type="expression" dxfId="885" priority="157">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B79:C79">
-    <cfRule type="expression" dxfId="880" priority="158">
+    <cfRule type="expression" dxfId="884" priority="158">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="expression" dxfId="879" priority="156">
+    <cfRule type="expression" dxfId="883" priority="156">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80">
-    <cfRule type="expression" dxfId="878" priority="154">
+    <cfRule type="expression" dxfId="882" priority="154">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D81">
-    <cfRule type="expression" dxfId="877" priority="155">
+    <cfRule type="expression" dxfId="881" priority="155">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B80:C80">
-    <cfRule type="expression" dxfId="876" priority="153">
+    <cfRule type="expression" dxfId="880" priority="153">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81">
-    <cfRule type="expression" dxfId="875" priority="152">
+    <cfRule type="expression" dxfId="879" priority="152">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81">
-    <cfRule type="expression" dxfId="874" priority="151">
+    <cfRule type="expression" dxfId="878" priority="151">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G105:L105">
-    <cfRule type="expression" dxfId="873" priority="120">
+    <cfRule type="expression" dxfId="877" priority="120">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C106">
-    <cfRule type="expression" dxfId="872" priority="121">
+    <cfRule type="expression" dxfId="876" priority="121">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A105">
-    <cfRule type="expression" dxfId="871" priority="119">
+    <cfRule type="expression" dxfId="875" priority="119">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F105">
-    <cfRule type="expression" dxfId="870" priority="118">
+    <cfRule type="expression" dxfId="874" priority="118">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K99">
-    <cfRule type="expression" dxfId="869" priority="106">
+    <cfRule type="expression" dxfId="873" priority="106">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105">
-    <cfRule type="expression" dxfId="868" priority="116">
+    <cfRule type="expression" dxfId="872" priority="116">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C105">
-    <cfRule type="expression" dxfId="867" priority="115">
+    <cfRule type="expression" dxfId="871" priority="115">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D105">
-    <cfRule type="expression" dxfId="866" priority="114">
+    <cfRule type="expression" dxfId="870" priority="114">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A148:A149">
-    <cfRule type="expression" dxfId="865" priority="104">
+    <cfRule type="expression" dxfId="869" priority="104">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D102">
-    <cfRule type="expression" dxfId="864" priority="111">
+    <cfRule type="expression" dxfId="868" priority="111">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K101">
-    <cfRule type="expression" dxfId="863" priority="110">
+    <cfRule type="expression" dxfId="867" priority="110">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K102">
-    <cfRule type="expression" dxfId="862" priority="109">
+    <cfRule type="expression" dxfId="866" priority="109">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K103">
-    <cfRule type="expression" dxfId="861" priority="108">
+    <cfRule type="expression" dxfId="865" priority="108">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K104">
-    <cfRule type="expression" dxfId="860" priority="107">
+    <cfRule type="expression" dxfId="864" priority="107">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K100">
-    <cfRule type="expression" dxfId="859" priority="105">
+    <cfRule type="expression" dxfId="863" priority="105">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107:A108">
-    <cfRule type="expression" dxfId="858" priority="132">
+    <cfRule type="expression" dxfId="862" priority="132">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97 D97:L97 C107:L109 A99 A101 A103 A106 E98:H104">
-    <cfRule type="expression" dxfId="857" priority="130">
+    <cfRule type="expression" dxfId="861" priority="130">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J98:L98 G106:L106 D98:D101 D104 J99:J104 L99:L104">
-    <cfRule type="expression" dxfId="856" priority="131">
+    <cfRule type="expression" dxfId="860" priority="131">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98 A109 A100 A102 A104">
-    <cfRule type="expression" dxfId="855" priority="129">
+    <cfRule type="expression" dxfId="859" priority="129">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B107:B109">
-    <cfRule type="expression" dxfId="854" priority="128">
+    <cfRule type="expression" dxfId="858" priority="128">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F106">
-    <cfRule type="expression" dxfId="853" priority="126">
+    <cfRule type="expression" dxfId="857" priority="126">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B97:C97">
-    <cfRule type="expression" dxfId="852" priority="127">
+    <cfRule type="expression" dxfId="856" priority="127">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="expression" dxfId="851" priority="125">
+    <cfRule type="expression" dxfId="855" priority="125">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I98:I104">
-    <cfRule type="expression" dxfId="850" priority="124">
+    <cfRule type="expression" dxfId="854" priority="124">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B98:C104">
-    <cfRule type="expression" dxfId="849" priority="123">
+    <cfRule type="expression" dxfId="853" priority="123">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B106">
-    <cfRule type="expression" dxfId="848" priority="122">
+    <cfRule type="expression" dxfId="852" priority="122">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="expression" dxfId="847" priority="117">
+    <cfRule type="expression" dxfId="851" priority="117">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148:L150">
-    <cfRule type="expression" dxfId="846" priority="102">
+    <cfRule type="expression" dxfId="850" priority="102">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A150">
-    <cfRule type="expression" dxfId="845" priority="101">
+    <cfRule type="expression" dxfId="849" priority="101">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D106">
-    <cfRule type="expression" dxfId="844" priority="113">
+    <cfRule type="expression" dxfId="848" priority="113">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103">
-    <cfRule type="expression" dxfId="843" priority="112">
+    <cfRule type="expression" dxfId="847" priority="112">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B148:B150">
-    <cfRule type="expression" dxfId="842" priority="100">
+    <cfRule type="expression" dxfId="846" priority="100">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K125">
-    <cfRule type="expression" dxfId="841" priority="50">
+    <cfRule type="expression" dxfId="845" priority="50">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E146">
-    <cfRule type="expression" dxfId="840" priority="38">
+    <cfRule type="expression" dxfId="844" priority="38">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K126">
-    <cfRule type="expression" dxfId="839" priority="49">
+    <cfRule type="expression" dxfId="843" priority="49">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128:A129">
-    <cfRule type="expression" dxfId="838" priority="76">
+    <cfRule type="expression" dxfId="842" priority="76">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122 D122:L122 C128:L130 E124:H126 A124 A126">
-    <cfRule type="expression" dxfId="837" priority="74">
+    <cfRule type="expression" dxfId="841" priority="74">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J124:L124 J125:J126 L125:L126 D124:D126">
-    <cfRule type="expression" dxfId="836" priority="75">
+    <cfRule type="expression" dxfId="840" priority="75">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="expression" dxfId="835" priority="73">
+    <cfRule type="expression" dxfId="839" priority="73">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128:B130">
-    <cfRule type="expression" dxfId="834" priority="72">
+    <cfRule type="expression" dxfId="838" priority="72">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122:C122">
-    <cfRule type="expression" dxfId="833" priority="71">
+    <cfRule type="expression" dxfId="837" priority="71">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I124:I126">
-    <cfRule type="expression" dxfId="832" priority="68">
+    <cfRule type="expression" dxfId="836" priority="68">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:C126">
-    <cfRule type="expression" dxfId="831" priority="67">
+    <cfRule type="expression" dxfId="835" priority="67">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145:E145 B147:L147 F145:L146">
-    <cfRule type="expression" dxfId="830" priority="47">
+    <cfRule type="expression" dxfId="834" priority="47">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J144:L144 D144">
-    <cfRule type="expression" dxfId="829" priority="46">
+    <cfRule type="expression" dxfId="833" priority="46">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A143 D143:L143 E144:H144 A145">
-    <cfRule type="expression" dxfId="828" priority="45">
+    <cfRule type="expression" dxfId="832" priority="45">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144 A146:A147">
-    <cfRule type="expression" dxfId="827" priority="44">
+    <cfRule type="expression" dxfId="831" priority="44">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B143:C143">
-    <cfRule type="expression" dxfId="826" priority="43">
+    <cfRule type="expression" dxfId="830" priority="43">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C146">
-    <cfRule type="expression" dxfId="825" priority="42">
+    <cfRule type="expression" dxfId="829" priority="42">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146">
-    <cfRule type="expression" dxfId="824" priority="39">
+    <cfRule type="expression" dxfId="828" priority="39">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D146">
-    <cfRule type="expression" dxfId="823" priority="37">
+    <cfRule type="expression" dxfId="827" priority="37">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144:C144">
-    <cfRule type="expression" dxfId="822" priority="35">
+    <cfRule type="expression" dxfId="826" priority="35">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I144">
-    <cfRule type="expression" dxfId="821" priority="36">
+    <cfRule type="expression" dxfId="825" priority="36">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:L20">
-    <cfRule type="expression" dxfId="820" priority="20">
+    <cfRule type="expression" dxfId="824" priority="20">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B27">
-    <cfRule type="expression" dxfId="819" priority="17">
+    <cfRule type="expression" dxfId="823" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:L19">
-    <cfRule type="expression" dxfId="818" priority="14">
+    <cfRule type="expression" dxfId="822" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:L22">
-    <cfRule type="expression" dxfId="817" priority="31">
+    <cfRule type="expression" dxfId="821" priority="31">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L24 B24:D24">
-    <cfRule type="expression" dxfId="816" priority="30">
+    <cfRule type="expression" dxfId="820" priority="30">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="expression" dxfId="815" priority="27">
+    <cfRule type="expression" dxfId="819" priority="27">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:H24">
-    <cfRule type="expression" dxfId="814" priority="29">
+    <cfRule type="expression" dxfId="818" priority="29">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24">
-    <cfRule type="expression" dxfId="813" priority="28">
+    <cfRule type="expression" dxfId="817" priority="28">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24">
-    <cfRule type="expression" dxfId="812" priority="26">
+    <cfRule type="expression" dxfId="816" priority="26">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23 B23:D23">
-    <cfRule type="expression" dxfId="811" priority="25">
+    <cfRule type="expression" dxfId="815" priority="25">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="810" priority="22">
+    <cfRule type="expression" dxfId="814" priority="22">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:H23">
-    <cfRule type="expression" dxfId="809" priority="24">
+    <cfRule type="expression" dxfId="813" priority="24">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="expression" dxfId="808" priority="23">
+    <cfRule type="expression" dxfId="812" priority="23">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="expression" dxfId="807" priority="21">
+    <cfRule type="expression" dxfId="811" priority="21">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:L27">
-    <cfRule type="expression" dxfId="806" priority="18">
+    <cfRule type="expression" dxfId="810" priority="18">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E123:H123">
-    <cfRule type="expression" dxfId="805" priority="12">
+    <cfRule type="expression" dxfId="809" priority="12">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J123:L123 D123">
-    <cfRule type="expression" dxfId="804" priority="13">
+    <cfRule type="expression" dxfId="808" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123 A125">
-    <cfRule type="expression" dxfId="803" priority="11">
+    <cfRule type="expression" dxfId="807" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I123">
-    <cfRule type="expression" dxfId="802" priority="10">
+    <cfRule type="expression" dxfId="806" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B123:C123">
-    <cfRule type="expression" dxfId="801" priority="9">
+    <cfRule type="expression" dxfId="805" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124:C124">
-    <cfRule type="expression" dxfId="800" priority="8">
+    <cfRule type="expression" dxfId="804" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A127">
-    <cfRule type="expression" dxfId="799" priority="6">
+    <cfRule type="expression" dxfId="803" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G127:L127">
-    <cfRule type="expression" dxfId="798" priority="7">
+    <cfRule type="expression" dxfId="802" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F127">
-    <cfRule type="expression" dxfId="797" priority="5">
+    <cfRule type="expression" dxfId="801" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E127">
-    <cfRule type="expression" dxfId="796" priority="4">
+    <cfRule type="expression" dxfId="800" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B127">
-    <cfRule type="expression" dxfId="795" priority="3">
+    <cfRule type="expression" dxfId="799" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C127">
-    <cfRule type="expression" dxfId="794" priority="2">
+    <cfRule type="expression" dxfId="798" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D127">
-    <cfRule type="expression" dxfId="793" priority="1">
+    <cfRule type="expression" dxfId="797" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27257,10 +27319,10 @@
     <tabColor rgb="FFFF5050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R182"/>
+  <dimension ref="A1:R183"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="K74" sqref="K74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -29231,13 +29293,13 @@
         <v>34</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>621</v>
+        <v>669</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>622</v>
+        <v>670</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>54</v>
+        <v>522</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="3"/>
@@ -29257,15 +29319,17 @@
       <c r="R74" s="9"/>
     </row>
     <row r="75" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A75" s="3"/>
+      <c r="A75" s="3">
+        <v>35</v>
+      </c>
       <c r="B75" s="6" t="s">
-        <v>19</v>
+        <v>621</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>110</v>
+        <v>622</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="3"/>
@@ -29273,16 +29337,24 @@
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
+      <c r="K75" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="L75" s="5"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+      <c r="O75" s="9"/>
+      <c r="P75" s="9"/>
+      <c r="Q75" s="9"/>
+      <c r="R75" s="9"/>
     </row>
     <row r="76" spans="1:18" ht="17.25" customHeight="1">
       <c r="A76" s="3"/>
       <c r="B76" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>108</v>
@@ -29299,10 +29371,10 @@
     <row r="77" spans="1:18" ht="17.25" customHeight="1">
       <c r="A77" s="3"/>
       <c r="B77" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>108</v>
@@ -29313,100 +29385,104 @@
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
-      <c r="K77" s="3" t="s">
+      <c r="K77" s="3"/>
+      <c r="L77" s="5"/>
+    </row>
+    <row r="78" spans="1:18" ht="17.25" customHeight="1">
+      <c r="A78" s="3"/>
+      <c r="B78" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E78" s="5"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L77" s="5" t="s">
+      <c r="L78" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="78" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A78" s="61"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="61"/>
-      <c r="G78" s="61"/>
-      <c r="H78" s="61"/>
-      <c r="I78" s="61"/>
-      <c r="J78" s="61"/>
-      <c r="K78" s="61"/>
-      <c r="L78" s="8"/>
-    </row>
     <row r="79" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="61"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="61"/>
+      <c r="G79" s="61"/>
+      <c r="H79" s="61"/>
+      <c r="I79" s="61"/>
+      <c r="J79" s="61"/>
+      <c r="K79" s="61"/>
+      <c r="L79" s="8"/>
+    </row>
+    <row r="80" spans="1:18" ht="17.25" customHeight="1">
+      <c r="A80" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B79" s="17"/>
-      <c r="C79" s="17"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
-      <c r="F79" s="17"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="17"/>
-      <c r="I79" s="17"/>
-      <c r="J79" s="17"/>
-      <c r="K79" s="17"/>
-      <c r="L79" s="17">
-        <f>C82</f>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="17"/>
+      <c r="K80" s="17"/>
+      <c r="L80" s="17">
+        <f>C83</f>
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:18" ht="17.25" customHeight="1">
-      <c r="B80" s="16" t="s">
+    <row r="81" spans="1:18" ht="17.25" customHeight="1">
+      <c r="B81" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C80" s="22" t="str">
+      <c r="C81" s="22" t="str">
         <f>view!$D$19</f>
         <v>order_requests</v>
       </c>
-      <c r="F80" s="35" t="s">
+      <c r="F81" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G80" s="36">
+      <c r="G81" s="36">
         <f>view!$G$19</f>
         <v>0</v>
       </c>
-      <c r="H80" s="26" t="s">
+      <c r="H81" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="I80" s="23"/>
-      <c r="J80" s="27"/>
-      <c r="K80" s="27"/>
-      <c r="L80" s="28"/>
-    </row>
-    <row r="81" spans="1:18" ht="17.25" customHeight="1">
-      <c r="B81" s="16" t="s">
+      <c r="I81" s="23"/>
+      <c r="J81" s="27"/>
+      <c r="K81" s="27"/>
+      <c r="L81" s="28"/>
+    </row>
+    <row r="82" spans="1:18" ht="17.25" customHeight="1">
+      <c r="B82" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C81" s="11" t="str">
+      <c r="C82" s="11" t="str">
         <f>view!$E$19&amp;"　"&amp;view!$F$19</f>
         <v>案件　希望オプション</v>
       </c>
-      <c r="F81" s="35" t="s">
+      <c r="F82" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G81" s="36" t="str">
+      <c r="G82" s="36" t="str">
         <f>view!$H$19</f>
         <v>○</v>
       </c>
-      <c r="H81" s="24"/>
-      <c r="I81" s="25"/>
-      <c r="J81" s="13"/>
-      <c r="K81" s="13"/>
-      <c r="L81" s="29"/>
-    </row>
-    <row r="82" spans="1:18" ht="17.25" customHeight="1">
-      <c r="B82" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C82" s="33">
-        <f>view!$A$19</f>
-        <v>15</v>
-      </c>
-      <c r="F82" s="35"/>
-      <c r="G82" s="36"/>
       <c r="H82" s="24"/>
       <c r="I82" s="25"/>
       <c r="J82" s="13"/>
@@ -29415,19 +29491,14 @@
     </row>
     <row r="83" spans="1:18" ht="17.25" customHeight="1">
       <c r="B83" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C83" s="33" t="str">
-        <f>view!$C$19</f>
-        <v>owner</v>
-      </c>
-      <c r="F83" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="G83" s="36">
-        <f>view!$I$19</f>
-        <v>0</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C83" s="33">
+        <f>view!$A$19</f>
+        <v>15</v>
+      </c>
+      <c r="F83" s="35"/>
+      <c r="G83" s="36"/>
       <c r="H83" s="24"/>
       <c r="I83" s="25"/>
       <c r="J83" s="13"/>
@@ -29436,13 +29507,19 @@
     </row>
     <row r="84" spans="1:18" ht="17.25" customHeight="1">
       <c r="B84" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F84" s="56"/>
-      <c r="G84" s="57"/>
+        <v>39</v>
+      </c>
+      <c r="C84" s="33" t="str">
+        <f>view!$C$19</f>
+        <v>owner</v>
+      </c>
+      <c r="F84" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="G84" s="36">
+        <f>view!$I$19</f>
+        <v>0</v>
+      </c>
       <c r="H84" s="24"/>
       <c r="I84" s="25"/>
       <c r="J84" s="13"/>
@@ -29451,14 +29528,13 @@
     </row>
     <row r="85" spans="1:18" ht="17.25" customHeight="1">
       <c r="B85" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C85" s="34">
-        <v>43195</v>
-      </c>
-      <c r="D85" s="32"/>
-      <c r="E85" s="32"/>
-      <c r="G85" s="25"/>
+        <v>28</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" s="56"/>
+      <c r="G85" s="57"/>
       <c r="H85" s="24"/>
       <c r="I85" s="25"/>
       <c r="J85" s="13"/>
@@ -29467,7 +29543,7 @@
     </row>
     <row r="86" spans="1:18" ht="17.25" customHeight="1">
       <c r="B86" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C86" s="34">
         <v>43195</v>
@@ -29475,148 +29551,134 @@
       <c r="D86" s="32"/>
       <c r="E86" s="32"/>
       <c r="G86" s="25"/>
-      <c r="H86" s="20"/>
-      <c r="I86" s="21"/>
-      <c r="J86" s="30"/>
-      <c r="K86" s="30"/>
-      <c r="L86" s="31"/>
+      <c r="H86" s="24"/>
+      <c r="I86" s="25"/>
+      <c r="J86" s="13"/>
+      <c r="K86" s="13"/>
+      <c r="L86" s="29"/>
     </row>
     <row r="87" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A87" s="17"/>
-      <c r="B87" s="17"/>
-      <c r="C87" s="17"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="17"/>
-      <c r="F87" s="17"/>
-      <c r="G87" s="17"/>
-      <c r="H87" s="17"/>
-      <c r="I87" s="17"/>
-      <c r="J87" s="17"/>
-      <c r="K87" s="17"/>
-      <c r="L87" s="17"/>
-    </row>
-    <row r="88" spans="1:18" s="2" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A88" s="1" t="s">
+      <c r="B87" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C87" s="34">
+        <v>43195</v>
+      </c>
+      <c r="D87" s="32"/>
+      <c r="E87" s="32"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="20"/>
+      <c r="I87" s="21"/>
+      <c r="J87" s="30"/>
+      <c r="K87" s="30"/>
+      <c r="L87" s="31"/>
+    </row>
+    <row r="88" spans="1:18" ht="17.25" customHeight="1">
+      <c r="A88" s="17"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
+      <c r="L88" s="17"/>
+    </row>
+    <row r="89" spans="1:18" s="2" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A89" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:18" s="2" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A89" s="14" t="s">
+    <row r="90" spans="1:18" s="2" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A90" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B89" s="15" t="s">
+      <c r="B90" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C89" s="14" t="s">
+      <c r="C90" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D89" s="14" t="s">
+      <c r="D90" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E89" s="14" t="s">
+      <c r="E90" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="F89" s="4" t="s">
+      <c r="F90" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G89" s="4" t="s">
+      <c r="G90" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H89" s="4" t="s">
+      <c r="H90" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I89" s="4" t="s">
+      <c r="I90" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J89" s="4" t="s">
+      <c r="J90" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K89" s="4" t="s">
+      <c r="K90" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L89" s="14" t="s">
+      <c r="L90" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="M89" s="7"/>
-      <c r="N89" s="7"/>
-      <c r="O89" s="7"/>
-      <c r="P89" s="7"/>
-    </row>
-    <row r="90" spans="1:18" s="2" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A90" s="3">
+      <c r="M90" s="7"/>
+      <c r="N90" s="7"/>
+      <c r="O90" s="7"/>
+      <c r="P90" s="7"/>
+    </row>
+    <row r="91" spans="1:18" s="2" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A91" s="3">
         <v>1</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B91" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C91" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D91" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E90" s="5">
+      <c r="E91" s="5">
         <v>20</v>
       </c>
-      <c r="F90" s="3" t="s">
+      <c r="F91" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G90" s="3" t="s">
+      <c r="G91" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H90" s="3" t="s">
+      <c r="H91" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
-      <c r="L90" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M90" s="8"/>
-      <c r="N90" s="8"/>
-      <c r="O90" s="8"/>
-      <c r="P90" s="8"/>
-    </row>
-    <row r="91" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A91" s="3">
-        <v>2</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E91" s="5">
-        <v>32</v>
-      </c>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
-      <c r="L91" s="5"/>
-      <c r="M91" s="9"/>
-      <c r="N91" s="9"/>
-      <c r="O91" s="9"/>
-      <c r="P91" s="9"/>
-      <c r="Q91" s="9"/>
-      <c r="R91" s="9"/>
+      <c r="L91" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M91" s="8"/>
+      <c r="N91" s="8"/>
+      <c r="O91" s="8"/>
+      <c r="P91" s="8"/>
     </row>
     <row r="92" spans="1:18" ht="17.25" customHeight="1">
       <c r="A92" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>476</v>
+        <v>288</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>79</v>
+        <v>287</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>77</v>
@@ -29640,13 +29702,13 @@
     </row>
     <row r="93" spans="1:18" ht="17.25" customHeight="1">
       <c r="A93" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>479</v>
+        <v>79</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>77</v>
@@ -29670,31 +29732,27 @@
     </row>
     <row r="94" spans="1:18" ht="17.25" customHeight="1">
       <c r="A94" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>284</v>
+        <v>479</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>240</v>
+        <v>77</v>
       </c>
       <c r="E94" s="5">
-        <v>10</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
-      <c r="L94" s="5" t="s">
-        <v>438</v>
-      </c>
+      <c r="L94" s="5"/>
       <c r="M94" s="9"/>
       <c r="N94" s="9"/>
       <c r="O94" s="9"/>
@@ -29703,32 +29761,46 @@
       <c r="R94" s="9"/>
     </row>
     <row r="95" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A95" s="3"/>
+      <c r="A95" s="3">
+        <v>5</v>
+      </c>
       <c r="B95" s="6" t="s">
-        <v>19</v>
+        <v>478</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>110</v>
+        <v>284</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E95" s="5"/>
-      <c r="F95" s="3"/>
+        <v>240</v>
+      </c>
+      <c r="E95" s="5">
+        <v>10</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-      <c r="L95" s="5"/>
+      <c r="L95" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="M95" s="9"/>
+      <c r="N95" s="9"/>
+      <c r="O95" s="9"/>
+      <c r="P95" s="9"/>
+      <c r="Q95" s="9"/>
+      <c r="R95" s="9"/>
     </row>
     <row r="96" spans="1:18" ht="17.25" customHeight="1">
       <c r="A96" s="3"/>
       <c r="B96" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>108</v>
@@ -29745,10 +29817,10 @@
     <row r="97" spans="1:18" ht="17.25" customHeight="1">
       <c r="A97" s="3"/>
       <c r="B97" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>108</v>
@@ -29759,100 +29831,104 @@
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
-      <c r="K97" s="3" t="s">
+      <c r="K97" s="3"/>
+      <c r="L97" s="5"/>
+    </row>
+    <row r="98" spans="1:18" ht="17.25" customHeight="1">
+      <c r="A98" s="3"/>
+      <c r="B98" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E98" s="5"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L97" s="5" t="s">
+      <c r="L98" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="98" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A98" s="61"/>
-      <c r="B98" s="8"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="61"/>
-      <c r="G98" s="61"/>
-      <c r="H98" s="61"/>
-      <c r="I98" s="61"/>
-      <c r="J98" s="61"/>
-      <c r="K98" s="61"/>
-      <c r="L98" s="8"/>
-    </row>
     <row r="99" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="61"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="61"/>
+      <c r="G99" s="61"/>
+      <c r="H99" s="61"/>
+      <c r="I99" s="61"/>
+      <c r="J99" s="61"/>
+      <c r="K99" s="61"/>
+      <c r="L99" s="8"/>
+    </row>
+    <row r="100" spans="1:18" ht="17.25" customHeight="1">
+      <c r="A100" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B99" s="17"/>
-      <c r="C99" s="17"/>
-      <c r="D99" s="17"/>
-      <c r="E99" s="17"/>
-      <c r="F99" s="17"/>
-      <c r="G99" s="17"/>
-      <c r="H99" s="17"/>
-      <c r="I99" s="17"/>
-      <c r="J99" s="17"/>
-      <c r="K99" s="17"/>
-      <c r="L99" s="17">
-        <f>C102</f>
+      <c r="B100" s="17"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17"/>
+      <c r="H100" s="17"/>
+      <c r="I100" s="17"/>
+      <c r="J100" s="17"/>
+      <c r="K100" s="17"/>
+      <c r="L100" s="17">
+        <f>C103</f>
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="1:18" ht="17.25" customHeight="1">
-      <c r="B100" s="16" t="s">
+    <row r="101" spans="1:18" ht="17.25" customHeight="1">
+      <c r="B101" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C100" s="22" t="str">
+      <c r="C101" s="22" t="str">
         <f>view!$D$20</f>
         <v>cargos</v>
       </c>
-      <c r="F100" s="35" t="s">
+      <c r="F101" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G100" s="36">
+      <c r="G101" s="36">
         <f>view!$G$20</f>
         <v>0</v>
       </c>
-      <c r="H100" s="26" t="s">
+      <c r="H101" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="I100" s="23"/>
-      <c r="J100" s="27"/>
-      <c r="K100" s="27"/>
-      <c r="L100" s="28"/>
-    </row>
-    <row r="101" spans="1:18" ht="17.25" customHeight="1">
-      <c r="B101" s="16" t="s">
+      <c r="I101" s="23"/>
+      <c r="J101" s="27"/>
+      <c r="K101" s="27"/>
+      <c r="L101" s="28"/>
+    </row>
+    <row r="102" spans="1:18" ht="17.25" customHeight="1">
+      <c r="B102" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C101" s="11" t="str">
+      <c r="C102" s="11" t="str">
         <f>view!$E$20&amp;"　"&amp;view!$F$20</f>
         <v>案件　荷物情報</v>
       </c>
-      <c r="F101" s="35" t="s">
+      <c r="F102" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G101" s="36" t="str">
+      <c r="G102" s="36" t="str">
         <f>view!$H$20</f>
         <v>○</v>
       </c>
-      <c r="H101" s="24"/>
-      <c r="I101" s="25"/>
-      <c r="J101" s="13"/>
-      <c r="K101" s="13"/>
-      <c r="L101" s="29"/>
-    </row>
-    <row r="102" spans="1:18" ht="17.25" customHeight="1">
-      <c r="B102" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C102" s="33">
-        <f>view!$A$20</f>
-        <v>16</v>
-      </c>
-      <c r="F102" s="35"/>
-      <c r="G102" s="36"/>
       <c r="H102" s="24"/>
       <c r="I102" s="25"/>
       <c r="J102" s="13"/>
@@ -29861,19 +29937,14 @@
     </row>
     <row r="103" spans="1:18" ht="17.25" customHeight="1">
       <c r="B103" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C103" s="33" t="str">
-        <f>view!$C$20</f>
-        <v>owner</v>
-      </c>
-      <c r="F103" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="G103" s="36" t="str">
-        <f>view!$I$20</f>
-        <v>○</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C103" s="33">
+        <f>view!$A$20</f>
+        <v>16</v>
+      </c>
+      <c r="F103" s="35"/>
+      <c r="G103" s="36"/>
       <c r="H103" s="24"/>
       <c r="I103" s="25"/>
       <c r="J103" s="13"/>
@@ -29882,13 +29953,19 @@
     </row>
     <row r="104" spans="1:18" ht="17.25" customHeight="1">
       <c r="B104" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C104" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F104" s="56"/>
-      <c r="G104" s="57"/>
+        <v>39</v>
+      </c>
+      <c r="C104" s="33" t="str">
+        <f>view!$C$20</f>
+        <v>owner</v>
+      </c>
+      <c r="F104" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="G104" s="36" t="str">
+        <f>view!$I$20</f>
+        <v>○</v>
+      </c>
       <c r="H104" s="24"/>
       <c r="I104" s="25"/>
       <c r="J104" s="13"/>
@@ -29897,14 +29974,13 @@
     </row>
     <row r="105" spans="1:18" ht="17.25" customHeight="1">
       <c r="B105" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C105" s="34">
-        <v>43195</v>
-      </c>
-      <c r="D105" s="32"/>
-      <c r="E105" s="32"/>
-      <c r="G105" s="25"/>
+        <v>28</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F105" s="56"/>
+      <c r="G105" s="57"/>
       <c r="H105" s="24"/>
       <c r="I105" s="25"/>
       <c r="J105" s="13"/>
@@ -29913,7 +29989,7 @@
     </row>
     <row r="106" spans="1:18" ht="17.25" customHeight="1">
       <c r="B106" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C106" s="34">
         <v>43195</v>
@@ -29921,148 +29997,134 @@
       <c r="D106" s="32"/>
       <c r="E106" s="32"/>
       <c r="G106" s="25"/>
-      <c r="H106" s="20"/>
-      <c r="I106" s="21"/>
-      <c r="J106" s="30"/>
-      <c r="K106" s="30"/>
-      <c r="L106" s="31"/>
+      <c r="H106" s="24"/>
+      <c r="I106" s="25"/>
+      <c r="J106" s="13"/>
+      <c r="K106" s="13"/>
+      <c r="L106" s="29"/>
     </row>
     <row r="107" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A107" s="17"/>
-      <c r="B107" s="17"/>
-      <c r="C107" s="17"/>
-      <c r="D107" s="17"/>
-      <c r="E107" s="17"/>
-      <c r="F107" s="17"/>
-      <c r="G107" s="17"/>
-      <c r="H107" s="17"/>
-      <c r="I107" s="17"/>
-      <c r="J107" s="17"/>
-      <c r="K107" s="17"/>
-      <c r="L107" s="17"/>
-    </row>
-    <row r="108" spans="1:18" s="2" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A108" s="1" t="s">
+      <c r="B107" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C107" s="34">
+        <v>43195</v>
+      </c>
+      <c r="D107" s="32"/>
+      <c r="E107" s="32"/>
+      <c r="G107" s="25"/>
+      <c r="H107" s="20"/>
+      <c r="I107" s="21"/>
+      <c r="J107" s="30"/>
+      <c r="K107" s="30"/>
+      <c r="L107" s="31"/>
+    </row>
+    <row r="108" spans="1:18" ht="17.25" customHeight="1">
+      <c r="A108" s="17"/>
+      <c r="B108" s="17"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="17"/>
+      <c r="G108" s="17"/>
+      <c r="H108" s="17"/>
+      <c r="I108" s="17"/>
+      <c r="J108" s="17"/>
+      <c r="K108" s="17"/>
+      <c r="L108" s="17"/>
+    </row>
+    <row r="109" spans="1:18" s="2" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A109" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="109" spans="1:18" s="2" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A109" s="14" t="s">
+    <row r="110" spans="1:18" s="2" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A110" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B109" s="15" t="s">
+      <c r="B110" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C109" s="14" t="s">
+      <c r="C110" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D109" s="14" t="s">
+      <c r="D110" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E109" s="14" t="s">
+      <c r="E110" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="F109" s="4" t="s">
+      <c r="F110" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G109" s="4" t="s">
+      <c r="G110" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H109" s="4" t="s">
+      <c r="H110" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I109" s="4" t="s">
+      <c r="I110" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J109" s="4" t="s">
+      <c r="J110" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K109" s="4" t="s">
+      <c r="K110" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L109" s="14" t="s">
+      <c r="L110" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="M109" s="7"/>
-      <c r="N109" s="7"/>
-      <c r="O109" s="7"/>
-      <c r="P109" s="7"/>
-    </row>
-    <row r="110" spans="1:18" s="2" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A110" s="3">
+      <c r="M110" s="7"/>
+      <c r="N110" s="7"/>
+      <c r="O110" s="7"/>
+      <c r="P110" s="7"/>
+    </row>
+    <row r="111" spans="1:18" s="2" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A111" s="3">
         <v>1</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B111" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="C111" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D110" s="5" t="s">
+      <c r="D111" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E110" s="5">
+      <c r="E111" s="5">
         <v>20</v>
       </c>
-      <c r="F110" s="3" t="s">
+      <c r="F111" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G110" s="3" t="s">
+      <c r="G111" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H110" s="3" t="s">
+      <c r="H111" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I110" s="3"/>
-      <c r="J110" s="3"/>
-      <c r="K110" s="3"/>
-      <c r="L110" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M110" s="8"/>
-      <c r="N110" s="8"/>
-      <c r="O110" s="8"/>
-      <c r="P110" s="8"/>
-    </row>
-    <row r="111" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A111" s="3">
-        <v>2</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E111" s="5">
-        <v>32</v>
-      </c>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
-      <c r="H111" s="3"/>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
-      <c r="L111" s="5"/>
-      <c r="M111" s="9"/>
-      <c r="N111" s="9"/>
-      <c r="O111" s="9"/>
-      <c r="P111" s="9"/>
-      <c r="Q111" s="9"/>
-      <c r="R111" s="9"/>
+      <c r="L111" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M111" s="8"/>
+      <c r="N111" s="8"/>
+      <c r="O111" s="8"/>
+      <c r="P111" s="8"/>
     </row>
     <row r="112" spans="1:18" ht="17.25" customHeight="1">
       <c r="A112" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>77</v>
@@ -30075,9 +30137,7 @@
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
-      <c r="K112" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="K112" s="3"/>
       <c r="L112" s="5"/>
       <c r="M112" s="9"/>
       <c r="N112" s="9"/>
@@ -30088,23 +30148,21 @@
     </row>
     <row r="113" spans="1:18" ht="17.25" customHeight="1">
       <c r="A113" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>78</v>
+        <v>427</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>240</v>
+        <v>77</v>
       </c>
       <c r="E113" s="5">
-        <v>10</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F113" s="3"/>
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
@@ -30112,9 +30170,7 @@
       <c r="K113" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L113" s="5" t="s">
-        <v>436</v>
-      </c>
+      <c r="L113" s="5"/>
       <c r="M113" s="9"/>
       <c r="N113" s="9"/>
       <c r="O113" s="9"/>
@@ -30124,13 +30180,13 @@
     </row>
     <row r="114" spans="1:18" ht="17.25" customHeight="1">
       <c r="A114" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>428</v>
+        <v>78</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>240</v>
@@ -30160,13 +30216,13 @@
     </row>
     <row r="115" spans="1:18" ht="17.25" customHeight="1">
       <c r="A115" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>240</v>
@@ -30196,13 +30252,13 @@
     </row>
     <row r="116" spans="1:18" ht="17.25" customHeight="1">
       <c r="A116" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>284</v>
+        <v>429</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>240</v>
@@ -30217,9 +30273,11 @@
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
-      <c r="K116" s="3"/>
+      <c r="K116" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="L116" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="M116" s="9"/>
       <c r="N116" s="9"/>
@@ -30230,13 +30288,13 @@
     </row>
     <row r="117" spans="1:18" ht="17.25" customHeight="1">
       <c r="A117" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>430</v>
+        <v>284</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>240</v>
@@ -30251,11 +30309,9 @@
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
-      <c r="K117" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="K117" s="3"/>
       <c r="L117" s="5" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M117" s="9"/>
       <c r="N117" s="9"/>
@@ -30266,21 +30322,23 @@
     </row>
     <row r="118" spans="1:18" ht="17.25" customHeight="1">
       <c r="A118" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>77</v>
+        <v>240</v>
       </c>
       <c r="E118" s="5">
-        <v>32</v>
-      </c>
-      <c r="F118" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
@@ -30288,7 +30346,9 @@
       <c r="K118" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L118" s="5"/>
+      <c r="L118" s="5" t="s">
+        <v>437</v>
+      </c>
       <c r="M118" s="9"/>
       <c r="N118" s="9"/>
       <c r="O118" s="9"/>
@@ -30298,19 +30358,19 @@
     </row>
     <row r="119" spans="1:18" ht="17.25" customHeight="1">
       <c r="A119" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E119" s="5">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
@@ -30329,32 +30389,44 @@
       <c r="R119" s="9"/>
     </row>
     <row r="120" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A120" s="3"/>
+      <c r="A120" s="3">
+        <v>10</v>
+      </c>
       <c r="B120" s="6" t="s">
-        <v>19</v>
+        <v>434</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>110</v>
+        <v>435</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E120" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="E120" s="5">
+        <v>255</v>
+      </c>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
-      <c r="K120" s="3"/>
+      <c r="K120" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="L120" s="5"/>
+      <c r="M120" s="9"/>
+      <c r="N120" s="9"/>
+      <c r="O120" s="9"/>
+      <c r="P120" s="9"/>
+      <c r="Q120" s="9"/>
+      <c r="R120" s="9"/>
     </row>
     <row r="121" spans="1:18" ht="17.25" customHeight="1">
       <c r="A121" s="3"/>
       <c r="B121" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>108</v>
@@ -30371,10 +30443,10 @@
     <row r="122" spans="1:18" ht="17.25" customHeight="1">
       <c r="A122" s="3"/>
       <c r="B122" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>108</v>
@@ -30385,100 +30457,104 @@
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
-      <c r="K122" s="3" t="s">
+      <c r="K122" s="3"/>
+      <c r="L122" s="5"/>
+    </row>
+    <row r="123" spans="1:18" ht="17.25" customHeight="1">
+      <c r="A123" s="3"/>
+      <c r="B123" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E123" s="5"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3"/>
+      <c r="I123" s="3"/>
+      <c r="J123" s="3"/>
+      <c r="K123" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L122" s="5" t="s">
+      <c r="L123" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="123" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A123" s="61"/>
-      <c r="B123" s="8"/>
-      <c r="C123" s="8"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="8"/>
-      <c r="F123" s="61"/>
-      <c r="G123" s="61"/>
-      <c r="H123" s="61"/>
-      <c r="I123" s="61"/>
-      <c r="J123" s="61"/>
-      <c r="K123" s="61"/>
-      <c r="L123" s="8"/>
-    </row>
     <row r="124" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="61"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="61"/>
+      <c r="G124" s="61"/>
+      <c r="H124" s="61"/>
+      <c r="I124" s="61"/>
+      <c r="J124" s="61"/>
+      <c r="K124" s="61"/>
+      <c r="L124" s="8"/>
+    </row>
+    <row r="125" spans="1:18" ht="17.25" customHeight="1">
+      <c r="A125" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B124" s="17"/>
-      <c r="C124" s="17"/>
-      <c r="D124" s="17"/>
-      <c r="E124" s="17"/>
-      <c r="F124" s="17"/>
-      <c r="G124" s="17"/>
-      <c r="H124" s="17"/>
-      <c r="I124" s="17"/>
-      <c r="J124" s="17"/>
-      <c r="K124" s="17"/>
-      <c r="L124" s="17">
-        <f>C127</f>
+      <c r="B125" s="17"/>
+      <c r="C125" s="17"/>
+      <c r="D125" s="17"/>
+      <c r="E125" s="17"/>
+      <c r="F125" s="17"/>
+      <c r="G125" s="17"/>
+      <c r="H125" s="17"/>
+      <c r="I125" s="17"/>
+      <c r="J125" s="17"/>
+      <c r="K125" s="17"/>
+      <c r="L125" s="17">
+        <f>C128</f>
         <v>17</v>
       </c>
     </row>
-    <row r="125" spans="1:18" ht="17.25" customHeight="1">
-      <c r="B125" s="16" t="s">
+    <row r="126" spans="1:18" ht="17.25" customHeight="1">
+      <c r="B126" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C125" s="22" t="str">
+      <c r="C126" s="22" t="str">
         <f>view!$D$21</f>
         <v>cargo_values</v>
       </c>
-      <c r="F125" s="35" t="s">
+      <c r="F126" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G125" s="36">
+      <c r="G126" s="36">
         <f>view!$G$21</f>
         <v>0</v>
       </c>
-      <c r="H125" s="26" t="s">
+      <c r="H126" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="I125" s="23"/>
-      <c r="J125" s="27"/>
-      <c r="K125" s="27"/>
-      <c r="L125" s="28"/>
-    </row>
-    <row r="126" spans="1:18" ht="17.25" customHeight="1">
-      <c r="B126" s="16" t="s">
+      <c r="I126" s="23"/>
+      <c r="J126" s="27"/>
+      <c r="K126" s="27"/>
+      <c r="L126" s="28"/>
+    </row>
+    <row r="127" spans="1:18" ht="17.25" customHeight="1">
+      <c r="B127" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C126" s="11" t="str">
+      <c r="C127" s="11" t="str">
         <f>view!$E$21&amp;"　"&amp;view!$F$21</f>
         <v>案件　荷物追加情報</v>
       </c>
-      <c r="F126" s="35" t="s">
+      <c r="F127" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G126" s="36" t="str">
+      <c r="G127" s="36" t="str">
         <f>view!$H$21</f>
         <v>○</v>
       </c>
-      <c r="H126" s="24"/>
-      <c r="I126" s="25"/>
-      <c r="J126" s="13"/>
-      <c r="K126" s="13"/>
-      <c r="L126" s="29"/>
-    </row>
-    <row r="127" spans="1:18" ht="17.25" customHeight="1">
-      <c r="B127" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C127" s="33">
-        <f>view!$A$21</f>
-        <v>17</v>
-      </c>
-      <c r="F127" s="35"/>
-      <c r="G127" s="36"/>
       <c r="H127" s="24"/>
       <c r="I127" s="25"/>
       <c r="J127" s="13"/>
@@ -30487,19 +30563,14 @@
     </row>
     <row r="128" spans="1:18" ht="17.25" customHeight="1">
       <c r="B128" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C128" s="33" t="str">
-        <f>view!$C$21</f>
-        <v>owner</v>
-      </c>
-      <c r="F128" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="G128" s="36">
-        <f>view!$I$21</f>
-        <v>0</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C128" s="33">
+        <f>view!$A$21</f>
+        <v>17</v>
+      </c>
+      <c r="F128" s="35"/>
+      <c r="G128" s="36"/>
       <c r="H128" s="24"/>
       <c r="I128" s="25"/>
       <c r="J128" s="13"/>
@@ -30508,13 +30579,19 @@
     </row>
     <row r="129" spans="1:18" ht="17.25" customHeight="1">
       <c r="B129" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C129" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F129" s="56"/>
-      <c r="G129" s="57"/>
+        <v>39</v>
+      </c>
+      <c r="C129" s="33" t="str">
+        <f>view!$C$21</f>
+        <v>owner</v>
+      </c>
+      <c r="F129" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="G129" s="36">
+        <f>view!$I$21</f>
+        <v>0</v>
+      </c>
       <c r="H129" s="24"/>
       <c r="I129" s="25"/>
       <c r="J129" s="13"/>
@@ -30523,14 +30600,13 @@
     </row>
     <row r="130" spans="1:18" ht="17.25" customHeight="1">
       <c r="B130" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C130" s="34">
-        <v>43174</v>
-      </c>
-      <c r="D130" s="32"/>
-      <c r="E130" s="32"/>
-      <c r="G130" s="25"/>
+        <v>28</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F130" s="56"/>
+      <c r="G130" s="57"/>
       <c r="H130" s="24"/>
       <c r="I130" s="25"/>
       <c r="J130" s="13"/>
@@ -30539,171 +30615,155 @@
     </row>
     <row r="131" spans="1:18" ht="17.25" customHeight="1">
       <c r="B131" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C131" s="34">
-        <v>43195</v>
+        <v>43174</v>
       </c>
       <c r="D131" s="32"/>
       <c r="E131" s="32"/>
       <c r="G131" s="25"/>
-      <c r="H131" s="20"/>
-      <c r="I131" s="21"/>
-      <c r="J131" s="30"/>
-      <c r="K131" s="30"/>
-      <c r="L131" s="31"/>
+      <c r="H131" s="24"/>
+      <c r="I131" s="25"/>
+      <c r="J131" s="13"/>
+      <c r="K131" s="13"/>
+      <c r="L131" s="29"/>
     </row>
     <row r="132" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A132" s="17"/>
-      <c r="B132" s="17"/>
-      <c r="C132" s="17"/>
-      <c r="D132" s="17"/>
-      <c r="E132" s="17"/>
-      <c r="F132" s="17"/>
-      <c r="G132" s="17"/>
-      <c r="H132" s="17"/>
-      <c r="I132" s="17"/>
-      <c r="J132" s="17"/>
-      <c r="K132" s="17"/>
-      <c r="L132" s="17"/>
-    </row>
-    <row r="133" spans="1:18" s="2" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A133" s="1" t="s">
+      <c r="B132" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C132" s="34">
+        <v>43195</v>
+      </c>
+      <c r="D132" s="32"/>
+      <c r="E132" s="32"/>
+      <c r="G132" s="25"/>
+      <c r="H132" s="20"/>
+      <c r="I132" s="21"/>
+      <c r="J132" s="30"/>
+      <c r="K132" s="30"/>
+      <c r="L132" s="31"/>
+    </row>
+    <row r="133" spans="1:18" ht="17.25" customHeight="1">
+      <c r="A133" s="17"/>
+      <c r="B133" s="17"/>
+      <c r="C133" s="17"/>
+      <c r="D133" s="17"/>
+      <c r="E133" s="17"/>
+      <c r="F133" s="17"/>
+      <c r="G133" s="17"/>
+      <c r="H133" s="17"/>
+      <c r="I133" s="17"/>
+      <c r="J133" s="17"/>
+      <c r="K133" s="17"/>
+      <c r="L133" s="17"/>
+    </row>
+    <row r="134" spans="1:18" s="2" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A134" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="134" spans="1:18" s="2" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A134" s="14" t="s">
+    <row r="135" spans="1:18" s="2" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A135" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B134" s="15" t="s">
+      <c r="B135" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C134" s="14" t="s">
+      <c r="C135" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D134" s="14" t="s">
+      <c r="D135" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E134" s="14" t="s">
+      <c r="E135" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="F134" s="4" t="s">
+      <c r="F135" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G134" s="4" t="s">
+      <c r="G135" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H134" s="4" t="s">
+      <c r="H135" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I134" s="4" t="s">
+      <c r="I135" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J134" s="4" t="s">
+      <c r="J135" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K134" s="4" t="s">
+      <c r="K135" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L134" s="14" t="s">
+      <c r="L135" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="M134" s="7"/>
-      <c r="N134" s="7"/>
-      <c r="O134" s="7"/>
-      <c r="P134" s="7"/>
-    </row>
-    <row r="135" spans="1:18" s="2" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A135" s="3">
+      <c r="M135" s="7"/>
+      <c r="N135" s="7"/>
+      <c r="O135" s="7"/>
+      <c r="P135" s="7"/>
+    </row>
+    <row r="136" spans="1:18" s="2" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A136" s="3">
         <v>1</v>
       </c>
-      <c r="B135" s="6" t="s">
+      <c r="B136" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C135" s="5" t="s">
+      <c r="C136" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D135" s="5" t="s">
+      <c r="D136" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E135" s="5">
+      <c r="E136" s="5">
         <v>20</v>
       </c>
-      <c r="F135" s="3" t="s">
+      <c r="F136" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G135" s="3" t="s">
+      <c r="G136" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H135" s="3" t="s">
+      <c r="H136" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I135" s="3"/>
-      <c r="J135" s="3"/>
-      <c r="K135" s="3"/>
-      <c r="L135" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M135" s="8"/>
-      <c r="N135" s="8"/>
-      <c r="O135" s="8"/>
-      <c r="P135" s="8"/>
-    </row>
-    <row r="136" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A136" s="3">
-        <v>2</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="D136" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E136" s="5">
-        <v>32</v>
-      </c>
-      <c r="F136" s="3"/>
-      <c r="G136" s="3"/>
-      <c r="H136" s="3"/>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
-      <c r="L136" s="5"/>
-      <c r="M136" s="9"/>
-      <c r="N136" s="9"/>
-      <c r="O136" s="9"/>
-      <c r="P136" s="9"/>
-      <c r="Q136" s="9"/>
-      <c r="R136" s="9"/>
+      <c r="L136" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M136" s="8"/>
+      <c r="N136" s="8"/>
+      <c r="O136" s="8"/>
+      <c r="P136" s="8"/>
     </row>
     <row r="137" spans="1:18" ht="17.25" customHeight="1">
       <c r="A137" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>234</v>
+        <v>439</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>236</v>
+        <v>440</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E137" s="5">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
-      <c r="K137" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="K137" s="3"/>
       <c r="L137" s="5"/>
       <c r="M137" s="9"/>
       <c r="N137" s="9"/>
@@ -30714,13 +30774,13 @@
     </row>
     <row r="138" spans="1:18" ht="17.25" customHeight="1">
       <c r="A138" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>77</v>
@@ -30745,32 +30805,44 @@
       <c r="R138" s="9"/>
     </row>
     <row r="139" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A139" s="3"/>
+      <c r="A139" s="3">
+        <v>4</v>
+      </c>
       <c r="B139" s="6" t="s">
-        <v>19</v>
+        <v>235</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>110</v>
+        <v>237</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E139" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="E139" s="5">
+        <v>255</v>
+      </c>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
-      <c r="K139" s="3"/>
+      <c r="K139" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="L139" s="5"/>
+      <c r="M139" s="9"/>
+      <c r="N139" s="9"/>
+      <c r="O139" s="9"/>
+      <c r="P139" s="9"/>
+      <c r="Q139" s="9"/>
+      <c r="R139" s="9"/>
     </row>
     <row r="140" spans="1:18" ht="17.25" customHeight="1">
       <c r="A140" s="3"/>
       <c r="B140" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>108</v>
@@ -30787,10 +30859,10 @@
     <row r="141" spans="1:18" ht="17.25" customHeight="1">
       <c r="A141" s="3"/>
       <c r="B141" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>108</v>
@@ -30801,100 +30873,104 @@
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
-      <c r="K141" s="3" t="s">
+      <c r="K141" s="3"/>
+      <c r="L141" s="5"/>
+    </row>
+    <row r="142" spans="1:18" ht="17.25" customHeight="1">
+      <c r="A142" s="3"/>
+      <c r="B142" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E142" s="5"/>
+      <c r="F142" s="3"/>
+      <c r="G142" s="3"/>
+      <c r="H142" s="3"/>
+      <c r="I142" s="3"/>
+      <c r="J142" s="3"/>
+      <c r="K142" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L141" s="5" t="s">
+      <c r="L142" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="142" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A142" s="61"/>
-      <c r="B142" s="8"/>
-      <c r="C142" s="8"/>
-      <c r="D142" s="8"/>
-      <c r="E142" s="8"/>
-      <c r="F142" s="61"/>
-      <c r="G142" s="61"/>
-      <c r="H142" s="61"/>
-      <c r="I142" s="61"/>
-      <c r="J142" s="61"/>
-      <c r="K142" s="61"/>
-      <c r="L142" s="8"/>
-    </row>
     <row r="143" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A143" s="1" t="s">
+      <c r="A143" s="61"/>
+      <c r="B143" s="8"/>
+      <c r="C143" s="8"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="61"/>
+      <c r="G143" s="61"/>
+      <c r="H143" s="61"/>
+      <c r="I143" s="61"/>
+      <c r="J143" s="61"/>
+      <c r="K143" s="61"/>
+      <c r="L143" s="8"/>
+    </row>
+    <row r="144" spans="1:18" ht="17.25" customHeight="1">
+      <c r="A144" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B143" s="17"/>
-      <c r="C143" s="17"/>
-      <c r="D143" s="17"/>
-      <c r="E143" s="17"/>
-      <c r="F143" s="17"/>
-      <c r="G143" s="17"/>
-      <c r="H143" s="17"/>
-      <c r="I143" s="17"/>
-      <c r="J143" s="17"/>
-      <c r="K143" s="17"/>
-      <c r="L143" s="17">
-        <f>C146</f>
+      <c r="B144" s="17"/>
+      <c r="C144" s="17"/>
+      <c r="D144" s="17"/>
+      <c r="E144" s="17"/>
+      <c r="F144" s="17"/>
+      <c r="G144" s="17"/>
+      <c r="H144" s="17"/>
+      <c r="I144" s="17"/>
+      <c r="J144" s="17"/>
+      <c r="K144" s="17"/>
+      <c r="L144" s="17">
+        <f>C147</f>
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="1:18" ht="17.25" customHeight="1">
-      <c r="B144" s="16" t="s">
+    <row r="145" spans="1:18" ht="17.25" customHeight="1">
+      <c r="B145" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C144" s="22" t="str">
+      <c r="C145" s="22" t="str">
         <f>view!$D$22</f>
         <v>order_to_cargos</v>
       </c>
-      <c r="F144" s="35" t="s">
+      <c r="F145" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G144" s="36">
+      <c r="G145" s="36">
         <f>view!$G$22</f>
         <v>0</v>
       </c>
-      <c r="H144" s="26" t="s">
+      <c r="H145" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="I144" s="23"/>
-      <c r="J144" s="27"/>
-      <c r="K144" s="27"/>
-      <c r="L144" s="28"/>
-    </row>
-    <row r="145" spans="1:18" ht="17.25" customHeight="1">
-      <c r="B145" s="16" t="s">
+      <c r="I145" s="23"/>
+      <c r="J145" s="27"/>
+      <c r="K145" s="27"/>
+      <c r="L145" s="28"/>
+    </row>
+    <row r="146" spans="1:18" ht="17.25" customHeight="1">
+      <c r="B146" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C145" s="11" t="str">
+      <c r="C146" s="11" t="str">
         <f>view!$E$22&amp;"　"&amp;view!$F$22</f>
         <v>案件 - 荷物　荷物情報</v>
       </c>
-      <c r="F145" s="35" t="s">
+      <c r="F146" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G145" s="36" t="str">
+      <c r="G146" s="36" t="str">
         <f>view!$H$22</f>
         <v>○</v>
       </c>
-      <c r="H145" s="24"/>
-      <c r="I145" s="25"/>
-      <c r="J145" s="13"/>
-      <c r="K145" s="13"/>
-      <c r="L145" s="29"/>
-    </row>
-    <row r="146" spans="1:18" ht="17.25" customHeight="1">
-      <c r="B146" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C146" s="33">
-        <f>view!$A$22</f>
-        <v>18</v>
-      </c>
-      <c r="F146" s="35"/>
-      <c r="G146" s="36"/>
       <c r="H146" s="24"/>
       <c r="I146" s="25"/>
       <c r="J146" s="13"/>
@@ -30903,19 +30979,14 @@
     </row>
     <row r="147" spans="1:18" ht="17.25" customHeight="1">
       <c r="B147" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C147" s="33" t="str">
-        <f>view!$C$22</f>
-        <v>owner</v>
-      </c>
-      <c r="F147" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="G147" s="36">
-        <f>view!$I$22</f>
-        <v>0</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C147" s="33">
+        <f>view!$A$22</f>
+        <v>18</v>
+      </c>
+      <c r="F147" s="35"/>
+      <c r="G147" s="36"/>
       <c r="H147" s="24"/>
       <c r="I147" s="25"/>
       <c r="J147" s="13"/>
@@ -30924,13 +30995,19 @@
     </row>
     <row r="148" spans="1:18" ht="17.25" customHeight="1">
       <c r="B148" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C148" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F148" s="56"/>
-      <c r="G148" s="57"/>
+        <v>39</v>
+      </c>
+      <c r="C148" s="33" t="str">
+        <f>view!$C$22</f>
+        <v>owner</v>
+      </c>
+      <c r="F148" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="G148" s="36">
+        <f>view!$I$22</f>
+        <v>0</v>
+      </c>
       <c r="H148" s="24"/>
       <c r="I148" s="25"/>
       <c r="J148" s="13"/>
@@ -30939,14 +31016,13 @@
     </row>
     <row r="149" spans="1:18" ht="17.25" customHeight="1">
       <c r="B149" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C149" s="34">
-        <v>43195</v>
-      </c>
-      <c r="D149" s="32"/>
-      <c r="E149" s="32"/>
-      <c r="G149" s="25"/>
+        <v>28</v>
+      </c>
+      <c r="C149" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F149" s="56"/>
+      <c r="G149" s="57"/>
       <c r="H149" s="24"/>
       <c r="I149" s="25"/>
       <c r="J149" s="13"/>
@@ -30955,7 +31031,7 @@
     </row>
     <row r="150" spans="1:18" ht="17.25" customHeight="1">
       <c r="B150" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C150" s="34">
         <v>43195</v>
@@ -30963,148 +31039,134 @@
       <c r="D150" s="32"/>
       <c r="E150" s="32"/>
       <c r="G150" s="25"/>
-      <c r="H150" s="20"/>
-      <c r="I150" s="21"/>
-      <c r="J150" s="30"/>
-      <c r="K150" s="30"/>
-      <c r="L150" s="31"/>
+      <c r="H150" s="24"/>
+      <c r="I150" s="25"/>
+      <c r="J150" s="13"/>
+      <c r="K150" s="13"/>
+      <c r="L150" s="29"/>
     </row>
     <row r="151" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A151" s="17"/>
-      <c r="B151" s="17"/>
-      <c r="C151" s="17"/>
-      <c r="D151" s="17"/>
-      <c r="E151" s="17"/>
-      <c r="F151" s="17"/>
-      <c r="G151" s="17"/>
-      <c r="H151" s="17"/>
-      <c r="I151" s="17"/>
-      <c r="J151" s="17"/>
-      <c r="K151" s="17"/>
-      <c r="L151" s="17"/>
-    </row>
-    <row r="152" spans="1:18" s="2" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A152" s="1" t="s">
+      <c r="B151" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C151" s="34">
+        <v>43195</v>
+      </c>
+      <c r="D151" s="32"/>
+      <c r="E151" s="32"/>
+      <c r="G151" s="25"/>
+      <c r="H151" s="20"/>
+      <c r="I151" s="21"/>
+      <c r="J151" s="30"/>
+      <c r="K151" s="30"/>
+      <c r="L151" s="31"/>
+    </row>
+    <row r="152" spans="1:18" ht="17.25" customHeight="1">
+      <c r="A152" s="17"/>
+      <c r="B152" s="17"/>
+      <c r="C152" s="17"/>
+      <c r="D152" s="17"/>
+      <c r="E152" s="17"/>
+      <c r="F152" s="17"/>
+      <c r="G152" s="17"/>
+      <c r="H152" s="17"/>
+      <c r="I152" s="17"/>
+      <c r="J152" s="17"/>
+      <c r="K152" s="17"/>
+      <c r="L152" s="17"/>
+    </row>
+    <row r="153" spans="1:18" s="2" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A153" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="153" spans="1:18" s="2" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A153" s="14" t="s">
+    <row r="154" spans="1:18" s="2" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A154" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B153" s="15" t="s">
+      <c r="B154" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C153" s="14" t="s">
+      <c r="C154" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D153" s="14" t="s">
+      <c r="D154" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E153" s="14" t="s">
+      <c r="E154" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="F153" s="4" t="s">
+      <c r="F154" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G153" s="4" t="s">
+      <c r="G154" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H153" s="4" t="s">
+      <c r="H154" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I153" s="4" t="s">
+      <c r="I154" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J153" s="4" t="s">
+      <c r="J154" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K153" s="4" t="s">
+      <c r="K154" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L153" s="14" t="s">
+      <c r="L154" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="M153" s="7"/>
-      <c r="N153" s="7"/>
-      <c r="O153" s="7"/>
-      <c r="P153" s="7"/>
-    </row>
-    <row r="154" spans="1:18" s="2" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A154" s="3">
+      <c r="M154" s="7"/>
+      <c r="N154" s="7"/>
+      <c r="O154" s="7"/>
+      <c r="P154" s="7"/>
+    </row>
+    <row r="155" spans="1:18" s="2" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A155" s="3">
         <v>1</v>
       </c>
-      <c r="B154" s="6" t="s">
+      <c r="B155" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C154" s="5" t="s">
+      <c r="C155" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D154" s="5" t="s">
+      <c r="D155" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E154" s="5">
+      <c r="E155" s="5">
         <v>20</v>
       </c>
-      <c r="F154" s="3" t="s">
+      <c r="F155" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G154" s="3" t="s">
+      <c r="G155" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H154" s="3" t="s">
+      <c r="H155" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I154" s="3"/>
-      <c r="J154" s="3"/>
-      <c r="K154" s="3"/>
-      <c r="L154" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M154" s="8"/>
-      <c r="N154" s="8"/>
-      <c r="O154" s="8"/>
-      <c r="P154" s="8"/>
-    </row>
-    <row r="155" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A155" s="3">
-        <v>2</v>
-      </c>
-      <c r="B155" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="D155" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E155" s="5">
-        <v>32</v>
-      </c>
-      <c r="F155" s="3"/>
-      <c r="G155" s="3"/>
-      <c r="H155" s="3"/>
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
       <c r="K155" s="3"/>
-      <c r="L155" s="5"/>
-      <c r="M155" s="9"/>
-      <c r="N155" s="9"/>
-      <c r="O155" s="9"/>
-      <c r="P155" s="9"/>
-      <c r="Q155" s="9"/>
-      <c r="R155" s="9"/>
+      <c r="L155" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M155" s="8"/>
+      <c r="N155" s="8"/>
+      <c r="O155" s="8"/>
+      <c r="P155" s="8"/>
     </row>
     <row r="156" spans="1:18" ht="17.25" customHeight="1">
       <c r="A156" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="C156" s="6" t="s">
-        <v>426</v>
+        <v>248</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="D156" s="5" t="s">
         <v>77</v>
@@ -31127,17 +31189,21 @@
       <c r="R156" s="9"/>
     </row>
     <row r="157" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A157" s="3"/>
+      <c r="A157" s="3">
+        <v>3</v>
+      </c>
       <c r="B157" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>110</v>
+        <v>420</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>426</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E157" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="E157" s="5">
+        <v>32</v>
+      </c>
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
@@ -31145,14 +31211,20 @@
       <c r="J157" s="3"/>
       <c r="K157" s="3"/>
       <c r="L157" s="5"/>
+      <c r="M157" s="9"/>
+      <c r="N157" s="9"/>
+      <c r="O157" s="9"/>
+      <c r="P157" s="9"/>
+      <c r="Q157" s="9"/>
+      <c r="R157" s="9"/>
     </row>
     <row r="158" spans="1:18" ht="17.25" customHeight="1">
       <c r="A158" s="3"/>
       <c r="B158" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D158" s="5" t="s">
         <v>108</v>
@@ -31169,10 +31241,10 @@
     <row r="159" spans="1:18" ht="17.25" customHeight="1">
       <c r="A159" s="3"/>
       <c r="B159" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D159" s="5" t="s">
         <v>108</v>
@@ -31183,100 +31255,104 @@
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
-      <c r="K159" s="3" t="s">
+      <c r="K159" s="3"/>
+      <c r="L159" s="5"/>
+    </row>
+    <row r="160" spans="1:18" ht="17.25" customHeight="1">
+      <c r="A160" s="3"/>
+      <c r="B160" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E160" s="5"/>
+      <c r="F160" s="3"/>
+      <c r="G160" s="3"/>
+      <c r="H160" s="3"/>
+      <c r="I160" s="3"/>
+      <c r="J160" s="3"/>
+      <c r="K160" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L159" s="5" t="s">
+      <c r="L160" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="160" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A160" s="61"/>
-      <c r="B160" s="8"/>
-      <c r="C160" s="8"/>
-      <c r="D160" s="8"/>
-      <c r="E160" s="8"/>
-      <c r="F160" s="61"/>
-      <c r="G160" s="61"/>
-      <c r="H160" s="61"/>
-      <c r="I160" s="61"/>
-      <c r="J160" s="61"/>
-      <c r="K160" s="61"/>
-      <c r="L160" s="8"/>
-    </row>
     <row r="161" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A161" s="1" t="s">
+      <c r="A161" s="61"/>
+      <c r="B161" s="8"/>
+      <c r="C161" s="8"/>
+      <c r="D161" s="8"/>
+      <c r="E161" s="8"/>
+      <c r="F161" s="61"/>
+      <c r="G161" s="61"/>
+      <c r="H161" s="61"/>
+      <c r="I161" s="61"/>
+      <c r="J161" s="61"/>
+      <c r="K161" s="61"/>
+      <c r="L161" s="8"/>
+    </row>
+    <row r="162" spans="1:18" ht="17.25" customHeight="1">
+      <c r="A162" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B161" s="17"/>
-      <c r="C161" s="17"/>
-      <c r="D161" s="17"/>
-      <c r="E161" s="17"/>
-      <c r="F161" s="17"/>
-      <c r="G161" s="17"/>
-      <c r="H161" s="17"/>
-      <c r="I161" s="17"/>
-      <c r="J161" s="17"/>
-      <c r="K161" s="17"/>
-      <c r="L161" s="17">
-        <f>C164</f>
+      <c r="B162" s="17"/>
+      <c r="C162" s="17"/>
+      <c r="D162" s="17"/>
+      <c r="E162" s="17"/>
+      <c r="F162" s="17"/>
+      <c r="G162" s="17"/>
+      <c r="H162" s="17"/>
+      <c r="I162" s="17"/>
+      <c r="J162" s="17"/>
+      <c r="K162" s="17"/>
+      <c r="L162" s="17">
+        <f>C165</f>
         <v>19</v>
       </c>
     </row>
-    <row r="162" spans="1:18" ht="17.25" customHeight="1">
-      <c r="B162" s="16" t="s">
+    <row r="163" spans="1:18" ht="17.25" customHeight="1">
+      <c r="B163" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C162" s="22" t="str">
+      <c r="C163" s="22" t="str">
         <f>view!$D$23</f>
         <v>payments</v>
       </c>
-      <c r="F162" s="35" t="s">
+      <c r="F163" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G162" s="36">
+      <c r="G163" s="36">
         <f>view!$G$23</f>
         <v>0</v>
       </c>
-      <c r="H162" s="26" t="s">
+      <c r="H163" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="I162" s="23"/>
-      <c r="J162" s="27"/>
-      <c r="K162" s="27"/>
-      <c r="L162" s="28"/>
-    </row>
-    <row r="163" spans="1:18" ht="17.25" customHeight="1">
-      <c r="B163" s="16" t="s">
+      <c r="I163" s="23"/>
+      <c r="J163" s="27"/>
+      <c r="K163" s="27"/>
+      <c r="L163" s="28"/>
+    </row>
+    <row r="164" spans="1:18" ht="17.25" customHeight="1">
+      <c r="B164" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C163" s="11" t="str">
+      <c r="C164" s="11" t="str">
         <f>view!$E$23&amp;"　"&amp;view!$F$23</f>
         <v>案件　支払い</v>
       </c>
-      <c r="F163" s="35" t="s">
+      <c r="F164" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G163" s="36" t="str">
+      <c r="G164" s="36" t="str">
         <f>view!$H$23</f>
         <v>○</v>
       </c>
-      <c r="H163" s="24"/>
-      <c r="I163" s="25"/>
-      <c r="J163" s="13"/>
-      <c r="K163" s="13"/>
-      <c r="L163" s="29"/>
-    </row>
-    <row r="164" spans="1:18" ht="17.25" customHeight="1">
-      <c r="B164" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C164" s="33">
-        <f>view!$A$23</f>
-        <v>19</v>
-      </c>
-      <c r="F164" s="35"/>
-      <c r="G164" s="36"/>
       <c r="H164" s="24"/>
       <c r="I164" s="25"/>
       <c r="J164" s="13"/>
@@ -31285,19 +31361,14 @@
     </row>
     <row r="165" spans="1:18" ht="17.25" customHeight="1">
       <c r="B165" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C165" s="33" t="str">
-        <f>view!$C$23</f>
-        <v>owner</v>
-      </c>
-      <c r="F165" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="G165" s="36">
-        <f>view!$I$23</f>
-        <v>0</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C165" s="33">
+        <f>view!$A$23</f>
+        <v>19</v>
+      </c>
+      <c r="F165" s="35"/>
+      <c r="G165" s="36"/>
       <c r="H165" s="24"/>
       <c r="I165" s="25"/>
       <c r="J165" s="13"/>
@@ -31306,13 +31377,19 @@
     </row>
     <row r="166" spans="1:18" ht="17.25" customHeight="1">
       <c r="B166" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C166" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F166" s="56"/>
-      <c r="G166" s="57"/>
+        <v>39</v>
+      </c>
+      <c r="C166" s="33" t="str">
+        <f>view!$C$23</f>
+        <v>owner</v>
+      </c>
+      <c r="F166" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="G166" s="36">
+        <f>view!$I$23</f>
+        <v>0</v>
+      </c>
       <c r="H166" s="24"/>
       <c r="I166" s="25"/>
       <c r="J166" s="13"/>
@@ -31321,14 +31398,13 @@
     </row>
     <row r="167" spans="1:18" ht="17.25" customHeight="1">
       <c r="B167" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C167" s="34">
-        <v>43247</v>
-      </c>
-      <c r="D167" s="32"/>
-      <c r="E167" s="32"/>
-      <c r="G167" s="25"/>
+        <v>28</v>
+      </c>
+      <c r="C167" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F167" s="56"/>
+      <c r="G167" s="57"/>
       <c r="H167" s="24"/>
       <c r="I167" s="25"/>
       <c r="J167" s="13"/>
@@ -31337,7 +31413,7 @@
     </row>
     <row r="168" spans="1:18" ht="17.25" customHeight="1">
       <c r="B168" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C168" s="34">
         <v>43247</v>
@@ -31345,148 +31421,134 @@
       <c r="D168" s="32"/>
       <c r="E168" s="32"/>
       <c r="G168" s="25"/>
-      <c r="H168" s="20"/>
-      <c r="I168" s="21"/>
-      <c r="J168" s="30"/>
-      <c r="K168" s="30"/>
-      <c r="L168" s="31"/>
+      <c r="H168" s="24"/>
+      <c r="I168" s="25"/>
+      <c r="J168" s="13"/>
+      <c r="K168" s="13"/>
+      <c r="L168" s="29"/>
     </row>
     <row r="169" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A169" s="17"/>
-      <c r="B169" s="17"/>
-      <c r="C169" s="17"/>
-      <c r="D169" s="17"/>
-      <c r="E169" s="17"/>
-      <c r="F169" s="17"/>
-      <c r="G169" s="17"/>
-      <c r="H169" s="17"/>
-      <c r="I169" s="17"/>
-      <c r="J169" s="17"/>
-      <c r="K169" s="17"/>
-      <c r="L169" s="17"/>
-    </row>
-    <row r="170" spans="1:18" s="2" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A170" s="1" t="s">
+      <c r="B169" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C169" s="34">
+        <v>43247</v>
+      </c>
+      <c r="D169" s="32"/>
+      <c r="E169" s="32"/>
+      <c r="G169" s="25"/>
+      <c r="H169" s="20"/>
+      <c r="I169" s="21"/>
+      <c r="J169" s="30"/>
+      <c r="K169" s="30"/>
+      <c r="L169" s="31"/>
+    </row>
+    <row r="170" spans="1:18" ht="17.25" customHeight="1">
+      <c r="A170" s="17"/>
+      <c r="B170" s="17"/>
+      <c r="C170" s="17"/>
+      <c r="D170" s="17"/>
+      <c r="E170" s="17"/>
+      <c r="F170" s="17"/>
+      <c r="G170" s="17"/>
+      <c r="H170" s="17"/>
+      <c r="I170" s="17"/>
+      <c r="J170" s="17"/>
+      <c r="K170" s="17"/>
+      <c r="L170" s="17"/>
+    </row>
+    <row r="171" spans="1:18" s="2" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A171" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="171" spans="1:18" s="2" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A171" s="14" t="s">
+    <row r="172" spans="1:18" s="2" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A172" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B171" s="15" t="s">
+      <c r="B172" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C171" s="14" t="s">
+      <c r="C172" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D171" s="14" t="s">
+      <c r="D172" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E171" s="14" t="s">
+      <c r="E172" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="F171" s="4" t="s">
+      <c r="F172" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G171" s="4" t="s">
+      <c r="G172" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H171" s="4" t="s">
+      <c r="H172" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I171" s="4" t="s">
+      <c r="I172" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J171" s="4" t="s">
+      <c r="J172" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K171" s="4" t="s">
+      <c r="K172" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L171" s="14" t="s">
+      <c r="L172" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="M171" s="7"/>
-      <c r="N171" s="7"/>
-      <c r="O171" s="7"/>
-      <c r="P171" s="7"/>
-    </row>
-    <row r="172" spans="1:18" s="2" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A172" s="3">
+      <c r="M172" s="7"/>
+      <c r="N172" s="7"/>
+      <c r="O172" s="7"/>
+      <c r="P172" s="7"/>
+    </row>
+    <row r="173" spans="1:18" s="2" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A173" s="3">
         <v>1</v>
       </c>
-      <c r="B172" s="6" t="s">
+      <c r="B173" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C172" s="5" t="s">
+      <c r="C173" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D172" s="5" t="s">
+      <c r="D173" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E172" s="5">
+      <c r="E173" s="5">
         <v>20</v>
       </c>
-      <c r="F172" s="3" t="s">
+      <c r="F173" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G172" s="3" t="s">
+      <c r="G173" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H172" s="3" t="s">
+      <c r="H173" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I172" s="3"/>
-      <c r="J172" s="3"/>
-      <c r="K172" s="3"/>
-      <c r="L172" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M172" s="8"/>
-      <c r="N172" s="8"/>
-      <c r="O172" s="8"/>
-      <c r="P172" s="8"/>
-    </row>
-    <row r="173" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A173" s="3">
-        <v>2</v>
-      </c>
-      <c r="B173" s="6" t="s">
-        <v>608</v>
-      </c>
-      <c r="C173" s="5" t="s">
-        <v>609</v>
-      </c>
-      <c r="D173" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E173" s="5">
-        <v>32</v>
-      </c>
-      <c r="F173" s="3"/>
-      <c r="G173" s="3"/>
-      <c r="H173" s="3"/>
       <c r="I173" s="3"/>
       <c r="J173" s="3"/>
       <c r="K173" s="3"/>
-      <c r="L173" s="5"/>
-      <c r="M173" s="9"/>
-      <c r="N173" s="9"/>
-      <c r="O173" s="9"/>
-      <c r="P173" s="9"/>
-      <c r="Q173" s="9"/>
-      <c r="R173" s="9"/>
+      <c r="L173" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M173" s="8"/>
+      <c r="N173" s="8"/>
+      <c r="O173" s="8"/>
+      <c r="P173" s="8"/>
     </row>
     <row r="174" spans="1:18" ht="17.25" customHeight="1">
       <c r="A174" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>248</v>
+        <v>608</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>257</v>
+        <v>609</v>
       </c>
       <c r="D174" s="5" t="s">
         <v>77</v>
@@ -31510,18 +31572,20 @@
     </row>
     <row r="175" spans="1:18" ht="17.25" customHeight="1">
       <c r="A175" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>611</v>
-      </c>
-      <c r="C175" s="6" t="s">
-        <v>610</v>
+        <v>248</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E175" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="E175" s="5">
+        <v>32</v>
+      </c>
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
       <c r="H175" s="3"/>
@@ -31538,28 +31602,24 @@
     </row>
     <row r="176" spans="1:18" ht="17.25" customHeight="1">
       <c r="A176" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>79</v>
+        <v>610</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E176" s="5">
-        <v>32</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="E176" s="5"/>
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
-      <c r="K176" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="K176" s="3"/>
       <c r="L176" s="5"/>
       <c r="M176" s="9"/>
       <c r="N176" s="9"/>
@@ -31570,19 +31630,19 @@
     </row>
     <row r="177" spans="1:18" ht="17.25" customHeight="1">
       <c r="A177" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>615</v>
+        <v>79</v>
       </c>
       <c r="D177" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E177" s="5">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
@@ -31602,19 +31662,19 @@
     </row>
     <row r="178" spans="1:18" ht="17.25" customHeight="1">
       <c r="A178" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>242</v>
+        <v>615</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>616</v>
+        <v>77</v>
       </c>
       <c r="E178" s="5">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
@@ -31633,32 +31693,44 @@
       <c r="R178" s="9"/>
     </row>
     <row r="179" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A179" s="3"/>
+      <c r="A179" s="3">
+        <v>7</v>
+      </c>
       <c r="B179" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C179" s="5" t="s">
-        <v>110</v>
+        <v>614</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>242</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E179" s="5"/>
+        <v>616</v>
+      </c>
+      <c r="E179" s="5">
+        <v>10</v>
+      </c>
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
-      <c r="K179" s="3"/>
+      <c r="K179" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="L179" s="5"/>
+      <c r="M179" s="9"/>
+      <c r="N179" s="9"/>
+      <c r="O179" s="9"/>
+      <c r="P179" s="9"/>
+      <c r="Q179" s="9"/>
+      <c r="R179" s="9"/>
     </row>
     <row r="180" spans="1:18" ht="17.25" customHeight="1">
       <c r="A180" s="3"/>
       <c r="B180" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D180" s="5" t="s">
         <v>108</v>
@@ -31675,10 +31747,10 @@
     <row r="181" spans="1:18" ht="17.25" customHeight="1">
       <c r="A181" s="3"/>
       <c r="B181" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D181" s="5" t="s">
         <v>108</v>
@@ -31689,1041 +31761,1081 @@
       <c r="H181" s="3"/>
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
-      <c r="K181" s="3" t="s">
+      <c r="K181" s="3"/>
+      <c r="L181" s="5"/>
+    </row>
+    <row r="182" spans="1:18" ht="17.25" customHeight="1">
+      <c r="A182" s="3"/>
+      <c r="B182" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E182" s="5"/>
+      <c r="F182" s="3"/>
+      <c r="G182" s="3"/>
+      <c r="H182" s="3"/>
+      <c r="I182" s="3"/>
+      <c r="J182" s="3"/>
+      <c r="K182" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L181" s="5" t="s">
+      <c r="L182" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="182" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A182" s="61"/>
-      <c r="B182" s="8"/>
-      <c r="C182" s="8"/>
-      <c r="D182" s="8"/>
-      <c r="E182" s="8"/>
-      <c r="F182" s="61"/>
-      <c r="G182" s="61"/>
-      <c r="H182" s="61"/>
-      <c r="I182" s="61"/>
-      <c r="J182" s="61"/>
-      <c r="K182" s="61"/>
-      <c r="L182" s="8"/>
+    <row r="183" spans="1:18" ht="17.25" customHeight="1">
+      <c r="A183" s="61"/>
+      <c r="B183" s="8"/>
+      <c r="C183" s="8"/>
+      <c r="D183" s="8"/>
+      <c r="E183" s="8"/>
+      <c r="F183" s="61"/>
+      <c r="G183" s="61"/>
+      <c r="H183" s="61"/>
+      <c r="I183" s="61"/>
+      <c r="J183" s="61"/>
+      <c r="K183" s="61"/>
+      <c r="L183" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="E67:L68 L66 E66:J66 C55 E64:L65 L57:L58 B43:C45 B52:C53 L60:L61 B64:C69 B49:C50 C57:J57 F111:L112 B112:E119 B47:C47">
-    <cfRule type="expression" dxfId="792" priority="439">
+  <conditionalFormatting sqref="E67:L68 L66 E66:J66 C55 E64:L65 L57:L58 B43:C45 B52:C53 L60:L61 B64:C69 B49:C50 C57:J57 F112:L113 B113:E120 B47:C47">
+    <cfRule type="expression" dxfId="796" priority="443">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43:K44 L43:L45 J42:L42 D42">
-    <cfRule type="expression" dxfId="791" priority="438">
+    <cfRule type="expression" dxfId="795" priority="442">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:C41">
-    <cfRule type="expression" dxfId="790" priority="434">
+    <cfRule type="expression" dxfId="794" priority="438">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="789" priority="432">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41 D41:L41 E42:H42 C75:L77 G45:J45 G53:J53 A75:A76 A43 A45 A47 A49 A51 A53 A55 A57 A59 A61 A63 A65 A67 A69 A71">
-    <cfRule type="expression" dxfId="788" priority="437">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42 A77 A44 A46 A48 A50 A52 A54 A56 A58 A60 A62 A64 A66 A68 A70 A73">
-    <cfRule type="expression" dxfId="787" priority="436">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B75:B77">
-    <cfRule type="expression" dxfId="786" priority="435">
+    <cfRule type="expression" dxfId="793" priority="436">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41 D41:L41 E42:H42 C76:L78 G45:J45 G53:J53 A76:A77 A43 A45 A47 A49 A51 A53 A55 A57 A59 A61 A63 A65 A67 A69 A71">
+    <cfRule type="expression" dxfId="792" priority="441">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42 A78 A44 A46 A48 A50 A52 A54 A56 A58 A60 A62 A64 A66 A68 A70 A74">
+    <cfRule type="expression" dxfId="791" priority="440">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B76:B78">
+    <cfRule type="expression" dxfId="790" priority="439">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L53">
-    <cfRule type="expression" dxfId="785" priority="433">
+    <cfRule type="expression" dxfId="789" priority="437">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
+    <cfRule type="expression" dxfId="788" priority="435">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="expression" dxfId="787" priority="434">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43:F45 F53">
+    <cfRule type="expression" dxfId="786" priority="433">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="expression" dxfId="785" priority="432">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
     <cfRule type="expression" dxfId="784" priority="431">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
+  <conditionalFormatting sqref="E44">
     <cfRule type="expression" dxfId="783" priority="430">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43:F45 F53">
+  <conditionalFormatting sqref="D44">
     <cfRule type="expression" dxfId="782" priority="429">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="expression" dxfId="781" priority="428">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="expression" dxfId="780" priority="427">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="expression" dxfId="779" priority="426">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="expression" dxfId="778" priority="425">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G55:J55">
-    <cfRule type="expression" dxfId="777" priority="421">
+    <cfRule type="expression" dxfId="781" priority="425">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L55">
-    <cfRule type="expression" dxfId="776" priority="420">
+    <cfRule type="expression" dxfId="780" priority="424">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47:J47 G52:J52 G49:J50">
-    <cfRule type="expression" dxfId="775" priority="424">
+    <cfRule type="expression" dxfId="779" priority="428">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L47 L52 L49:L50">
-    <cfRule type="expression" dxfId="774" priority="423">
+    <cfRule type="expression" dxfId="778" priority="427">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47 F52 F49:F50">
-    <cfRule type="expression" dxfId="773" priority="422">
+    <cfRule type="expression" dxfId="777" priority="426">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
+    <cfRule type="expression" dxfId="776" priority="423">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="expression" dxfId="775" priority="422">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55">
+    <cfRule type="expression" dxfId="774" priority="421">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K45 K52 K49:K50 K47">
+    <cfRule type="expression" dxfId="773" priority="420">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I42">
     <cfRule type="expression" dxfId="772" priority="419">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
+  <conditionalFormatting sqref="G69:J69 L69">
     <cfRule type="expression" dxfId="771" priority="418">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
+  <conditionalFormatting sqref="F69">
     <cfRule type="expression" dxfId="770" priority="417">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K45 K52 K49:K50 K47">
+  <conditionalFormatting sqref="E69">
     <cfRule type="expression" dxfId="769" priority="416">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I42">
+  <conditionalFormatting sqref="D69">
     <cfRule type="expression" dxfId="768" priority="415">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G69:J69 L69">
+  <conditionalFormatting sqref="D68">
     <cfRule type="expression" dxfId="767" priority="414">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F69">
+  <conditionalFormatting sqref="D67">
     <cfRule type="expression" dxfId="766" priority="413">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="expression" dxfId="765" priority="412">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D69">
-    <cfRule type="expression" dxfId="764" priority="411">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
-    <cfRule type="expression" dxfId="763" priority="410">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
-    <cfRule type="expression" dxfId="762" priority="409">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D62:D63">
-    <cfRule type="expression" dxfId="761" priority="377">
+    <cfRule type="expression" dxfId="765" priority="381">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="expression" dxfId="760" priority="374">
+    <cfRule type="expression" dxfId="764" priority="378">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50:E50">
-    <cfRule type="expression" dxfId="759" priority="373">
+    <cfRule type="expression" dxfId="763" priority="377">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K53 K60:K61 K57:K58 K55">
-    <cfRule type="expression" dxfId="758" priority="366">
+    <cfRule type="expression" dxfId="762" priority="370">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52:E52">
-    <cfRule type="expression" dxfId="757" priority="372">
+    <cfRule type="expression" dxfId="761" priority="376">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53:E53">
-    <cfRule type="expression" dxfId="756" priority="371">
+    <cfRule type="expression" dxfId="760" priority="375">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="expression" dxfId="755" priority="370">
+    <cfRule type="expression" dxfId="759" priority="374">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K69">
-    <cfRule type="expression" dxfId="754" priority="369">
+    <cfRule type="expression" dxfId="758" priority="373">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K62:K63">
-    <cfRule type="expression" dxfId="753" priority="367">
+    <cfRule type="expression" dxfId="757" priority="371">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:J58">
+    <cfRule type="expression" dxfId="756" priority="388">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60:J60">
+    <cfRule type="expression" dxfId="755" priority="387">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61:J61">
+    <cfRule type="expression" dxfId="754" priority="386">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62:C63 E62:J63 L62:L63">
+    <cfRule type="expression" dxfId="753" priority="385">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B55 B60:B61 B57:B58">
     <cfRule type="expression" dxfId="752" priority="384">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C60:J60">
+  <conditionalFormatting sqref="D66">
     <cfRule type="expression" dxfId="751" priority="383">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C61:J61">
+  <conditionalFormatting sqref="D64">
     <cfRule type="expression" dxfId="750" priority="382">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B62:C63 E62:J63 L62:L63">
-    <cfRule type="expression" dxfId="749" priority="381">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B55 B60:B61 B57:B58">
-    <cfRule type="expression" dxfId="748" priority="380">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
-    <cfRule type="expression" dxfId="747" priority="379">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="expression" dxfId="746" priority="378">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D49:E49">
-    <cfRule type="expression" dxfId="745" priority="376">
+    <cfRule type="expression" dxfId="749" priority="380">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="expression" dxfId="744" priority="375">
+    <cfRule type="expression" dxfId="748" priority="379">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K66">
-    <cfRule type="expression" dxfId="743" priority="368">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C173">
-    <cfRule type="expression" dxfId="742" priority="339">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B178:C178 F178:J178 L178">
-    <cfRule type="expression" dxfId="741" priority="337">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B173">
-    <cfRule type="expression" dxfId="740" priority="338">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A179:A180">
-    <cfRule type="expression" dxfId="739" priority="346">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J173:L173 D173">
+    <cfRule type="expression" dxfId="747" priority="372">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C174">
+    <cfRule type="expression" dxfId="746" priority="343">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B179:C179 F179:J179 L179">
+    <cfRule type="expression" dxfId="745" priority="341">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B174">
+    <cfRule type="expression" dxfId="744" priority="342">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A180:A181">
+    <cfRule type="expression" dxfId="743" priority="350">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J174:L174 D174">
+    <cfRule type="expression" dxfId="742" priority="349">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A173 D173:L173 E174:H174 C180:L182">
+    <cfRule type="expression" dxfId="741" priority="348">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B180:B182">
+    <cfRule type="expression" dxfId="740" priority="346">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A174 A182 A176 A178">
+    <cfRule type="expression" dxfId="739" priority="347">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B173:C173">
     <cfRule type="expression" dxfId="738" priority="345">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A172 D172:L172 E173:H173 C179:L181">
+  <conditionalFormatting sqref="I174">
     <cfRule type="expression" dxfId="737" priority="344">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B179:B181">
-    <cfRule type="expression" dxfId="736" priority="342">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A173 A181 A175 A177">
-    <cfRule type="expression" dxfId="735" priority="343">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B172:C172">
-    <cfRule type="expression" dxfId="734" priority="341">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I173">
-    <cfRule type="expression" dxfId="733" priority="340">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B51:C51">
+    <cfRule type="expression" dxfId="736" priority="291">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G51:J51">
+    <cfRule type="expression" dxfId="735" priority="290">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L51">
+    <cfRule type="expression" dxfId="734" priority="289">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F51">
+    <cfRule type="expression" dxfId="733" priority="288">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K51">
     <cfRule type="expression" dxfId="732" priority="287">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G51:J51">
+  <conditionalFormatting sqref="D51:E51">
     <cfRule type="expression" dxfId="731" priority="286">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L51">
+  <conditionalFormatting sqref="L59">
     <cfRule type="expression" dxfId="730" priority="285">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F51">
-    <cfRule type="expression" dxfId="729" priority="284">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K51">
-    <cfRule type="expression" dxfId="728" priority="283">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51:E51">
-    <cfRule type="expression" dxfId="727" priority="282">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L59">
-    <cfRule type="expression" dxfId="726" priority="281">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K59">
-    <cfRule type="expression" dxfId="725" priority="278">
+    <cfRule type="expression" dxfId="729" priority="282">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:J59">
-    <cfRule type="expression" dxfId="724" priority="280">
+    <cfRule type="expression" dxfId="728" priority="284">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59">
-    <cfRule type="expression" dxfId="723" priority="279">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C136">
+    <cfRule type="expression" dxfId="727" priority="283">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C137">
+    <cfRule type="expression" dxfId="726" priority="195">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B138:E138 F138:L139">
+    <cfRule type="expression" dxfId="725" priority="193">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B137">
+    <cfRule type="expression" dxfId="724" priority="194">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A138">
+    <cfRule type="expression" dxfId="723" priority="192">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A139">
     <cfRule type="expression" dxfId="722" priority="191">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B137:E137 F137:L138">
-    <cfRule type="expression" dxfId="721" priority="189">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B136">
-    <cfRule type="expression" dxfId="720" priority="190">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A137">
-    <cfRule type="expression" dxfId="719" priority="188">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A138">
-    <cfRule type="expression" dxfId="718" priority="187">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A139:A140">
+  <conditionalFormatting sqref="A140:A141">
+    <cfRule type="expression" dxfId="721" priority="202">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B139">
+    <cfRule type="expression" dxfId="720" priority="189">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J137:L137 D137">
+    <cfRule type="expression" dxfId="719" priority="201">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A136 D136:L136 E137:H137 C140:L142">
+    <cfRule type="expression" dxfId="718" priority="200">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B140:B142">
     <cfRule type="expression" dxfId="717" priority="198">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B138">
-    <cfRule type="expression" dxfId="716" priority="185">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J136:L136 D136">
+  <conditionalFormatting sqref="A137 A142">
+    <cfRule type="expression" dxfId="716" priority="199">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B136:C136">
     <cfRule type="expression" dxfId="715" priority="197">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A135 D135:L135 E136:H136 C139:L141">
+  <conditionalFormatting sqref="I137">
     <cfRule type="expression" dxfId="714" priority="196">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B139:B141">
-    <cfRule type="expression" dxfId="713" priority="194">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A136 A141">
-    <cfRule type="expression" dxfId="712" priority="195">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B135:C135">
-    <cfRule type="expression" dxfId="711" priority="193">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I136">
-    <cfRule type="expression" dxfId="710" priority="192">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E138">
-    <cfRule type="expression" dxfId="709" priority="184">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D138">
-    <cfRule type="expression" dxfId="708" priority="183">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C138">
-    <cfRule type="expression" dxfId="707" priority="186">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B111:E111 G113:L117 F118:L119">
-    <cfRule type="expression" dxfId="706" priority="177">
+  <conditionalFormatting sqref="E139">
+    <cfRule type="expression" dxfId="713" priority="188">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D139">
+    <cfRule type="expression" dxfId="712" priority="187">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C139">
+    <cfRule type="expression" dxfId="711" priority="190">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B112:E112 G114:L118 F119:L120">
+    <cfRule type="expression" dxfId="710" priority="181">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F118">
+    <cfRule type="expression" dxfId="709" priority="175">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A112 A114 A116 A118 A120">
+    <cfRule type="expression" dxfId="708" priority="180">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D179">
+    <cfRule type="expression" dxfId="707" priority="174">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A121:A122">
+    <cfRule type="expression" dxfId="706" priority="186">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A123">
+    <cfRule type="expression" dxfId="705" priority="184">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A111 D111:L111 C121:L123 A113 A115 A117 A119">
+    <cfRule type="expression" dxfId="704" priority="185">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B121:B123">
+    <cfRule type="expression" dxfId="703" priority="183">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B111:C111">
+    <cfRule type="expression" dxfId="702" priority="182">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F117">
-    <cfRule type="expression" dxfId="705" priority="171">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A111 A113 A115 A117 A119">
-    <cfRule type="expression" dxfId="704" priority="176">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D178">
-    <cfRule type="expression" dxfId="703" priority="170">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A120:A121">
-    <cfRule type="expression" dxfId="702" priority="182">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A122">
-    <cfRule type="expression" dxfId="701" priority="180">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A110 D110:L110 C120:L122 A112 A114 A116 A118">
-    <cfRule type="expression" dxfId="700" priority="181">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B120:B122">
-    <cfRule type="expression" dxfId="699" priority="179">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B110:C110">
-    <cfRule type="expression" dxfId="698" priority="178">
+    <cfRule type="expression" dxfId="701" priority="176">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F114">
+    <cfRule type="expression" dxfId="700" priority="179">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F115">
+    <cfRule type="expression" dxfId="699" priority="178">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F116">
-    <cfRule type="expression" dxfId="697" priority="172">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F113">
-    <cfRule type="expression" dxfId="696" priority="175">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F114">
-    <cfRule type="expression" dxfId="695" priority="174">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F115">
-    <cfRule type="expression" dxfId="694" priority="173">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E178">
-    <cfRule type="expression" dxfId="693" priority="169">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B95:B97">
-    <cfRule type="expression" dxfId="692" priority="132">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A97">
-    <cfRule type="expression" dxfId="691" priority="133">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A90 D90:L90 C95:L97 A92 A94">
-    <cfRule type="expression" dxfId="690" priority="134">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B91:E91 F91:L93 G94:L94">
+    <cfRule type="expression" dxfId="698" priority="177">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E179">
+    <cfRule type="expression" dxfId="697" priority="173">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B96:B98">
+    <cfRule type="expression" dxfId="696" priority="136">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A98">
+    <cfRule type="expression" dxfId="695" priority="137">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A91 D91:L91 C96:L98 A93 A95">
+    <cfRule type="expression" dxfId="694" priority="138">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B92:E92 F92:L94 G95:L95">
+    <cfRule type="expression" dxfId="693" priority="134">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A92 A94">
+    <cfRule type="expression" dxfId="692" priority="133">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B93:B95">
+    <cfRule type="expression" dxfId="691" priority="131">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A96:A97">
+    <cfRule type="expression" dxfId="690" priority="139">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93:E95">
     <cfRule type="expression" dxfId="689" priority="130">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A91 A93">
-    <cfRule type="expression" dxfId="688" priority="129">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B92:B94">
-    <cfRule type="expression" dxfId="687" priority="127">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A95:A96">
-    <cfRule type="expression" dxfId="686" priority="135">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92:E94">
-    <cfRule type="expression" dxfId="685" priority="126">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B90:C90">
-    <cfRule type="expression" dxfId="684" priority="131">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D92:D94">
-    <cfRule type="expression" dxfId="683" priority="125">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C92:C94">
-    <cfRule type="expression" dxfId="682" priority="128">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F94">
-    <cfRule type="expression" dxfId="681" priority="124">
+  <conditionalFormatting sqref="B91:C91">
+    <cfRule type="expression" dxfId="688" priority="135">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D93:D95">
+    <cfRule type="expression" dxfId="687" priority="129">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C93:C95">
+    <cfRule type="expression" dxfId="686" priority="132">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F95">
+    <cfRule type="expression" dxfId="685" priority="128">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:C48">
+    <cfRule type="expression" dxfId="684" priority="122">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G48:J48">
+    <cfRule type="expression" dxfId="683" priority="121">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L48">
+    <cfRule type="expression" dxfId="682" priority="120">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48">
+    <cfRule type="expression" dxfId="681" priority="119">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48">
     <cfRule type="expression" dxfId="680" priority="118">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G48:J48">
+  <conditionalFormatting sqref="D48:E48">
     <cfRule type="expression" dxfId="679" priority="117">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L48">
+  <conditionalFormatting sqref="L56 C56:J56">
     <cfRule type="expression" dxfId="678" priority="116">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F48">
-    <cfRule type="expression" dxfId="677" priority="115">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K48">
-    <cfRule type="expression" dxfId="676" priority="114">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:E48">
+  <conditionalFormatting sqref="K56">
+    <cfRule type="expression" dxfId="677" priority="114">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B56">
+    <cfRule type="expression" dxfId="676" priority="115">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
     <cfRule type="expression" dxfId="675" priority="113">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L56 C56:J56">
+  <conditionalFormatting sqref="E71:L71 B71:C71 B74:C74 E74:J74 L74">
     <cfRule type="expression" dxfId="674" priority="112">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K56">
-    <cfRule type="expression" dxfId="673" priority="110">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B56">
-    <cfRule type="expression" dxfId="672" priority="111">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
+  <conditionalFormatting sqref="B70:C70 E70:J70 L70">
+    <cfRule type="expression" dxfId="673" priority="111">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D71">
+    <cfRule type="expression" dxfId="672" priority="110">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D74">
     <cfRule type="expression" dxfId="671" priority="109">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E71:L71 B71:C71 B73:C73 E73:L73">
+  <conditionalFormatting sqref="D70">
     <cfRule type="expression" dxfId="670" priority="108">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B70:C70 E70:J70 L70">
+  <conditionalFormatting sqref="K70">
     <cfRule type="expression" dxfId="669" priority="107">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D71">
+  <conditionalFormatting sqref="B46:C46">
     <cfRule type="expression" dxfId="668" priority="106">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D73">
+  <conditionalFormatting sqref="G46:J46">
     <cfRule type="expression" dxfId="667" priority="105">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D70">
+  <conditionalFormatting sqref="L46">
     <cfRule type="expression" dxfId="666" priority="104">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K70">
+  <conditionalFormatting sqref="F46">
     <cfRule type="expression" dxfId="665" priority="103">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B46:C46">
+  <conditionalFormatting sqref="K46">
     <cfRule type="expression" dxfId="664" priority="102">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G46:J46">
-    <cfRule type="expression" dxfId="663" priority="101">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L46">
-    <cfRule type="expression" dxfId="662" priority="100">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
+  <conditionalFormatting sqref="D46">
+    <cfRule type="expression" dxfId="663" priority="100">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="expression" dxfId="662" priority="101">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
     <cfRule type="expression" dxfId="661" priority="99">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K46">
+  <conditionalFormatting sqref="G54:J54">
     <cfRule type="expression" dxfId="660" priority="98">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="expression" dxfId="659" priority="96">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="expression" dxfId="658" priority="97">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
+  <conditionalFormatting sqref="L54">
+    <cfRule type="expression" dxfId="659" priority="97">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="expression" dxfId="658" priority="96">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
     <cfRule type="expression" dxfId="657" priority="95">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G54:J54">
+  <conditionalFormatting sqref="F54">
     <cfRule type="expression" dxfId="656" priority="94">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L54">
-    <cfRule type="expression" dxfId="655" priority="93">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="654" priority="92">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
+  <conditionalFormatting sqref="K54">
+    <cfRule type="expression" dxfId="655" priority="92">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54">
+    <cfRule type="expression" dxfId="654" priority="93">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13:H15 F12:L12 C26:L28 A12:C12">
     <cfRule type="expression" dxfId="653" priority="91">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
-    <cfRule type="expression" dxfId="652" priority="90">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K54">
-    <cfRule type="expression" dxfId="651" priority="88">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B54">
-    <cfRule type="expression" dxfId="650" priority="89">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13:H15 F12:L12 C26:L28 A12:C12">
-    <cfRule type="expression" dxfId="649" priority="87">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I14:I15">
-    <cfRule type="expression" dxfId="648" priority="82">
+    <cfRule type="expression" dxfId="652" priority="86">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B28">
-    <cfRule type="expression" dxfId="647" priority="83">
+    <cfRule type="expression" dxfId="651" priority="87">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27 C13:C15">
-    <cfRule type="expression" dxfId="646" priority="86">
+    <cfRule type="expression" dxfId="650" priority="90">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:A15 A26 A28 K13 L14:L15">
-    <cfRule type="expression" dxfId="645" priority="85">
+    <cfRule type="expression" dxfId="649" priority="89">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13 B15">
-    <cfRule type="expression" dxfId="644" priority="84">
+    <cfRule type="expression" dxfId="648" priority="88">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E15">
-    <cfRule type="expression" dxfId="643" priority="81">
+    <cfRule type="expression" dxfId="647" priority="85">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D14">
-    <cfRule type="expression" dxfId="642" priority="80">
+    <cfRule type="expression" dxfId="646" priority="84">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:J15">
-    <cfRule type="expression" dxfId="641" priority="79">
+    <cfRule type="expression" dxfId="645" priority="83">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="expression" dxfId="640" priority="77">
+    <cfRule type="expression" dxfId="644" priority="81">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
+    <cfRule type="expression" dxfId="643" priority="79">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="642" priority="77">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L13">
+    <cfRule type="expression" dxfId="641" priority="70">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16:J16 L16">
+    <cfRule type="expression" dxfId="640" priority="82">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
     <cfRule type="expression" dxfId="639" priority="75">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="638" priority="73">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L13">
-    <cfRule type="expression" dxfId="637" priority="66">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16:J16 L16">
-    <cfRule type="expression" dxfId="636" priority="78">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="635" priority="71">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="634" priority="76">
+    <cfRule type="expression" dxfId="638" priority="80">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="expression" dxfId="633" priority="69">
+    <cfRule type="expression" dxfId="637" priority="73">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="632" priority="67">
+    <cfRule type="expression" dxfId="636" priority="71">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="expression" dxfId="631" priority="70">
+    <cfRule type="expression" dxfId="635" priority="74">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
+    <cfRule type="expression" dxfId="634" priority="72">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="633" priority="78">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="expression" dxfId="632" priority="76">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="631" priority="66">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:C17">
     <cfRule type="expression" dxfId="630" priority="68">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="629" priority="74">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="628" priority="72">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="627" priority="62">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17:C17">
+  <conditionalFormatting sqref="A17 F17:L17">
+    <cfRule type="expression" dxfId="629" priority="69">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="expression" dxfId="628" priority="67">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19 A21 A23 A25">
+    <cfRule type="expression" dxfId="627" priority="65">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18 A20 A22 A24">
     <cfRule type="expression" dxfId="626" priority="64">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17 F17:L17">
-    <cfRule type="expression" dxfId="625" priority="65">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="624" priority="63">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19 A21 A23 A25">
-    <cfRule type="expression" dxfId="623" priority="61">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18 A20 A22 A24">
-    <cfRule type="expression" dxfId="622" priority="60">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B20:L20">
-    <cfRule type="expression" dxfId="621" priority="48">
+    <cfRule type="expression" dxfId="625" priority="52">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="expression" dxfId="620" priority="46">
+    <cfRule type="expression" dxfId="624" priority="50">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:L19">
-    <cfRule type="expression" dxfId="619" priority="45">
+    <cfRule type="expression" dxfId="623" priority="49">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:L22">
-    <cfRule type="expression" dxfId="618" priority="59">
+    <cfRule type="expression" dxfId="622" priority="63">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L24 B24:D24">
+    <cfRule type="expression" dxfId="621" priority="62">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="expression" dxfId="620" priority="59">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24:H24">
+    <cfRule type="expression" dxfId="619" priority="61">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24">
+    <cfRule type="expression" dxfId="618" priority="60">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24">
     <cfRule type="expression" dxfId="617" priority="58">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
-    <cfRule type="expression" dxfId="616" priority="55">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24:H24">
-    <cfRule type="expression" dxfId="615" priority="57">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J24">
+  <conditionalFormatting sqref="L23 B23:D23">
+    <cfRule type="expression" dxfId="616" priority="57">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="expression" dxfId="615" priority="54">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23:H23">
     <cfRule type="expression" dxfId="614" priority="56">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K24">
-    <cfRule type="expression" dxfId="613" priority="54">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L23 B23:D23">
+  <conditionalFormatting sqref="J23">
+    <cfRule type="expression" dxfId="613" priority="55">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
     <cfRule type="expression" dxfId="612" priority="53">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="611" priority="50">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23:H23">
-    <cfRule type="expression" dxfId="610" priority="52">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
-    <cfRule type="expression" dxfId="609" priority="51">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
-    <cfRule type="expression" dxfId="608" priority="49">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C25:L25">
-    <cfRule type="expression" dxfId="607" priority="47">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C155">
-    <cfRule type="expression" dxfId="606" priority="37">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B156:C156 F156:L156">
-    <cfRule type="expression" dxfId="605" priority="35">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B155">
-    <cfRule type="expression" dxfId="604" priority="36">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A156">
-    <cfRule type="expression" dxfId="603" priority="34">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A157:A158">
-    <cfRule type="expression" dxfId="602" priority="44">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J155:L155 D155">
+    <cfRule type="expression" dxfId="611" priority="51">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C156">
+    <cfRule type="expression" dxfId="610" priority="41">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B157:C157 F157:L157">
+    <cfRule type="expression" dxfId="609" priority="39">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B156">
+    <cfRule type="expression" dxfId="608" priority="40">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A157">
+    <cfRule type="expression" dxfId="607" priority="38">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A158:A159">
+    <cfRule type="expression" dxfId="606" priority="48">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J156:L156 D156">
+    <cfRule type="expression" dxfId="605" priority="47">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A155 D155:L155 E156:H156 C158:L160">
+    <cfRule type="expression" dxfId="604" priority="46">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B158:B160">
+    <cfRule type="expression" dxfId="603" priority="44">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A156 A160">
+    <cfRule type="expression" dxfId="602" priority="45">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B155:C155">
     <cfRule type="expression" dxfId="601" priority="43">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A154 D154:L154 E155:H155 C157:L159">
+  <conditionalFormatting sqref="I156">
     <cfRule type="expression" dxfId="600" priority="42">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B157:B159">
-    <cfRule type="expression" dxfId="599" priority="40">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A155 A159">
-    <cfRule type="expression" dxfId="598" priority="41">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B154:C154">
-    <cfRule type="expression" dxfId="597" priority="39">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I155">
-    <cfRule type="expression" dxfId="596" priority="38">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D156">
-    <cfRule type="expression" dxfId="595" priority="33">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E156">
-    <cfRule type="expression" dxfId="594" priority="32">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B176:C176 F176:J176 L176">
-    <cfRule type="expression" dxfId="593" priority="31">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D176">
-    <cfRule type="expression" dxfId="592" priority="29">
+  <conditionalFormatting sqref="D157">
+    <cfRule type="expression" dxfId="599" priority="37">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E157">
+    <cfRule type="expression" dxfId="598" priority="36">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B177:C177 F177:J177 L177">
+    <cfRule type="expression" dxfId="597" priority="35">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D177">
+    <cfRule type="expression" dxfId="596" priority="33">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E177">
+    <cfRule type="expression" dxfId="595" priority="32">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B176 F176:L176">
+    <cfRule type="expression" dxfId="594" priority="31">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E176">
-    <cfRule type="expression" dxfId="591" priority="28">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B175 F175:L175">
-    <cfRule type="expression" dxfId="590" priority="27">
+    <cfRule type="expression" dxfId="593" priority="28">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F175:L175">
+    <cfRule type="expression" dxfId="592" priority="27">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A175 A177 A179">
+    <cfRule type="expression" dxfId="591" priority="26">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D175">
+    <cfRule type="expression" dxfId="590" priority="25">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32732,112 +32844,112 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F174:L174">
+  <conditionalFormatting sqref="B175">
     <cfRule type="expression" dxfId="588" priority="23">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A174 A176 A178">
+  <conditionalFormatting sqref="C175">
     <cfRule type="expression" dxfId="587" priority="22">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D174">
+  <conditionalFormatting sqref="C176">
     <cfRule type="expression" dxfId="586" priority="21">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E174">
+  <conditionalFormatting sqref="B178:C178 F178:J178 L178">
     <cfRule type="expression" dxfId="585" priority="20">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B174">
-    <cfRule type="expression" dxfId="584" priority="19">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C174">
-    <cfRule type="expression" dxfId="583" priority="18">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C175">
-    <cfRule type="expression" dxfId="582" priority="17">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B177:C177 F177:J177 L177">
-    <cfRule type="expression" dxfId="581" priority="16">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D177">
+  <conditionalFormatting sqref="D178">
+    <cfRule type="expression" dxfId="584" priority="18">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E178">
+    <cfRule type="expression" dxfId="583" priority="17">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K177">
+    <cfRule type="expression" dxfId="582" priority="16">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K178">
+    <cfRule type="expression" dxfId="581" priority="15">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K179">
     <cfRule type="expression" dxfId="580" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E177">
+  <conditionalFormatting sqref="D176">
     <cfRule type="expression" dxfId="579" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K176">
+  <conditionalFormatting sqref="A75">
     <cfRule type="expression" dxfId="578" priority="12">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K177">
+  <conditionalFormatting sqref="B75:C75 E75:J75 L75">
     <cfRule type="expression" dxfId="577" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K178">
+  <conditionalFormatting sqref="D75">
     <cfRule type="expression" dxfId="576" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D175">
+  <conditionalFormatting sqref="K75">
     <cfRule type="expression" dxfId="575" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A74">
+  <conditionalFormatting sqref="A72">
     <cfRule type="expression" dxfId="574" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B74:C74 E74:J74 L74">
+  <conditionalFormatting sqref="B72:C72 E72:J72 L72">
     <cfRule type="expression" dxfId="573" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D74">
+  <conditionalFormatting sqref="D72">
     <cfRule type="expression" dxfId="572" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K72">
+    <cfRule type="expression" dxfId="571" priority="5">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A73">
+    <cfRule type="expression" dxfId="7" priority="4">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B73:C73 E73:L73">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D73">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K74">
-    <cfRule type="expression" dxfId="571" priority="5">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72">
-    <cfRule type="expression" dxfId="7" priority="4">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B72:C72 E72:J72 L72">
-    <cfRule type="expression" dxfId="5" priority="3">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D72">
-    <cfRule type="expression" dxfId="3" priority="2">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K72">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -32847,9 +32959,9 @@
   <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="4" manualBreakCount="4">
     <brk id="29" max="11" man="1"/>
-    <brk id="78" max="11" man="1"/>
-    <brk id="123" max="11" man="1"/>
-    <brk id="160" max="11" man="1"/>
+    <brk id="79" max="11" man="1"/>
+    <brk id="124" max="11" man="1"/>
+    <brk id="161" max="11" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
